--- a/grammar-basicTerms/Grammar-基本詞彙.xlsx
+++ b/grammar-basicTerms/Grammar-基本詞彙.xlsx
@@ -7,9 +7,7 @@
     <sheet state="visible" name="Sakizaya" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Seediq" sheetId="3" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">Seediq!$D$1:$D$643</definedName>
-  </definedNames>
+  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
@@ -11618,7 +11616,7 @@
     <t>ckceka</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19-71A7UJHoTtihrCs6XUAPq8NhwWaS4X/view?usp=drive_link</t>
+    <t>Seediq_A2-3-3 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-3-4.mp3</t>
@@ -11732,7 +11730,7 @@
     <t>daha; dheya; ndheya</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1r9PxZ3nRsl8L5-_ZY_HFtdEaUMwt2q5V/view?usp=drive_link</t>
+    <t>Seediq_A2-4-4 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-4-6.mp3</t>
@@ -12146,7 +12144,7 @@
     <t>hginuk / hwinuk</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/17oElBWqqmPT9jv6Hzg6aqUderDwARg9M/view?usp=drive_link</t>
+    <t>Seediq_A2-7-10 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-7-15.mp3</t>
@@ -12167,7 +12165,7 @@
     <t>hiya / hii</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1vQNDBtlCwWfmd9T8YXyr-UYUPDk5Soc-/view?usp=drive_link</t>
+    <t>Seediq_A2-7-13 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-7-18.mp3</t>
@@ -12179,7 +12177,7 @@
     <t>堂、表兄弟姐妹</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1_P6rvSpR728W5kW2gCDF8z-hP9kAIoqa/view?usp=drive_link</t>
+    <t>Seediq_A2-7-14.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-7-19.mp3</t>
@@ -12761,7 +12759,7 @@
     <t>分配（東西）</t>
   </si>
   <si>
-    <t>http://ABSENT</t>
+    <t>ABSENT</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-11-9.mp3</t>
@@ -13673,7 +13671,7 @@
     <t>na; heya; nheya</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/14YYGTAFB_Vp-CkFjlfiGcScsgDz2kyhe/view?usp=drive_link</t>
+    <t>Seediq_A2-12-1 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-12-10.mp3</t>
@@ -13967,7 +13965,7 @@
     <t>paye / pae</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1QEgTLVONfCmFOOsGVLKckNQxasEmMBgs/view?usp=drive_link</t>
+    <t>Seediq_A2-14-7 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-14-19.mp3</t>
@@ -13976,7 +13974,7 @@
     <t>pberih; mutaq</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1pMMSD6VTa5L3p4Mou_UuF3JWs0CjD4w-/view?usp=drive_link</t>
+    <t>Seediq_A2-14-8 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-14-20.mp3</t>
@@ -14039,7 +14037,7 @@
     <t>Plmukan; Klmukan</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1yfeAD3sU9QS8gdEtWlDFLfIlkwvhFAGh/view?usp=drive_link</t>
+    <t>Seediq_A2-14-18 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-14-30.mp3</t>
@@ -14354,7 +14352,7 @@
     <t>qpatun/ qpatur</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1m3YRZmSEQMS-WjOuHUBOJK_0SPkFVKWA/view?usp=drive_link</t>
+    <t>Seediq_A2-15-33-2.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-16-1.mp3</t>
@@ -14735,7 +14733,7 @@
     <t>sapah pyasan</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1y1p5w2SK9i5Ybfg6U3yZ4PPzBl2QPKKb/view?usp=drive_link</t>
+    <t>Seediq_A2-17-5 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-17-19.mp3</t>
@@ -14786,7 +14784,7 @@
     <t>seediq msapuh; ising</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1HeynhAgCBAYINJrdRJxMhWTfoDanzDOy/view?usp=drive_link</t>
+    <t>Seediq_A2-17-13 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-17-27.mp3</t>
@@ -15122,7 +15120,7 @@
     <t>sunguc</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1GyQmXOAY-Yco7mUX02jilEPpg2VqFYDa/view?usp=drive_link</t>
+    <t>Seediq_A2-17-62.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-18-11.mp3</t>
@@ -15131,7 +15129,7 @@
     <t>sunan</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1aN-IY610pU_0pk-LRisXRvNNBsnnefxo/view?usp=drive_link</t>
+    <t>Seediq_A2-17-63.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-18-12.mp3</t>
@@ -15152,7 +15150,7 @@
     <t>swai rseno; swai mqedil</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/14a2wIc14F7W2IDzXYGiLRUYGamDJJX3Q/view?usp=drive_link</t>
+    <t>Seediq_A2-17-66 n.mp3</t>
   </si>
   <si>
     <t>http://ilrdc.tw/grammar/sound/5/A2-18-15.mp3</t>
@@ -15546,7 +15544,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -15583,6 +15581,11 @@
     </font>
     <font>
       <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
@@ -15592,8 +15595,9 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -15601,8 +15605,13 @@
       <name val="新細明體"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
       <u/>
-      <color rgb="FF1155CC"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -15626,7 +15635,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -15660,32 +15669,59 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -15695,6 +15731,28 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFF6D01"/>
           <bgColor rgb="FFFF6D01"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
       <border/>
@@ -38566,7 +38624,7 @@
     <col customWidth="1" min="1" max="1" width="25.88"/>
     <col customWidth="1" min="2" max="2" width="31.0"/>
     <col customWidth="1" min="3" max="3" width="11.0"/>
-    <col customWidth="1" min="4" max="4" width="50.0"/>
+    <col customWidth="1" min="4" max="4" width="36.63"/>
     <col customWidth="1" min="5" max="5" width="35.75"/>
   </cols>
   <sheetData>
@@ -38580,7 +38638,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -38597,7 +38655,7 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="7" t="s">
         <v>3707</v>
       </c>
@@ -38612,7 +38670,7 @@
       <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="7" t="s">
         <v>3709</v>
       </c>
@@ -38627,7 +38685,7 @@
       <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="7" t="s">
         <v>3711</v>
       </c>
@@ -38642,7 +38700,7 @@
       <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="7" t="s">
         <v>3714</v>
       </c>
@@ -38657,7 +38715,7 @@
       <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="7" t="s">
         <v>3716</v>
       </c>
@@ -38672,7 +38730,7 @@
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="7" t="s">
         <v>3719</v>
       </c>
@@ -38687,7 +38745,7 @@
       <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="7" t="s">
         <v>3721</v>
       </c>
@@ -38702,7 +38760,7 @@
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="7" t="s">
         <v>3724</v>
       </c>
@@ -38717,7 +38775,7 @@
       <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="7" t="s">
         <v>3727</v>
       </c>
@@ -38732,7 +38790,7 @@
       <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="7" t="s">
         <v>3729</v>
       </c>
@@ -38747,7 +38805,7 @@
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="7" t="s">
         <v>3731</v>
       </c>
@@ -38762,7 +38820,7 @@
       <c r="C13" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="7" t="s">
         <v>3733</v>
       </c>
@@ -38777,7 +38835,7 @@
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="7" t="s">
         <v>3735</v>
       </c>
@@ -38792,7 +38850,7 @@
       <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="7" t="s">
         <v>3738</v>
       </c>
@@ -38807,8 +38865,8 @@
       <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14" t="s">
         <v>3740</v>
       </c>
     </row>
@@ -38822,7 +38880,7 @@
       <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="7" t="s">
         <v>3742</v>
       </c>
@@ -38837,7 +38895,7 @@
       <c r="C18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="7" t="s">
         <v>3744</v>
       </c>
@@ -38852,7 +38910,7 @@
       <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="7" t="s">
         <v>3746</v>
       </c>
@@ -38867,7 +38925,7 @@
       <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="7" t="s">
         <v>3749</v>
       </c>
@@ -38882,13 +38940,13 @@
       <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="7" t="s">
         <v>3751</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="15" t="s">
         <v>3752</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -38897,7 +38955,7 @@
       <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="7" t="s">
         <v>3753</v>
       </c>
@@ -38912,7 +38970,7 @@
       <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="7" t="s">
         <v>3756</v>
       </c>
@@ -38927,7 +38985,7 @@
       <c r="C24" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="7" t="s">
         <v>3759</v>
       </c>
@@ -38942,7 +39000,7 @@
       <c r="C25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="7" t="s">
         <v>3762</v>
       </c>
@@ -38957,7 +39015,7 @@
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="7" t="s">
         <v>3764</v>
       </c>
@@ -38972,7 +39030,7 @@
       <c r="C27" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="7" t="s">
         <v>3767</v>
       </c>
@@ -38987,7 +39045,7 @@
       <c r="C28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="7" t="s">
         <v>3770</v>
       </c>
@@ -39002,7 +39060,7 @@
       <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="7" t="s">
         <v>3772</v>
       </c>
@@ -39017,7 +39075,7 @@
       <c r="C30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="7" t="s">
         <v>3775</v>
       </c>
@@ -39032,7 +39090,7 @@
       <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="7" t="s">
         <v>3777</v>
       </c>
@@ -39047,7 +39105,7 @@
       <c r="C32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="7" t="s">
         <v>3779</v>
       </c>
@@ -39062,7 +39120,7 @@
       <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="7" t="s">
         <v>3781</v>
       </c>
@@ -39077,7 +39135,7 @@
       <c r="C34" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="7" t="s">
         <v>3783</v>
       </c>
@@ -39092,7 +39150,7 @@
       <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="7" t="s">
         <v>3785</v>
       </c>
@@ -39107,7 +39165,7 @@
       <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="7" t="s">
         <v>3787</v>
       </c>
@@ -39122,7 +39180,7 @@
       <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="7" t="s">
         <v>3789</v>
       </c>
@@ -39137,7 +39195,7 @@
       <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="7" t="s">
         <v>3791</v>
       </c>
@@ -39152,7 +39210,7 @@
       <c r="C39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="7" t="s">
         <v>3793</v>
       </c>
@@ -39167,7 +39225,7 @@
       <c r="C40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="13"/>
       <c r="E40" s="7" t="s">
         <v>3795</v>
       </c>
@@ -39182,7 +39240,7 @@
       <c r="C41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="7" t="s">
         <v>3798</v>
       </c>
@@ -39197,7 +39255,7 @@
       <c r="C42" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="7" t="s">
         <v>3800</v>
       </c>
@@ -39212,7 +39270,7 @@
       <c r="C43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="13"/>
       <c r="E43" s="7" t="s">
         <v>3802</v>
       </c>
@@ -39227,7 +39285,7 @@
       <c r="C44" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="13"/>
       <c r="E44" s="7" t="s">
         <v>3804</v>
       </c>
@@ -39242,7 +39300,7 @@
       <c r="C45" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="13"/>
       <c r="E45" s="7" t="s">
         <v>3807</v>
       </c>
@@ -39257,7 +39315,7 @@
       <c r="C46" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="13"/>
       <c r="E46" s="7" t="s">
         <v>3810</v>
       </c>
@@ -39272,7 +39330,7 @@
       <c r="C47" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="13"/>
       <c r="E47" s="7" t="s">
         <v>3813</v>
       </c>
@@ -39287,7 +39345,7 @@
       <c r="C48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="13"/>
       <c r="E48" s="7" t="s">
         <v>3815</v>
       </c>
@@ -39302,7 +39360,7 @@
       <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="13"/>
       <c r="E49" s="7" t="s">
         <v>3818</v>
       </c>
@@ -39317,7 +39375,7 @@
       <c r="C50" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="13"/>
       <c r="E50" s="7" t="s">
         <v>3821</v>
       </c>
@@ -39332,7 +39390,7 @@
       <c r="C51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="7" t="s">
         <v>3823</v>
       </c>
@@ -39347,7 +39405,7 @@
       <c r="C52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="3"/>
+      <c r="D52" s="13"/>
       <c r="E52" s="7" t="s">
         <v>3825</v>
       </c>
@@ -39362,7 +39420,7 @@
       <c r="C53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="7" t="s">
         <v>3827</v>
       </c>
@@ -39377,7 +39435,7 @@
       <c r="C54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54" s="13"/>
       <c r="E54" s="7" t="s">
         <v>3829</v>
       </c>
@@ -39392,7 +39450,7 @@
       <c r="C55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="3"/>
+      <c r="D55" s="13"/>
       <c r="E55" s="7" t="s">
         <v>3832</v>
       </c>
@@ -39407,7 +39465,7 @@
       <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="3"/>
+      <c r="D56" s="13"/>
       <c r="E56" s="7" t="s">
         <v>3834</v>
       </c>
@@ -39422,7 +39480,7 @@
       <c r="C57" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="7" t="s">
         <v>3836</v>
       </c>
@@ -39437,7 +39495,7 @@
       <c r="C58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="13"/>
       <c r="E58" s="7" t="s">
         <v>3838</v>
       </c>
@@ -39452,7 +39510,7 @@
       <c r="C59" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="3"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="7" t="s">
         <v>3840</v>
       </c>
@@ -39467,7 +39525,7 @@
       <c r="C60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="13"/>
       <c r="E60" s="7" t="s">
         <v>3842</v>
       </c>
@@ -39482,7 +39540,7 @@
       <c r="C61" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="3"/>
+      <c r="D61" s="13"/>
       <c r="E61" s="7" t="s">
         <v>3844</v>
       </c>
@@ -39497,7 +39555,7 @@
       <c r="C62" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="13"/>
       <c r="E62" s="7" t="s">
         <v>3846</v>
       </c>
@@ -39512,7 +39570,7 @@
       <c r="C63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="3"/>
+      <c r="D63" s="13"/>
       <c r="E63" s="7" t="s">
         <v>3848</v>
       </c>
@@ -39527,7 +39585,7 @@
       <c r="C64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="3"/>
+      <c r="D64" s="13"/>
       <c r="E64" s="7" t="s">
         <v>3851</v>
       </c>
@@ -39542,7 +39600,7 @@
       <c r="C65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="13"/>
       <c r="E65" s="7" t="s">
         <v>3854</v>
       </c>
@@ -39557,7 +39615,7 @@
       <c r="C66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D66" s="3"/>
+      <c r="D66" s="13"/>
       <c r="E66" s="7" t="s">
         <v>3857</v>
       </c>
@@ -39572,7 +39630,7 @@
       <c r="C67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="3"/>
+      <c r="D67" s="13"/>
       <c r="E67" s="7" t="s">
         <v>3859</v>
       </c>
@@ -39587,7 +39645,7 @@
       <c r="C68" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="3"/>
+      <c r="D68" s="13"/>
       <c r="E68" s="7" t="s">
         <v>3861</v>
       </c>
@@ -39602,7 +39660,7 @@
       <c r="C69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="3"/>
+      <c r="D69" s="13"/>
       <c r="E69" s="7" t="s">
         <v>3863</v>
       </c>
@@ -39617,7 +39675,7 @@
       <c r="C70" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="3"/>
+      <c r="D70" s="13"/>
       <c r="E70" s="7" t="s">
         <v>3865</v>
       </c>
@@ -39632,10 +39690,10 @@
       <c r="C71" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="16" t="s">
         <v>3867</v>
       </c>
-      <c r="E71" s="14" t="s">
+      <c r="E71" s="17" t="s">
         <v>3868</v>
       </c>
     </row>
@@ -39649,7 +39707,7 @@
       <c r="C72" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D72" s="18" t="s">
         <v>3868</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -39666,7 +39724,7 @@
       <c r="C73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="D73" s="18" t="s">
         <v>3870</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -39683,7 +39741,7 @@
       <c r="C74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="18" t="s">
         <v>3872</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -39700,7 +39758,7 @@
       <c r="C75" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="D75" s="18" t="s">
         <v>3874</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -39717,7 +39775,7 @@
       <c r="C76" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="D76" s="18" t="s">
         <v>3876</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -39734,7 +39792,7 @@
       <c r="C77" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="18" t="s">
         <v>3878</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -39751,7 +39809,7 @@
       <c r="C78" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="19" t="s">
         <v>3880</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -39768,7 +39826,7 @@
       <c r="C79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D79" s="18" t="s">
         <v>3882</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -39785,7 +39843,7 @@
       <c r="C80" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="19" t="s">
         <v>3884</v>
       </c>
       <c r="E80" s="7" t="s">
@@ -39802,7 +39860,7 @@
       <c r="C81" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="18" t="s">
         <v>3886</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -39819,7 +39877,7 @@
       <c r="C82" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="D82" s="18" t="s">
         <v>3888</v>
       </c>
       <c r="E82" s="7" t="s">
@@ -39836,7 +39894,7 @@
       <c r="C83" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="19" t="s">
         <v>3890</v>
       </c>
       <c r="E83" s="7" t="s">
@@ -39853,7 +39911,7 @@
       <c r="C84" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="18" t="s">
         <v>3892</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -39870,7 +39928,7 @@
       <c r="C85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D85" s="18" t="s">
         <v>3894</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -39887,7 +39945,7 @@
       <c r="C86" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="18" t="s">
         <v>3897</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -39904,7 +39962,7 @@
       <c r="C87" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="18" t="s">
         <v>3899</v>
       </c>
       <c r="E87" s="7" t="s">
@@ -39921,7 +39979,7 @@
       <c r="C88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="19" t="s">
         <v>3901</v>
       </c>
       <c r="E88" s="7" t="s">
@@ -39938,7 +39996,7 @@
       <c r="C89" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="16" t="s">
         <v>3905</v>
       </c>
       <c r="E89" s="7" t="s">
@@ -39955,7 +40013,7 @@
       <c r="C90" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="19" t="s">
         <v>3903</v>
       </c>
       <c r="E90" s="7" t="s">
@@ -39972,7 +40030,7 @@
       <c r="C91" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="19" t="s">
         <v>3906</v>
       </c>
       <c r="E91" s="7" t="s">
@@ -39989,7 +40047,7 @@
       <c r="C92" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="19" t="s">
         <v>3908</v>
       </c>
       <c r="E92" s="7" t="s">
@@ -40006,7 +40064,7 @@
       <c r="C93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="19" t="s">
         <v>3910</v>
       </c>
       <c r="E93" s="7" t="s">
@@ -40023,7 +40081,7 @@
       <c r="C94" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="19" t="s">
         <v>3912</v>
       </c>
       <c r="E94" s="7" t="s">
@@ -40040,7 +40098,7 @@
       <c r="C95" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="19" t="s">
         <v>3914</v>
       </c>
       <c r="E95" s="7" t="s">
@@ -40057,7 +40115,7 @@
       <c r="C96" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="19" t="s">
         <v>3916</v>
       </c>
       <c r="E96" s="7" t="s">
@@ -40074,7 +40132,7 @@
       <c r="C97" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="19" t="s">
         <v>3918</v>
       </c>
       <c r="E97" s="7" t="s">
@@ -40091,7 +40149,7 @@
       <c r="C98" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="19" t="s">
         <v>3920</v>
       </c>
       <c r="E98" s="7" t="s">
@@ -40108,7 +40166,7 @@
       <c r="C99" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="19" t="s">
         <v>3922</v>
       </c>
       <c r="E99" s="7" t="s">
@@ -40125,7 +40183,7 @@
       <c r="C100" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="19" t="s">
         <v>3925</v>
       </c>
       <c r="E100" s="7" t="s">
@@ -40142,7 +40200,7 @@
       <c r="C101" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="19" t="s">
         <v>3927</v>
       </c>
       <c r="E101" s="7" t="s">
@@ -40159,7 +40217,7 @@
       <c r="C102" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="19" t="s">
         <v>3929</v>
       </c>
       <c r="E102" s="7" t="s">
@@ -40176,7 +40234,7 @@
       <c r="C103" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="19" t="s">
         <v>3931</v>
       </c>
       <c r="E103" s="7" t="s">
@@ -40193,7 +40251,7 @@
       <c r="C104" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="19" t="s">
         <v>3933</v>
       </c>
       <c r="E104" s="7" t="s">
@@ -40210,7 +40268,7 @@
       <c r="C105" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="19" t="s">
         <v>3936</v>
       </c>
       <c r="E105" s="7" t="s">
@@ -40227,7 +40285,7 @@
       <c r="C106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="19" t="s">
         <v>3938</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -40244,7 +40302,7 @@
       <c r="C107" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="19" t="s">
         <v>3940</v>
       </c>
       <c r="E107" s="7" t="s">
@@ -40261,7 +40319,7 @@
       <c r="C108" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="19" t="s">
         <v>3943</v>
       </c>
       <c r="E108" s="7" t="s">
@@ -40278,7 +40336,7 @@
       <c r="C109" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D109" s="7" t="s">
+      <c r="D109" s="19" t="s">
         <v>3946</v>
       </c>
       <c r="E109" s="7" t="s">
@@ -40295,7 +40353,7 @@
       <c r="C110" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="7" t="s">
+      <c r="D110" s="19" t="s">
         <v>3949</v>
       </c>
       <c r="E110" s="7" t="s">
@@ -40312,7 +40370,7 @@
       <c r="C111" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D111" s="7" t="s">
+      <c r="D111" s="19" t="s">
         <v>3951</v>
       </c>
       <c r="E111" s="7" t="s">
@@ -40329,7 +40387,7 @@
       <c r="C112" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="19" t="s">
         <v>3953</v>
       </c>
       <c r="E112" s="7" t="s">
@@ -40346,7 +40404,7 @@
       <c r="C113" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="19" t="s">
         <v>3955</v>
       </c>
       <c r="E113" s="7" t="s">
@@ -40363,7 +40421,7 @@
       <c r="C114" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="19" t="s">
         <v>3957</v>
       </c>
       <c r="E114" s="7" t="s">
@@ -40380,7 +40438,7 @@
       <c r="C115" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="19" t="s">
         <v>3960</v>
       </c>
       <c r="E115" s="7" t="s">
@@ -40397,7 +40455,7 @@
       <c r="C116" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="19" t="s">
         <v>3963</v>
       </c>
       <c r="E116" s="7" t="s">
@@ -40414,7 +40472,7 @@
       <c r="C117" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="19" t="s">
         <v>3966</v>
       </c>
       <c r="E117" s="7" t="s">
@@ -40431,7 +40489,7 @@
       <c r="C118" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="19" t="s">
         <v>3968</v>
       </c>
       <c r="E118" s="7" t="s">
@@ -40448,7 +40506,7 @@
       <c r="C119" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D119" s="7" t="s">
+      <c r="D119" s="19" t="s">
         <v>3970</v>
       </c>
       <c r="E119" s="7" t="s">
@@ -40465,7 +40523,7 @@
       <c r="C120" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="D120" s="19" t="s">
         <v>3973</v>
       </c>
       <c r="E120" s="7" t="s">
@@ -40482,7 +40540,7 @@
       <c r="C121" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="19" t="s">
         <v>3976</v>
       </c>
       <c r="E121" s="7" t="s">
@@ -40499,7 +40557,7 @@
       <c r="C122" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="19" t="s">
         <v>3978</v>
       </c>
       <c r="E122" s="7" t="s">
@@ -40516,7 +40574,7 @@
       <c r="C123" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="19" t="s">
         <v>3980</v>
       </c>
       <c r="E123" s="7" t="s">
@@ -40533,7 +40591,7 @@
       <c r="C124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="19" t="s">
         <v>3982</v>
       </c>
       <c r="E124" s="7" t="s">
@@ -40550,7 +40608,7 @@
       <c r="C125" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="19" t="s">
         <v>3985</v>
       </c>
       <c r="E125" s="7" t="s">
@@ -40567,7 +40625,7 @@
       <c r="C126" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="19" t="s">
         <v>3987</v>
       </c>
       <c r="E126" s="7" t="s">
@@ -40584,7 +40642,7 @@
       <c r="C127" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D127" s="7" t="s">
+      <c r="D127" s="19" t="s">
         <v>3989</v>
       </c>
       <c r="E127" s="7" t="s">
@@ -40601,7 +40659,7 @@
       <c r="C128" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="19" t="s">
         <v>3991</v>
       </c>
       <c r="E128" s="7" t="s">
@@ -40618,7 +40676,7 @@
       <c r="C129" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D129" s="7" t="s">
+      <c r="D129" s="19" t="s">
         <v>3993</v>
       </c>
       <c r="E129" s="7" t="s">
@@ -40635,7 +40693,7 @@
       <c r="C130" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="19" t="s">
         <v>3996</v>
       </c>
       <c r="E130" s="7" t="s">
@@ -40652,7 +40710,7 @@
       <c r="C131" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="19" t="s">
         <v>3999</v>
       </c>
       <c r="E131" s="7" t="s">
@@ -40669,7 +40727,7 @@
       <c r="C132" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="19" t="s">
         <v>4002</v>
       </c>
       <c r="E132" s="7" t="s">
@@ -40686,7 +40744,7 @@
       <c r="C133" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="19" t="s">
         <v>4005</v>
       </c>
       <c r="E133" s="7" t="s">
@@ -40703,7 +40761,7 @@
       <c r="C134" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="19" t="s">
         <v>4008</v>
       </c>
       <c r="E134" s="7" t="s">
@@ -40720,7 +40778,7 @@
       <c r="C135" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="7" t="s">
+      <c r="D135" s="19" t="s">
         <v>4010</v>
       </c>
       <c r="E135" s="7" t="s">
@@ -40737,7 +40795,7 @@
       <c r="C136" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D136" s="7" t="s">
+      <c r="D136" s="19" t="s">
         <v>4013</v>
       </c>
       <c r="E136" s="7" t="s">
@@ -40754,7 +40812,7 @@
       <c r="C137" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D137" s="7" t="s">
+      <c r="D137" s="19" t="s">
         <v>4015</v>
       </c>
       <c r="E137" s="7" t="s">
@@ -40771,7 +40829,7 @@
       <c r="C138" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D138" s="7" t="s">
+      <c r="D138" s="19" t="s">
         <v>4017</v>
       </c>
       <c r="E138" s="7" t="s">
@@ -40788,7 +40846,7 @@
       <c r="C139" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="7" t="s">
+      <c r="D139" s="19" t="s">
         <v>4019</v>
       </c>
       <c r="E139" s="7" t="s">
@@ -40805,7 +40863,7 @@
       <c r="C140" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D140" s="7" t="s">
+      <c r="D140" s="19" t="s">
         <v>4022</v>
       </c>
       <c r="E140" s="7" t="s">
@@ -40822,7 +40880,7 @@
       <c r="C141" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D141" s="7" t="s">
+      <c r="D141" s="19" t="s">
         <v>4024</v>
       </c>
       <c r="E141" s="7" t="s">
@@ -40839,7 +40897,7 @@
       <c r="C142" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D142" s="7" t="s">
+      <c r="D142" s="19" t="s">
         <v>4027</v>
       </c>
       <c r="E142" s="7" t="s">
@@ -40856,7 +40914,7 @@
       <c r="C143" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D143" s="7" t="s">
+      <c r="D143" s="19" t="s">
         <v>4029</v>
       </c>
       <c r="E143" s="7" t="s">
@@ -40873,7 +40931,7 @@
       <c r="C144" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D144" s="7" t="s">
+      <c r="D144" s="19" t="s">
         <v>4031</v>
       </c>
       <c r="E144" s="7" t="s">
@@ -40890,7 +40948,7 @@
       <c r="C145" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D145" s="7" t="s">
+      <c r="D145" s="19" t="s">
         <v>4034</v>
       </c>
       <c r="E145" s="7" t="s">
@@ -40907,7 +40965,7 @@
       <c r="C146" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D146" s="7" t="s">
+      <c r="D146" s="19" t="s">
         <v>4036</v>
       </c>
       <c r="E146" s="7" t="s">
@@ -40924,7 +40982,7 @@
       <c r="C147" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D147" s="15" t="s">
+      <c r="D147" s="20" t="s">
         <v>4043</v>
       </c>
       <c r="E147" s="7" t="s">
@@ -40941,7 +40999,7 @@
       <c r="C148" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D148" s="7" t="s">
+      <c r="D148" s="19" t="s">
         <v>4039</v>
       </c>
       <c r="E148" s="7" t="s">
@@ -40958,7 +41016,7 @@
       <c r="C149" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D149" s="7" t="s">
+      <c r="D149" s="19" t="s">
         <v>4041</v>
       </c>
       <c r="E149" s="7" t="s">
@@ -40975,7 +41033,7 @@
       <c r="C150" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="15" t="s">
+      <c r="D150" s="20" t="s">
         <v>4050</v>
       </c>
       <c r="E150" s="7" t="s">
@@ -40992,7 +41050,7 @@
       <c r="C151" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D151" s="15" t="s">
+      <c r="D151" s="20" t="s">
         <v>4054</v>
       </c>
       <c r="E151" s="7" t="s">
@@ -41009,7 +41067,7 @@
       <c r="C152" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D152" s="7" t="s">
+      <c r="D152" s="19" t="s">
         <v>4044</v>
       </c>
       <c r="E152" s="7" t="s">
@@ -41026,7 +41084,7 @@
       <c r="C153" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D153" s="7" t="s">
+      <c r="D153" s="19" t="s">
         <v>4046</v>
       </c>
       <c r="E153" s="7" t="s">
@@ -41043,7 +41101,7 @@
       <c r="C154" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D154" s="7" t="s">
+      <c r="D154" s="19" t="s">
         <v>4048</v>
       </c>
       <c r="E154" s="7" t="s">
@@ -41060,7 +41118,7 @@
       <c r="C155" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D155" s="7" t="s">
+      <c r="D155" s="19" t="s">
         <v>4051</v>
       </c>
       <c r="E155" s="7" t="s">
@@ -41077,7 +41135,7 @@
       <c r="C156" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="7" t="s">
+      <c r="D156" s="19" t="s">
         <v>4055</v>
       </c>
       <c r="E156" s="7" t="s">
@@ -41094,7 +41152,7 @@
       <c r="C157" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D157" s="7" t="s">
+      <c r="D157" s="19" t="s">
         <v>4057</v>
       </c>
       <c r="E157" s="7" t="s">
@@ -41111,7 +41169,7 @@
       <c r="C158" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D158" s="7" t="s">
+      <c r="D158" s="19" t="s">
         <v>4060</v>
       </c>
       <c r="E158" s="7" t="s">
@@ -41128,7 +41186,7 @@
       <c r="C159" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D159" s="7" t="s">
+      <c r="D159" s="19" t="s">
         <v>4063</v>
       </c>
       <c r="E159" s="7" t="s">
@@ -41145,7 +41203,7 @@
       <c r="C160" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D160" s="7" t="s">
+      <c r="D160" s="19" t="s">
         <v>4065</v>
       </c>
       <c r="E160" s="7" t="s">
@@ -41162,7 +41220,7 @@
       <c r="C161" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D161" s="7" t="s">
+      <c r="D161" s="19" t="s">
         <v>4067</v>
       </c>
       <c r="E161" s="7" t="s">
@@ -41179,7 +41237,7 @@
       <c r="C162" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D162" s="7" t="s">
+      <c r="D162" s="19" t="s">
         <v>4069</v>
       </c>
       <c r="E162" s="7" t="s">
@@ -41196,7 +41254,7 @@
       <c r="C163" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D163" s="7" t="s">
+      <c r="D163" s="19" t="s">
         <v>4072</v>
       </c>
       <c r="E163" s="7" t="s">
@@ -41213,7 +41271,7 @@
       <c r="C164" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="7" t="s">
+      <c r="D164" s="19" t="s">
         <v>4075</v>
       </c>
       <c r="E164" s="7" t="s">
@@ -41230,7 +41288,7 @@
       <c r="C165" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D165" s="7" t="s">
+      <c r="D165" s="19" t="s">
         <v>4077</v>
       </c>
       <c r="E165" s="7" t="s">
@@ -41247,7 +41305,7 @@
       <c r="C166" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D166" s="7" t="s">
+      <c r="D166" s="19" t="s">
         <v>4079</v>
       </c>
       <c r="E166" s="7" t="s">
@@ -41264,7 +41322,7 @@
       <c r="C167" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D167" s="7" t="s">
+      <c r="D167" s="19" t="s">
         <v>4081</v>
       </c>
       <c r="E167" s="7" t="s">
@@ -41281,7 +41339,7 @@
       <c r="C168" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D168" s="7" t="s">
+      <c r="D168" s="19" t="s">
         <v>4083</v>
       </c>
       <c r="E168" s="7" t="s">
@@ -41298,7 +41356,7 @@
       <c r="C169" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D169" s="7" t="s">
+      <c r="D169" s="19" t="s">
         <v>4085</v>
       </c>
       <c r="E169" s="7" t="s">
@@ -41315,7 +41373,7 @@
       <c r="C170" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D170" s="7" t="s">
+      <c r="D170" s="19" t="s">
         <v>4087</v>
       </c>
       <c r="E170" s="7" t="s">
@@ -41332,7 +41390,7 @@
       <c r="C171" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="7" t="s">
+      <c r="D171" s="19" t="s">
         <v>4090</v>
       </c>
       <c r="E171" s="7" t="s">
@@ -41349,7 +41407,7 @@
       <c r="C172" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D172" s="7" t="s">
+      <c r="D172" s="19" t="s">
         <v>4092</v>
       </c>
       <c r="E172" s="7" t="s">
@@ -41366,7 +41424,7 @@
       <c r="C173" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="7" t="s">
+      <c r="D173" s="19" t="s">
         <v>4094</v>
       </c>
       <c r="E173" s="7" t="s">
@@ -41383,7 +41441,7 @@
       <c r="C174" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D174" s="7" t="s">
+      <c r="D174" s="19" t="s">
         <v>4097</v>
       </c>
       <c r="E174" s="7" t="s">
@@ -41400,6 +41458,7 @@
       <c r="C175" s="5" t="s">
         <v>4109</v>
       </c>
+      <c r="D175" s="21"/>
       <c r="E175" s="7" t="s">
         <v>4110</v>
       </c>
@@ -41414,7 +41473,7 @@
       <c r="C176" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="19" t="s">
         <v>4099</v>
       </c>
       <c r="E176" s="7" t="s">
@@ -41425,13 +41484,13 @@
       <c r="A177" s="3" t="s">
         <v>4113</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="22" t="s">
         <v>256</v>
       </c>
       <c r="C177" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="19" t="s">
         <v>4102</v>
       </c>
       <c r="E177" s="7" t="s">
@@ -41439,16 +41498,16 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="16" t="s">
+      <c r="A178" s="22" t="s">
         <v>4115</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="22" t="s">
         <v>2266</v>
       </c>
       <c r="C178" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="19" t="s">
         <v>4104</v>
       </c>
       <c r="E178" s="7"/>
@@ -41463,7 +41522,7 @@
       <c r="C179" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D179" s="19" t="s">
         <v>4106</v>
       </c>
       <c r="E179" s="7" t="s">
@@ -41480,7 +41539,7 @@
       <c r="C180" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D180" s="19" t="s">
         <v>4107</v>
       </c>
       <c r="E180" s="7" t="s">
@@ -41497,7 +41556,7 @@
       <c r="C181" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D181" s="19" t="s">
         <v>4110</v>
       </c>
       <c r="E181" s="7" t="s">
@@ -41514,7 +41573,7 @@
       <c r="C182" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="19" t="s">
         <v>4112</v>
       </c>
       <c r="E182" s="7" t="s">
@@ -41531,7 +41590,7 @@
       <c r="C183" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D183" s="7" t="s">
+      <c r="D183" s="19" t="s">
         <v>4114</v>
       </c>
       <c r="E183" s="7" t="s">
@@ -41548,7 +41607,7 @@
       <c r="C184" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D184" s="7" t="s">
+      <c r="D184" s="19" t="s">
         <v>4117</v>
       </c>
       <c r="E184" s="7" t="s">
@@ -41565,7 +41624,7 @@
       <c r="C185" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D185" s="7" t="s">
+      <c r="D185" s="19" t="s">
         <v>4119</v>
       </c>
       <c r="E185" s="7" t="s">
@@ -41582,7 +41641,7 @@
       <c r="C186" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D186" s="7" t="s">
+      <c r="D186" s="19" t="s">
         <v>4121</v>
       </c>
       <c r="E186" s="7" t="s">
@@ -41599,7 +41658,7 @@
       <c r="C187" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D187" s="7" t="s">
+      <c r="D187" s="19" t="s">
         <v>4124</v>
       </c>
       <c r="E187" s="7" t="s">
@@ -41616,7 +41675,7 @@
       <c r="C188" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D188" s="7" t="s">
+      <c r="D188" s="19" t="s">
         <v>4127</v>
       </c>
       <c r="E188" s="7" t="s">
@@ -41633,7 +41692,7 @@
       <c r="C189" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D189" s="7" t="s">
+      <c r="D189" s="19" t="s">
         <v>4129</v>
       </c>
       <c r="E189" s="7" t="s">
@@ -41650,7 +41709,7 @@
       <c r="C190" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D190" s="7" t="s">
+      <c r="D190" s="19" t="s">
         <v>4131</v>
       </c>
       <c r="E190" s="7" t="s">
@@ -41667,7 +41726,7 @@
       <c r="C191" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D191" s="7" t="s">
+      <c r="D191" s="19" t="s">
         <v>4134</v>
       </c>
       <c r="E191" s="7" t="s">
@@ -41684,7 +41743,7 @@
       <c r="C192" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="7" t="s">
+      <c r="D192" s="19" t="s">
         <v>4136</v>
       </c>
       <c r="E192" s="7" t="s">
@@ -41701,7 +41760,7 @@
       <c r="C193" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="7" t="s">
+      <c r="D193" s="19" t="s">
         <v>4138</v>
       </c>
       <c r="E193" s="7" t="s">
@@ -41718,7 +41777,7 @@
       <c r="C194" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D194" s="7" t="s">
+      <c r="D194" s="19" t="s">
         <v>4140</v>
       </c>
       <c r="E194" s="7" t="s">
@@ -41735,7 +41794,7 @@
       <c r="C195" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D195" s="7" t="s">
+      <c r="D195" s="19" t="s">
         <v>4142</v>
       </c>
       <c r="E195" s="7" t="s">
@@ -41752,7 +41811,7 @@
       <c r="C196" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D196" s="7" t="s">
+      <c r="D196" s="19" t="s">
         <v>4144</v>
       </c>
       <c r="E196" s="7" t="s">
@@ -41769,7 +41828,7 @@
       <c r="C197" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D197" s="7" t="s">
+      <c r="D197" s="19" t="s">
         <v>4146</v>
       </c>
       <c r="E197" s="7" t="s">
@@ -41786,7 +41845,7 @@
       <c r="C198" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D198" s="7" t="s">
+      <c r="D198" s="19" t="s">
         <v>4148</v>
       </c>
       <c r="E198" s="7" t="s">
@@ -41803,7 +41862,7 @@
       <c r="C199" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D199" s="7" t="s">
+      <c r="D199" s="19" t="s">
         <v>4150</v>
       </c>
       <c r="E199" s="7" t="s">
@@ -41820,7 +41879,7 @@
       <c r="C200" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D200" s="7" t="s">
+      <c r="D200" s="19" t="s">
         <v>4152</v>
       </c>
       <c r="E200" s="7" t="s">
@@ -41837,7 +41896,7 @@
       <c r="C201" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D201" s="19" t="s">
         <v>4154</v>
       </c>
       <c r="E201" s="7" t="s">
@@ -41854,7 +41913,7 @@
       <c r="C202" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D202" s="7" t="s">
+      <c r="D202" s="19" t="s">
         <v>4157</v>
       </c>
       <c r="E202" s="7" t="s">
@@ -41871,7 +41930,7 @@
       <c r="C203" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="D203" s="19" t="s">
         <v>4160</v>
       </c>
       <c r="E203" s="7" t="s">
@@ -41888,7 +41947,7 @@
       <c r="C204" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D204" s="7" t="s">
+      <c r="D204" s="19" t="s">
         <v>4163</v>
       </c>
       <c r="E204" s="7" t="s">
@@ -41905,7 +41964,7 @@
       <c r="C205" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D205" s="7" t="s">
+      <c r="D205" s="19" t="s">
         <v>4166</v>
       </c>
       <c r="E205" s="7" t="s">
@@ -41922,7 +41981,7 @@
       <c r="C206" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D206" s="7" t="s">
+      <c r="D206" s="19" t="s">
         <v>4169</v>
       </c>
       <c r="E206" s="7" t="s">
@@ -41939,7 +41998,7 @@
       <c r="C207" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D207" s="7" t="s">
+      <c r="D207" s="19" t="s">
         <v>4171</v>
       </c>
       <c r="E207" s="7" t="s">
@@ -41956,7 +42015,7 @@
       <c r="C208" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D208" s="7" t="s">
+      <c r="D208" s="19" t="s">
         <v>4173</v>
       </c>
       <c r="E208" s="7" t="s">
@@ -41973,7 +42032,7 @@
       <c r="C209" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D209" s="7" t="s">
+      <c r="D209" s="19" t="s">
         <v>4175</v>
       </c>
       <c r="E209" s="7" t="s">
@@ -41990,7 +42049,7 @@
       <c r="C210" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D210" s="7" t="s">
+      <c r="D210" s="19" t="s">
         <v>4178</v>
       </c>
       <c r="E210" s="7" t="s">
@@ -42007,7 +42066,7 @@
       <c r="C211" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D211" s="7" t="s">
+      <c r="D211" s="19" t="s">
         <v>4180</v>
       </c>
       <c r="E211" s="7" t="s">
@@ -42024,7 +42083,7 @@
       <c r="C212" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D212" s="7" t="s">
+      <c r="D212" s="19" t="s">
         <v>4182</v>
       </c>
       <c r="E212" s="7" t="s">
@@ -42041,7 +42100,7 @@
       <c r="C213" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="7" t="s">
+      <c r="D213" s="19" t="s">
         <v>4185</v>
       </c>
       <c r="E213" s="7" t="s">
@@ -42058,7 +42117,7 @@
       <c r="C214" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D214" s="7" t="s">
+      <c r="D214" s="19" t="s">
         <v>4188</v>
       </c>
       <c r="E214" s="7" t="s">
@@ -42075,7 +42134,7 @@
       <c r="C215" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D215" s="7" t="s">
+      <c r="D215" s="19" t="s">
         <v>4190</v>
       </c>
       <c r="E215" s="7" t="s">
@@ -42092,7 +42151,7 @@
       <c r="C216" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D216" s="7" t="s">
+      <c r="D216" s="19" t="s">
         <v>4193</v>
       </c>
       <c r="E216" s="7" t="s">
@@ -42109,7 +42168,7 @@
       <c r="C217" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D217" s="7" t="s">
+      <c r="D217" s="19" t="s">
         <v>4195</v>
       </c>
       <c r="E217" s="7" t="s">
@@ -42126,7 +42185,7 @@
       <c r="C218" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D218" s="7" t="s">
+      <c r="D218" s="19" t="s">
         <v>4197</v>
       </c>
       <c r="E218" s="7" t="s">
@@ -42143,7 +42202,7 @@
       <c r="C219" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D219" s="7" t="s">
+      <c r="D219" s="19" t="s">
         <v>4199</v>
       </c>
       <c r="E219" s="7" t="s">
@@ -42160,7 +42219,7 @@
       <c r="C220" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D220" s="7" t="s">
+      <c r="D220" s="19" t="s">
         <v>4201</v>
       </c>
       <c r="E220" s="7" t="s">
@@ -42177,7 +42236,7 @@
       <c r="C221" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D221" s="7" t="s">
+      <c r="D221" s="19" t="s">
         <v>4203</v>
       </c>
       <c r="E221" s="7" t="s">
@@ -42194,7 +42253,7 @@
       <c r="C222" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D222" s="7" t="s">
+      <c r="D222" s="19" t="s">
         <v>4205</v>
       </c>
       <c r="E222" s="7" t="s">
@@ -42211,7 +42270,7 @@
       <c r="C223" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D223" s="7" t="s">
+      <c r="D223" s="19" t="s">
         <v>4207</v>
       </c>
       <c r="E223" s="7" t="s">
@@ -42228,7 +42287,7 @@
       <c r="C224" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D224" s="7" t="s">
+      <c r="D224" s="19" t="s">
         <v>4209</v>
       </c>
       <c r="E224" s="7" t="s">
@@ -42245,7 +42304,7 @@
       <c r="C225" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D225" s="7" t="s">
+      <c r="D225" s="19" t="s">
         <v>4211</v>
       </c>
       <c r="E225" s="7" t="s">
@@ -42262,7 +42321,7 @@
       <c r="C226" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D226" s="7" t="s">
+      <c r="D226" s="19" t="s">
         <v>4213</v>
       </c>
       <c r="E226" s="7" t="s">
@@ -42279,7 +42338,7 @@
       <c r="C227" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D227" s="7" t="s">
+      <c r="D227" s="19" t="s">
         <v>4216</v>
       </c>
       <c r="E227" s="7" t="s">
@@ -42296,7 +42355,7 @@
       <c r="C228" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D228" s="7" t="s">
+      <c r="D228" s="19" t="s">
         <v>4218</v>
       </c>
       <c r="E228" s="7" t="s">
@@ -42313,7 +42372,7 @@
       <c r="C229" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D229" s="7" t="s">
+      <c r="D229" s="19" t="s">
         <v>4220</v>
       </c>
       <c r="E229" s="7" t="s">
@@ -42330,7 +42389,7 @@
       <c r="C230" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="7" t="s">
+      <c r="D230" s="19" t="s">
         <v>4222</v>
       </c>
       <c r="E230" s="7" t="s">
@@ -42347,7 +42406,7 @@
       <c r="C231" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D231" s="7" t="s">
+      <c r="D231" s="19" t="s">
         <v>4224</v>
       </c>
       <c r="E231" s="7" t="s">
@@ -42364,7 +42423,7 @@
       <c r="C232" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D232" s="7" t="s">
+      <c r="D232" s="19" t="s">
         <v>4227</v>
       </c>
       <c r="E232" s="7" t="s">
@@ -42381,7 +42440,7 @@
       <c r="C233" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D233" s="7" t="s">
+      <c r="D233" s="19" t="s">
         <v>4229</v>
       </c>
       <c r="E233" s="7" t="s">
@@ -42398,7 +42457,7 @@
       <c r="C234" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D234" s="7" t="s">
+      <c r="D234" s="19" t="s">
         <v>4231</v>
       </c>
       <c r="E234" s="7" t="s">
@@ -42415,7 +42474,7 @@
       <c r="C235" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D235" s="7" t="s">
+      <c r="D235" s="19" t="s">
         <v>4233</v>
       </c>
       <c r="E235" s="7" t="s">
@@ -42432,7 +42491,7 @@
       <c r="C236" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D236" s="15" t="s">
+      <c r="D236" s="23" t="s">
         <v>4248</v>
       </c>
       <c r="E236" s="7" t="s">
@@ -42449,7 +42508,7 @@
       <c r="C237" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D237" s="7" t="s">
+      <c r="D237" s="19" t="s">
         <v>4236</v>
       </c>
       <c r="E237" s="7" t="s">
@@ -42466,7 +42525,7 @@
       <c r="C238" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="D238" s="19" t="s">
         <v>4238</v>
       </c>
       <c r="E238" s="7" t="s">
@@ -42483,7 +42542,7 @@
       <c r="C239" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="D239" s="19" t="s">
         <v>4240</v>
       </c>
       <c r="E239" s="7" t="s">
@@ -42500,7 +42559,7 @@
       <c r="C240" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="D240" s="19" t="s">
         <v>4242</v>
       </c>
       <c r="E240" s="7" t="s">
@@ -42517,7 +42576,7 @@
       <c r="C241" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="D241" s="19" t="s">
         <v>4245</v>
       </c>
       <c r="E241" s="7" t="s">
@@ -42534,7 +42593,7 @@
       <c r="C242" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="D242" s="19" t="s">
         <v>4249</v>
       </c>
       <c r="E242" s="7" t="s">
@@ -42551,7 +42610,7 @@
       <c r="C243" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="7" t="s">
+      <c r="D243" s="19" t="s">
         <v>4251</v>
       </c>
       <c r="E243" s="7" t="s">
@@ -42568,7 +42627,7 @@
       <c r="C244" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D244" s="7" t="s">
+      <c r="D244" s="19" t="s">
         <v>4254</v>
       </c>
       <c r="E244" s="7" t="s">
@@ -42585,7 +42644,7 @@
       <c r="C245" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D245" s="7" t="s">
+      <c r="D245" s="19" t="s">
         <v>4257</v>
       </c>
       <c r="E245" s="7" t="s">
@@ -42602,7 +42661,7 @@
       <c r="C246" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D246" s="7" t="s">
+      <c r="D246" s="19" t="s">
         <v>4259</v>
       </c>
       <c r="E246" s="7" t="s">
@@ -42619,7 +42678,7 @@
       <c r="C247" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D247" s="15" t="s">
+      <c r="D247" s="20" t="s">
         <v>4248</v>
       </c>
       <c r="E247" s="7" t="s">
@@ -42636,7 +42695,7 @@
       <c r="C248" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D248" s="15" t="s">
+      <c r="D248" s="24" t="s">
         <v>4248</v>
       </c>
       <c r="E248" s="7" t="s">
@@ -42653,7 +42712,7 @@
       <c r="C249" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="D249" s="19" t="s">
         <v>4261</v>
       </c>
       <c r="E249" s="7" t="s">
@@ -42670,7 +42729,7 @@
       <c r="C250" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D250" s="7" t="s">
+      <c r="D250" s="19" t="s">
         <v>4264</v>
       </c>
       <c r="E250" s="7" t="s">
@@ -42687,7 +42746,7 @@
       <c r="C251" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D251" s="7" t="s">
+      <c r="D251" s="19" t="s">
         <v>4267</v>
       </c>
       <c r="E251" s="7" t="s">
@@ -42704,7 +42763,7 @@
       <c r="C252" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D252" s="7" t="s">
+      <c r="D252" s="19" t="s">
         <v>4269</v>
       </c>
       <c r="E252" s="7" t="s">
@@ -42721,7 +42780,7 @@
       <c r="C253" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D253" s="7" t="s">
+      <c r="D253" s="19" t="s">
         <v>4272</v>
       </c>
       <c r="E253" s="7" t="s">
@@ -42738,7 +42797,7 @@
       <c r="C254" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D254" s="7" t="s">
+      <c r="D254" s="19" t="s">
         <v>4274</v>
       </c>
       <c r="E254" s="7" t="s">
@@ -42755,7 +42814,7 @@
       <c r="C255" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D255" s="7" t="s">
+      <c r="D255" s="19" t="s">
         <v>4276</v>
       </c>
       <c r="E255" s="7" t="s">
@@ -42772,7 +42831,7 @@
       <c r="C256" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D256" s="7" t="s">
+      <c r="D256" s="19" t="s">
         <v>4279</v>
       </c>
       <c r="E256" s="7" t="s">
@@ -42789,7 +42848,7 @@
       <c r="C257" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D257" s="7" t="s">
+      <c r="D257" s="19" t="s">
         <v>4281</v>
       </c>
       <c r="E257" s="7" t="s">
@@ -42806,7 +42865,7 @@
       <c r="C258" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D258" s="7" t="s">
+      <c r="D258" s="19" t="s">
         <v>4283</v>
       </c>
       <c r="E258" s="7" t="s">
@@ -42823,7 +42882,7 @@
       <c r="C259" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D259" s="7" t="s">
+      <c r="D259" s="19" t="s">
         <v>4285</v>
       </c>
       <c r="E259" s="7" t="s">
@@ -42840,7 +42899,7 @@
       <c r="C260" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D260" s="7" t="s">
+      <c r="D260" s="19" t="s">
         <v>4287</v>
       </c>
       <c r="E260" s="7" t="s">
@@ -42857,7 +42916,7 @@
       <c r="C261" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D261" s="7" t="s">
+      <c r="D261" s="19" t="s">
         <v>4290</v>
       </c>
       <c r="E261" s="7" t="s">
@@ -42874,7 +42933,7 @@
       <c r="C262" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D262" s="7" t="s">
+      <c r="D262" s="19" t="s">
         <v>4292</v>
       </c>
       <c r="E262" s="7" t="s">
@@ -42891,7 +42950,7 @@
       <c r="C263" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D263" s="7" t="s">
+      <c r="D263" s="19" t="s">
         <v>4295</v>
       </c>
       <c r="E263" s="7" t="s">
@@ -42908,7 +42967,7 @@
       <c r="C264" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D264" s="7" t="s">
+      <c r="D264" s="19" t="s">
         <v>4297</v>
       </c>
       <c r="E264" s="7" t="s">
@@ -42925,7 +42984,7 @@
       <c r="C265" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D265" s="7" t="s">
+      <c r="D265" s="19" t="s">
         <v>4299</v>
       </c>
       <c r="E265" s="7" t="s">
@@ -42942,7 +43001,7 @@
       <c r="C266" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D266" s="7" t="s">
+      <c r="D266" s="19" t="s">
         <v>4301</v>
       </c>
       <c r="E266" s="7" t="s">
@@ -42959,7 +43018,7 @@
       <c r="C267" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D267" s="7" t="s">
+      <c r="D267" s="19" t="s">
         <v>4304</v>
       </c>
       <c r="E267" s="7" t="s">
@@ -42976,7 +43035,7 @@
       <c r="C268" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D268" s="7" t="s">
+      <c r="D268" s="19" t="s">
         <v>4306</v>
       </c>
       <c r="E268" s="7" t="s">
@@ -42993,7 +43052,7 @@
       <c r="C269" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D269" s="7" t="s">
+      <c r="D269" s="19" t="s">
         <v>4308</v>
       </c>
       <c r="E269" s="7" t="s">
@@ -43010,7 +43069,7 @@
       <c r="C270" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D270" s="7" t="s">
+      <c r="D270" s="19" t="s">
         <v>4311</v>
       </c>
       <c r="E270" s="7" t="s">
@@ -43027,7 +43086,7 @@
       <c r="C271" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D271" s="7" t="s">
+      <c r="D271" s="19" t="s">
         <v>4313</v>
       </c>
       <c r="E271" s="7" t="s">
@@ -43044,7 +43103,7 @@
       <c r="C272" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D272" s="7" t="s">
+      <c r="D272" s="19" t="s">
         <v>4315</v>
       </c>
       <c r="E272" s="7" t="s">
@@ -43061,7 +43120,7 @@
       <c r="C273" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D273" s="7" t="s">
+      <c r="D273" s="19" t="s">
         <v>4318</v>
       </c>
       <c r="E273" s="7" t="s">
@@ -43078,7 +43137,7 @@
       <c r="C274" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D274" s="7" t="s">
+      <c r="D274" s="19" t="s">
         <v>4321</v>
       </c>
       <c r="E274" s="7" t="s">
@@ -43095,7 +43154,7 @@
       <c r="C275" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D275" s="7" t="s">
+      <c r="D275" s="19" t="s">
         <v>4323</v>
       </c>
       <c r="E275" s="7" t="s">
@@ -43112,7 +43171,7 @@
       <c r="C276" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D276" s="7" t="s">
+      <c r="D276" s="19" t="s">
         <v>4325</v>
       </c>
       <c r="E276" s="7" t="s">
@@ -43129,7 +43188,7 @@
       <c r="C277" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D277" s="7" t="s">
+      <c r="D277" s="19" t="s">
         <v>4327</v>
       </c>
       <c r="E277" s="7" t="s">
@@ -43146,7 +43205,7 @@
       <c r="C278" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D278" s="7" t="s">
+      <c r="D278" s="19" t="s">
         <v>4329</v>
       </c>
       <c r="E278" s="7" t="s">
@@ -43163,7 +43222,7 @@
       <c r="C279" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D279" s="7" t="s">
+      <c r="D279" s="19" t="s">
         <v>4331</v>
       </c>
       <c r="E279" s="7" t="s">
@@ -43180,7 +43239,7 @@
       <c r="C280" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D280" s="7" t="s">
+      <c r="D280" s="19" t="s">
         <v>4333</v>
       </c>
       <c r="E280" s="7" t="s">
@@ -43197,7 +43256,7 @@
       <c r="C281" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D281" s="7" t="s">
+      <c r="D281" s="19" t="s">
         <v>4335</v>
       </c>
       <c r="E281" s="7" t="s">
@@ -43214,7 +43273,7 @@
       <c r="C282" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D282" s="7" t="s">
+      <c r="D282" s="19" t="s">
         <v>4337</v>
       </c>
       <c r="E282" s="7" t="s">
@@ -43231,7 +43290,7 @@
       <c r="C283" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D283" s="7" t="s">
+      <c r="D283" s="19" t="s">
         <v>4339</v>
       </c>
       <c r="E283" s="7" t="s">
@@ -43248,7 +43307,7 @@
       <c r="C284" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D284" s="7" t="s">
+      <c r="D284" s="19" t="s">
         <v>4341</v>
       </c>
       <c r="E284" s="7" t="s">
@@ -43265,7 +43324,7 @@
       <c r="C285" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D285" s="7" t="s">
+      <c r="D285" s="19" t="s">
         <v>4344</v>
       </c>
       <c r="E285" s="7" t="s">
@@ -43282,7 +43341,7 @@
       <c r="C286" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D286" s="7" t="s">
+      <c r="D286" s="19" t="s">
         <v>4346</v>
       </c>
       <c r="E286" s="7" t="s">
@@ -43299,7 +43358,7 @@
       <c r="C287" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D287" s="7" t="s">
+      <c r="D287" s="19" t="s">
         <v>4348</v>
       </c>
       <c r="E287" s="7" t="s">
@@ -43316,7 +43375,7 @@
       <c r="C288" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D288" s="7" t="s">
+      <c r="D288" s="19" t="s">
         <v>4350</v>
       </c>
       <c r="E288" s="7" t="s">
@@ -43333,7 +43392,7 @@
       <c r="C289" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D289" s="7" t="s">
+      <c r="D289" s="19" t="s">
         <v>4352</v>
       </c>
       <c r="E289" s="7" t="s">
@@ -43350,7 +43409,7 @@
       <c r="C290" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D290" s="7" t="s">
+      <c r="D290" s="19" t="s">
         <v>4354</v>
       </c>
       <c r="E290" s="7" t="s">
@@ -43367,7 +43426,7 @@
       <c r="C291" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D291" s="7" t="s">
+      <c r="D291" s="19" t="s">
         <v>4356</v>
       </c>
       <c r="E291" s="7" t="s">
@@ -43384,7 +43443,7 @@
       <c r="C292" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D292" s="7" t="s">
+      <c r="D292" s="19" t="s">
         <v>4359</v>
       </c>
       <c r="E292" s="7" t="s">
@@ -43401,7 +43460,7 @@
       <c r="C293" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D293" s="7" t="s">
+      <c r="D293" s="19" t="s">
         <v>4361</v>
       </c>
       <c r="E293" s="7" t="s">
@@ -43418,7 +43477,7 @@
       <c r="C294" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D294" s="7" t="s">
+      <c r="D294" s="19" t="s">
         <v>4363</v>
       </c>
       <c r="E294" s="7" t="s">
@@ -43435,7 +43494,7 @@
       <c r="C295" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D295" s="7" t="s">
+      <c r="D295" s="19" t="s">
         <v>4366</v>
       </c>
       <c r="E295" s="7" t="s">
@@ -43452,7 +43511,7 @@
       <c r="C296" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D296" s="7" t="s">
+      <c r="D296" s="19" t="s">
         <v>4369</v>
       </c>
       <c r="E296" s="7" t="s">
@@ -43469,7 +43528,7 @@
       <c r="C297" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D297" s="7" t="s">
+      <c r="D297" s="19" t="s">
         <v>4371</v>
       </c>
       <c r="E297" s="7" t="s">
@@ -43486,7 +43545,7 @@
       <c r="C298" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D298" s="7" t="s">
+      <c r="D298" s="19" t="s">
         <v>4373</v>
       </c>
       <c r="E298" s="7" t="s">
@@ -43503,7 +43562,7 @@
       <c r="C299" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D299" s="7" t="s">
+      <c r="D299" s="19" t="s">
         <v>4376</v>
       </c>
       <c r="E299" s="7" t="s">
@@ -43520,7 +43579,7 @@
       <c r="C300" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D300" s="7" t="s">
+      <c r="D300" s="19" t="s">
         <v>4378</v>
       </c>
       <c r="E300" s="7" t="s">
@@ -43537,7 +43596,7 @@
       <c r="C301" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D301" s="7" t="s">
+      <c r="D301" s="19" t="s">
         <v>4380</v>
       </c>
       <c r="E301" s="7" t="s">
@@ -43554,7 +43613,7 @@
       <c r="C302" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D302" s="7" t="s">
+      <c r="D302" s="19" t="s">
         <v>4382</v>
       </c>
       <c r="E302" s="7" t="s">
@@ -43571,7 +43630,7 @@
       <c r="C303" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D303" s="7" t="s">
+      <c r="D303" s="19" t="s">
         <v>4384</v>
       </c>
       <c r="E303" s="7" t="s">
@@ -43588,7 +43647,7 @@
       <c r="C304" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D304" s="7" t="s">
+      <c r="D304" s="19" t="s">
         <v>4386</v>
       </c>
       <c r="E304" s="7" t="s">
@@ -43605,7 +43664,7 @@
       <c r="C305" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D305" s="7" t="s">
+      <c r="D305" s="19" t="s">
         <v>4388</v>
       </c>
       <c r="E305" s="7" t="s">
@@ -43622,7 +43681,7 @@
       <c r="C306" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D306" s="7" t="s">
+      <c r="D306" s="19" t="s">
         <v>4390</v>
       </c>
       <c r="E306" s="7" t="s">
@@ -43639,7 +43698,7 @@
       <c r="C307" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D307" s="7" t="s">
+      <c r="D307" s="19" t="s">
         <v>4392</v>
       </c>
       <c r="E307" s="7" t="s">
@@ -43656,7 +43715,7 @@
       <c r="C308" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D308" s="7" t="s">
+      <c r="D308" s="19" t="s">
         <v>4394</v>
       </c>
       <c r="E308" s="7" t="s">
@@ -43673,7 +43732,7 @@
       <c r="C309" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D309" s="7" t="s">
+      <c r="D309" s="19" t="s">
         <v>4397</v>
       </c>
       <c r="E309" s="7" t="s">
@@ -43690,7 +43749,7 @@
       <c r="C310" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D310" s="7" t="s">
+      <c r="D310" s="19" t="s">
         <v>4400</v>
       </c>
       <c r="E310" s="7" t="s">
@@ -43707,7 +43766,7 @@
       <c r="C311" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D311" s="7" t="s">
+      <c r="D311" s="19" t="s">
         <v>4401</v>
       </c>
       <c r="E311" s="7" t="s">
@@ -43724,7 +43783,7 @@
       <c r="C312" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D312" s="7" t="s">
+      <c r="D312" s="19" t="s">
         <v>4403</v>
       </c>
       <c r="E312" s="7" t="s">
@@ -43741,7 +43800,7 @@
       <c r="C313" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D313" s="7" t="s">
+      <c r="D313" s="19" t="s">
         <v>4405</v>
       </c>
       <c r="E313" s="7" t="s">
@@ -43758,7 +43817,7 @@
       <c r="C314" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D314" s="15" t="s">
+      <c r="D314" s="24" t="s">
         <v>4248</v>
       </c>
       <c r="E314" s="7" t="s">
@@ -43775,7 +43834,7 @@
       <c r="C315" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D315" s="7" t="s">
+      <c r="D315" s="19" t="s">
         <v>4407</v>
       </c>
       <c r="E315" s="7" t="s">
@@ -43792,7 +43851,7 @@
       <c r="C316" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D316" s="7" t="s">
+      <c r="D316" s="19" t="s">
         <v>4411</v>
       </c>
       <c r="E316" s="7" t="s">
@@ -43809,7 +43868,7 @@
       <c r="C317" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D317" s="7" t="s">
+      <c r="D317" s="19" t="s">
         <v>4413</v>
       </c>
       <c r="E317" s="7" t="s">
@@ -43826,7 +43885,7 @@
       <c r="C318" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D318" s="7" t="s">
+      <c r="D318" s="19" t="s">
         <v>4415</v>
       </c>
       <c r="E318" s="7" t="s">
@@ -43843,7 +43902,7 @@
       <c r="C319" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D319" s="7" t="s">
+      <c r="D319" s="19" t="s">
         <v>4418</v>
       </c>
       <c r="E319" s="7" t="s">
@@ -43860,7 +43919,7 @@
       <c r="C320" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D320" s="7" t="s">
+      <c r="D320" s="19" t="s">
         <v>4420</v>
       </c>
       <c r="E320" s="7" t="s">
@@ -43877,7 +43936,7 @@
       <c r="C321" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D321" s="7" t="s">
+      <c r="D321" s="19" t="s">
         <v>4422</v>
       </c>
       <c r="E321" s="7" t="s">
@@ -43894,7 +43953,7 @@
       <c r="C322" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D322" s="7" t="s">
+      <c r="D322" s="19" t="s">
         <v>4425</v>
       </c>
       <c r="E322" s="7" t="s">
@@ -43911,7 +43970,7 @@
       <c r="C323" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D323" s="7" t="s">
+      <c r="D323" s="19" t="s">
         <v>4427</v>
       </c>
       <c r="E323" s="7" t="s">
@@ -43928,7 +43987,7 @@
       <c r="C324" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D324" s="7" t="s">
+      <c r="D324" s="19" t="s">
         <v>4430</v>
       </c>
       <c r="E324" s="7" t="s">
@@ -43945,7 +44004,7 @@
       <c r="C325" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D325" s="7" t="s">
+      <c r="D325" s="19" t="s">
         <v>4432</v>
       </c>
       <c r="E325" s="7" t="s">
@@ -43962,7 +44021,7 @@
       <c r="C326" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D326" s="7" t="s">
+      <c r="D326" s="19" t="s">
         <v>4434</v>
       </c>
       <c r="E326" s="7" t="s">
@@ -43979,7 +44038,7 @@
       <c r="C327" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D327" s="7" t="s">
+      <c r="D327" s="19" t="s">
         <v>4436</v>
       </c>
       <c r="E327" s="7" t="s">
@@ -43996,7 +44055,7 @@
       <c r="C328" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D328" s="7" t="s">
+      <c r="D328" s="19" t="s">
         <v>4438</v>
       </c>
       <c r="E328" s="7" t="s">
@@ -44013,7 +44072,7 @@
       <c r="C329" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D329" s="7" t="s">
+      <c r="D329" s="19" t="s">
         <v>4440</v>
       </c>
       <c r="E329" s="7" t="s">
@@ -44030,7 +44089,7 @@
       <c r="C330" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D330" s="7" t="s">
+      <c r="D330" s="19" t="s">
         <v>4442</v>
       </c>
       <c r="E330" s="7" t="s">
@@ -44047,7 +44106,7 @@
       <c r="C331" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D331" s="7" t="s">
+      <c r="D331" s="19" t="s">
         <v>4444</v>
       </c>
       <c r="E331" s="7" t="s">
@@ -44064,7 +44123,7 @@
       <c r="C332" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D332" s="7" t="s">
+      <c r="D332" s="19" t="s">
         <v>4446</v>
       </c>
       <c r="E332" s="7" t="s">
@@ -44081,7 +44140,7 @@
       <c r="C333" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D333" s="7" t="s">
+      <c r="D333" s="19" t="s">
         <v>4448</v>
       </c>
       <c r="E333" s="7" t="s">
@@ -44098,7 +44157,7 @@
       <c r="C334" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D334" s="7" t="s">
+      <c r="D334" s="19" t="s">
         <v>4450</v>
       </c>
       <c r="E334" s="7" t="s">
@@ -44115,7 +44174,7 @@
       <c r="C335" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D335" s="7" t="s">
+      <c r="D335" s="19" t="s">
         <v>4452</v>
       </c>
       <c r="E335" s="7" t="s">
@@ -44132,7 +44191,7 @@
       <c r="C336" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D336" s="7" t="s">
+      <c r="D336" s="19" t="s">
         <v>4454</v>
       </c>
       <c r="E336" s="7" t="s">
@@ -44149,7 +44208,7 @@
       <c r="C337" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D337" s="7" t="s">
+      <c r="D337" s="19" t="s">
         <v>4456</v>
       </c>
       <c r="E337" s="7" t="s">
@@ -44166,7 +44225,7 @@
       <c r="C338" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D338" s="7" t="s">
+      <c r="D338" s="19" t="s">
         <v>4458</v>
       </c>
       <c r="E338" s="7" t="s">
@@ -44183,7 +44242,7 @@
       <c r="C339" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D339" s="7" t="s">
+      <c r="D339" s="19" t="s">
         <v>4460</v>
       </c>
       <c r="E339" s="7" t="s">
@@ -44200,7 +44259,7 @@
       <c r="C340" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D340" s="7" t="s">
+      <c r="D340" s="19" t="s">
         <v>4462</v>
       </c>
       <c r="E340" s="7" t="s">
@@ -44217,7 +44276,7 @@
       <c r="C341" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D341" s="7" t="s">
+      <c r="D341" s="19" t="s">
         <v>4465</v>
       </c>
       <c r="E341" s="7" t="s">
@@ -44234,7 +44293,7 @@
       <c r="C342" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D342" s="7" t="s">
+      <c r="D342" s="19" t="s">
         <v>4467</v>
       </c>
       <c r="E342" s="7" t="s">
@@ -44251,7 +44310,7 @@
       <c r="C343" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D343" s="7" t="s">
+      <c r="D343" s="19" t="s">
         <v>4469</v>
       </c>
       <c r="E343" s="7" t="s">
@@ -44268,7 +44327,7 @@
       <c r="C344" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D344" s="7" t="s">
+      <c r="D344" s="19" t="s">
         <v>4471</v>
       </c>
       <c r="E344" s="7" t="s">
@@ -44285,7 +44344,7 @@
       <c r="C345" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D345" s="7" t="s">
+      <c r="D345" s="19" t="s">
         <v>4473</v>
       </c>
       <c r="E345" s="7" t="s">
@@ -44302,7 +44361,7 @@
       <c r="C346" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D346" s="7" t="s">
+      <c r="D346" s="19" t="s">
         <v>4475</v>
       </c>
       <c r="E346" s="7" t="s">
@@ -44319,7 +44378,7 @@
       <c r="C347" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D347" s="7" t="s">
+      <c r="D347" s="19" t="s">
         <v>4477</v>
       </c>
       <c r="E347" s="7" t="s">
@@ -44336,7 +44395,7 @@
       <c r="C348" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D348" s="7" t="s">
+      <c r="D348" s="19" t="s">
         <v>4480</v>
       </c>
       <c r="E348" s="7" t="s">
@@ -44353,7 +44412,7 @@
       <c r="C349" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D349" s="7" t="s">
+      <c r="D349" s="19" t="s">
         <v>4482</v>
       </c>
       <c r="E349" s="7" t="s">
@@ -44370,7 +44429,7 @@
       <c r="C350" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D350" s="7" t="s">
+      <c r="D350" s="19" t="s">
         <v>4484</v>
       </c>
       <c r="E350" s="7" t="s">
@@ -44387,7 +44446,7 @@
       <c r="C351" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D351" s="7" t="s">
+      <c r="D351" s="19" t="s">
         <v>4487</v>
       </c>
       <c r="E351" s="7" t="s">
@@ -44404,7 +44463,7 @@
       <c r="C352" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="D352" s="19" t="s">
         <v>4489</v>
       </c>
       <c r="E352" s="7" t="s">
@@ -44421,7 +44480,7 @@
       <c r="C353" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D353" s="7" t="s">
+      <c r="D353" s="19" t="s">
         <v>4492</v>
       </c>
       <c r="E353" s="7" t="s">
@@ -44438,7 +44497,7 @@
       <c r="C354" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D354" s="7" t="s">
+      <c r="D354" s="19" t="s">
         <v>4494</v>
       </c>
       <c r="E354" s="7" t="s">
@@ -44455,7 +44514,7 @@
       <c r="C355" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D355" s="7" t="s">
+      <c r="D355" s="19" t="s">
         <v>4497</v>
       </c>
       <c r="E355" s="7" t="s">
@@ -44472,7 +44531,7 @@
       <c r="C356" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D356" s="7" t="s">
+      <c r="D356" s="19" t="s">
         <v>4499</v>
       </c>
       <c r="E356" s="7" t="s">
@@ -44489,7 +44548,7 @@
       <c r="C357" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D357" s="7" t="s">
+      <c r="D357" s="19" t="s">
         <v>4501</v>
       </c>
       <c r="E357" s="7" t="s">
@@ -44506,7 +44565,7 @@
       <c r="C358" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D358" s="7" t="s">
+      <c r="D358" s="19" t="s">
         <v>4503</v>
       </c>
       <c r="E358" s="7" t="s">
@@ -44523,7 +44582,7 @@
       <c r="C359" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D359" s="7" t="s">
+      <c r="D359" s="19" t="s">
         <v>4505</v>
       </c>
       <c r="E359" s="7" t="s">
@@ -44540,7 +44599,7 @@
       <c r="C360" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D360" s="7" t="s">
+      <c r="D360" s="19" t="s">
         <v>4508</v>
       </c>
       <c r="E360" s="7" t="s">
@@ -44557,7 +44616,7 @@
       <c r="C361" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D361" s="7" t="s">
+      <c r="D361" s="19" t="s">
         <v>4510</v>
       </c>
       <c r="E361" s="7" t="s">
@@ -44574,7 +44633,7 @@
       <c r="C362" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D362" s="7" t="s">
+      <c r="D362" s="19" t="s">
         <v>4512</v>
       </c>
       <c r="E362" s="7" t="s">
@@ -44591,7 +44650,7 @@
       <c r="C363" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D363" s="7" t="s">
+      <c r="D363" s="19" t="s">
         <v>4514</v>
       </c>
       <c r="E363" s="7" t="s">
@@ -44608,7 +44667,7 @@
       <c r="C364" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D364" s="7" t="s">
+      <c r="D364" s="19" t="s">
         <v>4516</v>
       </c>
       <c r="E364" s="7" t="s">
@@ -44625,7 +44684,7 @@
       <c r="C365" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D365" s="7" t="s">
+      <c r="D365" s="19" t="s">
         <v>4518</v>
       </c>
       <c r="E365" s="7" t="s">
@@ -44642,7 +44701,7 @@
       <c r="C366" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D366" s="7" t="s">
+      <c r="D366" s="19" t="s">
         <v>4521</v>
       </c>
       <c r="E366" s="7" t="s">
@@ -44659,7 +44718,7 @@
       <c r="C367" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D367" s="7" t="s">
+      <c r="D367" s="19" t="s">
         <v>4524</v>
       </c>
       <c r="E367" s="7" t="s">
@@ -44676,7 +44735,7 @@
       <c r="C368" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D368" s="7" t="s">
+      <c r="D368" s="19" t="s">
         <v>4526</v>
       </c>
       <c r="E368" s="7" t="s">
@@ -44693,7 +44752,7 @@
       <c r="C369" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D369" s="7" t="s">
+      <c r="D369" s="19" t="s">
         <v>4528</v>
       </c>
       <c r="E369" s="7" t="s">
@@ -44710,7 +44769,7 @@
       <c r="C370" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D370" s="7" t="s">
+      <c r="D370" s="19" t="s">
         <v>4530</v>
       </c>
       <c r="E370" s="7" t="s">
@@ -44727,7 +44786,7 @@
       <c r="C371" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D371" s="7" t="s">
+      <c r="D371" s="19" t="s">
         <v>4532</v>
       </c>
       <c r="E371" s="7" t="s">
@@ -44744,7 +44803,7 @@
       <c r="C372" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D372" s="13" t="s">
+      <c r="D372" s="12" t="s">
         <v>4552</v>
       </c>
       <c r="E372" s="7" t="s">
@@ -44761,7 +44820,7 @@
       <c r="C373" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D373" s="7" t="s">
+      <c r="D373" s="19" t="s">
         <v>4535</v>
       </c>
       <c r="E373" s="7" t="s">
@@ -44778,7 +44837,7 @@
       <c r="C374" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D374" s="7" t="s">
+      <c r="D374" s="19" t="s">
         <v>4537</v>
       </c>
       <c r="E374" s="7" t="s">
@@ -44795,7 +44854,7 @@
       <c r="C375" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D375" s="7" t="s">
+      <c r="D375" s="19" t="s">
         <v>4539</v>
       </c>
       <c r="E375" s="7" t="s">
@@ -44812,7 +44871,7 @@
       <c r="C376" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D376" s="7" t="s">
+      <c r="D376" s="19" t="s">
         <v>4541</v>
       </c>
       <c r="E376" s="7" t="s">
@@ -44829,7 +44888,7 @@
       <c r="C377" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D377" s="7" t="s">
+      <c r="D377" s="19" t="s">
         <v>4544</v>
       </c>
       <c r="E377" s="7" t="s">
@@ -44846,7 +44905,7 @@
       <c r="C378" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D378" s="7" t="s">
+      <c r="D378" s="19" t="s">
         <v>4546</v>
       </c>
       <c r="E378" s="7" t="s">
@@ -44863,7 +44922,7 @@
       <c r="C379" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D379" s="15" t="s">
+      <c r="D379" s="24" t="s">
         <v>4248</v>
       </c>
       <c r="E379" s="7" t="s">
@@ -44880,7 +44939,7 @@
       <c r="C380" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D380" s="7" t="s">
+      <c r="D380" s="19" t="s">
         <v>4550</v>
       </c>
       <c r="E380" s="7" t="s">
@@ -44897,7 +44956,7 @@
       <c r="C381" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D381" s="7" t="s">
+      <c r="D381" s="19" t="s">
         <v>4553</v>
       </c>
       <c r="E381" s="7" t="s">
@@ -44914,7 +44973,7 @@
       <c r="C382" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D382" s="7" t="s">
+      <c r="D382" s="19" t="s">
         <v>4556</v>
       </c>
       <c r="E382" s="7" t="s">
@@ -44931,7 +44990,7 @@
       <c r="C383" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D383" s="7" t="s">
+      <c r="D383" s="19" t="s">
         <v>4558</v>
       </c>
       <c r="E383" s="7" t="s">
@@ -44948,7 +45007,7 @@
       <c r="C384" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D384" s="7" t="s">
+      <c r="D384" s="19" t="s">
         <v>4560</v>
       </c>
       <c r="E384" s="7" t="s">
@@ -44965,7 +45024,7 @@
       <c r="C385" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D385" s="7" t="s">
+      <c r="D385" s="19" t="s">
         <v>4562</v>
       </c>
       <c r="E385" s="7" t="s">
@@ -44982,7 +45041,7 @@
       <c r="C386" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D386" s="7" t="s">
+      <c r="D386" s="19" t="s">
         <v>4564</v>
       </c>
       <c r="E386" s="7" t="s">
@@ -44999,7 +45058,7 @@
       <c r="C387" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D387" s="7" t="s">
+      <c r="D387" s="19" t="s">
         <v>4566</v>
       </c>
       <c r="E387" s="7" t="s">
@@ -45016,7 +45075,7 @@
       <c r="C388" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D388" s="7" t="s">
+      <c r="D388" s="19" t="s">
         <v>4568</v>
       </c>
       <c r="E388" s="7" t="s">
@@ -45033,7 +45092,7 @@
       <c r="C389" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D389" s="7" t="s">
+      <c r="D389" s="19" t="s">
         <v>4570</v>
       </c>
       <c r="E389" s="7" t="s">
@@ -45050,7 +45109,7 @@
       <c r="C390" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D390" s="7" t="s">
+      <c r="D390" s="19" t="s">
         <v>4573</v>
       </c>
       <c r="E390" s="7" t="s">
@@ -45067,7 +45126,7 @@
       <c r="C391" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D391" s="7" t="s">
+      <c r="D391" s="19" t="s">
         <v>4575</v>
       </c>
       <c r="E391" s="7" t="s">
@@ -45084,7 +45143,7 @@
       <c r="C392" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D392" s="7" t="s">
+      <c r="D392" s="19" t="s">
         <v>4578</v>
       </c>
       <c r="E392" s="7" t="s">
@@ -45101,7 +45160,7 @@
       <c r="C393" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D393" s="7" t="s">
+      <c r="D393" s="19" t="s">
         <v>4580</v>
       </c>
       <c r="E393" s="7" t="s">
@@ -45118,7 +45177,7 @@
       <c r="C394" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D394" s="7" t="s">
+      <c r="D394" s="19" t="s">
         <v>4582</v>
       </c>
       <c r="E394" s="7" t="s">
@@ -45135,7 +45194,7 @@
       <c r="C395" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D395" s="7" t="s">
+      <c r="D395" s="19" t="s">
         <v>4584</v>
       </c>
       <c r="E395" s="7" t="s">
@@ -45152,7 +45211,7 @@
       <c r="C396" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D396" s="7" t="s">
+      <c r="D396" s="19" t="s">
         <v>4587</v>
       </c>
       <c r="E396" s="7" t="s">
@@ -45169,7 +45228,7 @@
       <c r="C397" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D397" s="7" t="s">
+      <c r="D397" s="19" t="s">
         <v>4589</v>
       </c>
       <c r="E397" s="7" t="s">
@@ -45186,7 +45245,7 @@
       <c r="C398" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D398" s="7" t="s">
+      <c r="D398" s="19" t="s">
         <v>4591</v>
       </c>
       <c r="E398" s="7" t="s">
@@ -45203,7 +45262,7 @@
       <c r="C399" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D399" s="7" t="s">
+      <c r="D399" s="19" t="s">
         <v>4593</v>
       </c>
       <c r="E399" s="7" t="s">
@@ -45220,7 +45279,7 @@
       <c r="C400" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D400" s="7" t="s">
+      <c r="D400" s="19" t="s">
         <v>4596</v>
       </c>
       <c r="E400" s="7" t="s">
@@ -45237,7 +45296,7 @@
       <c r="C401" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D401" s="7" t="s">
+      <c r="D401" s="19" t="s">
         <v>4599</v>
       </c>
       <c r="E401" s="7" t="s">
@@ -45254,7 +45313,7 @@
       <c r="C402" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D402" s="7" t="s">
+      <c r="D402" s="19" t="s">
         <v>4602</v>
       </c>
       <c r="E402" s="7" t="s">
@@ -45271,7 +45330,7 @@
       <c r="C403" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D403" s="7" t="s">
+      <c r="D403" s="19" t="s">
         <v>4605</v>
       </c>
       <c r="E403" s="7" t="s">
@@ -45288,7 +45347,7 @@
       <c r="C404" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D404" s="7" t="s">
+      <c r="D404" s="19" t="s">
         <v>4607</v>
       </c>
       <c r="E404" s="7" t="s">
@@ -45305,7 +45364,7 @@
       <c r="C405" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D405" s="7" t="s">
+      <c r="D405" s="19" t="s">
         <v>4610</v>
       </c>
       <c r="E405" s="7" t="s">
@@ -45322,7 +45381,7 @@
       <c r="C406" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D406" s="7" t="s">
+      <c r="D406" s="19" t="s">
         <v>4613</v>
       </c>
       <c r="E406" s="7" t="s">
@@ -45339,7 +45398,7 @@
       <c r="C407" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D407" s="7" t="s">
+      <c r="D407" s="19" t="s">
         <v>4615</v>
       </c>
       <c r="E407" s="7" t="s">
@@ -45356,7 +45415,7 @@
       <c r="C408" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D408" s="7" t="s">
+      <c r="D408" s="19" t="s">
         <v>4617</v>
       </c>
       <c r="E408" s="7" t="s">
@@ -45373,7 +45432,7 @@
       <c r="C409" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D409" s="7" t="s">
+      <c r="D409" s="19" t="s">
         <v>4619</v>
       </c>
       <c r="E409" s="7" t="s">
@@ -45390,7 +45449,7 @@
       <c r="C410" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D410" s="7" t="s">
+      <c r="D410" s="19" t="s">
         <v>4621</v>
       </c>
       <c r="E410" s="7" t="s">
@@ -45407,7 +45466,7 @@
       <c r="C411" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D411" s="7" t="s">
+      <c r="D411" s="19" t="s">
         <v>4624</v>
       </c>
       <c r="E411" s="7" t="s">
@@ -45424,7 +45483,7 @@
       <c r="C412" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D412" s="7" t="s">
+      <c r="D412" s="19" t="s">
         <v>4626</v>
       </c>
       <c r="E412" s="7" t="s">
@@ -45441,7 +45500,7 @@
       <c r="C413" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D413" s="7" t="s">
+      <c r="D413" s="19" t="s">
         <v>4628</v>
       </c>
       <c r="E413" s="7" t="s">
@@ -45458,7 +45517,7 @@
       <c r="C414" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D414" s="17" t="s">
+      <c r="D414" s="25" t="s">
         <v>4650</v>
       </c>
       <c r="E414" s="7" t="s">
@@ -45475,7 +45534,7 @@
       <c r="C415" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D415" s="17" t="s">
+      <c r="D415" s="25" t="s">
         <v>4653</v>
       </c>
       <c r="E415" s="7" t="s">
@@ -45492,7 +45551,7 @@
       <c r="C416" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D416" s="7" t="s">
+      <c r="D416" s="19" t="s">
         <v>4630</v>
       </c>
       <c r="E416" s="7" t="s">
@@ -45509,7 +45568,7 @@
       <c r="C417" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D417" s="7" t="s">
+      <c r="D417" s="19" t="s">
         <v>4632</v>
       </c>
       <c r="E417" s="7" t="s">
@@ -45526,7 +45585,7 @@
       <c r="C418" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D418" s="7" t="s">
+      <c r="D418" s="19" t="s">
         <v>4635</v>
       </c>
       <c r="E418" s="7" t="s">
@@ -45543,7 +45602,7 @@
       <c r="C419" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D419" s="7" t="s">
+      <c r="D419" s="19" t="s">
         <v>4638</v>
       </c>
       <c r="E419" s="7" t="s">
@@ -45560,7 +45619,7 @@
       <c r="C420" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D420" s="7" t="s">
+      <c r="D420" s="19" t="s">
         <v>4640</v>
       </c>
       <c r="E420" s="7" t="s">
@@ -45577,7 +45636,7 @@
       <c r="C421" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D421" s="7" t="s">
+      <c r="D421" s="19" t="s">
         <v>4642</v>
       </c>
       <c r="E421" s="7" t="s">
@@ -45594,7 +45653,7 @@
       <c r="C422" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D422" s="7" t="s">
+      <c r="D422" s="19" t="s">
         <v>4644</v>
       </c>
       <c r="E422" s="7" t="s">
@@ -45611,7 +45670,7 @@
       <c r="C423" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D423" s="7" t="s">
+      <c r="D423" s="19" t="s">
         <v>4645</v>
       </c>
       <c r="E423" s="7" t="s">
@@ -45628,7 +45687,7 @@
       <c r="C424" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D424" s="7" t="s">
+      <c r="D424" s="19" t="s">
         <v>4648</v>
       </c>
       <c r="E424" s="7" t="s">
@@ -45645,7 +45704,7 @@
       <c r="C425" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D425" s="17" t="s">
+      <c r="D425" s="25" t="s">
         <v>4674</v>
       </c>
       <c r="E425" s="7" t="s">
@@ -45662,7 +45721,7 @@
       <c r="C426" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D426" s="7" t="s">
+      <c r="D426" s="19" t="s">
         <v>4651</v>
       </c>
       <c r="E426" s="7" t="s">
@@ -45679,7 +45738,7 @@
       <c r="C427" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D427" s="7" t="s">
+      <c r="D427" s="19" t="s">
         <v>4654</v>
       </c>
       <c r="E427" s="7" t="s">
@@ -45696,7 +45755,7 @@
       <c r="C428" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D428" s="7" t="s">
+      <c r="D428" s="19" t="s">
         <v>4656</v>
       </c>
       <c r="E428" s="7" t="s">
@@ -45713,7 +45772,7 @@
       <c r="C429" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D429" s="7" t="s">
+      <c r="D429" s="19" t="s">
         <v>4658</v>
       </c>
       <c r="E429" s="7" t="s">
@@ -45730,7 +45789,7 @@
       <c r="C430" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D430" s="7" t="s">
+      <c r="D430" s="19" t="s">
         <v>4660</v>
       </c>
       <c r="E430" s="7" t="s">
@@ -45747,7 +45806,7 @@
       <c r="C431" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D431" s="7" t="s">
+      <c r="D431" s="19" t="s">
         <v>4662</v>
       </c>
       <c r="E431" s="7" t="s">
@@ -45764,7 +45823,7 @@
       <c r="C432" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D432" s="7" t="s">
+      <c r="D432" s="19" t="s">
         <v>4664</v>
       </c>
       <c r="E432" s="7" t="s">
@@ -45781,7 +45840,7 @@
       <c r="C433" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D433" s="7" t="s">
+      <c r="D433" s="19" t="s">
         <v>4666</v>
       </c>
       <c r="E433" s="7" t="s">
@@ -45798,7 +45857,7 @@
       <c r="C434" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D434" s="7" t="s">
+      <c r="D434" s="19" t="s">
         <v>4668</v>
       </c>
       <c r="E434" s="7" t="s">
@@ -45815,7 +45874,7 @@
       <c r="C435" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D435" s="7" t="s">
+      <c r="D435" s="19" t="s">
         <v>4670</v>
       </c>
       <c r="E435" s="7" t="s">
@@ -45832,7 +45891,7 @@
       <c r="C436" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D436" s="7" t="s">
+      <c r="D436" s="19" t="s">
         <v>4672</v>
       </c>
       <c r="E436" s="7" t="s">
@@ -45849,7 +45908,7 @@
       <c r="C437" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D437" s="7" t="s">
+      <c r="D437" s="19" t="s">
         <v>4675</v>
       </c>
       <c r="E437" s="7" t="s">
@@ -45866,7 +45925,7 @@
       <c r="C438" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D438" s="7" t="s">
+      <c r="D438" s="19" t="s">
         <v>4677</v>
       </c>
       <c r="E438" s="7" t="s">
@@ -45883,7 +45942,7 @@
       <c r="C439" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D439" s="7" t="s">
+      <c r="D439" s="19" t="s">
         <v>4679</v>
       </c>
       <c r="E439" s="7" t="s">
@@ -45900,7 +45959,7 @@
       <c r="C440" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D440" s="7" t="s">
+      <c r="D440" s="19" t="s">
         <v>4682</v>
       </c>
       <c r="E440" s="7" t="s">
@@ -45917,7 +45976,7 @@
       <c r="C441" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D441" s="7" t="s">
+      <c r="D441" s="19" t="s">
         <v>4684</v>
       </c>
       <c r="E441" s="7" t="s">
@@ -45934,7 +45993,7 @@
       <c r="C442" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D442" s="7" t="s">
+      <c r="D442" s="19" t="s">
         <v>4686</v>
       </c>
       <c r="E442" s="7" t="s">
@@ -45951,7 +46010,7 @@
       <c r="C443" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D443" s="7" t="s">
+      <c r="D443" s="19" t="s">
         <v>4688</v>
       </c>
       <c r="E443" s="7" t="s">
@@ -45968,7 +46027,7 @@
       <c r="C444" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D444" s="7" t="s">
+      <c r="D444" s="19" t="s">
         <v>4690</v>
       </c>
       <c r="E444" s="7" t="s">
@@ -45985,7 +46044,7 @@
       <c r="C445" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D445" s="7" t="s">
+      <c r="D445" s="19" t="s">
         <v>4693</v>
       </c>
       <c r="E445" s="7" t="s">
@@ -46002,7 +46061,7 @@
       <c r="C446" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D446" s="7" t="s">
+      <c r="D446" s="19" t="s">
         <v>4696</v>
       </c>
       <c r="E446" s="7" t="s">
@@ -46019,7 +46078,7 @@
       <c r="C447" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D447" s="7" t="s">
+      <c r="D447" s="19" t="s">
         <v>4698</v>
       </c>
       <c r="E447" s="7" t="s">
@@ -46036,7 +46095,7 @@
       <c r="C448" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D448" s="7" t="s">
+      <c r="D448" s="19" t="s">
         <v>4700</v>
       </c>
       <c r="E448" s="7" t="s">
@@ -46053,7 +46112,7 @@
       <c r="C449" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D449" s="7" t="s">
+      <c r="D449" s="19" t="s">
         <v>4702</v>
       </c>
       <c r="E449" s="7" t="s">
@@ -46070,7 +46129,7 @@
       <c r="C450" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D450" s="7" t="s">
+      <c r="D450" s="19" t="s">
         <v>4704</v>
       </c>
       <c r="E450" s="7" t="s">
@@ -46087,7 +46146,7 @@
       <c r="C451" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D451" s="7" t="s">
+      <c r="D451" s="19" t="s">
         <v>4706</v>
       </c>
       <c r="E451" s="7" t="s">
@@ -46104,7 +46163,7 @@
       <c r="C452" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D452" s="7" t="s">
+      <c r="D452" s="19" t="s">
         <v>4708</v>
       </c>
       <c r="E452" s="7" t="s">
@@ -46121,7 +46180,7 @@
       <c r="C453" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D453" s="7" t="s">
+      <c r="D453" s="19" t="s">
         <v>4710</v>
       </c>
       <c r="E453" s="7" t="s">
@@ -46138,7 +46197,7 @@
       <c r="C454" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D454" s="7" t="s">
+      <c r="D454" s="19" t="s">
         <v>4712</v>
       </c>
       <c r="E454" s="7" t="s">
@@ -46155,7 +46214,7 @@
       <c r="C455" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D455" s="7" t="s">
+      <c r="D455" s="19" t="s">
         <v>4714</v>
       </c>
       <c r="E455" s="7" t="s">
@@ -46172,7 +46231,7 @@
       <c r="C456" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D456" s="7" t="s">
+      <c r="D456" s="19" t="s">
         <v>4716</v>
       </c>
       <c r="E456" s="7" t="s">
@@ -46189,7 +46248,7 @@
       <c r="C457" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D457" s="7" t="s">
+      <c r="D457" s="19" t="s">
         <v>4718</v>
       </c>
       <c r="E457" s="7" t="s">
@@ -46206,7 +46265,7 @@
       <c r="C458" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D458" s="7" t="s">
+      <c r="D458" s="19" t="s">
         <v>4720</v>
       </c>
       <c r="E458" s="7" t="s">
@@ -46223,7 +46282,7 @@
       <c r="C459" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D459" s="7" t="s">
+      <c r="D459" s="19" t="s">
         <v>4723</v>
       </c>
       <c r="E459" s="7" t="s">
@@ -46240,7 +46299,7 @@
       <c r="C460" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D460" s="7" t="s">
+      <c r="D460" s="19" t="s">
         <v>4726</v>
       </c>
       <c r="E460" s="7" t="s">
@@ -46257,7 +46316,7 @@
       <c r="C461" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D461" s="7" t="s">
+      <c r="D461" s="19" t="s">
         <v>4728</v>
       </c>
       <c r="E461" s="7" t="s">
@@ -46274,7 +46333,7 @@
       <c r="C462" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D462" s="7" t="s">
+      <c r="D462" s="19" t="s">
         <v>4730</v>
       </c>
       <c r="E462" s="7" t="s">
@@ -46291,7 +46350,7 @@
       <c r="C463" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D463" s="7" t="s">
+      <c r="D463" s="19" t="s">
         <v>4732</v>
       </c>
       <c r="E463" s="7" t="s">
@@ -46308,7 +46367,7 @@
       <c r="C464" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D464" s="7" t="s">
+      <c r="D464" s="19" t="s">
         <v>4734</v>
       </c>
       <c r="E464" s="7" t="s">
@@ -46325,7 +46384,7 @@
       <c r="C465" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D465" s="7" t="s">
+      <c r="D465" s="19" t="s">
         <v>4736</v>
       </c>
       <c r="E465" s="7" t="s">
@@ -46342,7 +46401,7 @@
       <c r="C466" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D466" s="7" t="s">
+      <c r="D466" s="19" t="s">
         <v>4739</v>
       </c>
       <c r="E466" s="7" t="s">
@@ -46359,7 +46418,7 @@
       <c r="C467" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D467" s="7" t="s">
+      <c r="D467" s="19" t="s">
         <v>4742</v>
       </c>
       <c r="E467" s="7" t="s">
@@ -46376,7 +46435,7 @@
       <c r="C468" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D468" s="7" t="s">
+      <c r="D468" s="19" t="s">
         <v>4744</v>
       </c>
       <c r="E468" s="7" t="s">
@@ -46393,7 +46452,7 @@
       <c r="C469" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D469" s="7" t="s">
+      <c r="D469" s="19" t="s">
         <v>4746</v>
       </c>
       <c r="E469" s="7" t="s">
@@ -46410,7 +46469,7 @@
       <c r="C470" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D470" s="7" t="s">
+      <c r="D470" s="19" t="s">
         <v>4748</v>
       </c>
       <c r="E470" s="7" t="s">
@@ -46427,7 +46486,7 @@
       <c r="C471" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D471" s="11" t="s">
+      <c r="D471" s="26" t="s">
         <v>4779</v>
       </c>
       <c r="E471" s="7" t="s">
@@ -46444,7 +46503,7 @@
       <c r="C472" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D472" s="7" t="s">
+      <c r="D472" s="19" t="s">
         <v>4754</v>
       </c>
       <c r="E472" s="7" t="s">
@@ -46461,7 +46520,7 @@
       <c r="C473" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D473" s="7" t="s">
+      <c r="D473" s="19" t="s">
         <v>4756</v>
       </c>
       <c r="E473" s="7" t="s">
@@ -46478,7 +46537,7 @@
       <c r="C474" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D474" s="7" t="s">
+      <c r="D474" s="19" t="s">
         <v>4758</v>
       </c>
       <c r="E474" s="7" t="s">
@@ -46495,7 +46554,7 @@
       <c r="C475" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D475" s="7" t="s">
+      <c r="D475" s="19" t="s">
         <v>4760</v>
       </c>
       <c r="E475" s="7" t="s">
@@ -46512,7 +46571,7 @@
       <c r="C476" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D476" s="7" t="s">
+      <c r="D476" s="19" t="s">
         <v>4762</v>
       </c>
       <c r="E476" s="7" t="s">
@@ -46529,7 +46588,7 @@
       <c r="C477" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D477" s="7" t="s">
+      <c r="D477" s="19" t="s">
         <v>4765</v>
       </c>
       <c r="E477" s="7" t="s">
@@ -46546,7 +46605,7 @@
       <c r="C478" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D478" s="7" t="s">
+      <c r="D478" s="19" t="s">
         <v>4768</v>
       </c>
       <c r="E478" s="7" t="s">
@@ -46563,7 +46622,7 @@
       <c r="C479" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D479" s="7" t="s">
+      <c r="D479" s="19" t="s">
         <v>4770</v>
       </c>
       <c r="E479" s="7" t="s">
@@ -46580,7 +46639,7 @@
       <c r="C480" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D480" s="7" t="s">
+      <c r="D480" s="19" t="s">
         <v>4773</v>
       </c>
       <c r="E480" s="7" t="s">
@@ -46597,7 +46656,7 @@
       <c r="C481" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D481" s="7" t="s">
+      <c r="D481" s="19" t="s">
         <v>4775</v>
       </c>
       <c r="E481" s="7" t="s">
@@ -46614,7 +46673,7 @@
       <c r="C482" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D482" s="7" t="s">
+      <c r="D482" s="19" t="s">
         <v>4777</v>
       </c>
       <c r="E482" s="7" t="s">
@@ -46631,7 +46690,7 @@
       <c r="C483" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D483" s="7" t="s">
+      <c r="D483" s="19" t="s">
         <v>4780</v>
       </c>
       <c r="E483" s="7" t="s">
@@ -46648,7 +46707,7 @@
       <c r="C484" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D484" s="7" t="s">
+      <c r="D484" s="19" t="s">
         <v>4782</v>
       </c>
       <c r="E484" s="7" t="s">
@@ -46665,7 +46724,7 @@
       <c r="C485" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D485" s="7" t="s">
+      <c r="D485" s="19" t="s">
         <v>4784</v>
       </c>
       <c r="E485" s="7" t="s">
@@ -46682,7 +46741,7 @@
       <c r="C486" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D486" s="7" t="s">
+      <c r="D486" s="19" t="s">
         <v>4786</v>
       </c>
       <c r="E486" s="7" t="s">
@@ -46699,7 +46758,7 @@
       <c r="C487" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D487" s="7" t="s">
+      <c r="D487" s="19" t="s">
         <v>4788</v>
       </c>
       <c r="E487" s="7" t="s">
@@ -46716,7 +46775,7 @@
       <c r="C488" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D488" s="7" t="s">
+      <c r="D488" s="19" t="s">
         <v>4790</v>
       </c>
       <c r="E488" s="7" t="s">
@@ -46733,7 +46792,7 @@
       <c r="C489" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D489" s="7" t="s">
+      <c r="D489" s="19" t="s">
         <v>4792</v>
       </c>
       <c r="E489" s="7" t="s">
@@ -46750,7 +46809,7 @@
       <c r="C490" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D490" s="7" t="s">
+      <c r="D490" s="19" t="s">
         <v>4795</v>
       </c>
       <c r="E490" s="7" t="s">
@@ -46767,7 +46826,7 @@
       <c r="C491" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D491" s="7" t="s">
+      <c r="D491" s="19" t="s">
         <v>4797</v>
       </c>
       <c r="E491" s="7" t="s">
@@ -46784,7 +46843,7 @@
       <c r="C492" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D492" s="7" t="s">
+      <c r="D492" s="19" t="s">
         <v>4799</v>
       </c>
       <c r="E492" s="7" t="s">
@@ -46801,7 +46860,7 @@
       <c r="C493" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D493" s="7" t="s">
+      <c r="D493" s="19" t="s">
         <v>4801</v>
       </c>
       <c r="E493" s="7" t="s">
@@ -46818,7 +46877,7 @@
       <c r="C494" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D494" s="7" t="s">
+      <c r="D494" s="19" t="s">
         <v>4804</v>
       </c>
       <c r="E494" s="7" t="s">
@@ -46835,7 +46894,7 @@
       <c r="C495" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D495" s="7" t="s">
+      <c r="D495" s="19" t="s">
         <v>4806</v>
       </c>
       <c r="E495" s="7" t="s">
@@ -46852,7 +46911,7 @@
       <c r="C496" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D496" s="7" t="s">
+      <c r="D496" s="19" t="s">
         <v>4809</v>
       </c>
       <c r="E496" s="7" t="s">
@@ -46869,7 +46928,7 @@
       <c r="C497" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D497" s="7" t="s">
+      <c r="D497" s="19" t="s">
         <v>4811</v>
       </c>
       <c r="E497" s="7" t="s">
@@ -46886,7 +46945,7 @@
       <c r="C498" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D498" s="7" t="s">
+      <c r="D498" s="19" t="s">
         <v>4813</v>
       </c>
       <c r="E498" s="7" t="s">
@@ -46903,7 +46962,7 @@
       <c r="C499" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D499" s="7" t="s">
+      <c r="D499" s="19" t="s">
         <v>4815</v>
       </c>
       <c r="E499" s="7" t="s">
@@ -46920,7 +46979,7 @@
       <c r="C500" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D500" s="7" t="s">
+      <c r="D500" s="19" t="s">
         <v>4817</v>
       </c>
       <c r="E500" s="7" t="s">
@@ -46937,7 +46996,7 @@
       <c r="C501" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D501" s="7" t="s">
+      <c r="D501" s="19" t="s">
         <v>4819</v>
       </c>
       <c r="E501" s="7" t="s">
@@ -46954,7 +47013,7 @@
       <c r="C502" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D502" s="7" t="s">
+      <c r="D502" s="19" t="s">
         <v>4822</v>
       </c>
       <c r="E502" s="7" t="s">
@@ -46971,7 +47030,7 @@
       <c r="C503" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D503" s="7" t="s">
+      <c r="D503" s="19" t="s">
         <v>4824</v>
       </c>
       <c r="E503" s="7" t="s">
@@ -46988,7 +47047,7 @@
       <c r="C504" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D504" s="7" t="s">
+      <c r="D504" s="19" t="s">
         <v>4827</v>
       </c>
       <c r="E504" s="7" t="s">
@@ -47005,7 +47064,7 @@
       <c r="C505" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D505" s="7" t="s">
+      <c r="D505" s="19" t="s">
         <v>4830</v>
       </c>
       <c r="E505" s="7" t="s">
@@ -47022,7 +47081,7 @@
       <c r="C506" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D506" s="7" t="s">
+      <c r="D506" s="19" t="s">
         <v>4832</v>
       </c>
       <c r="E506" s="7" t="s">
@@ -47039,7 +47098,7 @@
       <c r="C507" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D507" s="7" t="s">
+      <c r="D507" s="19" t="s">
         <v>4834</v>
       </c>
       <c r="E507" s="7" t="s">
@@ -47056,7 +47115,7 @@
       <c r="C508" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D508" s="7" t="s">
+      <c r="D508" s="19" t="s">
         <v>4836</v>
       </c>
       <c r="E508" s="7" t="s">
@@ -47073,7 +47132,7 @@
       <c r="C509" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D509" s="7" t="s">
+      <c r="D509" s="19" t="s">
         <v>4838</v>
       </c>
       <c r="E509" s="7" t="s">
@@ -47090,7 +47149,7 @@
       <c r="C510" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D510" s="7" t="s">
+      <c r="D510" s="19" t="s">
         <v>4840</v>
       </c>
       <c r="E510" s="7" t="s">
@@ -47107,7 +47166,7 @@
       <c r="C511" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D511" s="7" t="s">
+      <c r="D511" s="19" t="s">
         <v>4843</v>
       </c>
       <c r="E511" s="7" t="s">
@@ -47124,7 +47183,7 @@
       <c r="C512" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D512" s="7" t="s">
+      <c r="D512" s="19" t="s">
         <v>4845</v>
       </c>
       <c r="E512" s="7" t="s">
@@ -47141,7 +47200,7 @@
       <c r="C513" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D513" s="7" t="s">
+      <c r="D513" s="19" t="s">
         <v>4847</v>
       </c>
       <c r="E513" s="7" t="s">
@@ -47158,7 +47217,7 @@
       <c r="C514" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D514" s="7" t="s">
+      <c r="D514" s="19" t="s">
         <v>4849</v>
       </c>
       <c r="E514" s="7" t="s">
@@ -47175,7 +47234,7 @@
       <c r="C515" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D515" s="7" t="s">
+      <c r="D515" s="19" t="s">
         <v>4852</v>
       </c>
       <c r="E515" s="7" t="s">
@@ -47192,7 +47251,7 @@
       <c r="C516" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D516" s="7" t="s">
+      <c r="D516" s="19" t="s">
         <v>4855</v>
       </c>
       <c r="E516" s="7" t="s">
@@ -47209,7 +47268,7 @@
       <c r="C517" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D517" s="7" t="s">
+      <c r="D517" s="19" t="s">
         <v>4857</v>
       </c>
       <c r="E517" s="7" t="s">
@@ -47226,7 +47285,7 @@
       <c r="C518" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D518" s="7" t="s">
+      <c r="D518" s="19" t="s">
         <v>4859</v>
       </c>
       <c r="E518" s="7" t="s">
@@ -47243,7 +47302,7 @@
       <c r="C519" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D519" s="7" t="s">
+      <c r="D519" s="19" t="s">
         <v>4861</v>
       </c>
       <c r="E519" s="7" t="s">
@@ -47260,7 +47319,7 @@
       <c r="C520" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D520" s="7" t="s">
+      <c r="D520" s="19" t="s">
         <v>4863</v>
       </c>
       <c r="E520" s="7" t="s">
@@ -47277,7 +47336,7 @@
       <c r="C521" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D521" s="7" t="s">
+      <c r="D521" s="19" t="s">
         <v>4866</v>
       </c>
       <c r="E521" s="7" t="s">
@@ -47294,7 +47353,7 @@
       <c r="C522" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D522" s="7" t="s">
+      <c r="D522" s="19" t="s">
         <v>4868</v>
       </c>
       <c r="E522" s="7" t="s">
@@ -47311,7 +47370,7 @@
       <c r="C523" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D523" s="7" t="s">
+      <c r="D523" s="19" t="s">
         <v>4870</v>
       </c>
       <c r="E523" s="7" t="s">
@@ -47328,7 +47387,7 @@
       <c r="C524" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D524" s="7" t="s">
+      <c r="D524" s="19" t="s">
         <v>4872</v>
       </c>
       <c r="E524" s="7" t="s">
@@ -47345,7 +47404,7 @@
       <c r="C525" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D525" s="7" t="s">
+      <c r="D525" s="19" t="s">
         <v>4874</v>
       </c>
       <c r="E525" s="7" t="s">
@@ -47362,7 +47421,7 @@
       <c r="C526" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D526" s="7" t="s">
+      <c r="D526" s="19" t="s">
         <v>4876</v>
       </c>
       <c r="E526" s="7" t="s">
@@ -47379,7 +47438,7 @@
       <c r="C527" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D527" s="13" t="s">
+      <c r="D527" s="12" t="s">
         <v>4906</v>
       </c>
       <c r="E527" s="7" t="s">
@@ -47396,7 +47455,7 @@
       <c r="C528" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D528" s="7" t="s">
+      <c r="D528" s="19" t="s">
         <v>4878</v>
       </c>
       <c r="E528" s="7" t="s">
@@ -47413,7 +47472,7 @@
       <c r="C529" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D529" s="7" t="s">
+      <c r="D529" s="19" t="s">
         <v>4880</v>
       </c>
       <c r="E529" s="7" t="s">
@@ -47430,7 +47489,7 @@
       <c r="C530" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D530" s="7" t="s">
+      <c r="D530" s="19" t="s">
         <v>4882</v>
       </c>
       <c r="E530" s="7" t="s">
@@ -47447,7 +47506,7 @@
       <c r="C531" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D531" s="7" t="s">
+      <c r="D531" s="19" t="s">
         <v>4884</v>
       </c>
       <c r="E531" s="7" t="s">
@@ -47464,7 +47523,7 @@
       <c r="C532" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D532" s="7" t="s">
+      <c r="D532" s="19" t="s">
         <v>4886</v>
       </c>
       <c r="E532" s="7" t="s">
@@ -47481,7 +47540,7 @@
       <c r="C533" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D533" s="7" t="s">
+      <c r="D533" s="19" t="s">
         <v>4888</v>
       </c>
       <c r="E533" s="7" t="s">
@@ -47498,7 +47557,7 @@
       <c r="C534" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D534" s="7" t="s">
+      <c r="D534" s="19" t="s">
         <v>4891</v>
       </c>
       <c r="E534" s="7" t="s">
@@ -47515,7 +47574,7 @@
       <c r="C535" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D535" s="13" t="s">
+      <c r="D535" s="12" t="s">
         <v>4923</v>
       </c>
       <c r="E535" s="7" t="s">
@@ -47532,7 +47591,7 @@
       <c r="C536" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D536" s="7" t="s">
+      <c r="D536" s="19" t="s">
         <v>4893</v>
       </c>
       <c r="E536" s="7" t="s">
@@ -47549,7 +47608,7 @@
       <c r="C537" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D537" s="7" t="s">
+      <c r="D537" s="19" t="s">
         <v>4896</v>
       </c>
       <c r="E537" s="7" t="s">
@@ -47566,7 +47625,7 @@
       <c r="C538" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D538" s="7" t="s">
+      <c r="D538" s="19" t="s">
         <v>4899</v>
       </c>
       <c r="E538" s="7" t="s">
@@ -47583,7 +47642,7 @@
       <c r="C539" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D539" s="7" t="s">
+      <c r="D539" s="19" t="s">
         <v>4901</v>
       </c>
       <c r="E539" s="7" t="s">
@@ -47600,7 +47659,7 @@
       <c r="C540" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D540" s="7" t="s">
+      <c r="D540" s="19" t="s">
         <v>4904</v>
       </c>
       <c r="E540" s="7" t="s">
@@ -47617,7 +47676,7 @@
       <c r="C541" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D541" s="7" t="s">
+      <c r="D541" s="19" t="s">
         <v>4907</v>
       </c>
       <c r="E541" s="7" t="s">
@@ -47634,7 +47693,7 @@
       <c r="C542" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D542" s="7" t="s">
+      <c r="D542" s="19" t="s">
         <v>4909</v>
       </c>
       <c r="E542" s="7" t="s">
@@ -47651,7 +47710,7 @@
       <c r="C543" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D543" s="7" t="s">
+      <c r="D543" s="19" t="s">
         <v>4911</v>
       </c>
       <c r="E543" s="7" t="s">
@@ -47668,7 +47727,7 @@
       <c r="C544" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D544" s="7" t="s">
+      <c r="D544" s="19" t="s">
         <v>4913</v>
       </c>
       <c r="E544" s="7" t="s">
@@ -47685,7 +47744,7 @@
       <c r="C545" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D545" s="7" t="s">
+      <c r="D545" s="19" t="s">
         <v>4915</v>
       </c>
       <c r="E545" s="7" t="s">
@@ -47702,7 +47761,7 @@
       <c r="C546" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D546" s="7" t="s">
+      <c r="D546" s="19" t="s">
         <v>4917</v>
       </c>
       <c r="E546" s="7" t="s">
@@ -47719,7 +47778,7 @@
       <c r="C547" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D547" s="7" t="s">
+      <c r="D547" s="19" t="s">
         <v>4919</v>
       </c>
       <c r="E547" s="7" t="s">
@@ -47736,7 +47795,7 @@
       <c r="C548" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D548" s="7" t="s">
+      <c r="D548" s="19" t="s">
         <v>4921</v>
       </c>
       <c r="E548" s="7" t="s">
@@ -47753,7 +47812,7 @@
       <c r="C549" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D549" s="7" t="s">
+      <c r="D549" s="19" t="s">
         <v>4924</v>
       </c>
       <c r="E549" s="7" t="s">
@@ -47770,7 +47829,7 @@
       <c r="C550" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D550" s="7" t="s">
+      <c r="D550" s="19" t="s">
         <v>4927</v>
       </c>
       <c r="E550" s="7" t="s">
@@ -47787,7 +47846,7 @@
       <c r="C551" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D551" s="7" t="s">
+      <c r="D551" s="19" t="s">
         <v>4929</v>
       </c>
       <c r="E551" s="7" t="s">
@@ -47804,7 +47863,7 @@
       <c r="C552" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D552" s="7" t="s">
+      <c r="D552" s="19" t="s">
         <v>4931</v>
       </c>
       <c r="E552" s="7" t="s">
@@ -47821,7 +47880,7 @@
       <c r="C553" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D553" s="7" t="s">
+      <c r="D553" s="19" t="s">
         <v>4933</v>
       </c>
       <c r="E553" s="7" t="s">
@@ -47838,7 +47897,7 @@
       <c r="C554" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D554" s="7" t="s">
+      <c r="D554" s="19" t="s">
         <v>4935</v>
       </c>
       <c r="E554" s="7" t="s">
@@ -47855,7 +47914,7 @@
       <c r="C555" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D555" s="7" t="s">
+      <c r="D555" s="19" t="s">
         <v>4937</v>
       </c>
       <c r="E555" s="7" t="s">
@@ -47872,7 +47931,7 @@
       <c r="C556" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D556" s="7" t="s">
+      <c r="D556" s="19" t="s">
         <v>4939</v>
       </c>
       <c r="E556" s="7" t="s">
@@ -47889,7 +47948,7 @@
       <c r="C557" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D557" s="7" t="s">
+      <c r="D557" s="19" t="s">
         <v>4941</v>
       </c>
       <c r="E557" s="7" t="s">
@@ -47906,7 +47965,7 @@
       <c r="C558" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D558" s="7" t="s">
+      <c r="D558" s="19" t="s">
         <v>4943</v>
       </c>
       <c r="E558" s="7" t="s">
@@ -47923,7 +47982,7 @@
       <c r="C559" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D559" s="7" t="s">
+      <c r="D559" s="19" t="s">
         <v>4946</v>
       </c>
       <c r="E559" s="7" t="s">
@@ -47940,7 +47999,7 @@
       <c r="C560" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D560" s="7" t="s">
+      <c r="D560" s="19" t="s">
         <v>4948</v>
       </c>
       <c r="E560" s="7" t="s">
@@ -47957,7 +48016,7 @@
       <c r="C561" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D561" s="7" t="s">
+      <c r="D561" s="19" t="s">
         <v>4950</v>
       </c>
       <c r="E561" s="7" t="s">
@@ -47974,7 +48033,7 @@
       <c r="C562" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D562" s="7" t="s">
+      <c r="D562" s="19" t="s">
         <v>4952</v>
       </c>
       <c r="E562" s="7" t="s">
@@ -47991,7 +48050,7 @@
       <c r="C563" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D563" s="7" t="s">
+      <c r="D563" s="19" t="s">
         <v>4955</v>
       </c>
       <c r="E563" s="7" t="s">
@@ -48008,7 +48067,7 @@
       <c r="C564" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D564" s="7" t="s">
+      <c r="D564" s="19" t="s">
         <v>4958</v>
       </c>
       <c r="E564" s="7" t="s">
@@ -48025,7 +48084,7 @@
       <c r="C565" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D565" s="7" t="s">
+      <c r="D565" s="19" t="s">
         <v>4961</v>
       </c>
       <c r="E565" s="7" t="s">
@@ -48042,7 +48101,7 @@
       <c r="C566" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D566" s="7" t="s">
+      <c r="D566" s="19" t="s">
         <v>4963</v>
       </c>
       <c r="E566" s="7" t="s">
@@ -48059,7 +48118,7 @@
       <c r="C567" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D567" s="7" t="s">
+      <c r="D567" s="19" t="s">
         <v>4965</v>
       </c>
       <c r="E567" s="7" t="s">
@@ -48076,7 +48135,7 @@
       <c r="C568" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D568" s="7" t="s">
+      <c r="D568" s="19" t="s">
         <v>4968</v>
       </c>
       <c r="E568" s="7" t="s">
@@ -48093,7 +48152,7 @@
       <c r="C569" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D569" s="7" t="s">
+      <c r="D569" s="19" t="s">
         <v>4970</v>
       </c>
       <c r="E569" s="7" t="s">
@@ -48110,7 +48169,7 @@
       <c r="C570" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D570" s="7" t="s">
+      <c r="D570" s="19" t="s">
         <v>4973</v>
       </c>
       <c r="E570" s="7" t="s">
@@ -48127,7 +48186,7 @@
       <c r="C571" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D571" s="7" t="s">
+      <c r="D571" s="19" t="s">
         <v>4975</v>
       </c>
       <c r="E571" s="7" t="s">
@@ -48144,7 +48203,7 @@
       <c r="C572" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D572" s="7" t="s">
+      <c r="D572" s="19" t="s">
         <v>4978</v>
       </c>
       <c r="E572" s="7" t="s">
@@ -48161,7 +48220,7 @@
       <c r="C573" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D573" s="7" t="s">
+      <c r="D573" s="19" t="s">
         <v>4980</v>
       </c>
       <c r="E573" s="7" t="s">
@@ -48178,7 +48237,7 @@
       <c r="C574" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D574" s="7" t="s">
+      <c r="D574" s="19" t="s">
         <v>4983</v>
       </c>
       <c r="E574" s="7" t="s">
@@ -48195,7 +48254,7 @@
       <c r="C575" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D575" s="7" t="s">
+      <c r="D575" s="19" t="s">
         <v>4985</v>
       </c>
       <c r="E575" s="7" t="s">
@@ -48212,7 +48271,7 @@
       <c r="C576" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D576" s="7" t="s">
+      <c r="D576" s="19" t="s">
         <v>4987</v>
       </c>
       <c r="E576" s="7" t="s">
@@ -48229,7 +48288,7 @@
       <c r="C577" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D577" s="7" t="s">
+      <c r="D577" s="19" t="s">
         <v>4990</v>
       </c>
       <c r="E577" s="7" t="s">
@@ -48246,7 +48305,7 @@
       <c r="C578" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D578" s="7" t="s">
+      <c r="D578" s="19" t="s">
         <v>4992</v>
       </c>
       <c r="E578" s="7" t="s">
@@ -48263,7 +48322,7 @@
       <c r="C579" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D579" s="7" t="s">
+      <c r="D579" s="19" t="s">
         <v>4994</v>
       </c>
       <c r="E579" s="7" t="s">
@@ -48280,7 +48339,7 @@
       <c r="C580" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D580" s="7" t="s">
+      <c r="D580" s="19" t="s">
         <v>4996</v>
       </c>
       <c r="E580" s="7" t="s">
@@ -48297,7 +48356,7 @@
       <c r="C581" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D581" s="7" t="s">
+      <c r="D581" s="19" t="s">
         <v>4998</v>
       </c>
       <c r="E581" s="7" t="s">
@@ -48314,7 +48373,7 @@
       <c r="C582" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D582" s="7" t="s">
+      <c r="D582" s="19" t="s">
         <v>5001</v>
       </c>
       <c r="E582" s="7" t="s">
@@ -48331,7 +48390,7 @@
       <c r="C583" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D583" s="7" t="s">
+      <c r="D583" s="19" t="s">
         <v>5003</v>
       </c>
       <c r="E583" s="7" t="s">
@@ -48348,7 +48407,7 @@
       <c r="C584" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D584" s="13" t="s">
+      <c r="D584" s="12" t="s">
         <v>5035</v>
       </c>
       <c r="E584" s="7" t="s">
@@ -48365,7 +48424,7 @@
       <c r="C585" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D585" s="13" t="s">
+      <c r="D585" s="12" t="s">
         <v>5038</v>
       </c>
       <c r="E585" s="7" t="s">
@@ -48382,7 +48441,7 @@
       <c r="C586" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D586" s="7" t="s">
+      <c r="D586" s="19" t="s">
         <v>5010</v>
       </c>
       <c r="E586" s="7" t="s">
@@ -48399,7 +48458,7 @@
       <c r="C587" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D587" s="7" t="s">
+      <c r="D587" s="19" t="s">
         <v>5012</v>
       </c>
       <c r="E587" s="7" t="s">
@@ -48416,7 +48475,7 @@
       <c r="C588" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D588" s="15" t="s">
+      <c r="D588" s="20" t="s">
         <v>5045</v>
       </c>
       <c r="E588" s="7" t="s">
@@ -48433,7 +48492,7 @@
       <c r="C589" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D589" s="7" t="s">
+      <c r="D589" s="19" t="s">
         <v>5014</v>
       </c>
       <c r="E589" s="7" t="s">
@@ -48450,7 +48509,7 @@
       <c r="C590" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D590" s="7" t="s">
+      <c r="D590" s="19" t="s">
         <v>5016</v>
       </c>
       <c r="E590" s="7" t="s">
@@ -48467,7 +48526,7 @@
       <c r="C591" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D591" s="7" t="s">
+      <c r="D591" s="19" t="s">
         <v>5019</v>
       </c>
       <c r="E591" s="7" t="s">
@@ -48484,7 +48543,7 @@
       <c r="C592" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D592" s="7" t="s">
+      <c r="D592" s="19" t="s">
         <v>5021</v>
       </c>
       <c r="E592" s="7" t="s">
@@ -48501,7 +48560,7 @@
       <c r="C593" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D593" s="7" t="s">
+      <c r="D593" s="19" t="s">
         <v>5023</v>
       </c>
       <c r="E593" s="7" t="s">
@@ -48518,7 +48577,7 @@
       <c r="C594" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D594" s="7" t="s">
+      <c r="D594" s="19" t="s">
         <v>5025</v>
       </c>
       <c r="E594" s="7" t="s">
@@ -48535,7 +48594,7 @@
       <c r="C595" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D595" s="7" t="s">
+      <c r="D595" s="19" t="s">
         <v>5027</v>
       </c>
       <c r="E595" s="7" t="s">
@@ -48552,7 +48611,7 @@
       <c r="C596" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D596" s="7" t="s">
+      <c r="D596" s="19" t="s">
         <v>5029</v>
       </c>
       <c r="E596" s="7" t="s">
@@ -48569,7 +48628,7 @@
       <c r="C597" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D597" s="7" t="s">
+      <c r="D597" s="19" t="s">
         <v>5031</v>
       </c>
       <c r="E597" s="7" t="s">
@@ -48586,7 +48645,7 @@
       <c r="C598" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D598" s="7" t="s">
+      <c r="D598" s="19" t="s">
         <v>5033</v>
       </c>
       <c r="E598" s="7" t="s">
@@ -48603,7 +48662,7 @@
       <c r="C599" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D599" s="7" t="s">
+      <c r="D599" s="19" t="s">
         <v>5036</v>
       </c>
       <c r="E599" s="7" t="s">
@@ -48620,7 +48679,7 @@
       <c r="C600" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D600" s="7" t="s">
+      <c r="D600" s="19" t="s">
         <v>5039</v>
       </c>
       <c r="E600" s="7" t="s">
@@ -48637,7 +48696,7 @@
       <c r="C601" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D601" s="7" t="s">
+      <c r="D601" s="19" t="s">
         <v>5041</v>
       </c>
       <c r="E601" s="7" t="s">
@@ -48654,7 +48713,7 @@
       <c r="C602" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D602" s="7" t="s">
+      <c r="D602" s="19" t="s">
         <v>5043</v>
       </c>
       <c r="E602" s="7" t="s">
@@ -48671,7 +48730,7 @@
       <c r="C603" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D603" s="7" t="s">
+      <c r="D603" s="19" t="s">
         <v>5046</v>
       </c>
       <c r="E603" s="7" t="s">
@@ -48688,7 +48747,7 @@
       <c r="C604" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D604" s="7" t="s">
+      <c r="D604" s="19" t="s">
         <v>5048</v>
       </c>
       <c r="E604" s="7" t="s">
@@ -48705,7 +48764,7 @@
       <c r="C605" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D605" s="7" t="s">
+      <c r="D605" s="19" t="s">
         <v>5051</v>
       </c>
       <c r="E605" s="7" t="s">
@@ -48722,7 +48781,7 @@
       <c r="C606" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D606" s="7" t="s">
+      <c r="D606" s="19" t="s">
         <v>5054</v>
       </c>
       <c r="E606" s="7" t="s">
@@ -48739,7 +48798,7 @@
       <c r="C607" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D607" s="7" t="s">
+      <c r="D607" s="19" t="s">
         <v>5056</v>
       </c>
       <c r="E607" s="7" t="s">
@@ -48756,7 +48815,7 @@
       <c r="C608" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D608" s="7" t="s">
+      <c r="D608" s="19" t="s">
         <v>5059</v>
       </c>
       <c r="E608" s="7" t="s">
@@ -48773,7 +48832,7 @@
       <c r="C609" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D609" s="7" t="s">
+      <c r="D609" s="19" t="s">
         <v>5061</v>
       </c>
       <c r="E609" s="7" t="s">
@@ -48790,7 +48849,7 @@
       <c r="C610" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D610" s="7" t="s">
+      <c r="D610" s="19" t="s">
         <v>5063</v>
       </c>
       <c r="E610" s="7" t="s">
@@ -48807,7 +48866,7 @@
       <c r="C611" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D611" s="7" t="s">
+      <c r="D611" s="19" t="s">
         <v>5065</v>
       </c>
       <c r="E611" s="7" t="s">
@@ -48824,7 +48883,7 @@
       <c r="C612" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D612" s="7" t="s">
+      <c r="D612" s="19" t="s">
         <v>5067</v>
       </c>
       <c r="E612" s="7" t="s">
@@ -48841,7 +48900,7 @@
       <c r="C613" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D613" s="7" t="s">
+      <c r="D613" s="19" t="s">
         <v>5069</v>
       </c>
       <c r="E613" s="7" t="s">
@@ -48858,7 +48917,7 @@
       <c r="C614" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D614" s="7" t="s">
+      <c r="D614" s="19" t="s">
         <v>5072</v>
       </c>
       <c r="E614" s="7" t="s">
@@ -48875,7 +48934,7 @@
       <c r="C615" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D615" s="7" t="s">
+      <c r="D615" s="19" t="s">
         <v>5074</v>
       </c>
       <c r="E615" s="7" t="s">
@@ -48892,7 +48951,7 @@
       <c r="C616" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D616" s="7" t="s">
+      <c r="D616" s="19" t="s">
         <v>5076</v>
       </c>
       <c r="E616" s="7" t="s">
@@ -48909,7 +48968,7 @@
       <c r="C617" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D617" s="7" t="s">
+      <c r="D617" s="19" t="s">
         <v>5078</v>
       </c>
       <c r="E617" s="7" t="s">
@@ -48926,7 +48985,7 @@
       <c r="C618" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D618" s="7" t="s">
+      <c r="D618" s="19" t="s">
         <v>5080</v>
       </c>
       <c r="E618" s="7" t="s">
@@ -48943,7 +49002,7 @@
       <c r="C619" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D619" s="7" t="s">
+      <c r="D619" s="19" t="s">
         <v>5083</v>
       </c>
       <c r="E619" s="7" t="s">
@@ -48960,7 +49019,7 @@
       <c r="C620" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D620" s="7" t="s">
+      <c r="D620" s="19" t="s">
         <v>5085</v>
       </c>
       <c r="E620" s="7" t="s">
@@ -48977,7 +49036,7 @@
       <c r="C621" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D621" s="7" t="s">
+      <c r="D621" s="19" t="s">
         <v>5088</v>
       </c>
       <c r="E621" s="7" t="s">
@@ -48994,7 +49053,7 @@
       <c r="C622" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D622" s="7" t="s">
+      <c r="D622" s="19" t="s">
         <v>5090</v>
       </c>
       <c r="E622" s="7" t="s">
@@ -49011,7 +49070,7 @@
       <c r="C623" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D623" s="7" t="s">
+      <c r="D623" s="19" t="s">
         <v>5092</v>
       </c>
       <c r="E623" s="7" t="s">
@@ -49028,7 +49087,7 @@
       <c r="C624" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D624" s="7" t="s">
+      <c r="D624" s="19" t="s">
         <v>5095</v>
       </c>
       <c r="E624" s="7" t="s">
@@ -49045,7 +49104,7 @@
       <c r="C625" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D625" s="7" t="s">
+      <c r="D625" s="19" t="s">
         <v>5097</v>
       </c>
       <c r="E625" s="7" t="s">
@@ -49062,7 +49121,7 @@
       <c r="C626" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D626" s="7" t="s">
+      <c r="D626" s="19" t="s">
         <v>5100</v>
       </c>
       <c r="E626" s="7" t="s">
@@ -49079,7 +49138,7 @@
       <c r="C627" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D627" s="7" t="s">
+      <c r="D627" s="19" t="s">
         <v>5103</v>
       </c>
       <c r="E627" s="7" t="s">
@@ -49096,7 +49155,7 @@
       <c r="C628" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D628" s="15" t="s">
+      <c r="D628" s="24" t="s">
         <v>4248</v>
       </c>
       <c r="E628" s="7" t="s">
@@ -49113,7 +49172,7 @@
       <c r="C629" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D629" s="7" t="s">
+      <c r="D629" s="19" t="s">
         <v>5109</v>
       </c>
       <c r="E629" s="7" t="s">
@@ -49130,7 +49189,7 @@
       <c r="C630" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D630" s="7" t="s">
+      <c r="D630" s="19" t="s">
         <v>5111</v>
       </c>
       <c r="E630" s="7" t="s">
@@ -49147,7 +49206,7 @@
       <c r="C631" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D631" s="7" t="s">
+      <c r="D631" s="19" t="s">
         <v>5113</v>
       </c>
       <c r="E631" s="7" t="s">
@@ -49164,7 +49223,7 @@
       <c r="C632" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D632" s="7" t="s">
+      <c r="D632" s="19" t="s">
         <v>5115</v>
       </c>
       <c r="E632" s="7" t="s">
@@ -49181,7 +49240,7 @@
       <c r="C633" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D633" s="7" t="s">
+      <c r="D633" s="19" t="s">
         <v>5117</v>
       </c>
       <c r="E633" s="7" t="s">
@@ -49198,7 +49257,7 @@
       <c r="C634" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D634" s="7" t="s">
+      <c r="D634" s="19" t="s">
         <v>5119</v>
       </c>
       <c r="E634" s="7" t="s">
@@ -49215,7 +49274,7 @@
       <c r="C635" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D635" s="7" t="s">
+      <c r="D635" s="19" t="s">
         <v>5122</v>
       </c>
       <c r="E635" s="7" t="s">
@@ -49232,7 +49291,7 @@
       <c r="C636" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D636" s="7" t="s">
+      <c r="D636" s="19" t="s">
         <v>5124</v>
       </c>
       <c r="E636" s="7" t="s">
@@ -49249,7 +49308,7 @@
       <c r="C637" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D637" s="7" t="s">
+      <c r="D637" s="19" t="s">
         <v>5126</v>
       </c>
       <c r="E637" s="7" t="s">
@@ -49266,7 +49325,7 @@
       <c r="C638" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D638" s="7" t="s">
+      <c r="D638" s="19" t="s">
         <v>5128</v>
       </c>
       <c r="E638" s="7" t="s">
@@ -49283,7 +49342,7 @@
       <c r="C639" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D639" s="7" t="s">
+      <c r="D639" s="19" t="s">
         <v>5130</v>
       </c>
       <c r="E639" s="7" t="s">
@@ -49300,7 +49359,7 @@
       <c r="C640" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D640" s="7" t="s">
+      <c r="D640" s="19" t="s">
         <v>5132</v>
       </c>
       <c r="E640" s="7" t="s">
@@ -49317,7 +49376,7 @@
       <c r="C641" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D641" s="7" t="s">
+      <c r="D641" s="19" t="s">
         <v>5134</v>
       </c>
       <c r="E641" s="7" t="s">
@@ -49334,7 +49393,7 @@
       <c r="C642" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D642" s="7" t="s">
+      <c r="D642" s="19" t="s">
         <v>5136</v>
       </c>
       <c r="E642" s="7" t="s">
@@ -49351,7 +49410,7 @@
       <c r="C643" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D643" s="7" t="s">
+      <c r="D643" s="19" t="s">
         <v>5139</v>
       </c>
       <c r="E643" s="7" t="s">
@@ -49359,11 +49418,17 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$D$1:$D$643"/>
+  <conditionalFormatting sqref="C2:C643">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"保留"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C643">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"刪除"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="請輸入有效的網址。" sqref="D2:D77 D79 D81:D82 D84:D87 D89 D372 D527 D535 D584:D585">
-      <formula1>IFERROR(ISURL(D2), true)</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C643">
       <formula1>"保留,刪除"</formula1>
     </dataValidation>
@@ -49438,1151 +49503,1130 @@
     <hyperlink r:id="rId67" ref="E68"/>
     <hyperlink r:id="rId68" ref="E69"/>
     <hyperlink r:id="rId69" ref="E70"/>
-    <hyperlink r:id="rId70" ref="D71"/>
-    <hyperlink r:id="rId71" ref="E71"/>
-    <hyperlink r:id="rId72" ref="D72"/>
-    <hyperlink r:id="rId73" ref="E72"/>
-    <hyperlink r:id="rId74" ref="D73"/>
-    <hyperlink r:id="rId75" ref="E73"/>
-    <hyperlink r:id="rId76" ref="D74"/>
-    <hyperlink r:id="rId77" ref="E74"/>
-    <hyperlink r:id="rId78" ref="D75"/>
-    <hyperlink r:id="rId79" ref="E75"/>
-    <hyperlink r:id="rId80" ref="D76"/>
-    <hyperlink r:id="rId81" ref="E76"/>
-    <hyperlink r:id="rId82" ref="D77"/>
-    <hyperlink r:id="rId83" ref="E77"/>
-    <hyperlink r:id="rId84" ref="D78"/>
-    <hyperlink r:id="rId85" ref="E78"/>
-    <hyperlink r:id="rId86" ref="D79"/>
-    <hyperlink r:id="rId87" ref="E79"/>
-    <hyperlink r:id="rId88" ref="D80"/>
-    <hyperlink r:id="rId89" ref="E80"/>
-    <hyperlink r:id="rId90" ref="D81"/>
-    <hyperlink r:id="rId91" ref="E81"/>
-    <hyperlink r:id="rId92" ref="D82"/>
-    <hyperlink r:id="rId93" ref="E82"/>
-    <hyperlink r:id="rId94" ref="D83"/>
-    <hyperlink r:id="rId95" ref="E83"/>
-    <hyperlink r:id="rId96" ref="D84"/>
-    <hyperlink r:id="rId97" ref="E84"/>
-    <hyperlink r:id="rId98" ref="D85"/>
-    <hyperlink r:id="rId99" ref="E85"/>
-    <hyperlink r:id="rId100" ref="D86"/>
-    <hyperlink r:id="rId101" ref="E86"/>
-    <hyperlink r:id="rId102" ref="D87"/>
-    <hyperlink r:id="rId103" ref="E87"/>
-    <hyperlink r:id="rId104" ref="D88"/>
-    <hyperlink r:id="rId105" ref="E88"/>
-    <hyperlink r:id="rId106" ref="D89"/>
-    <hyperlink r:id="rId107" ref="E89"/>
-    <hyperlink r:id="rId108" ref="D90"/>
-    <hyperlink r:id="rId109" ref="E90"/>
-    <hyperlink r:id="rId110" ref="D91"/>
-    <hyperlink r:id="rId111" ref="E91"/>
-    <hyperlink r:id="rId112" ref="D92"/>
-    <hyperlink r:id="rId113" ref="E92"/>
-    <hyperlink r:id="rId114" ref="D93"/>
-    <hyperlink r:id="rId115" ref="E93"/>
-    <hyperlink r:id="rId116" ref="D94"/>
-    <hyperlink r:id="rId117" ref="E94"/>
-    <hyperlink r:id="rId118" ref="D95"/>
-    <hyperlink r:id="rId119" ref="E95"/>
-    <hyperlink r:id="rId120" ref="D96"/>
-    <hyperlink r:id="rId121" ref="E96"/>
-    <hyperlink r:id="rId122" ref="D97"/>
-    <hyperlink r:id="rId123" ref="E97"/>
-    <hyperlink r:id="rId124" ref="D98"/>
-    <hyperlink r:id="rId125" ref="E98"/>
-    <hyperlink r:id="rId126" ref="D99"/>
-    <hyperlink r:id="rId127" ref="E99"/>
-    <hyperlink r:id="rId128" ref="D100"/>
-    <hyperlink r:id="rId129" ref="E100"/>
-    <hyperlink r:id="rId130" ref="D101"/>
-    <hyperlink r:id="rId131" ref="E101"/>
-    <hyperlink r:id="rId132" ref="D102"/>
-    <hyperlink r:id="rId133" ref="E102"/>
-    <hyperlink r:id="rId134" ref="D103"/>
-    <hyperlink r:id="rId135" ref="E103"/>
-    <hyperlink r:id="rId136" ref="D104"/>
-    <hyperlink r:id="rId137" ref="E104"/>
-    <hyperlink r:id="rId138" ref="D105"/>
-    <hyperlink r:id="rId139" ref="E105"/>
-    <hyperlink r:id="rId140" ref="D106"/>
-    <hyperlink r:id="rId141" ref="E106"/>
-    <hyperlink r:id="rId142" ref="D107"/>
-    <hyperlink r:id="rId143" ref="E107"/>
-    <hyperlink r:id="rId144" ref="D108"/>
-    <hyperlink r:id="rId145" ref="E108"/>
-    <hyperlink r:id="rId146" ref="D109"/>
-    <hyperlink r:id="rId147" ref="E109"/>
-    <hyperlink r:id="rId148" ref="D110"/>
-    <hyperlink r:id="rId149" ref="E110"/>
-    <hyperlink r:id="rId150" ref="D111"/>
-    <hyperlink r:id="rId151" ref="E111"/>
-    <hyperlink r:id="rId152" ref="D112"/>
-    <hyperlink r:id="rId153" ref="E112"/>
-    <hyperlink r:id="rId154" ref="D113"/>
-    <hyperlink r:id="rId155" ref="E113"/>
-    <hyperlink r:id="rId156" ref="D114"/>
-    <hyperlink r:id="rId157" ref="E114"/>
-    <hyperlink r:id="rId158" ref="D115"/>
-    <hyperlink r:id="rId159" ref="E115"/>
-    <hyperlink r:id="rId160" ref="D116"/>
-    <hyperlink r:id="rId161" ref="E116"/>
-    <hyperlink r:id="rId162" ref="D117"/>
-    <hyperlink r:id="rId163" ref="E117"/>
-    <hyperlink r:id="rId164" ref="D118"/>
-    <hyperlink r:id="rId165" ref="E118"/>
-    <hyperlink r:id="rId166" ref="D119"/>
-    <hyperlink r:id="rId167" ref="E119"/>
-    <hyperlink r:id="rId168" ref="D120"/>
-    <hyperlink r:id="rId169" ref="E120"/>
-    <hyperlink r:id="rId170" ref="D121"/>
-    <hyperlink r:id="rId171" ref="E121"/>
-    <hyperlink r:id="rId172" ref="D122"/>
-    <hyperlink r:id="rId173" ref="E122"/>
-    <hyperlink r:id="rId174" ref="D123"/>
-    <hyperlink r:id="rId175" ref="E123"/>
-    <hyperlink r:id="rId176" ref="D124"/>
-    <hyperlink r:id="rId177" ref="E124"/>
-    <hyperlink r:id="rId178" ref="D125"/>
-    <hyperlink r:id="rId179" ref="E125"/>
-    <hyperlink r:id="rId180" ref="D126"/>
-    <hyperlink r:id="rId181" ref="E126"/>
-    <hyperlink r:id="rId182" ref="D127"/>
-    <hyperlink r:id="rId183" ref="E127"/>
-    <hyperlink r:id="rId184" ref="D128"/>
-    <hyperlink r:id="rId185" ref="E128"/>
-    <hyperlink r:id="rId186" ref="D129"/>
-    <hyperlink r:id="rId187" ref="E129"/>
-    <hyperlink r:id="rId188" ref="D130"/>
-    <hyperlink r:id="rId189" ref="E130"/>
-    <hyperlink r:id="rId190" ref="D131"/>
-    <hyperlink r:id="rId191" ref="E131"/>
-    <hyperlink r:id="rId192" ref="D132"/>
-    <hyperlink r:id="rId193" ref="E132"/>
-    <hyperlink r:id="rId194" ref="D133"/>
-    <hyperlink r:id="rId195" ref="E133"/>
-    <hyperlink r:id="rId196" ref="D134"/>
-    <hyperlink r:id="rId197" ref="E134"/>
-    <hyperlink r:id="rId198" ref="D135"/>
-    <hyperlink r:id="rId199" ref="E135"/>
-    <hyperlink r:id="rId200" ref="D136"/>
-    <hyperlink r:id="rId201" ref="E136"/>
-    <hyperlink r:id="rId202" ref="D137"/>
-    <hyperlink r:id="rId203" ref="E137"/>
-    <hyperlink r:id="rId204" ref="D138"/>
-    <hyperlink r:id="rId205" ref="E138"/>
-    <hyperlink r:id="rId206" ref="D139"/>
-    <hyperlink r:id="rId207" ref="E139"/>
-    <hyperlink r:id="rId208" ref="D140"/>
-    <hyperlink r:id="rId209" ref="E140"/>
-    <hyperlink r:id="rId210" ref="D141"/>
-    <hyperlink r:id="rId211" ref="E141"/>
-    <hyperlink r:id="rId212" ref="D142"/>
-    <hyperlink r:id="rId213" ref="E142"/>
-    <hyperlink r:id="rId214" ref="D143"/>
-    <hyperlink r:id="rId215" ref="E143"/>
-    <hyperlink r:id="rId216" ref="D144"/>
-    <hyperlink r:id="rId217" ref="E144"/>
-    <hyperlink r:id="rId218" ref="D145"/>
-    <hyperlink r:id="rId219" ref="E145"/>
-    <hyperlink r:id="rId220" ref="D146"/>
-    <hyperlink r:id="rId221" ref="E146"/>
-    <hyperlink r:id="rId222" ref="D147"/>
-    <hyperlink r:id="rId223" ref="E147"/>
-    <hyperlink r:id="rId224" ref="D148"/>
-    <hyperlink r:id="rId225" ref="E148"/>
-    <hyperlink r:id="rId226" ref="D149"/>
-    <hyperlink r:id="rId227" ref="E149"/>
-    <hyperlink r:id="rId228" ref="D150"/>
-    <hyperlink r:id="rId229" ref="E150"/>
-    <hyperlink r:id="rId230" ref="D151"/>
-    <hyperlink r:id="rId231" ref="E151"/>
-    <hyperlink r:id="rId232" ref="D152"/>
-    <hyperlink r:id="rId233" ref="E152"/>
-    <hyperlink r:id="rId234" ref="D153"/>
-    <hyperlink r:id="rId235" ref="E153"/>
-    <hyperlink r:id="rId236" ref="D154"/>
-    <hyperlink r:id="rId237" ref="E154"/>
-    <hyperlink r:id="rId238" ref="D155"/>
-    <hyperlink r:id="rId239" ref="E155"/>
-    <hyperlink r:id="rId240" ref="D156"/>
-    <hyperlink r:id="rId241" ref="E156"/>
-    <hyperlink r:id="rId242" ref="D157"/>
-    <hyperlink r:id="rId243" ref="E157"/>
-    <hyperlink r:id="rId244" ref="D158"/>
-    <hyperlink r:id="rId245" ref="E158"/>
-    <hyperlink r:id="rId246" ref="D159"/>
-    <hyperlink r:id="rId247" ref="E159"/>
-    <hyperlink r:id="rId248" ref="D160"/>
-    <hyperlink r:id="rId249" ref="E160"/>
-    <hyperlink r:id="rId250" ref="D161"/>
-    <hyperlink r:id="rId251" ref="E161"/>
-    <hyperlink r:id="rId252" ref="D162"/>
-    <hyperlink r:id="rId253" ref="E162"/>
-    <hyperlink r:id="rId254" ref="D163"/>
-    <hyperlink r:id="rId255" ref="E163"/>
-    <hyperlink r:id="rId256" ref="D164"/>
-    <hyperlink r:id="rId257" ref="E164"/>
-    <hyperlink r:id="rId258" ref="D165"/>
-    <hyperlink r:id="rId259" ref="E165"/>
-    <hyperlink r:id="rId260" ref="D166"/>
-    <hyperlink r:id="rId261" ref="E166"/>
-    <hyperlink r:id="rId262" ref="D167"/>
-    <hyperlink r:id="rId263" ref="E167"/>
-    <hyperlink r:id="rId264" ref="D168"/>
-    <hyperlink r:id="rId265" ref="E168"/>
-    <hyperlink r:id="rId266" ref="D169"/>
-    <hyperlink r:id="rId267" ref="E169"/>
-    <hyperlink r:id="rId268" ref="D170"/>
-    <hyperlink r:id="rId269" ref="E170"/>
-    <hyperlink r:id="rId270" ref="D171"/>
-    <hyperlink r:id="rId271" ref="E171"/>
-    <hyperlink r:id="rId272" ref="D172"/>
-    <hyperlink r:id="rId273" ref="E172"/>
-    <hyperlink r:id="rId274" ref="D173"/>
-    <hyperlink r:id="rId275" ref="E173"/>
-    <hyperlink r:id="rId276" ref="D174"/>
-    <hyperlink r:id="rId277" ref="E174"/>
-    <hyperlink r:id="rId278" ref="E175"/>
-    <hyperlink r:id="rId279" ref="D176"/>
-    <hyperlink r:id="rId280" ref="E176"/>
-    <hyperlink r:id="rId281" ref="D177"/>
-    <hyperlink r:id="rId282" ref="E177"/>
-    <hyperlink r:id="rId283" ref="D178"/>
-    <hyperlink r:id="rId284" ref="D179"/>
-    <hyperlink r:id="rId285" ref="E179"/>
-    <hyperlink r:id="rId286" ref="D180"/>
-    <hyperlink r:id="rId287" ref="E180"/>
-    <hyperlink r:id="rId288" ref="D181"/>
-    <hyperlink r:id="rId289" ref="E181"/>
-    <hyperlink r:id="rId290" ref="D182"/>
-    <hyperlink r:id="rId291" ref="E182"/>
-    <hyperlink r:id="rId292" ref="D183"/>
-    <hyperlink r:id="rId293" ref="E183"/>
-    <hyperlink r:id="rId294" ref="D184"/>
-    <hyperlink r:id="rId295" ref="E184"/>
-    <hyperlink r:id="rId296" ref="D185"/>
-    <hyperlink r:id="rId297" ref="E185"/>
-    <hyperlink r:id="rId298" ref="D186"/>
-    <hyperlink r:id="rId299" ref="E186"/>
-    <hyperlink r:id="rId300" ref="D187"/>
-    <hyperlink r:id="rId301" ref="E187"/>
-    <hyperlink r:id="rId302" ref="D188"/>
-    <hyperlink r:id="rId303" ref="E188"/>
-    <hyperlink r:id="rId304" ref="D189"/>
-    <hyperlink r:id="rId305" ref="E189"/>
-    <hyperlink r:id="rId306" ref="D190"/>
-    <hyperlink r:id="rId307" ref="E190"/>
-    <hyperlink r:id="rId308" ref="D191"/>
-    <hyperlink r:id="rId309" ref="E191"/>
-    <hyperlink r:id="rId310" ref="D192"/>
-    <hyperlink r:id="rId311" ref="E192"/>
-    <hyperlink r:id="rId312" ref="D193"/>
-    <hyperlink r:id="rId313" ref="E193"/>
-    <hyperlink r:id="rId314" ref="D194"/>
-    <hyperlink r:id="rId315" ref="E194"/>
-    <hyperlink r:id="rId316" ref="D195"/>
-    <hyperlink r:id="rId317" ref="E195"/>
-    <hyperlink r:id="rId318" ref="D196"/>
-    <hyperlink r:id="rId319" ref="E196"/>
-    <hyperlink r:id="rId320" ref="D197"/>
-    <hyperlink r:id="rId321" ref="E197"/>
-    <hyperlink r:id="rId322" ref="D198"/>
-    <hyperlink r:id="rId323" ref="E198"/>
-    <hyperlink r:id="rId324" ref="D199"/>
-    <hyperlink r:id="rId325" ref="E199"/>
-    <hyperlink r:id="rId326" ref="D200"/>
-    <hyperlink r:id="rId327" ref="E200"/>
-    <hyperlink r:id="rId328" ref="D201"/>
-    <hyperlink r:id="rId329" ref="E201"/>
-    <hyperlink r:id="rId330" ref="D202"/>
-    <hyperlink r:id="rId331" ref="E202"/>
-    <hyperlink r:id="rId332" ref="D203"/>
-    <hyperlink r:id="rId333" ref="E203"/>
-    <hyperlink r:id="rId334" ref="D204"/>
-    <hyperlink r:id="rId335" ref="E204"/>
-    <hyperlink r:id="rId336" ref="D205"/>
-    <hyperlink r:id="rId337" ref="E205"/>
-    <hyperlink r:id="rId338" ref="D206"/>
-    <hyperlink r:id="rId339" ref="E206"/>
-    <hyperlink r:id="rId340" ref="D207"/>
-    <hyperlink r:id="rId341" ref="E207"/>
-    <hyperlink r:id="rId342" ref="D208"/>
-    <hyperlink r:id="rId343" ref="E208"/>
-    <hyperlink r:id="rId344" ref="D209"/>
-    <hyperlink r:id="rId345" ref="E209"/>
-    <hyperlink r:id="rId346" ref="D210"/>
-    <hyperlink r:id="rId347" ref="E210"/>
-    <hyperlink r:id="rId348" ref="D211"/>
-    <hyperlink r:id="rId349" ref="E211"/>
-    <hyperlink r:id="rId350" ref="D212"/>
-    <hyperlink r:id="rId351" ref="E212"/>
-    <hyperlink r:id="rId352" ref="D213"/>
-    <hyperlink r:id="rId353" ref="E213"/>
-    <hyperlink r:id="rId354" ref="D214"/>
-    <hyperlink r:id="rId355" ref="E214"/>
-    <hyperlink r:id="rId356" ref="D215"/>
-    <hyperlink r:id="rId357" ref="E215"/>
-    <hyperlink r:id="rId358" ref="D216"/>
-    <hyperlink r:id="rId359" ref="E216"/>
-    <hyperlink r:id="rId360" ref="D217"/>
-    <hyperlink r:id="rId361" ref="E217"/>
-    <hyperlink r:id="rId362" ref="D218"/>
-    <hyperlink r:id="rId363" ref="E218"/>
-    <hyperlink r:id="rId364" ref="D219"/>
-    <hyperlink r:id="rId365" ref="E219"/>
-    <hyperlink r:id="rId366" ref="D220"/>
-    <hyperlink r:id="rId367" ref="E220"/>
-    <hyperlink r:id="rId368" ref="D221"/>
-    <hyperlink r:id="rId369" ref="E221"/>
-    <hyperlink r:id="rId370" ref="D222"/>
-    <hyperlink r:id="rId371" ref="E222"/>
-    <hyperlink r:id="rId372" ref="D223"/>
-    <hyperlink r:id="rId373" ref="E223"/>
-    <hyperlink r:id="rId374" ref="D224"/>
-    <hyperlink r:id="rId375" ref="E224"/>
-    <hyperlink r:id="rId376" ref="D225"/>
-    <hyperlink r:id="rId377" ref="E225"/>
-    <hyperlink r:id="rId378" ref="D226"/>
-    <hyperlink r:id="rId379" ref="E226"/>
-    <hyperlink r:id="rId380" ref="D227"/>
-    <hyperlink r:id="rId381" ref="E227"/>
-    <hyperlink r:id="rId382" ref="D228"/>
-    <hyperlink r:id="rId383" ref="E228"/>
-    <hyperlink r:id="rId384" ref="D229"/>
-    <hyperlink r:id="rId385" ref="E229"/>
-    <hyperlink r:id="rId386" ref="D230"/>
-    <hyperlink r:id="rId387" ref="E230"/>
-    <hyperlink r:id="rId388" ref="D231"/>
-    <hyperlink r:id="rId389" ref="E231"/>
-    <hyperlink r:id="rId390" ref="D232"/>
-    <hyperlink r:id="rId391" ref="E232"/>
-    <hyperlink r:id="rId392" ref="D233"/>
-    <hyperlink r:id="rId393" ref="E233"/>
-    <hyperlink r:id="rId394" ref="D234"/>
-    <hyperlink r:id="rId395" ref="E234"/>
-    <hyperlink r:id="rId396" ref="D235"/>
-    <hyperlink r:id="rId397" ref="E235"/>
-    <hyperlink r:id="rId398" ref="D236"/>
-    <hyperlink r:id="rId399" ref="E236"/>
-    <hyperlink r:id="rId400" ref="D237"/>
-    <hyperlink r:id="rId401" ref="E237"/>
-    <hyperlink r:id="rId402" ref="D238"/>
-    <hyperlink r:id="rId403" ref="E238"/>
-    <hyperlink r:id="rId404" ref="D239"/>
-    <hyperlink r:id="rId405" ref="E239"/>
-    <hyperlink r:id="rId406" ref="D240"/>
-    <hyperlink r:id="rId407" ref="E240"/>
-    <hyperlink r:id="rId408" ref="D241"/>
-    <hyperlink r:id="rId409" ref="E241"/>
-    <hyperlink r:id="rId410" ref="D242"/>
-    <hyperlink r:id="rId411" ref="E242"/>
-    <hyperlink r:id="rId412" ref="D243"/>
-    <hyperlink r:id="rId413" ref="E243"/>
-    <hyperlink r:id="rId414" ref="D244"/>
-    <hyperlink r:id="rId415" ref="E244"/>
-    <hyperlink r:id="rId416" ref="D245"/>
-    <hyperlink r:id="rId417" ref="E245"/>
-    <hyperlink r:id="rId418" ref="D246"/>
-    <hyperlink r:id="rId419" ref="E246"/>
-    <hyperlink r:id="rId420" ref="D247"/>
-    <hyperlink r:id="rId421" ref="E247"/>
-    <hyperlink r:id="rId422" ref="D248"/>
-    <hyperlink r:id="rId423" ref="E248"/>
-    <hyperlink r:id="rId424" ref="D249"/>
-    <hyperlink r:id="rId425" ref="E249"/>
-    <hyperlink r:id="rId426" ref="D250"/>
-    <hyperlink r:id="rId427" ref="E250"/>
-    <hyperlink r:id="rId428" ref="D251"/>
-    <hyperlink r:id="rId429" ref="E251"/>
-    <hyperlink r:id="rId430" ref="D252"/>
-    <hyperlink r:id="rId431" ref="E252"/>
-    <hyperlink r:id="rId432" ref="D253"/>
-    <hyperlink r:id="rId433" ref="E253"/>
-    <hyperlink r:id="rId434" ref="D254"/>
-    <hyperlink r:id="rId435" ref="E254"/>
-    <hyperlink r:id="rId436" ref="D255"/>
-    <hyperlink r:id="rId437" ref="E255"/>
-    <hyperlink r:id="rId438" ref="D256"/>
-    <hyperlink r:id="rId439" ref="E256"/>
-    <hyperlink r:id="rId440" ref="D257"/>
-    <hyperlink r:id="rId441" ref="E257"/>
-    <hyperlink r:id="rId442" ref="D258"/>
-    <hyperlink r:id="rId443" ref="E258"/>
-    <hyperlink r:id="rId444" ref="D259"/>
-    <hyperlink r:id="rId445" ref="E259"/>
-    <hyperlink r:id="rId446" ref="D260"/>
-    <hyperlink r:id="rId447" ref="E260"/>
-    <hyperlink r:id="rId448" ref="D261"/>
-    <hyperlink r:id="rId449" ref="E261"/>
-    <hyperlink r:id="rId450" ref="D262"/>
-    <hyperlink r:id="rId451" ref="E262"/>
-    <hyperlink r:id="rId452" ref="D263"/>
-    <hyperlink r:id="rId453" ref="E263"/>
-    <hyperlink r:id="rId454" ref="D264"/>
-    <hyperlink r:id="rId455" ref="E264"/>
-    <hyperlink r:id="rId456" ref="D265"/>
-    <hyperlink r:id="rId457" ref="E265"/>
-    <hyperlink r:id="rId458" ref="D266"/>
-    <hyperlink r:id="rId459" ref="E266"/>
-    <hyperlink r:id="rId460" ref="D267"/>
-    <hyperlink r:id="rId461" ref="E267"/>
-    <hyperlink r:id="rId462" ref="D268"/>
-    <hyperlink r:id="rId463" ref="E268"/>
-    <hyperlink r:id="rId464" ref="D269"/>
-    <hyperlink r:id="rId465" ref="E269"/>
-    <hyperlink r:id="rId466" ref="D270"/>
-    <hyperlink r:id="rId467" ref="E270"/>
-    <hyperlink r:id="rId468" ref="D271"/>
-    <hyperlink r:id="rId469" ref="E271"/>
-    <hyperlink r:id="rId470" ref="D272"/>
-    <hyperlink r:id="rId471" ref="E272"/>
-    <hyperlink r:id="rId472" ref="D273"/>
-    <hyperlink r:id="rId473" ref="E273"/>
-    <hyperlink r:id="rId474" ref="D274"/>
-    <hyperlink r:id="rId475" ref="E274"/>
-    <hyperlink r:id="rId476" ref="D275"/>
-    <hyperlink r:id="rId477" ref="E275"/>
-    <hyperlink r:id="rId478" ref="D276"/>
-    <hyperlink r:id="rId479" ref="E276"/>
-    <hyperlink r:id="rId480" ref="D277"/>
-    <hyperlink r:id="rId481" ref="E277"/>
-    <hyperlink r:id="rId482" ref="D278"/>
-    <hyperlink r:id="rId483" ref="E278"/>
-    <hyperlink r:id="rId484" ref="D279"/>
-    <hyperlink r:id="rId485" ref="E279"/>
-    <hyperlink r:id="rId486" ref="D280"/>
-    <hyperlink r:id="rId487" ref="E280"/>
-    <hyperlink r:id="rId488" ref="D281"/>
-    <hyperlink r:id="rId489" ref="E281"/>
-    <hyperlink r:id="rId490" ref="D282"/>
-    <hyperlink r:id="rId491" ref="E282"/>
-    <hyperlink r:id="rId492" ref="D283"/>
-    <hyperlink r:id="rId493" ref="E283"/>
-    <hyperlink r:id="rId494" ref="D284"/>
-    <hyperlink r:id="rId495" ref="E284"/>
-    <hyperlink r:id="rId496" ref="D285"/>
-    <hyperlink r:id="rId497" ref="E285"/>
-    <hyperlink r:id="rId498" ref="D286"/>
-    <hyperlink r:id="rId499" ref="E286"/>
-    <hyperlink r:id="rId500" ref="D287"/>
-    <hyperlink r:id="rId501" ref="E287"/>
-    <hyperlink r:id="rId502" ref="D288"/>
-    <hyperlink r:id="rId503" ref="E288"/>
-    <hyperlink r:id="rId504" ref="D289"/>
-    <hyperlink r:id="rId505" ref="E289"/>
-    <hyperlink r:id="rId506" ref="D290"/>
-    <hyperlink r:id="rId507" ref="E290"/>
-    <hyperlink r:id="rId508" ref="D291"/>
-    <hyperlink r:id="rId509" ref="E291"/>
-    <hyperlink r:id="rId510" ref="D292"/>
-    <hyperlink r:id="rId511" ref="E292"/>
-    <hyperlink r:id="rId512" ref="D293"/>
-    <hyperlink r:id="rId513" ref="E293"/>
-    <hyperlink r:id="rId514" ref="D294"/>
-    <hyperlink r:id="rId515" ref="E294"/>
-    <hyperlink r:id="rId516" ref="D295"/>
-    <hyperlink r:id="rId517" ref="E295"/>
-    <hyperlink r:id="rId518" ref="D296"/>
-    <hyperlink r:id="rId519" ref="E296"/>
-    <hyperlink r:id="rId520" ref="D297"/>
-    <hyperlink r:id="rId521" ref="E297"/>
-    <hyperlink r:id="rId522" ref="D298"/>
-    <hyperlink r:id="rId523" ref="E298"/>
-    <hyperlink r:id="rId524" ref="D299"/>
-    <hyperlink r:id="rId525" ref="E299"/>
-    <hyperlink r:id="rId526" ref="D300"/>
-    <hyperlink r:id="rId527" ref="E300"/>
-    <hyperlink r:id="rId528" ref="D301"/>
-    <hyperlink r:id="rId529" ref="E301"/>
-    <hyperlink r:id="rId530" ref="D302"/>
-    <hyperlink r:id="rId531" ref="E302"/>
-    <hyperlink r:id="rId532" ref="D303"/>
-    <hyperlink r:id="rId533" ref="E303"/>
-    <hyperlink r:id="rId534" ref="D304"/>
-    <hyperlink r:id="rId535" ref="E304"/>
-    <hyperlink r:id="rId536" ref="D305"/>
-    <hyperlink r:id="rId537" ref="E305"/>
-    <hyperlink r:id="rId538" ref="D306"/>
-    <hyperlink r:id="rId539" ref="E306"/>
-    <hyperlink r:id="rId540" ref="D307"/>
-    <hyperlink r:id="rId541" ref="E307"/>
-    <hyperlink r:id="rId542" ref="D308"/>
-    <hyperlink r:id="rId543" ref="E308"/>
-    <hyperlink r:id="rId544" ref="D309"/>
-    <hyperlink r:id="rId545" ref="E309"/>
-    <hyperlink r:id="rId546" ref="D310"/>
-    <hyperlink r:id="rId547" ref="E310"/>
-    <hyperlink r:id="rId548" ref="D311"/>
-    <hyperlink r:id="rId549" ref="E311"/>
-    <hyperlink r:id="rId550" ref="D312"/>
-    <hyperlink r:id="rId551" ref="E312"/>
-    <hyperlink r:id="rId552" ref="D313"/>
-    <hyperlink r:id="rId553" ref="E313"/>
-    <hyperlink r:id="rId554" ref="D314"/>
-    <hyperlink r:id="rId555" ref="E314"/>
-    <hyperlink r:id="rId556" ref="D315"/>
-    <hyperlink r:id="rId557" ref="E315"/>
-    <hyperlink r:id="rId558" ref="D316"/>
-    <hyperlink r:id="rId559" ref="E316"/>
-    <hyperlink r:id="rId560" ref="D317"/>
-    <hyperlink r:id="rId561" ref="E317"/>
-    <hyperlink r:id="rId562" ref="D318"/>
-    <hyperlink r:id="rId563" ref="E318"/>
-    <hyperlink r:id="rId564" ref="D319"/>
-    <hyperlink r:id="rId565" ref="E319"/>
-    <hyperlink r:id="rId566" ref="D320"/>
-    <hyperlink r:id="rId567" ref="E320"/>
-    <hyperlink r:id="rId568" ref="D321"/>
-    <hyperlink r:id="rId569" ref="E321"/>
-    <hyperlink r:id="rId570" ref="D322"/>
-    <hyperlink r:id="rId571" ref="E322"/>
-    <hyperlink r:id="rId572" ref="D323"/>
-    <hyperlink r:id="rId573" ref="E323"/>
-    <hyperlink r:id="rId574" ref="D324"/>
-    <hyperlink r:id="rId575" ref="E324"/>
-    <hyperlink r:id="rId576" ref="D325"/>
-    <hyperlink r:id="rId577" ref="E325"/>
-    <hyperlink r:id="rId578" ref="D326"/>
-    <hyperlink r:id="rId579" ref="E326"/>
-    <hyperlink r:id="rId580" ref="D327"/>
-    <hyperlink r:id="rId581" ref="E327"/>
-    <hyperlink r:id="rId582" ref="D328"/>
-    <hyperlink r:id="rId583" ref="E328"/>
-    <hyperlink r:id="rId584" ref="D329"/>
-    <hyperlink r:id="rId585" ref="E329"/>
-    <hyperlink r:id="rId586" ref="D330"/>
-    <hyperlink r:id="rId587" ref="E330"/>
-    <hyperlink r:id="rId588" ref="D331"/>
-    <hyperlink r:id="rId589" ref="E331"/>
-    <hyperlink r:id="rId590" ref="D332"/>
-    <hyperlink r:id="rId591" ref="E332"/>
-    <hyperlink r:id="rId592" ref="D333"/>
-    <hyperlink r:id="rId593" ref="E333"/>
-    <hyperlink r:id="rId594" ref="D334"/>
-    <hyperlink r:id="rId595" ref="E334"/>
-    <hyperlink r:id="rId596" ref="D335"/>
-    <hyperlink r:id="rId597" ref="E335"/>
-    <hyperlink r:id="rId598" ref="D336"/>
-    <hyperlink r:id="rId599" ref="E336"/>
-    <hyperlink r:id="rId600" ref="D337"/>
-    <hyperlink r:id="rId601" ref="E337"/>
-    <hyperlink r:id="rId602" ref="D338"/>
-    <hyperlink r:id="rId603" ref="E338"/>
-    <hyperlink r:id="rId604" ref="D339"/>
-    <hyperlink r:id="rId605" ref="E339"/>
-    <hyperlink r:id="rId606" ref="D340"/>
-    <hyperlink r:id="rId607" ref="E340"/>
-    <hyperlink r:id="rId608" ref="D341"/>
-    <hyperlink r:id="rId609" ref="E341"/>
-    <hyperlink r:id="rId610" ref="D342"/>
-    <hyperlink r:id="rId611" ref="E342"/>
-    <hyperlink r:id="rId612" ref="D343"/>
-    <hyperlink r:id="rId613" ref="E343"/>
-    <hyperlink r:id="rId614" ref="D344"/>
-    <hyperlink r:id="rId615" ref="E344"/>
-    <hyperlink r:id="rId616" ref="D345"/>
-    <hyperlink r:id="rId617" ref="E345"/>
-    <hyperlink r:id="rId618" ref="D346"/>
-    <hyperlink r:id="rId619" ref="E346"/>
-    <hyperlink r:id="rId620" ref="D347"/>
-    <hyperlink r:id="rId621" ref="E347"/>
-    <hyperlink r:id="rId622" ref="D348"/>
-    <hyperlink r:id="rId623" ref="E348"/>
-    <hyperlink r:id="rId624" ref="D349"/>
-    <hyperlink r:id="rId625" ref="E349"/>
-    <hyperlink r:id="rId626" ref="D350"/>
-    <hyperlink r:id="rId627" ref="E350"/>
-    <hyperlink r:id="rId628" ref="D351"/>
-    <hyperlink r:id="rId629" ref="E351"/>
-    <hyperlink r:id="rId630" ref="D352"/>
-    <hyperlink r:id="rId631" ref="E352"/>
-    <hyperlink r:id="rId632" ref="D353"/>
-    <hyperlink r:id="rId633" ref="E353"/>
-    <hyperlink r:id="rId634" ref="D354"/>
-    <hyperlink r:id="rId635" ref="E354"/>
-    <hyperlink r:id="rId636" ref="D355"/>
-    <hyperlink r:id="rId637" ref="E355"/>
-    <hyperlink r:id="rId638" ref="D356"/>
-    <hyperlink r:id="rId639" ref="E356"/>
-    <hyperlink r:id="rId640" ref="D357"/>
-    <hyperlink r:id="rId641" ref="E357"/>
-    <hyperlink r:id="rId642" ref="D358"/>
-    <hyperlink r:id="rId643" ref="E358"/>
-    <hyperlink r:id="rId644" ref="D359"/>
-    <hyperlink r:id="rId645" ref="E359"/>
-    <hyperlink r:id="rId646" ref="D360"/>
-    <hyperlink r:id="rId647" ref="E360"/>
-    <hyperlink r:id="rId648" ref="D361"/>
-    <hyperlink r:id="rId649" ref="E361"/>
-    <hyperlink r:id="rId650" ref="D362"/>
-    <hyperlink r:id="rId651" ref="E362"/>
-    <hyperlink r:id="rId652" ref="D363"/>
-    <hyperlink r:id="rId653" ref="E363"/>
-    <hyperlink r:id="rId654" ref="D364"/>
-    <hyperlink r:id="rId655" ref="E364"/>
-    <hyperlink r:id="rId656" ref="D365"/>
-    <hyperlink r:id="rId657" ref="E365"/>
-    <hyperlink r:id="rId658" ref="D366"/>
-    <hyperlink r:id="rId659" ref="E366"/>
-    <hyperlink r:id="rId660" ref="D367"/>
-    <hyperlink r:id="rId661" ref="E367"/>
-    <hyperlink r:id="rId662" ref="D368"/>
-    <hyperlink r:id="rId663" ref="E368"/>
-    <hyperlink r:id="rId664" ref="D369"/>
-    <hyperlink r:id="rId665" ref="E369"/>
-    <hyperlink r:id="rId666" ref="D370"/>
-    <hyperlink r:id="rId667" ref="E370"/>
-    <hyperlink r:id="rId668" ref="D371"/>
-    <hyperlink r:id="rId669" ref="E371"/>
-    <hyperlink r:id="rId670" ref="D372"/>
-    <hyperlink r:id="rId671" ref="E372"/>
-    <hyperlink r:id="rId672" ref="D373"/>
-    <hyperlink r:id="rId673" ref="E373"/>
-    <hyperlink r:id="rId674" ref="D374"/>
-    <hyperlink r:id="rId675" ref="E374"/>
-    <hyperlink r:id="rId676" ref="D375"/>
-    <hyperlink r:id="rId677" ref="E375"/>
-    <hyperlink r:id="rId678" ref="D376"/>
-    <hyperlink r:id="rId679" ref="E376"/>
-    <hyperlink r:id="rId680" ref="D377"/>
-    <hyperlink r:id="rId681" ref="E377"/>
-    <hyperlink r:id="rId682" ref="D378"/>
-    <hyperlink r:id="rId683" ref="E378"/>
-    <hyperlink r:id="rId684" ref="D379"/>
-    <hyperlink r:id="rId685" ref="E379"/>
-    <hyperlink r:id="rId686" ref="D380"/>
-    <hyperlink r:id="rId687" ref="E380"/>
-    <hyperlink r:id="rId688" ref="D381"/>
-    <hyperlink r:id="rId689" ref="E381"/>
-    <hyperlink r:id="rId690" ref="D382"/>
-    <hyperlink r:id="rId691" ref="E382"/>
-    <hyperlink r:id="rId692" ref="D383"/>
-    <hyperlink r:id="rId693" ref="E383"/>
-    <hyperlink r:id="rId694" ref="D384"/>
-    <hyperlink r:id="rId695" ref="E384"/>
-    <hyperlink r:id="rId696" ref="D385"/>
-    <hyperlink r:id="rId697" ref="E385"/>
-    <hyperlink r:id="rId698" ref="D386"/>
-    <hyperlink r:id="rId699" ref="E386"/>
-    <hyperlink r:id="rId700" ref="D387"/>
-    <hyperlink r:id="rId701" ref="E387"/>
-    <hyperlink r:id="rId702" ref="D388"/>
-    <hyperlink r:id="rId703" ref="E388"/>
-    <hyperlink r:id="rId704" ref="D389"/>
-    <hyperlink r:id="rId705" ref="E389"/>
-    <hyperlink r:id="rId706" ref="D390"/>
-    <hyperlink r:id="rId707" ref="E390"/>
-    <hyperlink r:id="rId708" ref="D391"/>
-    <hyperlink r:id="rId709" ref="E391"/>
-    <hyperlink r:id="rId710" ref="D392"/>
-    <hyperlink r:id="rId711" ref="E392"/>
-    <hyperlink r:id="rId712" ref="D393"/>
-    <hyperlink r:id="rId713" ref="E393"/>
-    <hyperlink r:id="rId714" ref="D394"/>
-    <hyperlink r:id="rId715" ref="E394"/>
-    <hyperlink r:id="rId716" ref="D395"/>
-    <hyperlink r:id="rId717" ref="E395"/>
-    <hyperlink r:id="rId718" ref="D396"/>
-    <hyperlink r:id="rId719" ref="E396"/>
-    <hyperlink r:id="rId720" ref="D397"/>
-    <hyperlink r:id="rId721" ref="E397"/>
-    <hyperlink r:id="rId722" ref="D398"/>
-    <hyperlink r:id="rId723" ref="E398"/>
-    <hyperlink r:id="rId724" ref="D399"/>
-    <hyperlink r:id="rId725" ref="E399"/>
-    <hyperlink r:id="rId726" ref="D400"/>
-    <hyperlink r:id="rId727" ref="E400"/>
-    <hyperlink r:id="rId728" ref="D401"/>
-    <hyperlink r:id="rId729" ref="E401"/>
-    <hyperlink r:id="rId730" ref="D402"/>
-    <hyperlink r:id="rId731" ref="E402"/>
-    <hyperlink r:id="rId732" ref="D403"/>
-    <hyperlink r:id="rId733" ref="E403"/>
-    <hyperlink r:id="rId734" ref="D404"/>
-    <hyperlink r:id="rId735" ref="E404"/>
-    <hyperlink r:id="rId736" ref="D405"/>
-    <hyperlink r:id="rId737" ref="E405"/>
-    <hyperlink r:id="rId738" ref="D406"/>
-    <hyperlink r:id="rId739" ref="E406"/>
-    <hyperlink r:id="rId740" ref="D407"/>
-    <hyperlink r:id="rId741" ref="E407"/>
-    <hyperlink r:id="rId742" ref="D408"/>
-    <hyperlink r:id="rId743" ref="E408"/>
-    <hyperlink r:id="rId744" ref="D409"/>
-    <hyperlink r:id="rId745" ref="E409"/>
-    <hyperlink r:id="rId746" ref="D410"/>
-    <hyperlink r:id="rId747" ref="E410"/>
-    <hyperlink r:id="rId748" ref="D411"/>
-    <hyperlink r:id="rId749" ref="E411"/>
-    <hyperlink r:id="rId750" ref="D412"/>
-    <hyperlink r:id="rId751" ref="E412"/>
-    <hyperlink r:id="rId752" ref="D413"/>
-    <hyperlink r:id="rId753" ref="E413"/>
-    <hyperlink r:id="rId754" ref="D414"/>
-    <hyperlink r:id="rId755" ref="E414"/>
-    <hyperlink r:id="rId756" ref="D415"/>
-    <hyperlink r:id="rId757" ref="E415"/>
-    <hyperlink r:id="rId758" ref="D416"/>
-    <hyperlink r:id="rId759" ref="E416"/>
-    <hyperlink r:id="rId760" ref="D417"/>
-    <hyperlink r:id="rId761" ref="E417"/>
-    <hyperlink r:id="rId762" ref="D418"/>
-    <hyperlink r:id="rId763" ref="E418"/>
-    <hyperlink r:id="rId764" ref="D419"/>
-    <hyperlink r:id="rId765" ref="E419"/>
-    <hyperlink r:id="rId766" ref="D420"/>
-    <hyperlink r:id="rId767" ref="E420"/>
-    <hyperlink r:id="rId768" ref="D421"/>
-    <hyperlink r:id="rId769" ref="E421"/>
-    <hyperlink r:id="rId770" ref="D422"/>
-    <hyperlink r:id="rId771" ref="E422"/>
-    <hyperlink r:id="rId772" ref="D423"/>
-    <hyperlink r:id="rId773" ref="E423"/>
-    <hyperlink r:id="rId774" ref="D424"/>
-    <hyperlink r:id="rId775" ref="E424"/>
-    <hyperlink r:id="rId776" ref="D425"/>
-    <hyperlink r:id="rId777" ref="E425"/>
-    <hyperlink r:id="rId778" ref="D426"/>
-    <hyperlink r:id="rId779" ref="E426"/>
-    <hyperlink r:id="rId780" ref="D427"/>
-    <hyperlink r:id="rId781" ref="E427"/>
-    <hyperlink r:id="rId782" ref="D428"/>
-    <hyperlink r:id="rId783" ref="E428"/>
-    <hyperlink r:id="rId784" ref="D429"/>
-    <hyperlink r:id="rId785" ref="E429"/>
-    <hyperlink r:id="rId786" ref="D430"/>
-    <hyperlink r:id="rId787" ref="E430"/>
-    <hyperlink r:id="rId788" ref="D431"/>
-    <hyperlink r:id="rId789" ref="E431"/>
-    <hyperlink r:id="rId790" ref="D432"/>
-    <hyperlink r:id="rId791" ref="E432"/>
-    <hyperlink r:id="rId792" ref="D433"/>
-    <hyperlink r:id="rId793" ref="E433"/>
-    <hyperlink r:id="rId794" ref="D434"/>
-    <hyperlink r:id="rId795" ref="E434"/>
-    <hyperlink r:id="rId796" ref="D435"/>
-    <hyperlink r:id="rId797" ref="E435"/>
-    <hyperlink r:id="rId798" ref="D436"/>
-    <hyperlink r:id="rId799" ref="E436"/>
-    <hyperlink r:id="rId800" ref="D437"/>
-    <hyperlink r:id="rId801" ref="E437"/>
-    <hyperlink r:id="rId802" ref="D438"/>
-    <hyperlink r:id="rId803" ref="E438"/>
-    <hyperlink r:id="rId804" ref="D439"/>
-    <hyperlink r:id="rId805" ref="E439"/>
-    <hyperlink r:id="rId806" ref="D440"/>
-    <hyperlink r:id="rId807" ref="E440"/>
-    <hyperlink r:id="rId808" ref="D441"/>
-    <hyperlink r:id="rId809" ref="E441"/>
-    <hyperlink r:id="rId810" ref="D442"/>
-    <hyperlink r:id="rId811" ref="E442"/>
-    <hyperlink r:id="rId812" ref="D443"/>
-    <hyperlink r:id="rId813" ref="E443"/>
-    <hyperlink r:id="rId814" ref="D444"/>
-    <hyperlink r:id="rId815" ref="E444"/>
-    <hyperlink r:id="rId816" ref="D445"/>
-    <hyperlink r:id="rId817" ref="E445"/>
-    <hyperlink r:id="rId818" ref="D446"/>
-    <hyperlink r:id="rId819" ref="E446"/>
-    <hyperlink r:id="rId820" ref="D447"/>
-    <hyperlink r:id="rId821" ref="E447"/>
-    <hyperlink r:id="rId822" ref="D448"/>
-    <hyperlink r:id="rId823" ref="E448"/>
-    <hyperlink r:id="rId824" ref="D449"/>
-    <hyperlink r:id="rId825" ref="E449"/>
-    <hyperlink r:id="rId826" ref="D450"/>
-    <hyperlink r:id="rId827" ref="E450"/>
-    <hyperlink r:id="rId828" ref="D451"/>
-    <hyperlink r:id="rId829" ref="E451"/>
-    <hyperlink r:id="rId830" ref="D452"/>
-    <hyperlink r:id="rId831" ref="E452"/>
-    <hyperlink r:id="rId832" ref="D453"/>
-    <hyperlink r:id="rId833" ref="E453"/>
-    <hyperlink r:id="rId834" ref="D454"/>
-    <hyperlink r:id="rId835" ref="E454"/>
-    <hyperlink r:id="rId836" ref="D455"/>
-    <hyperlink r:id="rId837" ref="E455"/>
-    <hyperlink r:id="rId838" ref="D456"/>
-    <hyperlink r:id="rId839" ref="E456"/>
-    <hyperlink r:id="rId840" ref="D457"/>
-    <hyperlink r:id="rId841" ref="E457"/>
-    <hyperlink r:id="rId842" ref="D458"/>
-    <hyperlink r:id="rId843" ref="E458"/>
-    <hyperlink r:id="rId844" ref="D459"/>
-    <hyperlink r:id="rId845" ref="E459"/>
-    <hyperlink r:id="rId846" ref="D460"/>
-    <hyperlink r:id="rId847" ref="E460"/>
-    <hyperlink r:id="rId848" ref="D461"/>
-    <hyperlink r:id="rId849" ref="E461"/>
-    <hyperlink r:id="rId850" ref="D462"/>
-    <hyperlink r:id="rId851" ref="E462"/>
-    <hyperlink r:id="rId852" ref="D463"/>
-    <hyperlink r:id="rId853" ref="E463"/>
-    <hyperlink r:id="rId854" ref="D464"/>
-    <hyperlink r:id="rId855" ref="E464"/>
-    <hyperlink r:id="rId856" ref="D465"/>
-    <hyperlink r:id="rId857" ref="E465"/>
-    <hyperlink r:id="rId858" ref="D466"/>
-    <hyperlink r:id="rId859" ref="E466"/>
-    <hyperlink r:id="rId860" ref="D467"/>
-    <hyperlink r:id="rId861" ref="E467"/>
-    <hyperlink r:id="rId862" ref="D468"/>
-    <hyperlink r:id="rId863" ref="E468"/>
-    <hyperlink r:id="rId864" ref="D469"/>
-    <hyperlink r:id="rId865" ref="E469"/>
-    <hyperlink r:id="rId866" ref="D470"/>
-    <hyperlink r:id="rId867" ref="E470"/>
-    <hyperlink r:id="rId868" ref="D471"/>
-    <hyperlink r:id="rId869" ref="E471"/>
-    <hyperlink r:id="rId870" ref="D472"/>
-    <hyperlink r:id="rId871" ref="E472"/>
-    <hyperlink r:id="rId872" ref="D473"/>
-    <hyperlink r:id="rId873" ref="E473"/>
-    <hyperlink r:id="rId874" ref="D474"/>
-    <hyperlink r:id="rId875" ref="E474"/>
-    <hyperlink r:id="rId876" ref="D475"/>
-    <hyperlink r:id="rId877" ref="E475"/>
-    <hyperlink r:id="rId878" ref="D476"/>
-    <hyperlink r:id="rId879" ref="E476"/>
-    <hyperlink r:id="rId880" ref="D477"/>
-    <hyperlink r:id="rId881" ref="E477"/>
-    <hyperlink r:id="rId882" ref="D478"/>
-    <hyperlink r:id="rId883" ref="E478"/>
-    <hyperlink r:id="rId884" ref="D479"/>
-    <hyperlink r:id="rId885" ref="E479"/>
-    <hyperlink r:id="rId886" ref="D480"/>
-    <hyperlink r:id="rId887" ref="E480"/>
-    <hyperlink r:id="rId888" ref="D481"/>
-    <hyperlink r:id="rId889" ref="E481"/>
-    <hyperlink r:id="rId890" ref="D482"/>
-    <hyperlink r:id="rId891" ref="E482"/>
-    <hyperlink r:id="rId892" ref="D483"/>
-    <hyperlink r:id="rId893" ref="E483"/>
-    <hyperlink r:id="rId894" ref="D484"/>
-    <hyperlink r:id="rId895" ref="E484"/>
-    <hyperlink r:id="rId896" ref="D485"/>
-    <hyperlink r:id="rId897" ref="E485"/>
-    <hyperlink r:id="rId898" ref="D486"/>
-    <hyperlink r:id="rId899" ref="E486"/>
-    <hyperlink r:id="rId900" ref="D487"/>
-    <hyperlink r:id="rId901" ref="E487"/>
-    <hyperlink r:id="rId902" ref="D488"/>
-    <hyperlink r:id="rId903" ref="E488"/>
-    <hyperlink r:id="rId904" ref="D489"/>
-    <hyperlink r:id="rId905" ref="E489"/>
-    <hyperlink r:id="rId906" ref="D490"/>
-    <hyperlink r:id="rId907" ref="E490"/>
-    <hyperlink r:id="rId908" ref="D491"/>
-    <hyperlink r:id="rId909" ref="E491"/>
-    <hyperlink r:id="rId910" ref="D492"/>
-    <hyperlink r:id="rId911" ref="E492"/>
-    <hyperlink r:id="rId912" ref="D493"/>
-    <hyperlink r:id="rId913" ref="E493"/>
-    <hyperlink r:id="rId914" ref="D494"/>
-    <hyperlink r:id="rId915" ref="E494"/>
-    <hyperlink r:id="rId916" ref="D495"/>
-    <hyperlink r:id="rId917" ref="E495"/>
-    <hyperlink r:id="rId918" ref="D496"/>
-    <hyperlink r:id="rId919" ref="E496"/>
-    <hyperlink r:id="rId920" ref="D497"/>
-    <hyperlink r:id="rId921" ref="E497"/>
-    <hyperlink r:id="rId922" ref="D498"/>
-    <hyperlink r:id="rId923" ref="E498"/>
-    <hyperlink r:id="rId924" ref="D499"/>
-    <hyperlink r:id="rId925" ref="E499"/>
-    <hyperlink r:id="rId926" ref="D500"/>
-    <hyperlink r:id="rId927" ref="E500"/>
-    <hyperlink r:id="rId928" ref="D501"/>
-    <hyperlink r:id="rId929" ref="E501"/>
-    <hyperlink r:id="rId930" ref="D502"/>
-    <hyperlink r:id="rId931" ref="E502"/>
-    <hyperlink r:id="rId932" ref="D503"/>
-    <hyperlink r:id="rId933" ref="E503"/>
-    <hyperlink r:id="rId934" ref="D504"/>
-    <hyperlink r:id="rId935" ref="E504"/>
-    <hyperlink r:id="rId936" ref="D505"/>
-    <hyperlink r:id="rId937" ref="E505"/>
-    <hyperlink r:id="rId938" ref="D506"/>
-    <hyperlink r:id="rId939" ref="E506"/>
-    <hyperlink r:id="rId940" ref="D507"/>
-    <hyperlink r:id="rId941" ref="E507"/>
-    <hyperlink r:id="rId942" ref="D508"/>
-    <hyperlink r:id="rId943" ref="E508"/>
-    <hyperlink r:id="rId944" ref="D509"/>
-    <hyperlink r:id="rId945" ref="E509"/>
-    <hyperlink r:id="rId946" ref="D510"/>
-    <hyperlink r:id="rId947" ref="E510"/>
-    <hyperlink r:id="rId948" ref="D511"/>
-    <hyperlink r:id="rId949" ref="E511"/>
-    <hyperlink r:id="rId950" ref="D512"/>
-    <hyperlink r:id="rId951" ref="E512"/>
-    <hyperlink r:id="rId952" ref="D513"/>
-    <hyperlink r:id="rId953" ref="E513"/>
-    <hyperlink r:id="rId954" ref="D514"/>
-    <hyperlink r:id="rId955" ref="E514"/>
-    <hyperlink r:id="rId956" ref="D515"/>
-    <hyperlink r:id="rId957" ref="E515"/>
-    <hyperlink r:id="rId958" ref="D516"/>
-    <hyperlink r:id="rId959" ref="E516"/>
-    <hyperlink r:id="rId960" ref="D517"/>
-    <hyperlink r:id="rId961" ref="E517"/>
-    <hyperlink r:id="rId962" ref="D518"/>
-    <hyperlink r:id="rId963" ref="E518"/>
-    <hyperlink r:id="rId964" ref="D519"/>
-    <hyperlink r:id="rId965" ref="E519"/>
-    <hyperlink r:id="rId966" ref="D520"/>
-    <hyperlink r:id="rId967" ref="E520"/>
-    <hyperlink r:id="rId968" ref="D521"/>
-    <hyperlink r:id="rId969" ref="E521"/>
-    <hyperlink r:id="rId970" ref="D522"/>
-    <hyperlink r:id="rId971" ref="E522"/>
-    <hyperlink r:id="rId972" ref="D523"/>
-    <hyperlink r:id="rId973" ref="E523"/>
-    <hyperlink r:id="rId974" ref="D524"/>
-    <hyperlink r:id="rId975" ref="E524"/>
-    <hyperlink r:id="rId976" ref="D525"/>
-    <hyperlink r:id="rId977" ref="E525"/>
-    <hyperlink r:id="rId978" ref="D526"/>
-    <hyperlink r:id="rId979" ref="E526"/>
-    <hyperlink r:id="rId980" ref="D527"/>
-    <hyperlink r:id="rId981" ref="E527"/>
-    <hyperlink r:id="rId982" ref="D528"/>
-    <hyperlink r:id="rId983" ref="E528"/>
-    <hyperlink r:id="rId984" ref="D529"/>
-    <hyperlink r:id="rId985" ref="E529"/>
-    <hyperlink r:id="rId986" ref="D530"/>
-    <hyperlink r:id="rId987" ref="E530"/>
-    <hyperlink r:id="rId988" ref="D531"/>
-    <hyperlink r:id="rId989" ref="E531"/>
-    <hyperlink r:id="rId990" ref="D532"/>
-    <hyperlink r:id="rId991" ref="E532"/>
-    <hyperlink r:id="rId992" ref="D533"/>
-    <hyperlink r:id="rId993" ref="E533"/>
-    <hyperlink r:id="rId994" ref="D534"/>
-    <hyperlink r:id="rId995" ref="E534"/>
-    <hyperlink r:id="rId996" ref="D535"/>
-    <hyperlink r:id="rId997" ref="E535"/>
-    <hyperlink r:id="rId998" ref="D536"/>
-    <hyperlink r:id="rId999" ref="E536"/>
-    <hyperlink r:id="rId1000" ref="D537"/>
-    <hyperlink r:id="rId1001" ref="E537"/>
-    <hyperlink r:id="rId1002" ref="D538"/>
-    <hyperlink r:id="rId1003" ref="E538"/>
-    <hyperlink r:id="rId1004" ref="D539"/>
-    <hyperlink r:id="rId1005" ref="E539"/>
-    <hyperlink r:id="rId1006" ref="D540"/>
-    <hyperlink r:id="rId1007" ref="E540"/>
-    <hyperlink r:id="rId1008" ref="D541"/>
-    <hyperlink r:id="rId1009" ref="E541"/>
-    <hyperlink r:id="rId1010" ref="D542"/>
-    <hyperlink r:id="rId1011" ref="E542"/>
-    <hyperlink r:id="rId1012" ref="D543"/>
-    <hyperlink r:id="rId1013" ref="E543"/>
-    <hyperlink r:id="rId1014" ref="D544"/>
-    <hyperlink r:id="rId1015" ref="E544"/>
-    <hyperlink r:id="rId1016" ref="D545"/>
-    <hyperlink r:id="rId1017" ref="E545"/>
-    <hyperlink r:id="rId1018" ref="D546"/>
-    <hyperlink r:id="rId1019" ref="E546"/>
-    <hyperlink r:id="rId1020" ref="D547"/>
-    <hyperlink r:id="rId1021" ref="E547"/>
-    <hyperlink r:id="rId1022" ref="D548"/>
-    <hyperlink r:id="rId1023" ref="E548"/>
-    <hyperlink r:id="rId1024" ref="D549"/>
-    <hyperlink r:id="rId1025" ref="E549"/>
-    <hyperlink r:id="rId1026" ref="D550"/>
-    <hyperlink r:id="rId1027" ref="E550"/>
-    <hyperlink r:id="rId1028" ref="D551"/>
-    <hyperlink r:id="rId1029" ref="E551"/>
-    <hyperlink r:id="rId1030" ref="D552"/>
-    <hyperlink r:id="rId1031" ref="E552"/>
-    <hyperlink r:id="rId1032" ref="D553"/>
-    <hyperlink r:id="rId1033" ref="E553"/>
-    <hyperlink r:id="rId1034" ref="D554"/>
-    <hyperlink r:id="rId1035" ref="E554"/>
-    <hyperlink r:id="rId1036" ref="D555"/>
-    <hyperlink r:id="rId1037" ref="E555"/>
-    <hyperlink r:id="rId1038" ref="D556"/>
-    <hyperlink r:id="rId1039" ref="E556"/>
-    <hyperlink r:id="rId1040" ref="D557"/>
-    <hyperlink r:id="rId1041" ref="E557"/>
-    <hyperlink r:id="rId1042" ref="D558"/>
-    <hyperlink r:id="rId1043" ref="E558"/>
-    <hyperlink r:id="rId1044" ref="D559"/>
-    <hyperlink r:id="rId1045" ref="E559"/>
-    <hyperlink r:id="rId1046" ref="D560"/>
-    <hyperlink r:id="rId1047" ref="E560"/>
-    <hyperlink r:id="rId1048" ref="D561"/>
-    <hyperlink r:id="rId1049" ref="E561"/>
-    <hyperlink r:id="rId1050" ref="D562"/>
-    <hyperlink r:id="rId1051" ref="E562"/>
-    <hyperlink r:id="rId1052" ref="D563"/>
-    <hyperlink r:id="rId1053" ref="E563"/>
-    <hyperlink r:id="rId1054" ref="D564"/>
-    <hyperlink r:id="rId1055" ref="E564"/>
-    <hyperlink r:id="rId1056" ref="D565"/>
-    <hyperlink r:id="rId1057" ref="E565"/>
-    <hyperlink r:id="rId1058" ref="D566"/>
-    <hyperlink r:id="rId1059" ref="E566"/>
-    <hyperlink r:id="rId1060" ref="D567"/>
-    <hyperlink r:id="rId1061" ref="E567"/>
-    <hyperlink r:id="rId1062" ref="D568"/>
-    <hyperlink r:id="rId1063" ref="E568"/>
-    <hyperlink r:id="rId1064" ref="D569"/>
-    <hyperlink r:id="rId1065" ref="E569"/>
-    <hyperlink r:id="rId1066" ref="D570"/>
-    <hyperlink r:id="rId1067" ref="E570"/>
-    <hyperlink r:id="rId1068" ref="D571"/>
-    <hyperlink r:id="rId1069" ref="E571"/>
-    <hyperlink r:id="rId1070" ref="D572"/>
-    <hyperlink r:id="rId1071" ref="E572"/>
-    <hyperlink r:id="rId1072" ref="D573"/>
-    <hyperlink r:id="rId1073" ref="E573"/>
-    <hyperlink r:id="rId1074" ref="D574"/>
-    <hyperlink r:id="rId1075" ref="E574"/>
-    <hyperlink r:id="rId1076" ref="D575"/>
-    <hyperlink r:id="rId1077" ref="E575"/>
-    <hyperlink r:id="rId1078" ref="D576"/>
-    <hyperlink r:id="rId1079" ref="E576"/>
-    <hyperlink r:id="rId1080" ref="D577"/>
-    <hyperlink r:id="rId1081" ref="E577"/>
-    <hyperlink r:id="rId1082" ref="D578"/>
-    <hyperlink r:id="rId1083" ref="E578"/>
-    <hyperlink r:id="rId1084" ref="D579"/>
-    <hyperlink r:id="rId1085" ref="E579"/>
-    <hyperlink r:id="rId1086" ref="D580"/>
-    <hyperlink r:id="rId1087" ref="E580"/>
-    <hyperlink r:id="rId1088" ref="D581"/>
-    <hyperlink r:id="rId1089" ref="E581"/>
-    <hyperlink r:id="rId1090" ref="D582"/>
-    <hyperlink r:id="rId1091" ref="E582"/>
-    <hyperlink r:id="rId1092" ref="D583"/>
-    <hyperlink r:id="rId1093" ref="E583"/>
-    <hyperlink r:id="rId1094" ref="D584"/>
-    <hyperlink r:id="rId1095" ref="E584"/>
-    <hyperlink r:id="rId1096" ref="D585"/>
-    <hyperlink r:id="rId1097" ref="E585"/>
-    <hyperlink r:id="rId1098" ref="D586"/>
-    <hyperlink r:id="rId1099" ref="E586"/>
-    <hyperlink r:id="rId1100" ref="D587"/>
-    <hyperlink r:id="rId1101" ref="E587"/>
-    <hyperlink r:id="rId1102" ref="D588"/>
-    <hyperlink r:id="rId1103" ref="E588"/>
-    <hyperlink r:id="rId1104" ref="D589"/>
-    <hyperlink r:id="rId1105" ref="E589"/>
-    <hyperlink r:id="rId1106" ref="D590"/>
-    <hyperlink r:id="rId1107" ref="E590"/>
-    <hyperlink r:id="rId1108" ref="D591"/>
-    <hyperlink r:id="rId1109" ref="E591"/>
-    <hyperlink r:id="rId1110" ref="D592"/>
-    <hyperlink r:id="rId1111" ref="E592"/>
-    <hyperlink r:id="rId1112" ref="D593"/>
-    <hyperlink r:id="rId1113" ref="E593"/>
-    <hyperlink r:id="rId1114" ref="D594"/>
-    <hyperlink r:id="rId1115" ref="E594"/>
-    <hyperlink r:id="rId1116" ref="D595"/>
-    <hyperlink r:id="rId1117" ref="E595"/>
-    <hyperlink r:id="rId1118" ref="D596"/>
-    <hyperlink r:id="rId1119" ref="E596"/>
-    <hyperlink r:id="rId1120" ref="D597"/>
-    <hyperlink r:id="rId1121" ref="E597"/>
-    <hyperlink r:id="rId1122" ref="D598"/>
-    <hyperlink r:id="rId1123" ref="E598"/>
-    <hyperlink r:id="rId1124" ref="D599"/>
-    <hyperlink r:id="rId1125" ref="E599"/>
-    <hyperlink r:id="rId1126" ref="D600"/>
-    <hyperlink r:id="rId1127" ref="E600"/>
-    <hyperlink r:id="rId1128" ref="D601"/>
-    <hyperlink r:id="rId1129" ref="E601"/>
-    <hyperlink r:id="rId1130" ref="D602"/>
-    <hyperlink r:id="rId1131" ref="E602"/>
-    <hyperlink r:id="rId1132" ref="D603"/>
-    <hyperlink r:id="rId1133" ref="E603"/>
-    <hyperlink r:id="rId1134" ref="D604"/>
-    <hyperlink r:id="rId1135" ref="E604"/>
-    <hyperlink r:id="rId1136" ref="D605"/>
-    <hyperlink r:id="rId1137" ref="E605"/>
-    <hyperlink r:id="rId1138" ref="D606"/>
-    <hyperlink r:id="rId1139" ref="E606"/>
-    <hyperlink r:id="rId1140" ref="D607"/>
-    <hyperlink r:id="rId1141" ref="E607"/>
-    <hyperlink r:id="rId1142" ref="D608"/>
-    <hyperlink r:id="rId1143" ref="E608"/>
-    <hyperlink r:id="rId1144" ref="D609"/>
-    <hyperlink r:id="rId1145" ref="E609"/>
-    <hyperlink r:id="rId1146" ref="D610"/>
-    <hyperlink r:id="rId1147" ref="E610"/>
-    <hyperlink r:id="rId1148" ref="D611"/>
-    <hyperlink r:id="rId1149" ref="E611"/>
-    <hyperlink r:id="rId1150" ref="D612"/>
-    <hyperlink r:id="rId1151" ref="E612"/>
-    <hyperlink r:id="rId1152" ref="D613"/>
-    <hyperlink r:id="rId1153" ref="E613"/>
-    <hyperlink r:id="rId1154" ref="D614"/>
-    <hyperlink r:id="rId1155" ref="E614"/>
-    <hyperlink r:id="rId1156" ref="D615"/>
-    <hyperlink r:id="rId1157" ref="E615"/>
-    <hyperlink r:id="rId1158" ref="D616"/>
-    <hyperlink r:id="rId1159" ref="E616"/>
-    <hyperlink r:id="rId1160" ref="D617"/>
-    <hyperlink r:id="rId1161" ref="E617"/>
-    <hyperlink r:id="rId1162" ref="D618"/>
-    <hyperlink r:id="rId1163" ref="E618"/>
-    <hyperlink r:id="rId1164" ref="D619"/>
-    <hyperlink r:id="rId1165" ref="E619"/>
-    <hyperlink r:id="rId1166" ref="D620"/>
-    <hyperlink r:id="rId1167" ref="E620"/>
-    <hyperlink r:id="rId1168" ref="D621"/>
-    <hyperlink r:id="rId1169" ref="E621"/>
-    <hyperlink r:id="rId1170" ref="D622"/>
-    <hyperlink r:id="rId1171" ref="E622"/>
-    <hyperlink r:id="rId1172" ref="D623"/>
-    <hyperlink r:id="rId1173" ref="E623"/>
-    <hyperlink r:id="rId1174" ref="D624"/>
-    <hyperlink r:id="rId1175" ref="E624"/>
-    <hyperlink r:id="rId1176" ref="D625"/>
-    <hyperlink r:id="rId1177" ref="E625"/>
-    <hyperlink r:id="rId1178" ref="D626"/>
-    <hyperlink r:id="rId1179" ref="E626"/>
-    <hyperlink r:id="rId1180" ref="D627"/>
-    <hyperlink r:id="rId1181" ref="E627"/>
-    <hyperlink r:id="rId1182" ref="D628"/>
-    <hyperlink r:id="rId1183" ref="E628"/>
-    <hyperlink r:id="rId1184" ref="D629"/>
-    <hyperlink r:id="rId1185" ref="E629"/>
-    <hyperlink r:id="rId1186" ref="D630"/>
-    <hyperlink r:id="rId1187" ref="E630"/>
-    <hyperlink r:id="rId1188" ref="D631"/>
-    <hyperlink r:id="rId1189" ref="E631"/>
-    <hyperlink r:id="rId1190" ref="D632"/>
-    <hyperlink r:id="rId1191" ref="E632"/>
-    <hyperlink r:id="rId1192" ref="D633"/>
-    <hyperlink r:id="rId1193" ref="E633"/>
-    <hyperlink r:id="rId1194" ref="D634"/>
-    <hyperlink r:id="rId1195" ref="E634"/>
-    <hyperlink r:id="rId1196" ref="D635"/>
-    <hyperlink r:id="rId1197" ref="E635"/>
-    <hyperlink r:id="rId1198" ref="D636"/>
-    <hyperlink r:id="rId1199" ref="E636"/>
-    <hyperlink r:id="rId1200" ref="D637"/>
-    <hyperlink r:id="rId1201" ref="E637"/>
-    <hyperlink r:id="rId1202" ref="D638"/>
-    <hyperlink r:id="rId1203" ref="E638"/>
-    <hyperlink r:id="rId1204" ref="D639"/>
-    <hyperlink r:id="rId1205" ref="E639"/>
-    <hyperlink r:id="rId1206" ref="D640"/>
-    <hyperlink r:id="rId1207" ref="E640"/>
-    <hyperlink r:id="rId1208" ref="D641"/>
-    <hyperlink r:id="rId1209" ref="E641"/>
-    <hyperlink r:id="rId1210" ref="D642"/>
-    <hyperlink r:id="rId1211" ref="E642"/>
-    <hyperlink r:id="rId1212" ref="D643"/>
-    <hyperlink r:id="rId1213" ref="E643"/>
+    <hyperlink r:id="rId70" ref="E71"/>
+    <hyperlink r:id="rId71" ref="D72"/>
+    <hyperlink r:id="rId72" ref="E72"/>
+    <hyperlink r:id="rId73" ref="D73"/>
+    <hyperlink r:id="rId74" ref="E73"/>
+    <hyperlink r:id="rId75" ref="D74"/>
+    <hyperlink r:id="rId76" ref="E74"/>
+    <hyperlink r:id="rId77" ref="D75"/>
+    <hyperlink r:id="rId78" ref="E75"/>
+    <hyperlink r:id="rId79" ref="D76"/>
+    <hyperlink r:id="rId80" ref="E76"/>
+    <hyperlink r:id="rId81" ref="D77"/>
+    <hyperlink r:id="rId82" ref="E77"/>
+    <hyperlink r:id="rId83" ref="D78"/>
+    <hyperlink r:id="rId84" ref="E78"/>
+    <hyperlink r:id="rId85" ref="D79"/>
+    <hyperlink r:id="rId86" ref="E79"/>
+    <hyperlink r:id="rId87" ref="D80"/>
+    <hyperlink r:id="rId88" ref="E80"/>
+    <hyperlink r:id="rId89" ref="D81"/>
+    <hyperlink r:id="rId90" ref="E81"/>
+    <hyperlink r:id="rId91" ref="D82"/>
+    <hyperlink r:id="rId92" ref="E82"/>
+    <hyperlink r:id="rId93" ref="D83"/>
+    <hyperlink r:id="rId94" ref="E83"/>
+    <hyperlink r:id="rId95" ref="D84"/>
+    <hyperlink r:id="rId96" ref="E84"/>
+    <hyperlink r:id="rId97" ref="D85"/>
+    <hyperlink r:id="rId98" ref="E85"/>
+    <hyperlink r:id="rId99" ref="D86"/>
+    <hyperlink r:id="rId100" ref="E86"/>
+    <hyperlink r:id="rId101" ref="D87"/>
+    <hyperlink r:id="rId102" ref="E87"/>
+    <hyperlink r:id="rId103" ref="D88"/>
+    <hyperlink r:id="rId104" ref="E88"/>
+    <hyperlink r:id="rId105" ref="E89"/>
+    <hyperlink r:id="rId106" ref="D90"/>
+    <hyperlink r:id="rId107" ref="E90"/>
+    <hyperlink r:id="rId108" ref="D91"/>
+    <hyperlink r:id="rId109" ref="E91"/>
+    <hyperlink r:id="rId110" ref="D92"/>
+    <hyperlink r:id="rId111" ref="E92"/>
+    <hyperlink r:id="rId112" ref="D93"/>
+    <hyperlink r:id="rId113" ref="E93"/>
+    <hyperlink r:id="rId114" ref="D94"/>
+    <hyperlink r:id="rId115" ref="E94"/>
+    <hyperlink r:id="rId116" ref="D95"/>
+    <hyperlink r:id="rId117" ref="E95"/>
+    <hyperlink r:id="rId118" ref="D96"/>
+    <hyperlink r:id="rId119" ref="E96"/>
+    <hyperlink r:id="rId120" ref="D97"/>
+    <hyperlink r:id="rId121" ref="E97"/>
+    <hyperlink r:id="rId122" ref="D98"/>
+    <hyperlink r:id="rId123" ref="E98"/>
+    <hyperlink r:id="rId124" ref="D99"/>
+    <hyperlink r:id="rId125" ref="E99"/>
+    <hyperlink r:id="rId126" ref="D100"/>
+    <hyperlink r:id="rId127" ref="E100"/>
+    <hyperlink r:id="rId128" ref="D101"/>
+    <hyperlink r:id="rId129" ref="E101"/>
+    <hyperlink r:id="rId130" ref="D102"/>
+    <hyperlink r:id="rId131" ref="E102"/>
+    <hyperlink r:id="rId132" ref="D103"/>
+    <hyperlink r:id="rId133" ref="E103"/>
+    <hyperlink r:id="rId134" ref="D104"/>
+    <hyperlink r:id="rId135" ref="E104"/>
+    <hyperlink r:id="rId136" ref="D105"/>
+    <hyperlink r:id="rId137" ref="E105"/>
+    <hyperlink r:id="rId138" ref="D106"/>
+    <hyperlink r:id="rId139" ref="E106"/>
+    <hyperlink r:id="rId140" ref="D107"/>
+    <hyperlink r:id="rId141" ref="E107"/>
+    <hyperlink r:id="rId142" ref="D108"/>
+    <hyperlink r:id="rId143" ref="E108"/>
+    <hyperlink r:id="rId144" ref="D109"/>
+    <hyperlink r:id="rId145" ref="E109"/>
+    <hyperlink r:id="rId146" ref="D110"/>
+    <hyperlink r:id="rId147" ref="E110"/>
+    <hyperlink r:id="rId148" ref="D111"/>
+    <hyperlink r:id="rId149" ref="E111"/>
+    <hyperlink r:id="rId150" ref="D112"/>
+    <hyperlink r:id="rId151" ref="E112"/>
+    <hyperlink r:id="rId152" ref="D113"/>
+    <hyperlink r:id="rId153" ref="E113"/>
+    <hyperlink r:id="rId154" ref="D114"/>
+    <hyperlink r:id="rId155" ref="E114"/>
+    <hyperlink r:id="rId156" ref="D115"/>
+    <hyperlink r:id="rId157" ref="E115"/>
+    <hyperlink r:id="rId158" ref="D116"/>
+    <hyperlink r:id="rId159" ref="E116"/>
+    <hyperlink r:id="rId160" ref="D117"/>
+    <hyperlink r:id="rId161" ref="E117"/>
+    <hyperlink r:id="rId162" ref="D118"/>
+    <hyperlink r:id="rId163" ref="E118"/>
+    <hyperlink r:id="rId164" ref="D119"/>
+    <hyperlink r:id="rId165" ref="E119"/>
+    <hyperlink r:id="rId166" ref="D120"/>
+    <hyperlink r:id="rId167" ref="E120"/>
+    <hyperlink r:id="rId168" ref="D121"/>
+    <hyperlink r:id="rId169" ref="E121"/>
+    <hyperlink r:id="rId170" ref="D122"/>
+    <hyperlink r:id="rId171" ref="E122"/>
+    <hyperlink r:id="rId172" ref="D123"/>
+    <hyperlink r:id="rId173" ref="E123"/>
+    <hyperlink r:id="rId174" ref="D124"/>
+    <hyperlink r:id="rId175" ref="E124"/>
+    <hyperlink r:id="rId176" ref="D125"/>
+    <hyperlink r:id="rId177" ref="E125"/>
+    <hyperlink r:id="rId178" ref="D126"/>
+    <hyperlink r:id="rId179" ref="E126"/>
+    <hyperlink r:id="rId180" ref="D127"/>
+    <hyperlink r:id="rId181" ref="E127"/>
+    <hyperlink r:id="rId182" ref="D128"/>
+    <hyperlink r:id="rId183" ref="E128"/>
+    <hyperlink r:id="rId184" ref="D129"/>
+    <hyperlink r:id="rId185" ref="E129"/>
+    <hyperlink r:id="rId186" ref="D130"/>
+    <hyperlink r:id="rId187" ref="E130"/>
+    <hyperlink r:id="rId188" ref="D131"/>
+    <hyperlink r:id="rId189" ref="E131"/>
+    <hyperlink r:id="rId190" ref="D132"/>
+    <hyperlink r:id="rId191" ref="E132"/>
+    <hyperlink r:id="rId192" ref="D133"/>
+    <hyperlink r:id="rId193" ref="E133"/>
+    <hyperlink r:id="rId194" ref="D134"/>
+    <hyperlink r:id="rId195" ref="E134"/>
+    <hyperlink r:id="rId196" ref="D135"/>
+    <hyperlink r:id="rId197" ref="E135"/>
+    <hyperlink r:id="rId198" ref="D136"/>
+    <hyperlink r:id="rId199" ref="E136"/>
+    <hyperlink r:id="rId200" ref="D137"/>
+    <hyperlink r:id="rId201" ref="E137"/>
+    <hyperlink r:id="rId202" ref="D138"/>
+    <hyperlink r:id="rId203" ref="E138"/>
+    <hyperlink r:id="rId204" ref="D139"/>
+    <hyperlink r:id="rId205" ref="E139"/>
+    <hyperlink r:id="rId206" ref="D140"/>
+    <hyperlink r:id="rId207" ref="E140"/>
+    <hyperlink r:id="rId208" ref="D141"/>
+    <hyperlink r:id="rId209" ref="E141"/>
+    <hyperlink r:id="rId210" ref="D142"/>
+    <hyperlink r:id="rId211" ref="E142"/>
+    <hyperlink r:id="rId212" ref="D143"/>
+    <hyperlink r:id="rId213" ref="E143"/>
+    <hyperlink r:id="rId214" ref="D144"/>
+    <hyperlink r:id="rId215" ref="E144"/>
+    <hyperlink r:id="rId216" ref="D145"/>
+    <hyperlink r:id="rId217" ref="E145"/>
+    <hyperlink r:id="rId218" ref="D146"/>
+    <hyperlink r:id="rId219" ref="E146"/>
+    <hyperlink r:id="rId220" ref="E147"/>
+    <hyperlink r:id="rId221" ref="D148"/>
+    <hyperlink r:id="rId222" ref="E148"/>
+    <hyperlink r:id="rId223" ref="D149"/>
+    <hyperlink r:id="rId224" ref="E149"/>
+    <hyperlink r:id="rId225" ref="E150"/>
+    <hyperlink r:id="rId226" ref="E151"/>
+    <hyperlink r:id="rId227" ref="D152"/>
+    <hyperlink r:id="rId228" ref="E152"/>
+    <hyperlink r:id="rId229" ref="D153"/>
+    <hyperlink r:id="rId230" ref="E153"/>
+    <hyperlink r:id="rId231" ref="D154"/>
+    <hyperlink r:id="rId232" ref="E154"/>
+    <hyperlink r:id="rId233" ref="D155"/>
+    <hyperlink r:id="rId234" ref="E155"/>
+    <hyperlink r:id="rId235" ref="D156"/>
+    <hyperlink r:id="rId236" ref="E156"/>
+    <hyperlink r:id="rId237" ref="D157"/>
+    <hyperlink r:id="rId238" ref="E157"/>
+    <hyperlink r:id="rId239" ref="D158"/>
+    <hyperlink r:id="rId240" ref="E158"/>
+    <hyperlink r:id="rId241" ref="D159"/>
+    <hyperlink r:id="rId242" ref="E159"/>
+    <hyperlink r:id="rId243" ref="D160"/>
+    <hyperlink r:id="rId244" ref="E160"/>
+    <hyperlink r:id="rId245" ref="D161"/>
+    <hyperlink r:id="rId246" ref="E161"/>
+    <hyperlink r:id="rId247" ref="D162"/>
+    <hyperlink r:id="rId248" ref="E162"/>
+    <hyperlink r:id="rId249" ref="D163"/>
+    <hyperlink r:id="rId250" ref="E163"/>
+    <hyperlink r:id="rId251" ref="D164"/>
+    <hyperlink r:id="rId252" ref="E164"/>
+    <hyperlink r:id="rId253" ref="D165"/>
+    <hyperlink r:id="rId254" ref="E165"/>
+    <hyperlink r:id="rId255" ref="D166"/>
+    <hyperlink r:id="rId256" ref="E166"/>
+    <hyperlink r:id="rId257" ref="D167"/>
+    <hyperlink r:id="rId258" ref="E167"/>
+    <hyperlink r:id="rId259" ref="D168"/>
+    <hyperlink r:id="rId260" ref="E168"/>
+    <hyperlink r:id="rId261" ref="D169"/>
+    <hyperlink r:id="rId262" ref="E169"/>
+    <hyperlink r:id="rId263" ref="D170"/>
+    <hyperlink r:id="rId264" ref="E170"/>
+    <hyperlink r:id="rId265" ref="D171"/>
+    <hyperlink r:id="rId266" ref="E171"/>
+    <hyperlink r:id="rId267" ref="D172"/>
+    <hyperlink r:id="rId268" ref="E172"/>
+    <hyperlink r:id="rId269" ref="D173"/>
+    <hyperlink r:id="rId270" ref="E173"/>
+    <hyperlink r:id="rId271" ref="D174"/>
+    <hyperlink r:id="rId272" ref="E174"/>
+    <hyperlink r:id="rId273" ref="E175"/>
+    <hyperlink r:id="rId274" ref="D176"/>
+    <hyperlink r:id="rId275" ref="E176"/>
+    <hyperlink r:id="rId276" ref="D177"/>
+    <hyperlink r:id="rId277" ref="E177"/>
+    <hyperlink r:id="rId278" ref="D178"/>
+    <hyperlink r:id="rId279" ref="D179"/>
+    <hyperlink r:id="rId280" ref="E179"/>
+    <hyperlink r:id="rId281" ref="D180"/>
+    <hyperlink r:id="rId282" ref="E180"/>
+    <hyperlink r:id="rId283" ref="D181"/>
+    <hyperlink r:id="rId284" ref="E181"/>
+    <hyperlink r:id="rId285" ref="D182"/>
+    <hyperlink r:id="rId286" ref="E182"/>
+    <hyperlink r:id="rId287" ref="D183"/>
+    <hyperlink r:id="rId288" ref="E183"/>
+    <hyperlink r:id="rId289" ref="D184"/>
+    <hyperlink r:id="rId290" ref="E184"/>
+    <hyperlink r:id="rId291" ref="D185"/>
+    <hyperlink r:id="rId292" ref="E185"/>
+    <hyperlink r:id="rId293" ref="D186"/>
+    <hyperlink r:id="rId294" ref="E186"/>
+    <hyperlink r:id="rId295" ref="D187"/>
+    <hyperlink r:id="rId296" ref="E187"/>
+    <hyperlink r:id="rId297" ref="D188"/>
+    <hyperlink r:id="rId298" ref="E188"/>
+    <hyperlink r:id="rId299" ref="D189"/>
+    <hyperlink r:id="rId300" ref="E189"/>
+    <hyperlink r:id="rId301" ref="D190"/>
+    <hyperlink r:id="rId302" ref="E190"/>
+    <hyperlink r:id="rId303" ref="D191"/>
+    <hyperlink r:id="rId304" ref="E191"/>
+    <hyperlink r:id="rId305" ref="D192"/>
+    <hyperlink r:id="rId306" ref="E192"/>
+    <hyperlink r:id="rId307" ref="D193"/>
+    <hyperlink r:id="rId308" ref="E193"/>
+    <hyperlink r:id="rId309" ref="D194"/>
+    <hyperlink r:id="rId310" ref="E194"/>
+    <hyperlink r:id="rId311" ref="D195"/>
+    <hyperlink r:id="rId312" ref="E195"/>
+    <hyperlink r:id="rId313" ref="D196"/>
+    <hyperlink r:id="rId314" ref="E196"/>
+    <hyperlink r:id="rId315" ref="D197"/>
+    <hyperlink r:id="rId316" ref="E197"/>
+    <hyperlink r:id="rId317" ref="D198"/>
+    <hyperlink r:id="rId318" ref="E198"/>
+    <hyperlink r:id="rId319" ref="D199"/>
+    <hyperlink r:id="rId320" ref="E199"/>
+    <hyperlink r:id="rId321" ref="D200"/>
+    <hyperlink r:id="rId322" ref="E200"/>
+    <hyperlink r:id="rId323" ref="D201"/>
+    <hyperlink r:id="rId324" ref="E201"/>
+    <hyperlink r:id="rId325" ref="D202"/>
+    <hyperlink r:id="rId326" ref="E202"/>
+    <hyperlink r:id="rId327" ref="D203"/>
+    <hyperlink r:id="rId328" ref="E203"/>
+    <hyperlink r:id="rId329" ref="D204"/>
+    <hyperlink r:id="rId330" ref="E204"/>
+    <hyperlink r:id="rId331" ref="D205"/>
+    <hyperlink r:id="rId332" ref="E205"/>
+    <hyperlink r:id="rId333" ref="D206"/>
+    <hyperlink r:id="rId334" ref="E206"/>
+    <hyperlink r:id="rId335" ref="D207"/>
+    <hyperlink r:id="rId336" ref="E207"/>
+    <hyperlink r:id="rId337" ref="D208"/>
+    <hyperlink r:id="rId338" ref="E208"/>
+    <hyperlink r:id="rId339" ref="D209"/>
+    <hyperlink r:id="rId340" ref="E209"/>
+    <hyperlink r:id="rId341" ref="D210"/>
+    <hyperlink r:id="rId342" ref="E210"/>
+    <hyperlink r:id="rId343" ref="D211"/>
+    <hyperlink r:id="rId344" ref="E211"/>
+    <hyperlink r:id="rId345" ref="D212"/>
+    <hyperlink r:id="rId346" ref="E212"/>
+    <hyperlink r:id="rId347" ref="D213"/>
+    <hyperlink r:id="rId348" ref="E213"/>
+    <hyperlink r:id="rId349" ref="D214"/>
+    <hyperlink r:id="rId350" ref="E214"/>
+    <hyperlink r:id="rId351" ref="D215"/>
+    <hyperlink r:id="rId352" ref="E215"/>
+    <hyperlink r:id="rId353" ref="D216"/>
+    <hyperlink r:id="rId354" ref="E216"/>
+    <hyperlink r:id="rId355" ref="D217"/>
+    <hyperlink r:id="rId356" ref="E217"/>
+    <hyperlink r:id="rId357" ref="D218"/>
+    <hyperlink r:id="rId358" ref="E218"/>
+    <hyperlink r:id="rId359" ref="D219"/>
+    <hyperlink r:id="rId360" ref="E219"/>
+    <hyperlink r:id="rId361" ref="D220"/>
+    <hyperlink r:id="rId362" ref="E220"/>
+    <hyperlink r:id="rId363" ref="D221"/>
+    <hyperlink r:id="rId364" ref="E221"/>
+    <hyperlink r:id="rId365" ref="D222"/>
+    <hyperlink r:id="rId366" ref="E222"/>
+    <hyperlink r:id="rId367" ref="D223"/>
+    <hyperlink r:id="rId368" ref="E223"/>
+    <hyperlink r:id="rId369" ref="D224"/>
+    <hyperlink r:id="rId370" ref="E224"/>
+    <hyperlink r:id="rId371" ref="D225"/>
+    <hyperlink r:id="rId372" ref="E225"/>
+    <hyperlink r:id="rId373" ref="D226"/>
+    <hyperlink r:id="rId374" ref="E226"/>
+    <hyperlink r:id="rId375" ref="D227"/>
+    <hyperlink r:id="rId376" ref="E227"/>
+    <hyperlink r:id="rId377" ref="D228"/>
+    <hyperlink r:id="rId378" ref="E228"/>
+    <hyperlink r:id="rId379" ref="D229"/>
+    <hyperlink r:id="rId380" ref="E229"/>
+    <hyperlink r:id="rId381" ref="D230"/>
+    <hyperlink r:id="rId382" ref="E230"/>
+    <hyperlink r:id="rId383" ref="D231"/>
+    <hyperlink r:id="rId384" ref="E231"/>
+    <hyperlink r:id="rId385" ref="D232"/>
+    <hyperlink r:id="rId386" ref="E232"/>
+    <hyperlink r:id="rId387" ref="D233"/>
+    <hyperlink r:id="rId388" ref="E233"/>
+    <hyperlink r:id="rId389" ref="D234"/>
+    <hyperlink r:id="rId390" ref="E234"/>
+    <hyperlink r:id="rId391" ref="D235"/>
+    <hyperlink r:id="rId392" ref="E235"/>
+    <hyperlink r:id="rId393" ref="E236"/>
+    <hyperlink r:id="rId394" ref="D237"/>
+    <hyperlink r:id="rId395" ref="E237"/>
+    <hyperlink r:id="rId396" ref="D238"/>
+    <hyperlink r:id="rId397" ref="E238"/>
+    <hyperlink r:id="rId398" ref="D239"/>
+    <hyperlink r:id="rId399" ref="E239"/>
+    <hyperlink r:id="rId400" ref="D240"/>
+    <hyperlink r:id="rId401" ref="E240"/>
+    <hyperlink r:id="rId402" ref="D241"/>
+    <hyperlink r:id="rId403" ref="E241"/>
+    <hyperlink r:id="rId404" ref="D242"/>
+    <hyperlink r:id="rId405" ref="E242"/>
+    <hyperlink r:id="rId406" ref="D243"/>
+    <hyperlink r:id="rId407" ref="E243"/>
+    <hyperlink r:id="rId408" ref="D244"/>
+    <hyperlink r:id="rId409" ref="E244"/>
+    <hyperlink r:id="rId410" ref="D245"/>
+    <hyperlink r:id="rId411" ref="E245"/>
+    <hyperlink r:id="rId412" ref="D246"/>
+    <hyperlink r:id="rId413" ref="E246"/>
+    <hyperlink r:id="rId414" ref="E247"/>
+    <hyperlink r:id="rId415" ref="E248"/>
+    <hyperlink r:id="rId416" ref="D249"/>
+    <hyperlink r:id="rId417" ref="E249"/>
+    <hyperlink r:id="rId418" ref="D250"/>
+    <hyperlink r:id="rId419" ref="E250"/>
+    <hyperlink r:id="rId420" ref="D251"/>
+    <hyperlink r:id="rId421" ref="E251"/>
+    <hyperlink r:id="rId422" ref="D252"/>
+    <hyperlink r:id="rId423" ref="E252"/>
+    <hyperlink r:id="rId424" ref="D253"/>
+    <hyperlink r:id="rId425" ref="E253"/>
+    <hyperlink r:id="rId426" ref="D254"/>
+    <hyperlink r:id="rId427" ref="E254"/>
+    <hyperlink r:id="rId428" ref="D255"/>
+    <hyperlink r:id="rId429" ref="E255"/>
+    <hyperlink r:id="rId430" ref="D256"/>
+    <hyperlink r:id="rId431" ref="E256"/>
+    <hyperlink r:id="rId432" ref="D257"/>
+    <hyperlink r:id="rId433" ref="E257"/>
+    <hyperlink r:id="rId434" ref="D258"/>
+    <hyperlink r:id="rId435" ref="E258"/>
+    <hyperlink r:id="rId436" ref="D259"/>
+    <hyperlink r:id="rId437" ref="E259"/>
+    <hyperlink r:id="rId438" ref="D260"/>
+    <hyperlink r:id="rId439" ref="E260"/>
+    <hyperlink r:id="rId440" ref="D261"/>
+    <hyperlink r:id="rId441" ref="E261"/>
+    <hyperlink r:id="rId442" ref="D262"/>
+    <hyperlink r:id="rId443" ref="E262"/>
+    <hyperlink r:id="rId444" ref="D263"/>
+    <hyperlink r:id="rId445" ref="E263"/>
+    <hyperlink r:id="rId446" ref="D264"/>
+    <hyperlink r:id="rId447" ref="E264"/>
+    <hyperlink r:id="rId448" ref="D265"/>
+    <hyperlink r:id="rId449" ref="E265"/>
+    <hyperlink r:id="rId450" ref="D266"/>
+    <hyperlink r:id="rId451" ref="E266"/>
+    <hyperlink r:id="rId452" ref="D267"/>
+    <hyperlink r:id="rId453" ref="E267"/>
+    <hyperlink r:id="rId454" ref="D268"/>
+    <hyperlink r:id="rId455" ref="E268"/>
+    <hyperlink r:id="rId456" ref="D269"/>
+    <hyperlink r:id="rId457" ref="E269"/>
+    <hyperlink r:id="rId458" ref="D270"/>
+    <hyperlink r:id="rId459" ref="E270"/>
+    <hyperlink r:id="rId460" ref="D271"/>
+    <hyperlink r:id="rId461" ref="E271"/>
+    <hyperlink r:id="rId462" ref="D272"/>
+    <hyperlink r:id="rId463" ref="E272"/>
+    <hyperlink r:id="rId464" ref="D273"/>
+    <hyperlink r:id="rId465" ref="E273"/>
+    <hyperlink r:id="rId466" ref="D274"/>
+    <hyperlink r:id="rId467" ref="E274"/>
+    <hyperlink r:id="rId468" ref="D275"/>
+    <hyperlink r:id="rId469" ref="E275"/>
+    <hyperlink r:id="rId470" ref="D276"/>
+    <hyperlink r:id="rId471" ref="E276"/>
+    <hyperlink r:id="rId472" ref="D277"/>
+    <hyperlink r:id="rId473" ref="E277"/>
+    <hyperlink r:id="rId474" ref="D278"/>
+    <hyperlink r:id="rId475" ref="E278"/>
+    <hyperlink r:id="rId476" ref="D279"/>
+    <hyperlink r:id="rId477" ref="E279"/>
+    <hyperlink r:id="rId478" ref="D280"/>
+    <hyperlink r:id="rId479" ref="E280"/>
+    <hyperlink r:id="rId480" ref="D281"/>
+    <hyperlink r:id="rId481" ref="E281"/>
+    <hyperlink r:id="rId482" ref="D282"/>
+    <hyperlink r:id="rId483" ref="E282"/>
+    <hyperlink r:id="rId484" ref="D283"/>
+    <hyperlink r:id="rId485" ref="E283"/>
+    <hyperlink r:id="rId486" ref="D284"/>
+    <hyperlink r:id="rId487" ref="E284"/>
+    <hyperlink r:id="rId488" ref="D285"/>
+    <hyperlink r:id="rId489" ref="E285"/>
+    <hyperlink r:id="rId490" ref="D286"/>
+    <hyperlink r:id="rId491" ref="E286"/>
+    <hyperlink r:id="rId492" ref="D287"/>
+    <hyperlink r:id="rId493" ref="E287"/>
+    <hyperlink r:id="rId494" ref="D288"/>
+    <hyperlink r:id="rId495" ref="E288"/>
+    <hyperlink r:id="rId496" ref="D289"/>
+    <hyperlink r:id="rId497" ref="E289"/>
+    <hyperlink r:id="rId498" ref="D290"/>
+    <hyperlink r:id="rId499" ref="E290"/>
+    <hyperlink r:id="rId500" ref="D291"/>
+    <hyperlink r:id="rId501" ref="E291"/>
+    <hyperlink r:id="rId502" ref="D292"/>
+    <hyperlink r:id="rId503" ref="E292"/>
+    <hyperlink r:id="rId504" ref="D293"/>
+    <hyperlink r:id="rId505" ref="E293"/>
+    <hyperlink r:id="rId506" ref="D294"/>
+    <hyperlink r:id="rId507" ref="E294"/>
+    <hyperlink r:id="rId508" ref="D295"/>
+    <hyperlink r:id="rId509" ref="E295"/>
+    <hyperlink r:id="rId510" ref="D296"/>
+    <hyperlink r:id="rId511" ref="E296"/>
+    <hyperlink r:id="rId512" ref="D297"/>
+    <hyperlink r:id="rId513" ref="E297"/>
+    <hyperlink r:id="rId514" ref="D298"/>
+    <hyperlink r:id="rId515" ref="E298"/>
+    <hyperlink r:id="rId516" ref="D299"/>
+    <hyperlink r:id="rId517" ref="E299"/>
+    <hyperlink r:id="rId518" ref="D300"/>
+    <hyperlink r:id="rId519" ref="E300"/>
+    <hyperlink r:id="rId520" ref="D301"/>
+    <hyperlink r:id="rId521" ref="E301"/>
+    <hyperlink r:id="rId522" ref="D302"/>
+    <hyperlink r:id="rId523" ref="E302"/>
+    <hyperlink r:id="rId524" ref="D303"/>
+    <hyperlink r:id="rId525" ref="E303"/>
+    <hyperlink r:id="rId526" ref="D304"/>
+    <hyperlink r:id="rId527" ref="E304"/>
+    <hyperlink r:id="rId528" ref="D305"/>
+    <hyperlink r:id="rId529" ref="E305"/>
+    <hyperlink r:id="rId530" ref="D306"/>
+    <hyperlink r:id="rId531" ref="E306"/>
+    <hyperlink r:id="rId532" ref="D307"/>
+    <hyperlink r:id="rId533" ref="E307"/>
+    <hyperlink r:id="rId534" ref="D308"/>
+    <hyperlink r:id="rId535" ref="E308"/>
+    <hyperlink r:id="rId536" ref="D309"/>
+    <hyperlink r:id="rId537" ref="E309"/>
+    <hyperlink r:id="rId538" ref="D310"/>
+    <hyperlink r:id="rId539" ref="E310"/>
+    <hyperlink r:id="rId540" ref="D311"/>
+    <hyperlink r:id="rId541" ref="E311"/>
+    <hyperlink r:id="rId542" ref="D312"/>
+    <hyperlink r:id="rId543" ref="E312"/>
+    <hyperlink r:id="rId544" ref="D313"/>
+    <hyperlink r:id="rId545" ref="E313"/>
+    <hyperlink r:id="rId546" ref="E314"/>
+    <hyperlink r:id="rId547" ref="D315"/>
+    <hyperlink r:id="rId548" ref="E315"/>
+    <hyperlink r:id="rId549" ref="D316"/>
+    <hyperlink r:id="rId550" ref="E316"/>
+    <hyperlink r:id="rId551" ref="D317"/>
+    <hyperlink r:id="rId552" ref="E317"/>
+    <hyperlink r:id="rId553" ref="D318"/>
+    <hyperlink r:id="rId554" ref="E318"/>
+    <hyperlink r:id="rId555" ref="D319"/>
+    <hyperlink r:id="rId556" ref="E319"/>
+    <hyperlink r:id="rId557" ref="D320"/>
+    <hyperlink r:id="rId558" ref="E320"/>
+    <hyperlink r:id="rId559" ref="D321"/>
+    <hyperlink r:id="rId560" ref="E321"/>
+    <hyperlink r:id="rId561" ref="D322"/>
+    <hyperlink r:id="rId562" ref="E322"/>
+    <hyperlink r:id="rId563" ref="D323"/>
+    <hyperlink r:id="rId564" ref="E323"/>
+    <hyperlink r:id="rId565" ref="D324"/>
+    <hyperlink r:id="rId566" ref="E324"/>
+    <hyperlink r:id="rId567" ref="D325"/>
+    <hyperlink r:id="rId568" ref="E325"/>
+    <hyperlink r:id="rId569" ref="D326"/>
+    <hyperlink r:id="rId570" ref="E326"/>
+    <hyperlink r:id="rId571" ref="D327"/>
+    <hyperlink r:id="rId572" ref="E327"/>
+    <hyperlink r:id="rId573" ref="D328"/>
+    <hyperlink r:id="rId574" ref="E328"/>
+    <hyperlink r:id="rId575" ref="D329"/>
+    <hyperlink r:id="rId576" ref="E329"/>
+    <hyperlink r:id="rId577" ref="D330"/>
+    <hyperlink r:id="rId578" ref="E330"/>
+    <hyperlink r:id="rId579" ref="D331"/>
+    <hyperlink r:id="rId580" ref="E331"/>
+    <hyperlink r:id="rId581" ref="D332"/>
+    <hyperlink r:id="rId582" ref="E332"/>
+    <hyperlink r:id="rId583" ref="D333"/>
+    <hyperlink r:id="rId584" ref="E333"/>
+    <hyperlink r:id="rId585" ref="D334"/>
+    <hyperlink r:id="rId586" ref="E334"/>
+    <hyperlink r:id="rId587" ref="D335"/>
+    <hyperlink r:id="rId588" ref="E335"/>
+    <hyperlink r:id="rId589" ref="D336"/>
+    <hyperlink r:id="rId590" ref="E336"/>
+    <hyperlink r:id="rId591" ref="D337"/>
+    <hyperlink r:id="rId592" ref="E337"/>
+    <hyperlink r:id="rId593" ref="D338"/>
+    <hyperlink r:id="rId594" ref="E338"/>
+    <hyperlink r:id="rId595" ref="D339"/>
+    <hyperlink r:id="rId596" ref="E339"/>
+    <hyperlink r:id="rId597" ref="D340"/>
+    <hyperlink r:id="rId598" ref="E340"/>
+    <hyperlink r:id="rId599" ref="D341"/>
+    <hyperlink r:id="rId600" ref="E341"/>
+    <hyperlink r:id="rId601" ref="D342"/>
+    <hyperlink r:id="rId602" ref="E342"/>
+    <hyperlink r:id="rId603" ref="D343"/>
+    <hyperlink r:id="rId604" ref="E343"/>
+    <hyperlink r:id="rId605" ref="D344"/>
+    <hyperlink r:id="rId606" ref="E344"/>
+    <hyperlink r:id="rId607" ref="D345"/>
+    <hyperlink r:id="rId608" ref="E345"/>
+    <hyperlink r:id="rId609" ref="D346"/>
+    <hyperlink r:id="rId610" ref="E346"/>
+    <hyperlink r:id="rId611" ref="D347"/>
+    <hyperlink r:id="rId612" ref="E347"/>
+    <hyperlink r:id="rId613" ref="D348"/>
+    <hyperlink r:id="rId614" ref="E348"/>
+    <hyperlink r:id="rId615" ref="D349"/>
+    <hyperlink r:id="rId616" ref="E349"/>
+    <hyperlink r:id="rId617" ref="D350"/>
+    <hyperlink r:id="rId618" ref="E350"/>
+    <hyperlink r:id="rId619" ref="D351"/>
+    <hyperlink r:id="rId620" ref="E351"/>
+    <hyperlink r:id="rId621" ref="D352"/>
+    <hyperlink r:id="rId622" ref="E352"/>
+    <hyperlink r:id="rId623" ref="D353"/>
+    <hyperlink r:id="rId624" ref="E353"/>
+    <hyperlink r:id="rId625" ref="D354"/>
+    <hyperlink r:id="rId626" ref="E354"/>
+    <hyperlink r:id="rId627" ref="D355"/>
+    <hyperlink r:id="rId628" ref="E355"/>
+    <hyperlink r:id="rId629" ref="D356"/>
+    <hyperlink r:id="rId630" ref="E356"/>
+    <hyperlink r:id="rId631" ref="D357"/>
+    <hyperlink r:id="rId632" ref="E357"/>
+    <hyperlink r:id="rId633" ref="D358"/>
+    <hyperlink r:id="rId634" ref="E358"/>
+    <hyperlink r:id="rId635" ref="D359"/>
+    <hyperlink r:id="rId636" ref="E359"/>
+    <hyperlink r:id="rId637" ref="D360"/>
+    <hyperlink r:id="rId638" ref="E360"/>
+    <hyperlink r:id="rId639" ref="D361"/>
+    <hyperlink r:id="rId640" ref="E361"/>
+    <hyperlink r:id="rId641" ref="D362"/>
+    <hyperlink r:id="rId642" ref="E362"/>
+    <hyperlink r:id="rId643" ref="D363"/>
+    <hyperlink r:id="rId644" ref="E363"/>
+    <hyperlink r:id="rId645" ref="D364"/>
+    <hyperlink r:id="rId646" ref="E364"/>
+    <hyperlink r:id="rId647" ref="D365"/>
+    <hyperlink r:id="rId648" ref="E365"/>
+    <hyperlink r:id="rId649" ref="D366"/>
+    <hyperlink r:id="rId650" ref="E366"/>
+    <hyperlink r:id="rId651" ref="D367"/>
+    <hyperlink r:id="rId652" ref="E367"/>
+    <hyperlink r:id="rId653" ref="D368"/>
+    <hyperlink r:id="rId654" ref="E368"/>
+    <hyperlink r:id="rId655" ref="D369"/>
+    <hyperlink r:id="rId656" ref="E369"/>
+    <hyperlink r:id="rId657" ref="D370"/>
+    <hyperlink r:id="rId658" ref="E370"/>
+    <hyperlink r:id="rId659" ref="D371"/>
+    <hyperlink r:id="rId660" ref="E371"/>
+    <hyperlink r:id="rId661" ref="E372"/>
+    <hyperlink r:id="rId662" ref="D373"/>
+    <hyperlink r:id="rId663" ref="E373"/>
+    <hyperlink r:id="rId664" ref="D374"/>
+    <hyperlink r:id="rId665" ref="E374"/>
+    <hyperlink r:id="rId666" ref="D375"/>
+    <hyperlink r:id="rId667" ref="E375"/>
+    <hyperlink r:id="rId668" ref="D376"/>
+    <hyperlink r:id="rId669" ref="E376"/>
+    <hyperlink r:id="rId670" ref="D377"/>
+    <hyperlink r:id="rId671" ref="E377"/>
+    <hyperlink r:id="rId672" ref="D378"/>
+    <hyperlink r:id="rId673" ref="E378"/>
+    <hyperlink r:id="rId674" ref="E379"/>
+    <hyperlink r:id="rId675" ref="D380"/>
+    <hyperlink r:id="rId676" ref="E380"/>
+    <hyperlink r:id="rId677" ref="D381"/>
+    <hyperlink r:id="rId678" ref="E381"/>
+    <hyperlink r:id="rId679" ref="D382"/>
+    <hyperlink r:id="rId680" ref="E382"/>
+    <hyperlink r:id="rId681" ref="D383"/>
+    <hyperlink r:id="rId682" ref="E383"/>
+    <hyperlink r:id="rId683" ref="D384"/>
+    <hyperlink r:id="rId684" ref="E384"/>
+    <hyperlink r:id="rId685" ref="D385"/>
+    <hyperlink r:id="rId686" ref="E385"/>
+    <hyperlink r:id="rId687" ref="D386"/>
+    <hyperlink r:id="rId688" ref="E386"/>
+    <hyperlink r:id="rId689" ref="D387"/>
+    <hyperlink r:id="rId690" ref="E387"/>
+    <hyperlink r:id="rId691" ref="D388"/>
+    <hyperlink r:id="rId692" ref="E388"/>
+    <hyperlink r:id="rId693" ref="D389"/>
+    <hyperlink r:id="rId694" ref="E389"/>
+    <hyperlink r:id="rId695" ref="D390"/>
+    <hyperlink r:id="rId696" ref="E390"/>
+    <hyperlink r:id="rId697" ref="D391"/>
+    <hyperlink r:id="rId698" ref="E391"/>
+    <hyperlink r:id="rId699" ref="D392"/>
+    <hyperlink r:id="rId700" ref="E392"/>
+    <hyperlink r:id="rId701" ref="D393"/>
+    <hyperlink r:id="rId702" ref="E393"/>
+    <hyperlink r:id="rId703" ref="D394"/>
+    <hyperlink r:id="rId704" ref="E394"/>
+    <hyperlink r:id="rId705" ref="D395"/>
+    <hyperlink r:id="rId706" ref="E395"/>
+    <hyperlink r:id="rId707" ref="D396"/>
+    <hyperlink r:id="rId708" ref="E396"/>
+    <hyperlink r:id="rId709" ref="D397"/>
+    <hyperlink r:id="rId710" ref="E397"/>
+    <hyperlink r:id="rId711" ref="D398"/>
+    <hyperlink r:id="rId712" ref="E398"/>
+    <hyperlink r:id="rId713" ref="D399"/>
+    <hyperlink r:id="rId714" ref="E399"/>
+    <hyperlink r:id="rId715" ref="D400"/>
+    <hyperlink r:id="rId716" ref="E400"/>
+    <hyperlink r:id="rId717" ref="D401"/>
+    <hyperlink r:id="rId718" ref="E401"/>
+    <hyperlink r:id="rId719" ref="D402"/>
+    <hyperlink r:id="rId720" ref="E402"/>
+    <hyperlink r:id="rId721" ref="D403"/>
+    <hyperlink r:id="rId722" ref="E403"/>
+    <hyperlink r:id="rId723" ref="D404"/>
+    <hyperlink r:id="rId724" ref="E404"/>
+    <hyperlink r:id="rId725" ref="D405"/>
+    <hyperlink r:id="rId726" ref="E405"/>
+    <hyperlink r:id="rId727" ref="D406"/>
+    <hyperlink r:id="rId728" ref="E406"/>
+    <hyperlink r:id="rId729" ref="D407"/>
+    <hyperlink r:id="rId730" ref="E407"/>
+    <hyperlink r:id="rId731" ref="D408"/>
+    <hyperlink r:id="rId732" ref="E408"/>
+    <hyperlink r:id="rId733" ref="D409"/>
+    <hyperlink r:id="rId734" ref="E409"/>
+    <hyperlink r:id="rId735" ref="D410"/>
+    <hyperlink r:id="rId736" ref="E410"/>
+    <hyperlink r:id="rId737" ref="D411"/>
+    <hyperlink r:id="rId738" ref="E411"/>
+    <hyperlink r:id="rId739" ref="D412"/>
+    <hyperlink r:id="rId740" ref="E412"/>
+    <hyperlink r:id="rId741" ref="D413"/>
+    <hyperlink r:id="rId742" ref="E413"/>
+    <hyperlink r:id="rId743" ref="E414"/>
+    <hyperlink r:id="rId744" ref="E415"/>
+    <hyperlink r:id="rId745" ref="D416"/>
+    <hyperlink r:id="rId746" ref="E416"/>
+    <hyperlink r:id="rId747" ref="D417"/>
+    <hyperlink r:id="rId748" ref="E417"/>
+    <hyperlink r:id="rId749" ref="D418"/>
+    <hyperlink r:id="rId750" ref="E418"/>
+    <hyperlink r:id="rId751" ref="D419"/>
+    <hyperlink r:id="rId752" ref="E419"/>
+    <hyperlink r:id="rId753" ref="D420"/>
+    <hyperlink r:id="rId754" ref="E420"/>
+    <hyperlink r:id="rId755" ref="D421"/>
+    <hyperlink r:id="rId756" ref="E421"/>
+    <hyperlink r:id="rId757" ref="D422"/>
+    <hyperlink r:id="rId758" ref="E422"/>
+    <hyperlink r:id="rId759" ref="D423"/>
+    <hyperlink r:id="rId760" ref="E423"/>
+    <hyperlink r:id="rId761" ref="D424"/>
+    <hyperlink r:id="rId762" ref="E424"/>
+    <hyperlink r:id="rId763" ref="E425"/>
+    <hyperlink r:id="rId764" ref="D426"/>
+    <hyperlink r:id="rId765" ref="E426"/>
+    <hyperlink r:id="rId766" ref="D427"/>
+    <hyperlink r:id="rId767" ref="E427"/>
+    <hyperlink r:id="rId768" ref="D428"/>
+    <hyperlink r:id="rId769" ref="E428"/>
+    <hyperlink r:id="rId770" ref="D429"/>
+    <hyperlink r:id="rId771" ref="E429"/>
+    <hyperlink r:id="rId772" ref="D430"/>
+    <hyperlink r:id="rId773" ref="E430"/>
+    <hyperlink r:id="rId774" ref="D431"/>
+    <hyperlink r:id="rId775" ref="E431"/>
+    <hyperlink r:id="rId776" ref="D432"/>
+    <hyperlink r:id="rId777" ref="E432"/>
+    <hyperlink r:id="rId778" ref="D433"/>
+    <hyperlink r:id="rId779" ref="E433"/>
+    <hyperlink r:id="rId780" ref="D434"/>
+    <hyperlink r:id="rId781" ref="E434"/>
+    <hyperlink r:id="rId782" ref="D435"/>
+    <hyperlink r:id="rId783" ref="E435"/>
+    <hyperlink r:id="rId784" ref="D436"/>
+    <hyperlink r:id="rId785" ref="E436"/>
+    <hyperlink r:id="rId786" ref="D437"/>
+    <hyperlink r:id="rId787" ref="E437"/>
+    <hyperlink r:id="rId788" ref="D438"/>
+    <hyperlink r:id="rId789" ref="E438"/>
+    <hyperlink r:id="rId790" ref="D439"/>
+    <hyperlink r:id="rId791" ref="E439"/>
+    <hyperlink r:id="rId792" ref="D440"/>
+    <hyperlink r:id="rId793" ref="E440"/>
+    <hyperlink r:id="rId794" ref="D441"/>
+    <hyperlink r:id="rId795" ref="E441"/>
+    <hyperlink r:id="rId796" ref="D442"/>
+    <hyperlink r:id="rId797" ref="E442"/>
+    <hyperlink r:id="rId798" ref="D443"/>
+    <hyperlink r:id="rId799" ref="E443"/>
+    <hyperlink r:id="rId800" ref="D444"/>
+    <hyperlink r:id="rId801" ref="E444"/>
+    <hyperlink r:id="rId802" ref="D445"/>
+    <hyperlink r:id="rId803" ref="E445"/>
+    <hyperlink r:id="rId804" ref="D446"/>
+    <hyperlink r:id="rId805" ref="E446"/>
+    <hyperlink r:id="rId806" ref="D447"/>
+    <hyperlink r:id="rId807" ref="E447"/>
+    <hyperlink r:id="rId808" ref="D448"/>
+    <hyperlink r:id="rId809" ref="E448"/>
+    <hyperlink r:id="rId810" ref="D449"/>
+    <hyperlink r:id="rId811" ref="E449"/>
+    <hyperlink r:id="rId812" ref="D450"/>
+    <hyperlink r:id="rId813" ref="E450"/>
+    <hyperlink r:id="rId814" ref="D451"/>
+    <hyperlink r:id="rId815" ref="E451"/>
+    <hyperlink r:id="rId816" ref="D452"/>
+    <hyperlink r:id="rId817" ref="E452"/>
+    <hyperlink r:id="rId818" ref="D453"/>
+    <hyperlink r:id="rId819" ref="E453"/>
+    <hyperlink r:id="rId820" ref="D454"/>
+    <hyperlink r:id="rId821" ref="E454"/>
+    <hyperlink r:id="rId822" ref="D455"/>
+    <hyperlink r:id="rId823" ref="E455"/>
+    <hyperlink r:id="rId824" ref="D456"/>
+    <hyperlink r:id="rId825" ref="E456"/>
+    <hyperlink r:id="rId826" ref="D457"/>
+    <hyperlink r:id="rId827" ref="E457"/>
+    <hyperlink r:id="rId828" ref="D458"/>
+    <hyperlink r:id="rId829" ref="E458"/>
+    <hyperlink r:id="rId830" ref="D459"/>
+    <hyperlink r:id="rId831" ref="E459"/>
+    <hyperlink r:id="rId832" ref="D460"/>
+    <hyperlink r:id="rId833" ref="E460"/>
+    <hyperlink r:id="rId834" ref="D461"/>
+    <hyperlink r:id="rId835" ref="E461"/>
+    <hyperlink r:id="rId836" ref="D462"/>
+    <hyperlink r:id="rId837" ref="E462"/>
+    <hyperlink r:id="rId838" ref="D463"/>
+    <hyperlink r:id="rId839" ref="E463"/>
+    <hyperlink r:id="rId840" ref="D464"/>
+    <hyperlink r:id="rId841" ref="E464"/>
+    <hyperlink r:id="rId842" ref="D465"/>
+    <hyperlink r:id="rId843" ref="E465"/>
+    <hyperlink r:id="rId844" ref="D466"/>
+    <hyperlink r:id="rId845" ref="E466"/>
+    <hyperlink r:id="rId846" ref="D467"/>
+    <hyperlink r:id="rId847" ref="E467"/>
+    <hyperlink r:id="rId848" ref="D468"/>
+    <hyperlink r:id="rId849" ref="E468"/>
+    <hyperlink r:id="rId850" ref="D469"/>
+    <hyperlink r:id="rId851" ref="E469"/>
+    <hyperlink r:id="rId852" ref="D470"/>
+    <hyperlink r:id="rId853" ref="E470"/>
+    <hyperlink r:id="rId854" ref="E471"/>
+    <hyperlink r:id="rId855" ref="D472"/>
+    <hyperlink r:id="rId856" ref="E472"/>
+    <hyperlink r:id="rId857" ref="D473"/>
+    <hyperlink r:id="rId858" ref="E473"/>
+    <hyperlink r:id="rId859" ref="D474"/>
+    <hyperlink r:id="rId860" ref="E474"/>
+    <hyperlink r:id="rId861" ref="D475"/>
+    <hyperlink r:id="rId862" ref="E475"/>
+    <hyperlink r:id="rId863" ref="D476"/>
+    <hyperlink r:id="rId864" ref="E476"/>
+    <hyperlink r:id="rId865" ref="D477"/>
+    <hyperlink r:id="rId866" ref="E477"/>
+    <hyperlink r:id="rId867" ref="D478"/>
+    <hyperlink r:id="rId868" ref="E478"/>
+    <hyperlink r:id="rId869" ref="D479"/>
+    <hyperlink r:id="rId870" ref="E479"/>
+    <hyperlink r:id="rId871" ref="D480"/>
+    <hyperlink r:id="rId872" ref="E480"/>
+    <hyperlink r:id="rId873" ref="D481"/>
+    <hyperlink r:id="rId874" ref="E481"/>
+    <hyperlink r:id="rId875" ref="D482"/>
+    <hyperlink r:id="rId876" ref="E482"/>
+    <hyperlink r:id="rId877" ref="D483"/>
+    <hyperlink r:id="rId878" ref="E483"/>
+    <hyperlink r:id="rId879" ref="D484"/>
+    <hyperlink r:id="rId880" ref="E484"/>
+    <hyperlink r:id="rId881" ref="D485"/>
+    <hyperlink r:id="rId882" ref="E485"/>
+    <hyperlink r:id="rId883" ref="D486"/>
+    <hyperlink r:id="rId884" ref="E486"/>
+    <hyperlink r:id="rId885" ref="D487"/>
+    <hyperlink r:id="rId886" ref="E487"/>
+    <hyperlink r:id="rId887" ref="D488"/>
+    <hyperlink r:id="rId888" ref="E488"/>
+    <hyperlink r:id="rId889" ref="D489"/>
+    <hyperlink r:id="rId890" ref="E489"/>
+    <hyperlink r:id="rId891" ref="D490"/>
+    <hyperlink r:id="rId892" ref="E490"/>
+    <hyperlink r:id="rId893" ref="D491"/>
+    <hyperlink r:id="rId894" ref="E491"/>
+    <hyperlink r:id="rId895" ref="D492"/>
+    <hyperlink r:id="rId896" ref="E492"/>
+    <hyperlink r:id="rId897" ref="D493"/>
+    <hyperlink r:id="rId898" ref="E493"/>
+    <hyperlink r:id="rId899" ref="D494"/>
+    <hyperlink r:id="rId900" ref="E494"/>
+    <hyperlink r:id="rId901" ref="D495"/>
+    <hyperlink r:id="rId902" ref="E495"/>
+    <hyperlink r:id="rId903" ref="D496"/>
+    <hyperlink r:id="rId904" ref="E496"/>
+    <hyperlink r:id="rId905" ref="D497"/>
+    <hyperlink r:id="rId906" ref="E497"/>
+    <hyperlink r:id="rId907" ref="D498"/>
+    <hyperlink r:id="rId908" ref="E498"/>
+    <hyperlink r:id="rId909" ref="D499"/>
+    <hyperlink r:id="rId910" ref="E499"/>
+    <hyperlink r:id="rId911" ref="D500"/>
+    <hyperlink r:id="rId912" ref="E500"/>
+    <hyperlink r:id="rId913" ref="D501"/>
+    <hyperlink r:id="rId914" ref="E501"/>
+    <hyperlink r:id="rId915" ref="D502"/>
+    <hyperlink r:id="rId916" ref="E502"/>
+    <hyperlink r:id="rId917" ref="D503"/>
+    <hyperlink r:id="rId918" ref="E503"/>
+    <hyperlink r:id="rId919" ref="D504"/>
+    <hyperlink r:id="rId920" ref="E504"/>
+    <hyperlink r:id="rId921" ref="D505"/>
+    <hyperlink r:id="rId922" ref="E505"/>
+    <hyperlink r:id="rId923" ref="D506"/>
+    <hyperlink r:id="rId924" ref="E506"/>
+    <hyperlink r:id="rId925" ref="D507"/>
+    <hyperlink r:id="rId926" ref="E507"/>
+    <hyperlink r:id="rId927" ref="D508"/>
+    <hyperlink r:id="rId928" ref="E508"/>
+    <hyperlink r:id="rId929" ref="D509"/>
+    <hyperlink r:id="rId930" ref="E509"/>
+    <hyperlink r:id="rId931" ref="D510"/>
+    <hyperlink r:id="rId932" ref="E510"/>
+    <hyperlink r:id="rId933" ref="D511"/>
+    <hyperlink r:id="rId934" ref="E511"/>
+    <hyperlink r:id="rId935" ref="D512"/>
+    <hyperlink r:id="rId936" ref="E512"/>
+    <hyperlink r:id="rId937" ref="D513"/>
+    <hyperlink r:id="rId938" ref="E513"/>
+    <hyperlink r:id="rId939" ref="D514"/>
+    <hyperlink r:id="rId940" ref="E514"/>
+    <hyperlink r:id="rId941" ref="D515"/>
+    <hyperlink r:id="rId942" ref="E515"/>
+    <hyperlink r:id="rId943" ref="D516"/>
+    <hyperlink r:id="rId944" ref="E516"/>
+    <hyperlink r:id="rId945" ref="D517"/>
+    <hyperlink r:id="rId946" ref="E517"/>
+    <hyperlink r:id="rId947" ref="D518"/>
+    <hyperlink r:id="rId948" ref="E518"/>
+    <hyperlink r:id="rId949" ref="D519"/>
+    <hyperlink r:id="rId950" ref="E519"/>
+    <hyperlink r:id="rId951" ref="D520"/>
+    <hyperlink r:id="rId952" ref="E520"/>
+    <hyperlink r:id="rId953" ref="D521"/>
+    <hyperlink r:id="rId954" ref="E521"/>
+    <hyperlink r:id="rId955" ref="D522"/>
+    <hyperlink r:id="rId956" ref="E522"/>
+    <hyperlink r:id="rId957" ref="D523"/>
+    <hyperlink r:id="rId958" ref="E523"/>
+    <hyperlink r:id="rId959" ref="D524"/>
+    <hyperlink r:id="rId960" ref="E524"/>
+    <hyperlink r:id="rId961" ref="D525"/>
+    <hyperlink r:id="rId962" ref="E525"/>
+    <hyperlink r:id="rId963" ref="D526"/>
+    <hyperlink r:id="rId964" ref="E526"/>
+    <hyperlink r:id="rId965" ref="E527"/>
+    <hyperlink r:id="rId966" ref="D528"/>
+    <hyperlink r:id="rId967" ref="E528"/>
+    <hyperlink r:id="rId968" ref="D529"/>
+    <hyperlink r:id="rId969" ref="E529"/>
+    <hyperlink r:id="rId970" ref="D530"/>
+    <hyperlink r:id="rId971" ref="E530"/>
+    <hyperlink r:id="rId972" ref="D531"/>
+    <hyperlink r:id="rId973" ref="E531"/>
+    <hyperlink r:id="rId974" ref="D532"/>
+    <hyperlink r:id="rId975" ref="E532"/>
+    <hyperlink r:id="rId976" ref="D533"/>
+    <hyperlink r:id="rId977" ref="E533"/>
+    <hyperlink r:id="rId978" ref="D534"/>
+    <hyperlink r:id="rId979" ref="E534"/>
+    <hyperlink r:id="rId980" ref="E535"/>
+    <hyperlink r:id="rId981" ref="D536"/>
+    <hyperlink r:id="rId982" ref="E536"/>
+    <hyperlink r:id="rId983" ref="D537"/>
+    <hyperlink r:id="rId984" ref="E537"/>
+    <hyperlink r:id="rId985" ref="D538"/>
+    <hyperlink r:id="rId986" ref="E538"/>
+    <hyperlink r:id="rId987" ref="D539"/>
+    <hyperlink r:id="rId988" ref="E539"/>
+    <hyperlink r:id="rId989" ref="D540"/>
+    <hyperlink r:id="rId990" ref="E540"/>
+    <hyperlink r:id="rId991" ref="D541"/>
+    <hyperlink r:id="rId992" ref="E541"/>
+    <hyperlink r:id="rId993" ref="D542"/>
+    <hyperlink r:id="rId994" ref="E542"/>
+    <hyperlink r:id="rId995" ref="D543"/>
+    <hyperlink r:id="rId996" ref="E543"/>
+    <hyperlink r:id="rId997" ref="D544"/>
+    <hyperlink r:id="rId998" ref="E544"/>
+    <hyperlink r:id="rId999" ref="D545"/>
+    <hyperlink r:id="rId1000" ref="E545"/>
+    <hyperlink r:id="rId1001" ref="D546"/>
+    <hyperlink r:id="rId1002" ref="E546"/>
+    <hyperlink r:id="rId1003" ref="D547"/>
+    <hyperlink r:id="rId1004" ref="E547"/>
+    <hyperlink r:id="rId1005" ref="D548"/>
+    <hyperlink r:id="rId1006" ref="E548"/>
+    <hyperlink r:id="rId1007" ref="D549"/>
+    <hyperlink r:id="rId1008" ref="E549"/>
+    <hyperlink r:id="rId1009" ref="D550"/>
+    <hyperlink r:id="rId1010" ref="E550"/>
+    <hyperlink r:id="rId1011" ref="D551"/>
+    <hyperlink r:id="rId1012" ref="E551"/>
+    <hyperlink r:id="rId1013" ref="D552"/>
+    <hyperlink r:id="rId1014" ref="E552"/>
+    <hyperlink r:id="rId1015" ref="D553"/>
+    <hyperlink r:id="rId1016" ref="E553"/>
+    <hyperlink r:id="rId1017" ref="D554"/>
+    <hyperlink r:id="rId1018" ref="E554"/>
+    <hyperlink r:id="rId1019" ref="D555"/>
+    <hyperlink r:id="rId1020" ref="E555"/>
+    <hyperlink r:id="rId1021" ref="D556"/>
+    <hyperlink r:id="rId1022" ref="E556"/>
+    <hyperlink r:id="rId1023" ref="D557"/>
+    <hyperlink r:id="rId1024" ref="E557"/>
+    <hyperlink r:id="rId1025" ref="D558"/>
+    <hyperlink r:id="rId1026" ref="E558"/>
+    <hyperlink r:id="rId1027" ref="D559"/>
+    <hyperlink r:id="rId1028" ref="E559"/>
+    <hyperlink r:id="rId1029" ref="D560"/>
+    <hyperlink r:id="rId1030" ref="E560"/>
+    <hyperlink r:id="rId1031" ref="D561"/>
+    <hyperlink r:id="rId1032" ref="E561"/>
+    <hyperlink r:id="rId1033" ref="D562"/>
+    <hyperlink r:id="rId1034" ref="E562"/>
+    <hyperlink r:id="rId1035" ref="D563"/>
+    <hyperlink r:id="rId1036" ref="E563"/>
+    <hyperlink r:id="rId1037" ref="D564"/>
+    <hyperlink r:id="rId1038" ref="E564"/>
+    <hyperlink r:id="rId1039" ref="D565"/>
+    <hyperlink r:id="rId1040" ref="E565"/>
+    <hyperlink r:id="rId1041" ref="D566"/>
+    <hyperlink r:id="rId1042" ref="E566"/>
+    <hyperlink r:id="rId1043" ref="D567"/>
+    <hyperlink r:id="rId1044" ref="E567"/>
+    <hyperlink r:id="rId1045" ref="D568"/>
+    <hyperlink r:id="rId1046" ref="E568"/>
+    <hyperlink r:id="rId1047" ref="D569"/>
+    <hyperlink r:id="rId1048" ref="E569"/>
+    <hyperlink r:id="rId1049" ref="D570"/>
+    <hyperlink r:id="rId1050" ref="E570"/>
+    <hyperlink r:id="rId1051" ref="D571"/>
+    <hyperlink r:id="rId1052" ref="E571"/>
+    <hyperlink r:id="rId1053" ref="D572"/>
+    <hyperlink r:id="rId1054" ref="E572"/>
+    <hyperlink r:id="rId1055" ref="D573"/>
+    <hyperlink r:id="rId1056" ref="E573"/>
+    <hyperlink r:id="rId1057" ref="D574"/>
+    <hyperlink r:id="rId1058" ref="E574"/>
+    <hyperlink r:id="rId1059" ref="D575"/>
+    <hyperlink r:id="rId1060" ref="E575"/>
+    <hyperlink r:id="rId1061" ref="D576"/>
+    <hyperlink r:id="rId1062" ref="E576"/>
+    <hyperlink r:id="rId1063" ref="D577"/>
+    <hyperlink r:id="rId1064" ref="E577"/>
+    <hyperlink r:id="rId1065" ref="D578"/>
+    <hyperlink r:id="rId1066" ref="E578"/>
+    <hyperlink r:id="rId1067" ref="D579"/>
+    <hyperlink r:id="rId1068" ref="E579"/>
+    <hyperlink r:id="rId1069" ref="D580"/>
+    <hyperlink r:id="rId1070" ref="E580"/>
+    <hyperlink r:id="rId1071" ref="D581"/>
+    <hyperlink r:id="rId1072" ref="E581"/>
+    <hyperlink r:id="rId1073" ref="D582"/>
+    <hyperlink r:id="rId1074" ref="E582"/>
+    <hyperlink r:id="rId1075" ref="D583"/>
+    <hyperlink r:id="rId1076" ref="E583"/>
+    <hyperlink r:id="rId1077" ref="E584"/>
+    <hyperlink r:id="rId1078" ref="E585"/>
+    <hyperlink r:id="rId1079" ref="D586"/>
+    <hyperlink r:id="rId1080" ref="E586"/>
+    <hyperlink r:id="rId1081" ref="D587"/>
+    <hyperlink r:id="rId1082" ref="E587"/>
+    <hyperlink r:id="rId1083" ref="E588"/>
+    <hyperlink r:id="rId1084" ref="D589"/>
+    <hyperlink r:id="rId1085" ref="E589"/>
+    <hyperlink r:id="rId1086" ref="D590"/>
+    <hyperlink r:id="rId1087" ref="E590"/>
+    <hyperlink r:id="rId1088" ref="D591"/>
+    <hyperlink r:id="rId1089" ref="E591"/>
+    <hyperlink r:id="rId1090" ref="D592"/>
+    <hyperlink r:id="rId1091" ref="E592"/>
+    <hyperlink r:id="rId1092" ref="D593"/>
+    <hyperlink r:id="rId1093" ref="E593"/>
+    <hyperlink r:id="rId1094" ref="D594"/>
+    <hyperlink r:id="rId1095" ref="E594"/>
+    <hyperlink r:id="rId1096" ref="D595"/>
+    <hyperlink r:id="rId1097" ref="E595"/>
+    <hyperlink r:id="rId1098" ref="D596"/>
+    <hyperlink r:id="rId1099" ref="E596"/>
+    <hyperlink r:id="rId1100" ref="D597"/>
+    <hyperlink r:id="rId1101" ref="E597"/>
+    <hyperlink r:id="rId1102" ref="D598"/>
+    <hyperlink r:id="rId1103" ref="E598"/>
+    <hyperlink r:id="rId1104" ref="D599"/>
+    <hyperlink r:id="rId1105" ref="E599"/>
+    <hyperlink r:id="rId1106" ref="D600"/>
+    <hyperlink r:id="rId1107" ref="E600"/>
+    <hyperlink r:id="rId1108" ref="D601"/>
+    <hyperlink r:id="rId1109" ref="E601"/>
+    <hyperlink r:id="rId1110" ref="D602"/>
+    <hyperlink r:id="rId1111" ref="E602"/>
+    <hyperlink r:id="rId1112" ref="D603"/>
+    <hyperlink r:id="rId1113" ref="E603"/>
+    <hyperlink r:id="rId1114" ref="D604"/>
+    <hyperlink r:id="rId1115" ref="E604"/>
+    <hyperlink r:id="rId1116" ref="D605"/>
+    <hyperlink r:id="rId1117" ref="E605"/>
+    <hyperlink r:id="rId1118" ref="D606"/>
+    <hyperlink r:id="rId1119" ref="E606"/>
+    <hyperlink r:id="rId1120" ref="D607"/>
+    <hyperlink r:id="rId1121" ref="E607"/>
+    <hyperlink r:id="rId1122" ref="D608"/>
+    <hyperlink r:id="rId1123" ref="E608"/>
+    <hyperlink r:id="rId1124" ref="D609"/>
+    <hyperlink r:id="rId1125" ref="E609"/>
+    <hyperlink r:id="rId1126" ref="D610"/>
+    <hyperlink r:id="rId1127" ref="E610"/>
+    <hyperlink r:id="rId1128" ref="D611"/>
+    <hyperlink r:id="rId1129" ref="E611"/>
+    <hyperlink r:id="rId1130" ref="D612"/>
+    <hyperlink r:id="rId1131" ref="E612"/>
+    <hyperlink r:id="rId1132" ref="D613"/>
+    <hyperlink r:id="rId1133" ref="E613"/>
+    <hyperlink r:id="rId1134" ref="D614"/>
+    <hyperlink r:id="rId1135" ref="E614"/>
+    <hyperlink r:id="rId1136" ref="D615"/>
+    <hyperlink r:id="rId1137" ref="E615"/>
+    <hyperlink r:id="rId1138" ref="D616"/>
+    <hyperlink r:id="rId1139" ref="E616"/>
+    <hyperlink r:id="rId1140" ref="D617"/>
+    <hyperlink r:id="rId1141" ref="E617"/>
+    <hyperlink r:id="rId1142" ref="D618"/>
+    <hyperlink r:id="rId1143" ref="E618"/>
+    <hyperlink r:id="rId1144" ref="D619"/>
+    <hyperlink r:id="rId1145" ref="E619"/>
+    <hyperlink r:id="rId1146" ref="D620"/>
+    <hyperlink r:id="rId1147" ref="E620"/>
+    <hyperlink r:id="rId1148" ref="D621"/>
+    <hyperlink r:id="rId1149" ref="E621"/>
+    <hyperlink r:id="rId1150" ref="D622"/>
+    <hyperlink r:id="rId1151" ref="E622"/>
+    <hyperlink r:id="rId1152" ref="D623"/>
+    <hyperlink r:id="rId1153" ref="E623"/>
+    <hyperlink r:id="rId1154" ref="D624"/>
+    <hyperlink r:id="rId1155" ref="E624"/>
+    <hyperlink r:id="rId1156" ref="D625"/>
+    <hyperlink r:id="rId1157" ref="E625"/>
+    <hyperlink r:id="rId1158" ref="D626"/>
+    <hyperlink r:id="rId1159" ref="E626"/>
+    <hyperlink r:id="rId1160" ref="D627"/>
+    <hyperlink r:id="rId1161" ref="E627"/>
+    <hyperlink r:id="rId1162" ref="E628"/>
+    <hyperlink r:id="rId1163" ref="D629"/>
+    <hyperlink r:id="rId1164" ref="E629"/>
+    <hyperlink r:id="rId1165" ref="D630"/>
+    <hyperlink r:id="rId1166" ref="E630"/>
+    <hyperlink r:id="rId1167" ref="D631"/>
+    <hyperlink r:id="rId1168" ref="E631"/>
+    <hyperlink r:id="rId1169" ref="D632"/>
+    <hyperlink r:id="rId1170" ref="E632"/>
+    <hyperlink r:id="rId1171" ref="D633"/>
+    <hyperlink r:id="rId1172" ref="E633"/>
+    <hyperlink r:id="rId1173" ref="D634"/>
+    <hyperlink r:id="rId1174" ref="E634"/>
+    <hyperlink r:id="rId1175" ref="D635"/>
+    <hyperlink r:id="rId1176" ref="E635"/>
+    <hyperlink r:id="rId1177" ref="D636"/>
+    <hyperlink r:id="rId1178" ref="E636"/>
+    <hyperlink r:id="rId1179" ref="D637"/>
+    <hyperlink r:id="rId1180" ref="E637"/>
+    <hyperlink r:id="rId1181" ref="D638"/>
+    <hyperlink r:id="rId1182" ref="E638"/>
+    <hyperlink r:id="rId1183" ref="D639"/>
+    <hyperlink r:id="rId1184" ref="E639"/>
+    <hyperlink r:id="rId1185" ref="D640"/>
+    <hyperlink r:id="rId1186" ref="E640"/>
+    <hyperlink r:id="rId1187" ref="D641"/>
+    <hyperlink r:id="rId1188" ref="E641"/>
+    <hyperlink r:id="rId1189" ref="D642"/>
+    <hyperlink r:id="rId1190" ref="E642"/>
+    <hyperlink r:id="rId1191" ref="D643"/>
+    <hyperlink r:id="rId1192" ref="E643"/>
   </hyperlinks>
-  <drawing r:id="rId1214"/>
+  <drawing r:id="rId1193"/>
 </worksheet>
 </file>
--- a/grammar-basicTerms/Grammar-基本詞彙.xlsx
+++ b/grammar-basicTerms/Grammar-基本詞彙.xlsx
@@ -36,7 +36,7 @@
     <t>保留</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-1.wav</t>
+    <t>Kanakanavu_A2-1-1.wav</t>
   </si>
   <si>
     <t>anani</t>
@@ -45,7 +45,7 @@
     <t>右邊</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-2.wav</t>
+    <t>Kanakanavu_A2-1-2.wav</t>
   </si>
   <si>
     <t>anisi</t>
@@ -54,7 +54,7 @@
     <t>牙齒</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-3.wav</t>
+    <t>Kanakanavu_A2-1-3.wav</t>
   </si>
   <si>
     <t>anu</t>
@@ -63,7 +63,7 @@
     <t>蜜蜂；蜂蜜；蜂巢</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-4.wav</t>
+    <t>Kanakanavu_A2-1-4.wav</t>
   </si>
   <si>
     <t>aracaini</t>
@@ -72,19 +72,19 @@
     <t>遠</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-5.wav</t>
+    <t>Kanakanavu_A2-1-5.wav</t>
   </si>
   <si>
     <t>araceni</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-6.wav</t>
+    <t>Kanakanavu_A2-1-6.wav</t>
   </si>
   <si>
     <t>araceen</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-7.wav</t>
+    <t>Kanakanavu_A2-1-7.wav</t>
   </si>
   <si>
     <t>aracakanʉ</t>
@@ -93,7 +93,7 @@
     <t>打獵</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-8.wav</t>
+    <t>Kanakanavu_A2-1-8.wav</t>
   </si>
   <si>
     <t>aracan</t>
@@ -102,7 +102,7 @@
     <t>近</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-9.wav</t>
+    <t>Kanakanavu_A2-1-9.wav</t>
   </si>
   <si>
     <t>araciasʉ</t>
@@ -111,7 +111,7 @@
     <t>天亮</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-10.wav</t>
+    <t>Kanakanavu_A2-1-10.wav</t>
   </si>
   <si>
     <t>aracʉvʉrʉ</t>
@@ -120,7 +120,7 @@
     <t>生長；成長</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-11.wav</t>
+    <t>Kanakanavu_A2-1-11.wav</t>
   </si>
   <si>
     <t>arakicacʉ</t>
@@ -129,7 +129,7 @@
     <t>嚇一跳</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-12.wav</t>
+    <t>Kanakanavu_A2-1-12.wav</t>
   </si>
   <si>
     <t>arakukunu</t>
@@ -138,13 +138,13 @@
     <t>一起；相處</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-13.wav</t>
+    <t>Kanakanavu_A2-1-13.wav</t>
   </si>
   <si>
     <t>arakukuun</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-14.wav</t>
+    <t>Kanakanavu_A2-1-14.wav</t>
   </si>
   <si>
     <t>arakuracʉ</t>
@@ -153,7 +153,7 @@
     <t>生氣；氣憤</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-15.wav</t>
+    <t>Kanakanavu_A2-1-15.wav</t>
   </si>
   <si>
     <t>aramia'ʉ</t>
@@ -162,7 +162,7 @@
     <t>起床；醒了</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-16.wav</t>
+    <t>Kanakanavu_A2-1-16.wav</t>
   </si>
   <si>
     <t>aranai</t>
@@ -171,7 +171,7 @@
     <t>從（某處；某時）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-17.wav</t>
+    <t>Kanakanavu_A2-1-17.wav</t>
   </si>
   <si>
     <t>arapana'ʉ</t>
@@ -180,7 +180,7 @@
     <t>跑</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-18.wav</t>
+    <t>Kanakanavu_A2-1-18.wav</t>
   </si>
   <si>
     <t>arapipiningi</t>
@@ -189,13 +189,13 @@
     <t>出去；出現</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-19.wav</t>
+    <t>Kanakanavu_A2-1-19.wav</t>
   </si>
   <si>
     <t>arapipining</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-20.wav</t>
+    <t>Kanakanavu_A2-1-20.wav</t>
   </si>
   <si>
     <t>ararira</t>
@@ -204,7 +204,7 @@
     <t>烏龜</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-21.wav</t>
+    <t>Kanakanavu_A2-1-21.wav</t>
   </si>
   <si>
     <t>aratakara</t>
@@ -213,7 +213,7 @@
     <t>起來；站起來</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-22.wav</t>
+    <t>Kanakanavu_A2-1-22.wav</t>
   </si>
   <si>
     <t>aratatia</t>
@@ -222,7 +222,7 @@
     <t>長大</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-23.wav</t>
+    <t>Kanakanavu_A2-1-23.wav</t>
   </si>
   <si>
     <t>aratʉkʉnʉ</t>
@@ -231,13 +231,13 @@
     <t>分開</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-24.wav</t>
+    <t>Kanakanavu_A2-1-24.wav</t>
   </si>
   <si>
     <t>aratʉkʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-25.wav</t>
+    <t>Kanakanavu_A2-1-25.wav</t>
   </si>
   <si>
     <t>aru</t>
@@ -246,7 +246,7 @@
     <t>八（數數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-26.wav</t>
+    <t>Kanakanavu_A2-1-26.wav</t>
   </si>
   <si>
     <t>aunu</t>
@@ -255,13 +255,13 @@
     <t>蒸氣</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-27.wav</t>
+    <t>Kanakanavu_A2-1-27.wav</t>
   </si>
   <si>
     <t>ono</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-28.wav</t>
+    <t>Kanakanavu_A2-1-28.wav</t>
   </si>
   <si>
     <t>avuran</t>
@@ -270,7 +270,7 @@
     <t>汗水</t>
   </si>
   <si>
-    <t>Kanakanavu_2-1-29.wav</t>
+    <t>Kanakanavu_A2-1-29.wav</t>
   </si>
   <si>
     <t>cacanʉ</t>
@@ -279,13 +279,13 @@
     <t>路；道路</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-1.wav</t>
+    <t>Kanakanavu_A2-2-1.wav</t>
   </si>
   <si>
     <t>cacaan</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-2.wav</t>
+    <t>Kanakanavu_A2-2-2.wav</t>
   </si>
   <si>
     <t>cakʉran</t>
@@ -294,7 +294,7 @@
     <t>河流</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-3.wav</t>
+    <t>Kanakanavu_A2-2-3.wav</t>
   </si>
   <si>
     <t>camai</t>
@@ -303,7 +303,7 @@
     <t>菜餚</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-4.wav</t>
+    <t>Kanakanavu_A2-2-4.wav</t>
   </si>
   <si>
     <t>campe</t>
@@ -312,7 +312,7 @@
     <t>剛才</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-5.wav</t>
+    <t>Kanakanavu_A2-2-5.wav</t>
   </si>
   <si>
     <t>cangkan</t>
@@ -321,7 +321,7 @@
     <t>髒</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-6.wav</t>
+    <t>Kanakanavu_A2-2-6.wav</t>
   </si>
   <si>
     <t>cani</t>
@@ -330,19 +330,19 @@
     <t>一（數數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-7.wav</t>
+    <t>Kanakanavu_A2-2-7.wav</t>
   </si>
   <si>
     <t>首次</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-8.wav</t>
+    <t>Kanakanavu_A2-2-8.wav</t>
   </si>
   <si>
     <t>歌</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-9.wav</t>
+    <t>Kanakanavu_A2-2-9.wav</t>
   </si>
   <si>
     <t>canumu</t>
@@ -351,13 +351,13 @@
     <t>水</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-10.wav</t>
+    <t>Kanakanavu_A2-2-10.wav</t>
   </si>
   <si>
     <t>canuum</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-11.wav</t>
+    <t>Kanakanavu_A2-2-11.wav</t>
   </si>
   <si>
     <t>cara</t>
@@ -366,7 +366,7 @@
     <t>上（某之上）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-12.wav</t>
+    <t>Kanakanavu_A2-2-12.wav</t>
   </si>
   <si>
     <t>carapung</t>
@@ -375,7 +375,7 @@
     <t>帽子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-13.wav</t>
+    <t>Kanakanavu_A2-2-13.wav</t>
   </si>
   <si>
     <t>caruru</t>
@@ -384,7 +384,7 @@
     <t>頂端；尖端（山頂）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-14.wav</t>
+    <t>Kanakanavu_A2-2-14.wav</t>
   </si>
   <si>
     <t>cau</t>
@@ -393,7 +393,7 @@
     <t>人</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-15.wav</t>
+    <t>Kanakanavu_A2-2-15.wav</t>
   </si>
   <si>
     <t>ca'ánia</t>
@@ -402,7 +402,7 @@
     <t>白天</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-16.wav</t>
+    <t>Kanakanavu_A2-2-16.wav</t>
   </si>
   <si>
     <t>ca'u</t>
@@ -411,7 +411,7 @@
     <t>無患子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-17.wav</t>
+    <t>Kanakanavu_A2-2-17.wav</t>
   </si>
   <si>
     <t>cenana</t>
@@ -420,7 +420,7 @@
     <t>年；年齡；歲</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-18.wav</t>
+    <t>Kanakanavu_A2-2-18.wav</t>
   </si>
   <si>
     <t>ciciri</t>
@@ -429,7 +429,7 @@
     <t>旁邊；角落</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-19.wav</t>
+    <t>Kanakanavu_A2-2-19.wav</t>
   </si>
   <si>
     <t>cikíringa</t>
@@ -438,7 +438,7 @@
     <t>邊邊的地方；隱喻廁所</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-20.wav</t>
+    <t>Kanakanavu_A2-2-20.wav</t>
   </si>
   <si>
     <t>cimi'i</t>
@@ -447,7 +447,7 @@
     <t>臉</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-21.wav</t>
+    <t>Kanakanavu_A2-2-21.wav</t>
   </si>
   <si>
     <t>cina</t>
@@ -456,7 +456,7 @@
     <t>母親；媽媽</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-22.wav</t>
+    <t>Kanakanavu_A2-2-22.wav</t>
   </si>
   <si>
     <t>cina vuravurau</t>
@@ -465,7 +465,7 @@
     <t>阿姨；嬸嬸；姑姑；媽媽輩</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-23.wav</t>
+    <t>Kanakanavu_A2-2-23.wav</t>
   </si>
   <si>
     <t>cirupu</t>
@@ -474,7 +474,7 @@
     <t>毛巾；方巾</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-24.wav</t>
+    <t>Kanakanavu_A2-2-24.wav</t>
   </si>
   <si>
     <t>ciuman</t>
@@ -483,7 +483,7 @@
     <t>胖（人）；粗（物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-25.wav</t>
+    <t>Kanakanavu_A2-2-25.wav</t>
   </si>
   <si>
     <t>ciuru</t>
@@ -492,7 +492,7 @@
     <t>針</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-26.wav</t>
+    <t>Kanakanavu_A2-2-26.wav</t>
   </si>
   <si>
     <t>civuka</t>
@@ -501,7 +501,7 @@
     <t>胃</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-27.wav</t>
+    <t>Kanakanavu_A2-2-27.wav</t>
   </si>
   <si>
     <t>civu'u</t>
@@ -510,7 +510,7 @@
     <t>竹筍</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-28.wav</t>
+    <t>Kanakanavu_A2-2-28.wav</t>
   </si>
   <si>
     <t>conu</t>
@@ -519,7 +519,7 @@
     <t>姑婆芋</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-29.wav</t>
+    <t>Kanakanavu_A2-2-29.wav</t>
   </si>
   <si>
     <t>cuma</t>
@@ -528,7 +528,7 @@
     <t>父親；爸爸</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-30.wav</t>
+    <t>Kanakanavu_A2-2-30.wav</t>
   </si>
   <si>
     <t>cuma vuravurau</t>
@@ -537,7 +537,7 @@
     <t>叔叔；伯伯；舅舅；爸爸輩</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-31.wav</t>
+    <t>Kanakanavu_A2-2-31.wav</t>
   </si>
   <si>
     <t>cumacakʉpʉ</t>
@@ -546,7 +546,7 @@
     <t>刺（以銳器）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-32.wav</t>
+    <t>Kanakanavu_A2-2-32.wav</t>
   </si>
   <si>
     <t>cumácapa</t>
@@ -555,7 +555,7 @@
     <t>烤</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-33.wav</t>
+    <t>Kanakanavu_A2-2-33.wav</t>
   </si>
   <si>
     <t>cumacaruvu</t>
@@ -564,7 +564,7 @@
     <t>蓋被子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-34.wav</t>
+    <t>Kanakanavu_A2-2-34.wav</t>
   </si>
   <si>
     <t>cumaca'ʉ</t>
@@ -573,7 +573,7 @@
     <t>削製（竹、木、金屬）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-35.wav</t>
+    <t>Kanakanavu_A2-2-35.wav</t>
   </si>
   <si>
     <t>cumacunu</t>
@@ -582,7 +582,7 @@
     <t>燒（獵物或家禽的）毛</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-36.wav</t>
+    <t>Kanakanavu_A2-2-36.wav</t>
   </si>
   <si>
     <t>cumacʉ'ʉra</t>
@@ -591,7 +591,7 @@
     <t>看</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-37.wav</t>
+    <t>Kanakanavu_A2-2-37.wav</t>
   </si>
   <si>
     <t>cumai</t>
@@ -600,7 +600,7 @@
     <t>熊</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-38.wav</t>
+    <t>Kanakanavu_A2-2-38.wav</t>
   </si>
   <si>
     <t>cunuku</t>
@@ -609,7 +609,7 @@
     <t>麻糬；年糕（有內餡）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-39.wav</t>
+    <t>Kanakanavu_A2-2-39.wav</t>
   </si>
   <si>
     <t>cúngkucu</t>
@@ -618,7 +618,7 @@
     <t>橋樑；梯子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-40.wav</t>
+    <t>Kanakanavu_A2-2-40.wav</t>
   </si>
   <si>
     <t>curu</t>
@@ -627,13 +627,13 @@
     <t>很；非常；太；真的；的確</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-41.wav</t>
+    <t>Kanakanavu_A2-2-41.wav</t>
   </si>
   <si>
     <t>cucuru</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-42.wav</t>
+    <t>Kanakanavu_A2-2-42.wav</t>
   </si>
   <si>
     <t>cusa</t>
@@ -642,7 +642,7 @@
     <t>二（數數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-43.wav</t>
+    <t>Kanakanavu_A2-2-43.wav</t>
   </si>
   <si>
     <t>cu’uan</t>
@@ -651,7 +651,7 @@
     <t>骨頭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-44.wav</t>
+    <t>Kanakanavu_A2-2-44.wav</t>
   </si>
   <si>
     <t>cʉnʉ</t>
@@ -660,13 +660,13 @@
     <t>草</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-45.wav</t>
+    <t>Kanakanavu_A2-2-45.wav</t>
   </si>
   <si>
     <t>cʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-46.wav</t>
+    <t>Kanakanavu_A2-2-46.wav</t>
   </si>
   <si>
     <t>cʉngnan</t>
@@ -675,7 +675,7 @@
     <t>舊的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-2-47.wav</t>
+    <t>Kanakanavu_A2-2-47.wav</t>
   </si>
   <si>
     <t>iávatu</t>
@@ -684,7 +684,7 @@
     <t>來</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-1.wav</t>
+    <t>Kanakanavu_A2-3-1.wav</t>
   </si>
   <si>
     <t>icici</t>
@@ -693,7 +693,7 @@
     <t>尾巴</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-2.wav</t>
+    <t>Kanakanavu_A2-3-2.wav</t>
   </si>
   <si>
     <t>íkamu</t>
@@ -702,25 +702,25 @@
     <t>你們</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-3.wav</t>
+    <t>Kanakanavu_A2-3-3.wav</t>
   </si>
   <si>
     <t>kamu</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-4.wav</t>
+    <t>Kanakanavu_A2-3-4.wav</t>
   </si>
   <si>
     <t>mu</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-5.wav</t>
+    <t>Kanakanavu_A2-3-5.wav</t>
   </si>
   <si>
     <t>kamua</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-6.wav</t>
+    <t>Kanakanavu_A2-3-6.wav</t>
   </si>
   <si>
     <t>íkasu</t>
@@ -729,25 +729,25 @@
     <t>你</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-7.wav</t>
+    <t>Kanakanavu_A2-3-7.wav</t>
   </si>
   <si>
     <t>kasu</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-8.wav</t>
+    <t>Kanakanavu_A2-3-8.wav</t>
   </si>
   <si>
     <t>musu</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-9.wav</t>
+    <t>Kanakanavu_A2-3-9.wav</t>
   </si>
   <si>
     <t>kasua</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-10.wav</t>
+    <t>Kanakanavu_A2-3-10.wav</t>
   </si>
   <si>
     <t>ikim</t>
@@ -756,25 +756,25 @@
     <t>我們（排除式）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-11.wav</t>
+    <t>Kanakanavu_A2-3-11.wav</t>
   </si>
   <si>
     <t>kim</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-12.wav</t>
+    <t>Kanakanavu_A2-3-12.wav</t>
   </si>
   <si>
     <t>mia</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-13.wav</t>
+    <t>Kanakanavu_A2-3-13.wav</t>
   </si>
   <si>
     <t>kimia</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-14.wav</t>
+    <t>Kanakanavu_A2-3-14.wav</t>
   </si>
   <si>
     <t>íkita</t>
@@ -783,25 +783,25 @@
     <t>我們（包含式）；咱們</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-15.wav</t>
+    <t>Kanakanavu_A2-3-15.wav</t>
   </si>
   <si>
     <t>kita</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-16.wav</t>
+    <t>Kanakanavu_A2-3-16.wav</t>
   </si>
   <si>
     <t>mita</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-17.wav</t>
+    <t>Kanakanavu_A2-3-17.wav</t>
   </si>
   <si>
     <t>kitana</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-18.wav</t>
+    <t>Kanakanavu_A2-3-18.wav</t>
   </si>
   <si>
     <t>iku</t>
@@ -810,31 +810,31 @@
     <t>我</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-19.wav</t>
+    <t>Kanakanavu_A2-3-19.wav</t>
   </si>
   <si>
     <t>ku</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-20.wav</t>
+    <t>Kanakanavu_A2-3-20.wav</t>
   </si>
   <si>
     <t>kia</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-21.wav</t>
+    <t>Kanakanavu_A2-3-21.wav</t>
   </si>
   <si>
     <t>maku</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-22.wav</t>
+    <t>Kanakanavu_A2-3-22.wav</t>
   </si>
   <si>
     <t>ikua</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-23.wav</t>
+    <t>Kanakanavu_A2-3-23.wav</t>
   </si>
   <si>
     <t>ímua</t>
@@ -843,7 +843,7 @@
     <t>所以；因而；因此；</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-24.wav</t>
+    <t>Kanakanavu_A2-3-24.wav</t>
   </si>
   <si>
     <t>in</t>
@@ -852,7 +852,7 @@
     <t>他；如果</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-25.wav</t>
+    <t>Kanakanavu_A2-3-25.wav</t>
   </si>
   <si>
     <t>iriri</t>
@@ -861,7 +861,7 @@
     <t>左邊</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-26.wav</t>
+    <t>Kanakanavu_A2-3-26.wav</t>
   </si>
   <si>
     <t>isa</t>
@@ -870,7 +870,7 @@
     <t>那（說者與聽者看得見）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-27.wav</t>
+    <t>Kanakanavu_A2-3-27.wav</t>
   </si>
   <si>
     <t>isi</t>
@@ -879,7 +879,7 @@
     <t>這（個）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-28.wav</t>
+    <t>Kanakanavu_A2-3-28.wav</t>
   </si>
   <si>
     <t>ísua</t>
@@ -888,7 +888,7 @@
     <t>那（說者與聽者未必能見）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-29.wav</t>
+    <t>Kanakanavu_A2-3-29.wav</t>
   </si>
   <si>
     <t>ivatá</t>
@@ -897,13 +897,13 @@
     <t>來（叫人來）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-30.wav</t>
+    <t>Kanakanavu_A2-3-30.wav</t>
   </si>
   <si>
     <t>iváta</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-31.wav</t>
+    <t>Kanakanavu_A2-3-31.wav</t>
   </si>
   <si>
     <t>ivici</t>
@@ -912,7 +912,7 @@
     <t>嘴巴</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-32.wav</t>
+    <t>Kanakanavu_A2-3-32.wav</t>
   </si>
   <si>
     <t>ivu</t>
@@ -921,7 +921,7 @@
     <t>尿；小便</t>
   </si>
   <si>
-    <t>Kanakanavu_2-3-33.wav</t>
+    <t>Kanakanavu_A2-3-33.wav</t>
   </si>
   <si>
     <t>kacaua</t>
@@ -930,7 +930,7 @@
     <t>多（人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-1.wav</t>
+    <t>Kanakanavu_A2-4-1.wav</t>
   </si>
   <si>
     <t>kaisisi</t>
@@ -939,7 +939,7 @@
     <t>祭祀；慶祝；慶典</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-2.wav</t>
+    <t>Kanakanavu_A2-4-2.wav</t>
   </si>
   <si>
     <t>kakámarʉ</t>
@@ -948,7 +948,7 @@
     <t>鐮刀</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-3.wav</t>
+    <t>Kanakanavu_A2-4-3.wav</t>
   </si>
   <si>
     <t>kakangca</t>
@@ -957,7 +957,7 @@
     <t>天空</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-4.wav</t>
+    <t>Kanakanavu_A2-4-4.wav</t>
   </si>
   <si>
     <t>kakicu</t>
@@ -966,7 +966,7 @@
     <t>男用背負網袋</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-5.wav</t>
+    <t>Kanakanavu_A2-4-5.wav</t>
   </si>
   <si>
     <t>kamanʉngʉ</t>
@@ -975,19 +975,19 @@
     <t>製作</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-6.wav</t>
+    <t>Kanakanavu_A2-4-6.wav</t>
   </si>
   <si>
     <t>kamanʉʉng</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-7.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-8.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-9.wav</t>
+    <t>Kanakanavu_A2-4-7.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-8.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-9.wav</t>
   </si>
   <si>
     <t>Kanakanavu</t>
@@ -996,7 +996,7 @@
     <t>本族的自稱用語</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-10.wav</t>
+    <t>Kanakanavu_A2-4-10.wav</t>
   </si>
   <si>
     <t>kanámara</t>
@@ -1005,7 +1005,7 @@
     <t>秋天</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-11.wav</t>
+    <t>Kanakanavu_A2-4-11.wav</t>
   </si>
   <si>
     <t>kanárua</t>
@@ -1014,7 +1014,7 @@
     <t>弟弟；妹妹</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-12.wav</t>
+    <t>Kanakanavu_A2-4-12.wav</t>
   </si>
   <si>
     <t>kanárua nanakʉ</t>
@@ -1023,7 +1023,7 @@
     <t>妹妹</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-13.wav</t>
+    <t>Kanakanavu_A2-4-13.wav</t>
   </si>
   <si>
     <t>kanárua sarunai</t>
@@ -1032,7 +1032,7 @@
     <t>弟弟</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-14.wav</t>
+    <t>Kanakanavu_A2-4-14.wav</t>
   </si>
   <si>
     <t>kana'amisan</t>
@@ -1041,7 +1041,7 @@
     <t>冬天</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-15.wav</t>
+    <t>Kanakanavu_A2-4-15.wav</t>
   </si>
   <si>
     <t>kana'iara</t>
@@ -1050,7 +1050,7 @@
     <t>春天</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-16.wav</t>
+    <t>Kanakanavu_A2-4-16.wav</t>
   </si>
   <si>
     <t>kaná'ua</t>
@@ -1059,7 +1059,7 @@
     <t>哥哥；姊姊</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-17.wav</t>
+    <t>Kanakanavu_A2-4-17.wav</t>
   </si>
   <si>
     <t>kaná'ua nanakʉ</t>
@@ -1068,7 +1068,7 @@
     <t>姊姊</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-18.wav</t>
+    <t>Kanakanavu_A2-4-18.wav</t>
   </si>
   <si>
     <t>kaná'ua sarunai</t>
@@ -1077,7 +1077,7 @@
     <t>哥哥</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-19.wav</t>
+    <t>Kanakanavu_A2-4-19.wav</t>
   </si>
   <si>
     <t>kana'ʉcana</t>
@@ -1086,7 +1086,7 @@
     <t>夏天</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-20.wav</t>
+    <t>Kanakanavu_A2-4-20.wav</t>
   </si>
   <si>
     <t>kani</t>
@@ -1095,7 +1095,7 @@
     <t>聽說；表達訊息是聽來的或是不確定的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-21.wav</t>
+    <t>Kanakanavu_A2-4-21.wav</t>
   </si>
   <si>
     <t>kara</t>
@@ -1104,7 +1104,7 @@
     <t>疑問助詞</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-22.wav</t>
+    <t>Kanakanavu_A2-4-22.wav</t>
   </si>
   <si>
     <t>karapa’ici</t>
@@ -1113,7 +1113,7 @@
     <t>喝酒</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-23.wav</t>
+    <t>Kanakanavu_A2-4-23.wav</t>
   </si>
   <si>
     <t>karara</t>
@@ -1122,7 +1122,7 @@
     <t>籃子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-24.wav</t>
+    <t>Kanakanavu_A2-4-24.wav</t>
   </si>
   <si>
     <t>karavung</t>
@@ -1131,7 +1131,7 @@
     <t>牛</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-25.wav</t>
+    <t>Kanakanavu_A2-4-25.wav</t>
   </si>
   <si>
     <t>kara’au</t>
@@ -1140,13 +1140,13 @@
     <t>喝湯</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-26.wav</t>
+    <t>Kanakanavu_A2-4-26.wav</t>
   </si>
   <si>
     <t>kara’o</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-27.wav</t>
+    <t>Kanakanavu_A2-4-27.wav</t>
   </si>
   <si>
     <t>kari</t>
@@ -1155,7 +1155,7 @@
     <t>語言；話語</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-28.wav</t>
+    <t>Kanakanavu_A2-4-28.wav</t>
   </si>
   <si>
     <t>Karianasau</t>
@@ -1164,7 +1164,7 @@
     <t>播種祭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-29.wav</t>
+    <t>Kanakanavu_A2-4-29.wav</t>
   </si>
   <si>
     <t>karu</t>
@@ -1173,7 +1173,7 @@
     <t>樹木；柴薪</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-30.wav</t>
+    <t>Kanakanavu_A2-4-30.wav</t>
   </si>
   <si>
     <t>kasa</t>
@@ -1182,7 +1182,7 @@
     <t>魚簍</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-31.wav</t>
+    <t>Kanakanavu_A2-4-31.wav</t>
   </si>
   <si>
     <t>kasa（日語）</t>
@@ -1191,13 +1191,13 @@
     <t>斗笠</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-32.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-33.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-34.wav</t>
+    <t>Kanakanavu_A2-4-32.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-33.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-34.wav</t>
   </si>
   <si>
     <t>kava</t>
@@ -1206,7 +1206,7 @@
     <t>皮（人或動物）；皮膚</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-35.wav</t>
+    <t>Kanakanavu_A2-4-35.wav</t>
   </si>
   <si>
     <t>kavangvang</t>
@@ -1215,13 +1215,13 @@
     <t>全部；都；也</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-36.wav</t>
+    <t>Kanakanavu_A2-4-36.wav</t>
   </si>
   <si>
     <t>kangvang</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-37.wav</t>
+    <t>Kanakanavu_A2-4-37.wav</t>
   </si>
   <si>
     <t>ka'anʉ</t>
@@ -1230,22 +1230,22 @@
     <t>不（會）；沒有</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-38.wav</t>
+    <t>Kanakanavu_A2-4-38.wav</t>
   </si>
   <si>
     <t>ka’aan</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-39.wav</t>
+    <t>Kanakanavu_A2-4-39.wav</t>
   </si>
   <si>
     <t>不是</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-40.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-41.wav</t>
+    <t>Kanakanavu_A2-4-40.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-41.wav</t>
   </si>
   <si>
     <t>ka’umó’uma</t>
@@ -1254,7 +1254,7 @@
     <t>開墾；做田</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-42.wav</t>
+    <t>Kanakanavu_A2-4-42.wav</t>
   </si>
   <si>
     <t>kee</t>
@@ -1263,7 +1263,7 @@
     <t>他</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-43.wav</t>
+    <t>Kanakanavu_A2-4-43.wav</t>
   </si>
   <si>
     <t>kesoni</t>
@@ -1272,10 +1272,10 @@
     <t>問；詢問</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-44.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-45.wav</t>
+    <t>Kanakanavu_A2-4-44.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-45.wav</t>
   </si>
   <si>
     <t>kiatúturu</t>
@@ -1284,13 +1284,13 @@
     <t>學習</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-46.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-47.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-48.wav</t>
+    <t>Kanakanavu_A2-4-46.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-47.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-48.wav</t>
   </si>
   <si>
     <t>kincaua</t>
@@ -1299,7 +1299,7 @@
     <t>親戚</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-49.wav</t>
+    <t>Kanakanavu_A2-4-49.wav</t>
   </si>
   <si>
     <t>kinvara</t>
@@ -1308,19 +1308,19 @@
     <t>兄弟姐妹；堂、表兄弟姐妹</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-50.wav</t>
+    <t>Kanakanavu_A2-4-50.wav</t>
   </si>
   <si>
     <t>kinvaia</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-51.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-52.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-53.wav</t>
+    <t>Kanakanavu_A2-4-51.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-52.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-53.wav</t>
   </si>
   <si>
     <t>koo</t>
@@ -1329,7 +1329,7 @@
     <t>沒；沒有（做某事）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-54.wav</t>
+    <t>Kanakanavu_A2-4-54.wav</t>
   </si>
   <si>
     <t>koca'ánia</t>
@@ -1338,7 +1338,7 @@
     <t>吃午餐 (吃白天的)</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-55.wav</t>
+    <t>Kanakanavu_A2-4-55.wav</t>
   </si>
   <si>
     <t>kocici</t>
@@ -1347,7 +1347,7 @@
     <t>吃早餐 (吃熱的)</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-56.wav</t>
+    <t>Kanakanavu_A2-4-56.wav</t>
   </si>
   <si>
     <t>koravi</t>
@@ -1356,7 +1356,7 @@
     <t>吃晚餐 (吃最後的)</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-57.wav</t>
+    <t>Kanakanavu_A2-4-57.wav</t>
   </si>
   <si>
     <t>kó'ua</t>
@@ -1365,10 +1365,10 @@
     <t>偷竊</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-58.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-4-59.wav</t>
+    <t>Kanakanavu_A2-4-58.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-4-59.wav</t>
   </si>
   <si>
     <t>kukuca</t>
@@ -1377,7 +1377,7 @@
     <t>背部；背面；後面（建物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-60.wav</t>
+    <t>Kanakanavu_A2-4-60.wav</t>
   </si>
   <si>
     <t>kumakiri</t>
@@ -1386,7 +1386,7 @@
     <t>栓住</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-61.wav</t>
+    <t>Kanakanavu_A2-4-61.wav</t>
   </si>
   <si>
     <t>kumakiríkiri</t>
@@ -1395,7 +1395,7 @@
     <t>抓癢</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-62.wav</t>
+    <t>Kanakanavu_A2-4-62.wav</t>
   </si>
   <si>
     <t>kumakoru</t>
@@ -1404,7 +1404,7 @@
     <t>挖掘；挖洞</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-63.wav</t>
+    <t>Kanakanavu_A2-4-63.wav</t>
   </si>
   <si>
     <t>kumakuici</t>
@@ -1413,7 +1413,7 @@
     <t>剝果皮、樹皮</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-64.wav</t>
+    <t>Kanakanavu_A2-4-64.wav</t>
   </si>
   <si>
     <t>kumakusúkusu</t>
@@ -1422,7 +1422,7 @@
     <t>剃髮</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-65.wav</t>
+    <t>Kanakanavu_A2-4-65.wav</t>
   </si>
   <si>
     <t>kumakʉnʉ</t>
@@ -1431,13 +1431,13 @@
     <t>吃</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-66.wav</t>
+    <t>Kanakanavu_A2-4-66.wav</t>
   </si>
   <si>
     <t>kumakʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-67.wav</t>
+    <t>Kanakanavu_A2-4-67.wav</t>
   </si>
   <si>
     <t>kuncu</t>
@@ -1446,7 +1446,7 @@
     <t>毛</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-68.wav</t>
+    <t>Kanakanavu_A2-4-68.wav</t>
   </si>
   <si>
     <t>kunga'a （借詞）</t>
@@ -1455,7 +1455,7 @@
     <t>鴨</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-69.wav</t>
+    <t>Kanakanavu_A2-4-69.wav</t>
   </si>
   <si>
     <t>kurai</t>
@@ -1464,7 +1464,7 @@
     <t>蟲</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-70.wav</t>
+    <t>Kanakanavu_A2-4-70.wav</t>
   </si>
   <si>
     <t>kuratumuru</t>
@@ -1473,7 +1473,7 @@
     <t>滿</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-71.wav</t>
+    <t>Kanakanavu_A2-4-71.wav</t>
   </si>
   <si>
     <t>kurisivatʉ</t>
@@ -1482,7 +1482,7 @@
     <t>倒臥</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-72.wav</t>
+    <t>Kanakanavu_A2-4-72.wav</t>
   </si>
   <si>
     <t>kuruma （日語）</t>
@@ -1491,7 +1491,7 @@
     <t>車子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-73.wav</t>
+    <t>Kanakanavu_A2-4-73.wav</t>
   </si>
   <si>
     <t>kusu</t>
@@ -1500,7 +1500,7 @@
     <t>梳子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-74.wav</t>
+    <t>Kanakanavu_A2-4-74.wav</t>
   </si>
   <si>
     <t>kʉkʉnangʉ</t>
@@ -1509,13 +1509,13 @@
     <t>同伴；夥伴</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-75.wav</t>
+    <t>Kanakanavu_A2-4-75.wav</t>
   </si>
   <si>
     <t>kʉkʉnang</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-76.wav</t>
+    <t>Kanakanavu_A2-4-76.wav</t>
   </si>
   <si>
     <t>kʉna</t>
@@ -1524,7 +1524,7 @@
     <t>食物</t>
   </si>
   <si>
-    <t>Kanakanavu_2-4-77.wav</t>
+    <t>Kanakanavu_A2-4-77.wav</t>
   </si>
   <si>
     <t>maan</t>
@@ -1533,7 +1533,7 @@
     <t>十（數數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-1.wav</t>
+    <t>Kanakanavu_A2-5-1.wav</t>
   </si>
   <si>
     <t>mácaca</t>
@@ -1542,7 +1542,7 @@
     <t>笑</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-2.wav</t>
+    <t>Kanakanavu_A2-5-2.wav</t>
   </si>
   <si>
     <t>macaraini</t>
@@ -1551,25 +1551,25 @@
     <t>可憐；值得憐憫</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-3.wav</t>
+    <t>Kanakanavu_A2-5-3.wav</t>
   </si>
   <si>
     <t>macareni</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-4.wav</t>
+    <t>Kanakanavu_A2-5-4.wav</t>
   </si>
   <si>
     <t>macara</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-5.wav</t>
+    <t>Kanakanavu_A2-5-5.wav</t>
   </si>
   <si>
     <t>kacaraiin</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-6.wav</t>
+    <t>Kanakanavu_A2-5-6.wav</t>
   </si>
   <si>
     <t>macakuarʉ</t>
@@ -1578,7 +1578,7 @@
     <t>滿（食物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-7.wav</t>
+    <t>Kanakanavu_A2-5-7.wav</t>
   </si>
   <si>
     <t>macangcangarʉ</t>
@@ -1587,7 +1587,7 @@
     <t>高興；快樂</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-8.wav</t>
+    <t>Kanakanavu_A2-5-8.wav</t>
   </si>
   <si>
     <t>macaru</t>
@@ -1596,7 +1596,7 @@
     <t>滑的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-9.wav</t>
+    <t>Kanakanavu_A2-5-9.wav</t>
   </si>
   <si>
     <t>macasʉ</t>
@@ -1605,7 +1605,7 @@
     <t>長</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-10.wav</t>
+    <t>Kanakanavu_A2-5-10.wav</t>
   </si>
   <si>
     <t>maca'ivi</t>
@@ -1614,7 +1614,7 @@
     <t>經過（時間上的）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-11.wav</t>
+    <t>Kanakanavu_A2-5-11.wav</t>
   </si>
   <si>
     <t>maciasʉ</t>
@@ -1623,7 +1623,7 @@
     <t>明亮的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-12.wav</t>
+    <t>Kanakanavu_A2-5-12.wav</t>
   </si>
   <si>
     <t>macici</t>
@@ -1632,13 +1632,13 @@
     <t>悶熱；不通風</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-13.wav</t>
+    <t>Kanakanavu_A2-5-13.wav</t>
   </si>
   <si>
     <t>熱；燙</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-14.wav</t>
+    <t>Kanakanavu_A2-5-14.wav</t>
   </si>
   <si>
     <t>mácina</t>
@@ -1647,7 +1647,7 @@
     <t>梳洗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-15.wav</t>
+    <t>Kanakanavu_A2-5-15.wav</t>
   </si>
   <si>
     <t>macuru</t>
@@ -1656,7 +1656,7 @@
     <t>熟（烹煮）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-16.wav</t>
+    <t>Kanakanavu_A2-5-16.wav</t>
   </si>
   <si>
     <t>macu'u</t>
@@ -1665,7 +1665,7 @@
     <t>果實</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-17.wav</t>
+    <t>Kanakanavu_A2-5-17.wav</t>
   </si>
   <si>
     <t>maica</t>
@@ -1674,13 +1674,13 @@
     <t>經過（空間上的）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-18.wav</t>
+    <t>Kanakanavu_A2-5-18.wav</t>
   </si>
   <si>
     <t>’apaica</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-19.wav</t>
+    <t>Kanakanavu_A2-5-19.wav</t>
   </si>
   <si>
     <t>maimʉʉn</t>
@@ -1689,7 +1689,7 @@
     <t>五十</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-20.wav</t>
+    <t>Kanakanavu_A2-5-20.wav</t>
   </si>
   <si>
     <t>makacang</t>
@@ -1698,7 +1698,7 @@
     <t>馬上；立即；就</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-21.wav</t>
+    <t>Kanakanavu_A2-5-21.wav</t>
   </si>
   <si>
     <t>makacapʉ́capʉ</t>
@@ -1707,7 +1707,7 @@
     <t>拍擊；擊掌</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-22.wav</t>
+    <t>Kanakanavu_A2-5-22.wav</t>
   </si>
   <si>
     <t>makacʉkʉna</t>
@@ -1716,7 +1716,7 @@
     <t>到達；抵達</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-23.wav</t>
+    <t>Kanakanavu_A2-5-23.wav</t>
   </si>
   <si>
     <t>makacʉmʉrʉ</t>
@@ -1725,7 +1725,7 @@
     <t>厚</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-24.wav</t>
+    <t>Kanakanavu_A2-5-24.wav</t>
   </si>
   <si>
     <t>makananu</t>
@@ -1734,7 +1734,7 @@
     <t>如何；怎樣</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-25.wav</t>
+    <t>Kanakanavu_A2-5-25.wav</t>
   </si>
   <si>
     <t>makananguru</t>
@@ -1743,7 +1743,7 @@
     <t>游泳</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-26.wav</t>
+    <t>Kanakanavu_A2-5-26.wav</t>
   </si>
   <si>
     <t>makangʉcʉ</t>
@@ -1752,7 +1752,7 @@
     <t>少</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-27.wav</t>
+    <t>Kanakanavu_A2-5-27.wav</t>
   </si>
   <si>
     <t>mákari</t>
@@ -1761,7 +1761,7 @@
     <t>說話（某人對某人說）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-28.wav</t>
+    <t>Kanakanavu_A2-5-28.wav</t>
   </si>
   <si>
     <t>makaríkari</t>
@@ -1770,7 +1770,7 @@
     <t>討論</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-29.wav</t>
+    <t>Kanakanavu_A2-5-29.wav</t>
   </si>
   <si>
     <t>makasi</t>
@@ -1779,7 +1779,7 @@
     <t>說</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-30.wav</t>
+    <t>Kanakanavu_A2-5-30.wav</t>
   </si>
   <si>
     <t>makásia</t>
@@ -1788,7 +1788,7 @@
     <t>這樣</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-31.wav</t>
+    <t>Kanakanavu_A2-5-31.wav</t>
   </si>
   <si>
     <t>makásua</t>
@@ -1797,13 +1797,13 @@
     <t>那樣</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-32.wav</t>
+    <t>Kanakanavu_A2-5-32.wav</t>
   </si>
   <si>
     <t>pakasuun</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-33.wav</t>
+    <t>Kanakanavu_A2-5-33.wav</t>
   </si>
   <si>
     <t>maká'ʉna</t>
@@ -1812,10 +1812,10 @@
     <t>又；再（次）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-34.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-5-35.wav</t>
+    <t>Kanakanavu_A2-5-34.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-5-35.wav</t>
   </si>
   <si>
     <t>makungu</t>
@@ -1824,13 +1824,13 @@
     <t>冷</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-36.wav</t>
+    <t>Kanakanavu_A2-5-36.wav</t>
   </si>
   <si>
     <t>makuung</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-37.wav</t>
+    <t>Kanakanavu_A2-5-37.wav</t>
   </si>
   <si>
     <t>makʉkʉang</t>
@@ -1839,7 +1839,7 @@
     <t>硬（如石頭）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-38.wav</t>
+    <t>Kanakanavu_A2-5-38.wav</t>
   </si>
   <si>
     <t>mamaan</t>
@@ -1848,7 +1848,7 @@
     <t>十（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-39.wav</t>
+    <t>Kanakanavu_A2-5-39.wav</t>
   </si>
   <si>
     <t>mamacai</t>
@@ -1857,7 +1857,7 @@
     <t>死亡</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-40.wav</t>
+    <t>Kanakanavu_A2-5-40.wav</t>
   </si>
   <si>
     <t>mamanu</t>
@@ -1866,7 +1866,7 @@
     <t>小孩；孩童（複數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-41.wav</t>
+    <t>Kanakanavu_A2-5-41.wav</t>
   </si>
   <si>
     <t>mamanʉng</t>
@@ -1875,7 +1875,7 @@
     <t>好</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-42.wav</t>
+    <t>Kanakanavu_A2-5-42.wav</t>
   </si>
   <si>
     <t>mamarang</t>
@@ -1884,7 +1884,7 @@
     <t>老人；長者（複數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-43.wav</t>
+    <t>Kanakanavu_A2-5-43.wav</t>
   </si>
   <si>
     <t>mámia</t>
@@ -1893,19 +1893,19 @@
     <t>只；僅只</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-44.wav</t>
+    <t>Kanakanavu_A2-5-44.wav</t>
   </si>
   <si>
     <t>maa</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-45.wav</t>
+    <t>Kanakanavu_A2-5-45.wav</t>
   </si>
   <si>
     <t>可惜；遺憾</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-46.wav</t>
+    <t>Kanakanavu_A2-5-46.wav</t>
   </si>
   <si>
     <t>mamíriki</t>
@@ -1914,7 +1914,7 @@
     <t>李子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-47.wav</t>
+    <t>Kanakanavu_A2-5-47.wav</t>
   </si>
   <si>
     <t>mami'arʉ</t>
@@ -1923,7 +1923,7 @@
     <t>苦澀</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-48.wav</t>
+    <t>Kanakanavu_A2-5-48.wav</t>
   </si>
   <si>
     <t>manasʉ</t>
@@ -1932,7 +1932,7 @@
     <t>或許；可能</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-49.wav</t>
+    <t>Kanakanavu_A2-5-49.wav</t>
   </si>
   <si>
     <t>mánava</t>
@@ -1941,7 +1941,7 @@
     <t>酒醉</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-50.wav</t>
+    <t>Kanakanavu_A2-5-50.wav</t>
   </si>
   <si>
     <t>mane'i</t>
@@ -1950,13 +1950,13 @@
     <t>輕（重量）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-51.wav</t>
+    <t>Kanakanavu_A2-5-51.wav</t>
   </si>
   <si>
     <t>mane'e</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-52.wav</t>
+    <t>Kanakanavu_A2-5-52.wav</t>
   </si>
   <si>
     <t>maningcau</t>
@@ -1965,7 +1965,7 @@
     <t>漂亮；美麗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-53.wav</t>
+    <t>Kanakanavu_A2-5-53.wav</t>
   </si>
   <si>
     <t>manman</t>
@@ -1974,7 +1974,7 @@
     <t>辣椒</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-54.wav</t>
+    <t>Kanakanavu_A2-5-54.wav</t>
   </si>
   <si>
     <t>manmaan</t>
@@ -1983,13 +1983,13 @@
     <t>喜歡；喜愛</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-55.wav</t>
+    <t>Kanakanavu_A2-5-55.wav</t>
   </si>
   <si>
     <t>ka'anmanʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-56.wav</t>
+    <t>Kanakanavu_A2-5-56.wav</t>
   </si>
   <si>
     <t>manu</t>
@@ -1998,7 +1998,7 @@
     <t>小孩；孩童</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-57.wav</t>
+    <t>Kanakanavu_A2-5-57.wav</t>
   </si>
   <si>
     <t>manʉkʉpai</t>
@@ -2007,7 +2007,7 @@
     <t>矮</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-58.wav</t>
+    <t>Kanakanavu_A2-5-58.wav</t>
   </si>
   <si>
     <t>manʉmʉ</t>
@@ -2016,7 +2016,7 @@
     <t>六十</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-59.wav</t>
+    <t>Kanakanavu_A2-5-59.wav</t>
   </si>
   <si>
     <t>mangaríngari</t>
@@ -2025,7 +2025,7 @@
     <t>搖動（人為）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-60.wav</t>
+    <t>Kanakanavu_A2-5-60.wav</t>
   </si>
   <si>
     <t>mangtʉnʉ</t>
@@ -2034,7 +2034,7 @@
     <t>砍伐</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-61.wav</t>
+    <t>Kanakanavu_A2-5-61.wav</t>
   </si>
   <si>
     <t>mangtʉ'ai</t>
@@ -2043,13 +2043,13 @@
     <t>短</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-62.wav</t>
+    <t>Kanakanavu_A2-5-62.wav</t>
   </si>
   <si>
     <t>mangtʉ'e</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-63.wav</t>
+    <t>Kanakanavu_A2-5-63.wav</t>
   </si>
   <si>
     <t>manguru</t>
@@ -2058,13 +2058,13 @@
     <t>逃</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-64.wav</t>
+    <t>Kanakanavu_A2-5-64.wav</t>
   </si>
   <si>
     <t>umanguru</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-65.wav</t>
+    <t>Kanakanavu_A2-5-65.wav</t>
   </si>
   <si>
     <t>mangʉrʉ</t>
@@ -2073,22 +2073,22 @@
     <t>炒（飯菜）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-66.wav</t>
+    <t>Kanakanavu_A2-5-66.wav</t>
   </si>
   <si>
     <t>umangʉrʉ</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-67.wav</t>
+    <t>Kanakanavu_A2-5-67.wav</t>
   </si>
   <si>
     <t>分一半</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-68.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-5-69.wav</t>
+    <t>Kanakanavu_A2-5-68.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-5-69.wav</t>
   </si>
   <si>
     <t>mapá’ici</t>
@@ -2097,7 +2097,7 @@
     <t>酸</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-70.wav</t>
+    <t>Kanakanavu_A2-5-70.wav</t>
   </si>
   <si>
     <t>mapitunu</t>
@@ -2106,7 +2106,7 @@
     <t>七十</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-71.wav</t>
+    <t>Kanakanavu_A2-5-71.wav</t>
   </si>
   <si>
     <t>mapitʉ'ʉ</t>
@@ -2115,7 +2115,7 @@
     <t>黑暗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-72.wav</t>
+    <t>Kanakanavu_A2-5-72.wav</t>
   </si>
   <si>
     <t>mapúnarʉ</t>
@@ -2124,7 +2124,7 @@
     <t>寬（空間）；寬敞</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-73.wav</t>
+    <t>Kanakanavu_A2-5-73.wav</t>
   </si>
   <si>
     <t>mapurai</t>
@@ -2133,13 +2133,13 @@
     <t>推</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-74.wav</t>
+    <t>Kanakanavu_A2-5-74.wav</t>
   </si>
   <si>
     <t>puraion</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-75.wav</t>
+    <t>Kanakanavu_A2-5-75.wav</t>
   </si>
   <si>
     <t>mapusan</t>
@@ -2148,7 +2148,7 @@
     <t>二十</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-76.wav</t>
+    <t>Kanakanavu_A2-5-76.wav</t>
   </si>
   <si>
     <t>mapu'a</t>
@@ -2157,7 +2157,7 @@
     <t>賣出</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-77.wav</t>
+    <t>Kanakanavu_A2-5-77.wav</t>
   </si>
   <si>
     <t>mara</t>
@@ -2166,13 +2166,13 @@
     <t>拿取</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-78.wav</t>
+    <t>Kanakanavu_A2-5-78.wav</t>
   </si>
   <si>
     <t>umara</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-79.wav</t>
+    <t>Kanakanavu_A2-5-79.wav</t>
   </si>
   <si>
     <t>maramʉ</t>
@@ -2181,7 +2181,7 @@
     <t>挑選；撿</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-80.wav</t>
+    <t>Kanakanavu_A2-5-80.wav</t>
   </si>
   <si>
     <t>marangʉ</t>
@@ -2190,7 +2190,7 @@
     <t>老人；長者</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-81.wav</t>
+    <t>Kanakanavu_A2-5-81.wav</t>
   </si>
   <si>
     <t>marápici</t>
@@ -2199,13 +2199,13 @@
     <t>剪；割；剖切</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-82.wav</t>
+    <t>Kanakanavu_A2-5-82.wav</t>
   </si>
   <si>
     <t>marípici</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-83.wav</t>
+    <t>Kanakanavu_A2-5-83.wav</t>
   </si>
   <si>
     <t>mararuai</t>
@@ -2214,7 +2214,7 @@
     <t>分道揚鑣</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-84.wav</t>
+    <t>Kanakanavu_A2-5-84.wav</t>
   </si>
   <si>
     <t>mara'an</t>
@@ -2223,7 +2223,7 @@
     <t>快速</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-85.wav</t>
+    <t>Kanakanavu_A2-5-85.wav</t>
   </si>
   <si>
     <t>marikʉcʉ́kʉcʉ</t>
@@ -2232,7 +2232,7 @@
     <t>踩踏</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-86.wav</t>
+    <t>Kanakanavu_A2-5-86.wav</t>
   </si>
   <si>
     <t>marikʉrʉ</t>
@@ -2241,13 +2241,13 @@
     <t>搗；舂搗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-87.wav</t>
+    <t>Kanakanavu_A2-5-87.wav</t>
   </si>
   <si>
     <t>arikʉroo</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-88.wav</t>
+    <t>Kanakanavu_A2-5-88.wav</t>
   </si>
   <si>
     <t>maripusiam</t>
@@ -2256,7 +2256,7 @@
     <t>收割稻米（有手的動作）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-89.wav</t>
+    <t>Kanakanavu_A2-5-89.wav</t>
   </si>
   <si>
     <t>marisauvu</t>
@@ -2265,13 +2265,13 @@
     <t>聞</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-90.wav</t>
+    <t>Kanakanavu_A2-5-90.wav</t>
   </si>
   <si>
     <t>marisovu</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-91.wav</t>
+    <t>Kanakanavu_A2-5-91.wav</t>
   </si>
   <si>
     <t>marisiki</t>
@@ -2280,7 +2280,7 @@
     <t>掃；打掃</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-92.wav</t>
+    <t>Kanakanavu_A2-5-92.wav</t>
   </si>
   <si>
     <t>marisinatʉ</t>
@@ -2289,7 +2289,7 @@
     <t>書寫；讀書（有手的動作）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-93.wav</t>
+    <t>Kanakanavu_A2-5-93.wav</t>
   </si>
   <si>
     <t>marisúsuna</t>
@@ -2298,7 +2298,7 @@
     <t>呼喊</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-94.wav</t>
+    <t>Kanakanavu_A2-5-94.wav</t>
   </si>
   <si>
     <t>marisʉ’ʉrʉ</t>
@@ -2307,7 +2307,7 @@
     <t>拉（手用繩子拉人或動物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-95.wav</t>
+    <t>Kanakanavu_A2-5-95.wav</t>
   </si>
   <si>
     <t>marítarʉ</t>
@@ -2316,7 +2316,7 @@
     <t>等待</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-96.wav</t>
+    <t>Kanakanavu_A2-5-96.wav</t>
   </si>
   <si>
     <t>marívari</t>
@@ -2325,7 +2325,7 @@
     <t>回答</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-97.wav</t>
+    <t>Kanakanavu_A2-5-97.wav</t>
   </si>
   <si>
     <t>marivi</t>
@@ -2334,7 +2334,7 @@
     <t>懷抱</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-98.wav</t>
+    <t>Kanakanavu_A2-5-98.wav</t>
   </si>
   <si>
     <t>marivina'ʉ</t>
@@ -2343,7 +2343,7 @@
     <t>收割小米（有手的動作）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-99.wav</t>
+    <t>Kanakanavu_A2-5-99.wav</t>
   </si>
   <si>
     <t>marivivini</t>
@@ -2352,7 +2352,7 @@
     <t>跟隨在後；之後；最後</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-100.wav</t>
+    <t>Kanakanavu_A2-5-100.wav</t>
   </si>
   <si>
     <t>marivuarʉ</t>
@@ -2361,7 +2361,7 @@
     <t>掀開（衣物、被褥）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-101.wav</t>
+    <t>Kanakanavu_A2-5-101.wav</t>
   </si>
   <si>
     <t>marivura'ʉ</t>
@@ -2370,7 +2370,7 @@
     <t>打（用手、棍子、繩子、軟管等器物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-102.wav</t>
+    <t>Kanakanavu_A2-5-102.wav</t>
   </si>
   <si>
     <t>mari'urú'uru</t>
@@ -2379,7 +2379,7 @@
     <t>拖；拉（重物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-103.wav</t>
+    <t>Kanakanavu_A2-5-103.wav</t>
   </si>
   <si>
     <t>maruun</t>
@@ -2388,7 +2388,7 @@
     <t>八十</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-104.wav</t>
+    <t>Kanakanavu_A2-5-104.wav</t>
   </si>
   <si>
     <t>marʉkurapʉ</t>
@@ -2397,7 +2397,7 @@
     <t>獸類；動物</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-105.wav</t>
+    <t>Kanakanavu_A2-5-105.wav</t>
   </si>
   <si>
     <t>marʉmʉcʉ</t>
@@ -2406,7 +2406,7 @@
     <t>洗（身體）；洗澡</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-106.wav</t>
+    <t>Kanakanavu_A2-5-106.wav</t>
   </si>
   <si>
     <t>marʉngʉcai</t>
@@ -2415,7 +2415,7 @@
     <t>高</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-107.wav</t>
+    <t>Kanakanavu_A2-5-107.wav</t>
   </si>
   <si>
     <t>marʉngʉtʉnʉ</t>
@@ -2424,7 +2424,7 @@
     <t>瘦弱</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-108.wav</t>
+    <t>Kanakanavu_A2-5-108.wav</t>
   </si>
   <si>
     <t>marʉrʉ</t>
@@ -2433,7 +2433,7 @@
     <t>鋸</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-109.wav</t>
+    <t>Kanakanavu_A2-5-109.wav</t>
   </si>
   <si>
     <t>marʉ'ʉ</t>
@@ -2442,7 +2442,7 @@
     <t>愛；愛護；疼愛</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-110.wav</t>
+    <t>Kanakanavu_A2-5-110.wav</t>
   </si>
   <si>
     <t>masakʉnʉ</t>
@@ -2451,13 +2451,13 @@
     <t>珍惜</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-111.wav</t>
+    <t>Kanakanavu_A2-5-111.wav</t>
   </si>
   <si>
     <t>kasakʉnʉ</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-112.wav</t>
+    <t>Kanakanavu_A2-5-112.wav</t>
   </si>
   <si>
     <t>masarapʉ</t>
@@ -2466,7 +2466,7 @@
     <t>癢</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-113.wav</t>
+    <t>Kanakanavu_A2-5-113.wav</t>
   </si>
   <si>
     <t>masarʉnpʉ</t>
@@ -2475,7 +2475,7 @@
     <t>睏（想睡覺）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-114.wav</t>
+    <t>Kanakanavu_A2-5-114.wav</t>
   </si>
   <si>
     <t>masasʉpʉ</t>
@@ -2484,7 +2484,7 @@
     <t>打瞌睡；打哈欠</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-115.wav</t>
+    <t>Kanakanavu_A2-5-115.wav</t>
   </si>
   <si>
     <t>masicucuru</t>
@@ -2493,7 +2493,7 @@
     <t>說真話</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-116.wav</t>
+    <t>Kanakanavu_A2-5-116.wav</t>
   </si>
   <si>
     <t>masii</t>
@@ -2502,7 +2502,7 @@
     <t>才；使之</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-117.wav</t>
+    <t>Kanakanavu_A2-5-117.wav</t>
   </si>
   <si>
     <t>masíkusa</t>
@@ -2511,7 +2511,7 @@
     <t>往（某方向、地區）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-118.wav</t>
+    <t>Kanakanavu_A2-5-118.wav</t>
   </si>
   <si>
     <t>masinang</t>
@@ -2520,7 +2520,7 @@
     <t>紅色</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-119.wav</t>
+    <t>Kanakanavu_A2-5-119.wav</t>
   </si>
   <si>
     <t>masini</t>
@@ -2529,19 +2529,19 @@
     <t>現在</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-120.wav</t>
+    <t>Kanakanavu_A2-5-120.wav</t>
   </si>
   <si>
     <t>masiin</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-121.wav</t>
+    <t>Kanakanavu_A2-5-121.wav</t>
   </si>
   <si>
     <t>mahiin</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-122.wav</t>
+    <t>Kanakanavu_A2-5-122.wav</t>
   </si>
   <si>
     <t>masipʉcʉ</t>
@@ -2550,7 +2550,7 @@
     <t>洗（衣物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-123.wav</t>
+    <t>Kanakanavu_A2-5-123.wav</t>
   </si>
   <si>
     <t>masipʉngcʉ</t>
@@ -2559,7 +2559,7 @@
     <t>折斷</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-124.wav</t>
+    <t>Kanakanavu_A2-5-124.wav</t>
   </si>
   <si>
     <t>masiʉn</t>
@@ -2568,7 +2568,7 @@
     <t>九十</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-125.wav</t>
+    <t>Kanakanavu_A2-5-125.wav</t>
   </si>
   <si>
     <t>masivʉnʉ</t>
@@ -2577,7 +2577,7 @@
     <t>折彎</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-126.wav</t>
+    <t>Kanakanavu_A2-5-126.wav</t>
   </si>
   <si>
     <t>masúmacʉ</t>
@@ -2586,7 +2586,7 @@
     <t>硬（如獸皮）堅韌的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-127.wav</t>
+    <t>Kanakanavu_A2-5-127.wav</t>
   </si>
   <si>
     <t>masʉpatʉnʉ</t>
@@ -2595,13 +2595,13 @@
     <t>四十</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-128.wav</t>
+    <t>Kanakanavu_A2-5-128.wav</t>
   </si>
   <si>
     <t>masʉpatʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-129.wav</t>
+    <t>Kanakanavu_A2-5-129.wav</t>
   </si>
   <si>
     <t>mataa</t>
@@ -2610,7 +2610,7 @@
     <t>和；與</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-130.wav</t>
+    <t>Kanakanavu_A2-5-130.wav</t>
   </si>
   <si>
     <t>matakuríkuri</t>
@@ -2619,7 +2619,7 @@
     <t>滾落</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-131.wav</t>
+    <t>Kanakanavu_A2-5-131.wav</t>
   </si>
   <si>
     <t>matanganai</t>
@@ -2628,13 +2628,13 @@
     <t>取名；指名</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-132.wav</t>
+    <t>Kanakanavu_A2-5-132.wav</t>
   </si>
   <si>
     <t>patanganai</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-133.wav</t>
+    <t>Kanakanavu_A2-5-133.wav</t>
   </si>
   <si>
     <t>matángiri</t>
@@ -2643,7 +2643,7 @@
     <t>小心；謹慎</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-134.wav</t>
+    <t>Kanakanavu_A2-5-134.wav</t>
   </si>
   <si>
     <t>matapari'i</t>
@@ -2652,7 +2652,7 @@
     <t>掉落</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-135.wav</t>
+    <t>Kanakanavu_A2-5-135.wav</t>
   </si>
   <si>
     <t>matárava</t>
@@ -2661,7 +2661,7 @@
     <t>到（某時間點或地點）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-136.wav</t>
+    <t>Kanakanavu_A2-5-136.wav</t>
   </si>
   <si>
     <t>matasa'ai</t>
@@ -2670,7 +2670,7 @@
     <t>躺</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-137.wav</t>
+    <t>Kanakanavu_A2-5-137.wav</t>
   </si>
   <si>
     <t>mata'ʉ</t>
@@ -2679,7 +2679,7 @@
     <t>生的；未熟的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-138.wav</t>
+    <t>Kanakanavu_A2-5-138.wav</t>
   </si>
   <si>
     <t>mata'ʉnai</t>
@@ -2688,7 +2688,7 @@
     <t>下來（到地面）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-139.wav</t>
+    <t>Kanakanavu_A2-5-139.wav</t>
   </si>
   <si>
     <t>matiananai</t>
@@ -2697,7 +2697,7 @@
     <t>開始</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-140.wav</t>
+    <t>Kanakanavu_A2-5-140.wav</t>
   </si>
   <si>
     <t>matikiri</t>
@@ -2706,7 +2706,7 @@
     <t>牽（扶）著（人、牛）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-141.wav</t>
+    <t>Kanakanavu_A2-5-141.wav</t>
   </si>
   <si>
     <t>matimanʉngʉ</t>
@@ -2715,19 +2715,19 @@
     <t>好好的做某事</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-142.wav</t>
+    <t>Kanakanavu_A2-5-142.wav</t>
   </si>
   <si>
     <t>matimanʉʉng</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-143.wav</t>
+    <t>Kanakanavu_A2-5-143.wav</t>
   </si>
   <si>
     <t>patimanʉngʉ</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-144.wav</t>
+    <t>Kanakanavu_A2-5-144.wav</t>
   </si>
   <si>
     <t>matípuri</t>
@@ -2736,7 +2736,7 @@
     <t>放棄；鬆手</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-145.wav</t>
+    <t>Kanakanavu_A2-5-145.wav</t>
   </si>
   <si>
     <t>matirupangʉ</t>
@@ -2745,7 +2745,7 @@
     <t>做完</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-146.wav</t>
+    <t>Kanakanavu_A2-5-146.wav</t>
   </si>
   <si>
     <t>matisa'ʉ</t>
@@ -2754,7 +2754,7 @@
     <t>抓；捉；捕抓</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-147.wav</t>
+    <t>Kanakanavu_A2-5-147.wav</t>
   </si>
   <si>
     <t>mati'ʉnʉ́'ʉna</t>
@@ -2763,7 +2763,7 @@
     <t>重做；修理</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-148.wav</t>
+    <t>Kanakanavu_A2-5-148.wav</t>
   </si>
   <si>
     <t>matupuru</t>
@@ -2772,13 +2772,13 @@
     <t>生火</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-149.wav</t>
+    <t>Kanakanavu_A2-5-149.wav</t>
   </si>
   <si>
     <t>matuapuru</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-150.wav</t>
+    <t>Kanakanavu_A2-5-150.wav</t>
   </si>
   <si>
     <t>matuun</t>
@@ -2787,7 +2787,7 @@
     <t>三十</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-151.wav</t>
+    <t>Kanakanavu_A2-5-151.wav</t>
   </si>
   <si>
     <t>mátʉa</t>
@@ -2796,7 +2796,7 @@
     <t>一樣；相同</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-152.wav</t>
+    <t>Kanakanavu_A2-5-152.wav</t>
   </si>
   <si>
     <t>matʉnʉsʉ</t>
@@ -2805,7 +2805,7 @@
     <t>遇到；相遇</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-153.wav</t>
+    <t>Kanakanavu_A2-5-153.wav</t>
   </si>
   <si>
     <t>mava</t>
@@ -2814,7 +2814,7 @@
     <t>揹負（用背帶）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-154.wav</t>
+    <t>Kanakanavu_A2-5-154.wav</t>
   </si>
   <si>
     <t>mavangʉ</t>
@@ -2823,22 +2823,22 @@
     <t>熟（瓜果、穀物或食物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-155.wav</t>
+    <t>Kanakanavu_A2-5-155.wav</t>
   </si>
   <si>
     <t>mavaang</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-156.wav</t>
+    <t>Kanakanavu_A2-5-156.wav</t>
   </si>
   <si>
     <t>橘色</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-157.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-5-158.wav</t>
+    <t>Kanakanavu_A2-5-157.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-5-158.wav</t>
   </si>
   <si>
     <t>mavakan</t>
@@ -2847,7 +2847,7 @@
     <t>寬（物品）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-159.wav</t>
+    <t>Kanakanavu_A2-5-159.wav</t>
   </si>
   <si>
     <t>mavici</t>
@@ -2856,13 +2856,13 @@
     <t>帶；攜帶</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-160.wav</t>
+    <t>Kanakanavu_A2-5-160.wav</t>
   </si>
   <si>
     <t>umavici</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-161.wav</t>
+    <t>Kanakanavu_A2-5-161.wav</t>
   </si>
   <si>
     <t>mavúca'ʉ</t>
@@ -2871,7 +2871,7 @@
     <t>軟</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-162.wav</t>
+    <t>Kanakanavu_A2-5-162.wav</t>
   </si>
   <si>
     <t>mavucʉrʉkʉ</t>
@@ -2880,7 +2880,7 @@
     <t>飽</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-163.wav</t>
+    <t>Kanakanavu_A2-5-163.wav</t>
   </si>
   <si>
     <t>mavʉrʉ́vʉrʉ</t>
@@ -2889,7 +2889,7 @@
     <t>晃動；搖動（自然）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-164.wav</t>
+    <t>Kanakanavu_A2-5-164.wav</t>
   </si>
   <si>
     <t>mavʉvʉ taniara</t>
@@ -2898,7 +2898,7 @@
     <t>陰天（昏暗的天）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-165.wav</t>
+    <t>Kanakanavu_A2-5-165.wav</t>
   </si>
   <si>
     <t>ma’angírisi</t>
@@ -2907,7 +2907,7 @@
     <t>肥（有油脂）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-166.wav</t>
+    <t>Kanakanavu_A2-5-166.wav</t>
   </si>
   <si>
     <t>ma'asʉngʉ</t>
@@ -2916,7 +2916,7 @@
     <t>打噴嚏</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-167.wav</t>
+    <t>Kanakanavu_A2-5-167.wav</t>
   </si>
   <si>
     <t>ma'avu</t>
@@ -2925,7 +2925,7 @@
     <t>溫的；溫暖</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-168.wav</t>
+    <t>Kanakanavu_A2-5-168.wav</t>
   </si>
   <si>
     <t>ma'icʉpʉ</t>
@@ -2934,7 +2934,7 @@
     <t>害怕</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-169.wav</t>
+    <t>Kanakanavu_A2-5-169.wav</t>
   </si>
   <si>
     <t>ma'inacʉ</t>
@@ -2943,7 +2943,7 @@
     <t>直的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-170.wav</t>
+    <t>Kanakanavu_A2-5-170.wav</t>
   </si>
   <si>
     <t>ma’unu</t>
@@ -2952,13 +2952,13 @@
     <t>揹負（用揹簍，支撐點在頭部）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-171.wav</t>
+    <t>Kanakanavu_A2-5-171.wav</t>
   </si>
   <si>
     <t>uma’unu</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-172.wav</t>
+    <t>Kanakanavu_A2-5-172.wav</t>
   </si>
   <si>
     <t>ma’ura</t>
@@ -2967,7 +2967,7 @@
     <t>小的（體積小如石頭、魚蝦）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-173.wav</t>
+    <t>Kanakanavu_A2-5-173.wav</t>
   </si>
   <si>
     <t>meesua</t>
@@ -2976,19 +2976,19 @@
     <t>當時；那時</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-174.wav</t>
+    <t>Kanakanavu_A2-5-174.wav</t>
   </si>
   <si>
     <t>miaasua</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-175.wav</t>
+    <t>Kanakanavu_A2-5-175.wav</t>
   </si>
   <si>
     <t>meehua</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-176.wav</t>
+    <t>Kanakanavu_A2-5-176.wav</t>
   </si>
   <si>
     <t>meetusa</t>
@@ -2997,7 +2997,7 @@
     <t>千</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-177.wav</t>
+    <t>Kanakanavu_A2-5-177.wav</t>
   </si>
   <si>
     <t>me'icunu</t>
@@ -3006,16 +3006,16 @@
     <t>重</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-178.wav</t>
+    <t>Kanakanavu_A2-5-178.wav</t>
   </si>
   <si>
     <t>me'ecunu</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-179.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-5-180.wav</t>
+    <t>Kanakanavu_A2-5-179.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-5-180.wav</t>
   </si>
   <si>
     <t>miácara</t>
@@ -3024,13 +3024,13 @@
     <t>照顧；看護</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-181.wav</t>
+    <t>Kanakanavu_A2-5-181.wav</t>
   </si>
   <si>
     <t>mécara</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-182.wav</t>
+    <t>Kanakanavu_A2-5-182.wav</t>
   </si>
   <si>
     <t>miacicini</t>
@@ -3039,13 +3039,13 @@
     <t>自己一人；獨自一人</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-183.wav</t>
+    <t>Kanakanavu_A2-5-183.wav</t>
   </si>
   <si>
     <t>miacicin</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-184.wav</t>
+    <t>Kanakanavu_A2-5-184.wav</t>
   </si>
   <si>
     <t>miácu'u</t>
@@ -3054,13 +3054,13 @@
     <t>渴</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-185.wav</t>
+    <t>Kanakanavu_A2-5-185.wav</t>
   </si>
   <si>
     <t>mécu'u</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-186.wav</t>
+    <t>Kanakanavu_A2-5-186.wav</t>
   </si>
   <si>
     <t>miapacai</t>
@@ -3069,13 +3069,13 @@
     <t>殺（人、牲畜）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-187.wav</t>
+    <t>Kanakanavu_A2-5-187.wav</t>
   </si>
   <si>
     <t>mepacai</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-188.wav</t>
+    <t>Kanakanavu_A2-5-188.wav</t>
   </si>
   <si>
     <t>miaranau</t>
@@ -3084,7 +3084,7 @@
     <t>久</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-189.wav</t>
+    <t>Kanakanavu_A2-5-189.wav</t>
   </si>
   <si>
     <t>miatancani</t>
@@ -3093,7 +3093,7 @@
     <t>前天</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-190.wav</t>
+    <t>Kanakanavu_A2-5-190.wav</t>
   </si>
   <si>
     <t>mia'acipi</t>
@@ -3102,7 +3102,7 @@
     <t>殺牲畜（處理有腳的動物如豬牛羊）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-191.wav</t>
+    <t>Kanakanavu_A2-5-191.wav</t>
   </si>
   <si>
     <t>miciri</t>
@@ -3111,7 +3111,7 @@
     <t>倒出來；溢出來</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-192.wav</t>
+    <t>Kanakanavu_A2-5-192.wav</t>
   </si>
   <si>
     <t>Mikongu</t>
@@ -3120,13 +3120,13 @@
     <t>收穫祭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-193.wav</t>
+    <t>Kanakanavu_A2-5-193.wav</t>
   </si>
   <si>
     <t>Mikoong</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-194.wav</t>
+    <t>Kanakanavu_A2-5-194.wav</t>
   </si>
   <si>
     <t>mima</t>
@@ -3135,7 +3135,7 @@
     <t>喝（用杯子）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-195.wav</t>
+    <t>Kanakanavu_A2-5-195.wav</t>
   </si>
   <si>
     <t>minmana</t>
@@ -3144,7 +3144,7 @@
     <t>何時（已發生）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-196.wav</t>
+    <t>Kanakanavu_A2-5-196.wav</t>
   </si>
   <si>
     <t>mintasʉ</t>
@@ -3153,7 +3153,7 @@
     <t>厲害；有力氣；有力量</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-197.wav</t>
+    <t>Kanakanavu_A2-5-197.wav</t>
   </si>
   <si>
     <t>mingane</t>
@@ -3162,7 +3162,7 @@
     <t>飛</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-198.wav</t>
+    <t>Kanakanavu_A2-5-198.wav</t>
   </si>
   <si>
     <t>míri'i</t>
@@ -3171,7 +3171,7 @@
     <t>滿（裝水）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-199.wav</t>
+    <t>Kanakanavu_A2-5-199.wav</t>
   </si>
   <si>
     <t>misee</t>
@@ -3180,7 +3180,7 @@
     <t>說；心想；以為</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-200.wav</t>
+    <t>Kanakanavu_A2-5-200.wav</t>
   </si>
   <si>
     <t>miseni</t>
@@ -3189,16 +3189,16 @@
     <t>為什麼；怎麼</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-201.wav</t>
+    <t>Kanakanavu_A2-5-201.wav</t>
   </si>
   <si>
     <t>miseen</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-202.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-5-203.wav</t>
+    <t>Kanakanavu_A2-5-202.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-5-203.wav</t>
   </si>
   <si>
     <t>miʉra</t>
@@ -3207,7 +3207,7 @@
     <t>昨天</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-204.wav</t>
+    <t>Kanakanavu_A2-5-204.wav</t>
   </si>
   <si>
     <t>mivu</t>
@@ -3216,7 +3216,7 @@
     <t>小便</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-205.wav</t>
+    <t>Kanakanavu_A2-5-205.wav</t>
   </si>
   <si>
     <t>moon</t>
@@ -3225,13 +3225,13 @@
     <t>在；待在</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-206.wav</t>
+    <t>Kanakanavu_A2-5-206.wav</t>
   </si>
   <si>
     <t>poon</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-207.wav</t>
+    <t>Kanakanavu_A2-5-207.wav</t>
   </si>
   <si>
     <t>móravu</t>
@@ -3240,7 +3240,7 @@
     <t>餓</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-208.wav</t>
+    <t>Kanakanavu_A2-5-208.wav</t>
   </si>
   <si>
     <t>móvua</t>
@@ -3249,16 +3249,16 @@
     <t>給；贈送</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-209.wav</t>
+    <t>Kanakanavu_A2-5-209.wav</t>
   </si>
   <si>
     <t>vʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-210.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-5-211.wav</t>
+    <t>Kanakanavu_A2-5-210.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-5-211.wav</t>
   </si>
   <si>
     <t>muca</t>
@@ -3267,7 +3267,7 @@
     <t>走；離開</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-212.wav</t>
+    <t>Kanakanavu_A2-5-212.wav</t>
   </si>
   <si>
     <t>mucaca</t>
@@ -3276,7 +3276,7 @@
     <t>走路</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-213.wav</t>
+    <t>Kanakanavu_A2-5-213.wav</t>
   </si>
   <si>
     <t>mucanʉ</t>
@@ -3285,7 +3285,7 @@
     <t>走去</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-214.wav</t>
+    <t>Kanakanavu_A2-5-214.wav</t>
   </si>
   <si>
     <t>múciri</t>
@@ -3294,13 +3294,13 @@
     <t>站立</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-215.wav</t>
+    <t>Kanakanavu_A2-5-215.wav</t>
   </si>
   <si>
     <t>’apuciri</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-216.wav</t>
+    <t>Kanakanavu_A2-5-216.wav</t>
   </si>
   <si>
     <t>mucunu</t>
@@ -3309,13 +3309,13 @@
     <t>燒</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-217.wav</t>
+    <t>Kanakanavu_A2-5-217.wav</t>
   </si>
   <si>
     <t>mocun</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-218.wav</t>
+    <t>Kanakanavu_A2-5-218.wav</t>
   </si>
   <si>
     <t>múkusa</t>
@@ -3324,13 +3324,13 @@
     <t>去（某方向）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-219.wav</t>
+    <t>Kanakanavu_A2-5-219.wav</t>
   </si>
   <si>
     <t>mókusa</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-220.wav</t>
+    <t>Kanakanavu_A2-5-220.wav</t>
   </si>
   <si>
     <t>mukʉrʉ</t>
@@ -3339,19 +3339,19 @@
     <t>摸；觸摸</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-221.wav</t>
+    <t>Kanakanavu_A2-5-221.wav</t>
   </si>
   <si>
     <t>拿著；握著</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-222.wav</t>
+    <t>Kanakanavu_A2-5-222.wav</t>
   </si>
   <si>
     <t>ukʉrʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-223.wav</t>
+    <t>Kanakanavu_A2-5-223.wav</t>
   </si>
   <si>
     <t>mumu</t>
@@ -3360,7 +3360,7 @@
     <t>乳房</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-224.wav</t>
+    <t>Kanakanavu_A2-5-224.wav</t>
   </si>
   <si>
     <t>mumʉkʉ</t>
@@ -3369,7 +3369,7 @@
     <t>種植</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-225.wav</t>
+    <t>Kanakanavu_A2-5-225.wav</t>
   </si>
   <si>
     <t>mumʉnʉ</t>
@@ -3378,7 +3378,7 @@
     <t>捆綁</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-226.wav</t>
+    <t>Kanakanavu_A2-5-226.wav</t>
   </si>
   <si>
     <t>mupacai</t>
@@ -3387,7 +3387,7 @@
     <t>累（累壞了）；辛苦</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-227.wav</t>
+    <t>Kanakanavu_A2-5-227.wav</t>
   </si>
   <si>
     <t>mupana'ʉ</t>
@@ -3396,7 +3396,7 @@
     <t>射；擲射</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-228.wav</t>
+    <t>Kanakanavu_A2-5-228.wav</t>
   </si>
   <si>
     <t>múpara</t>
@@ -3405,7 +3405,7 @@
     <t>爬（建物）；攀爬</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-229.wav</t>
+    <t>Kanakanavu_A2-5-229.wav</t>
   </si>
   <si>
     <t>mupucu</t>
@@ -3414,7 +3414,7 @@
     <t>包（東西）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-230.wav</t>
+    <t>Kanakanavu_A2-5-230.wav</t>
   </si>
   <si>
     <t>murakʉrakʉ</t>
@@ -3423,7 +3423,7 @@
     <t>爬行</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-231.wav</t>
+    <t>Kanakanavu_A2-5-231.wav</t>
   </si>
   <si>
     <t>muranʉ</t>
@@ -3432,25 +3432,25 @@
     <t>幫忙</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-232.wav</t>
+    <t>Kanakanavu_A2-5-232.wav</t>
   </si>
   <si>
     <t>muraan</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-233.wav</t>
+    <t>Kanakanavu_A2-5-233.wav</t>
   </si>
   <si>
     <t>moraan</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-234.wav</t>
+    <t>Kanakanavu_A2-5-234.wav</t>
   </si>
   <si>
     <t>uranʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-235.wav</t>
+    <t>Kanakanavu_A2-5-235.wav</t>
   </si>
   <si>
     <t>murungisaa</t>
@@ -3459,7 +3459,7 @@
     <t>呼吸（指活的）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-236.wav</t>
+    <t>Kanakanavu_A2-5-236.wav</t>
   </si>
   <si>
     <t>mururu</t>
@@ -3468,13 +3468,13 @@
     <t>塗（口紅；油漆）；抹</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-237.wav</t>
+    <t>Kanakanavu_A2-5-237.wav</t>
   </si>
   <si>
     <t>擦拭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-238.wav</t>
+    <t>Kanakanavu_A2-5-238.wav</t>
   </si>
   <si>
     <t>muru'ucangʉ</t>
@@ -3483,13 +3483,13 @@
     <t>結婚（互為配偶或互相拿）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-239.wav</t>
+    <t>Kanakanavu_A2-5-239.wav</t>
   </si>
   <si>
     <t>’arupara</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-240.wav</t>
+    <t>Kanakanavu_A2-5-240.wav</t>
   </si>
   <si>
     <t>musikarʉ</t>
@@ -3498,10 +3498,10 @@
     <t>進入</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-241.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-5-242.wav</t>
+    <t>Kanakanavu_A2-5-241.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-5-242.wav</t>
   </si>
   <si>
     <t>musucara'ʉ</t>
@@ -3510,7 +3510,7 @@
     <t>流血</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-243.wav</t>
+    <t>Kanakanavu_A2-5-243.wav</t>
   </si>
   <si>
     <t>musukʉmʉ</t>
@@ -3519,7 +3519,7 @@
     <t>痛；生病</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-244.wav</t>
+    <t>Kanakanavu_A2-5-244.wav</t>
   </si>
   <si>
     <t>musurai</t>
@@ -3528,7 +3528,7 @@
     <t>摔出去</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-245.wav</t>
+    <t>Kanakanavu_A2-5-245.wav</t>
   </si>
   <si>
     <t>musutacunu</t>
@@ -3537,7 +3537,7 @@
     <t>跳（往下跳）；下去；下來</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-246.wav</t>
+    <t>Kanakanavu_A2-5-246.wav</t>
   </si>
   <si>
     <t>musutanpʉ</t>
@@ -3546,7 +3546,7 @@
     <t>足夠</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-247.wav</t>
+    <t>Kanakanavu_A2-5-247.wav</t>
   </si>
   <si>
     <t>musutavʉrʉ</t>
@@ -3555,7 +3555,7 @@
     <t>浸泡（某人泡在水裡）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-248.wav</t>
+    <t>Kanakanavu_A2-5-248.wav</t>
   </si>
   <si>
     <t>musutucu'u</t>
@@ -3564,7 +3564,7 @@
     <t>漏水；滴水</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-249.wav</t>
+    <t>Kanakanavu_A2-5-249.wav</t>
   </si>
   <si>
     <t>musutupuku</t>
@@ -3573,7 +3573,7 @@
     <t>跌倒</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-250.wav</t>
+    <t>Kanakanavu_A2-5-250.wav</t>
   </si>
   <si>
     <t>musuvʉrʉsai</t>
@@ -3582,13 +3582,13 @@
     <t>跳（原地跳）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-251.wav</t>
+    <t>Kanakanavu_A2-5-251.wav</t>
   </si>
   <si>
     <t>musuvʉrʉse</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-252.wav</t>
+    <t>Kanakanavu_A2-5-252.wav</t>
   </si>
   <si>
     <t>musʉ'ʉ</t>
@@ -3597,13 +3597,13 @@
     <t>放置；存放</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-253.wav</t>
+    <t>Kanakanavu_A2-5-253.wav</t>
   </si>
   <si>
     <t>usʉ’ʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-254.wav</t>
+    <t>Kanakanavu_A2-5-254.wav</t>
   </si>
   <si>
     <t>muta'i</t>
@@ -3612,7 +3612,7 @@
     <t>大便</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-255.wav</t>
+    <t>Kanakanavu_A2-5-255.wav</t>
   </si>
   <si>
     <t>muvʉngʉ</t>
@@ -3621,13 +3621,13 @@
     <t>藏；收藏</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-256.wav</t>
+    <t>Kanakanavu_A2-5-256.wav</t>
   </si>
   <si>
     <t>uvʉngʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-257.wav</t>
+    <t>Kanakanavu_A2-5-257.wav</t>
   </si>
   <si>
     <t>mu'iarʉ</t>
@@ -3636,7 +3636,7 @@
     <t>慢慢的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-258.wav</t>
+    <t>Kanakanavu_A2-5-258.wav</t>
   </si>
   <si>
     <t>mʉna</t>
@@ -3645,13 +3645,13 @@
     <t>百</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-259.wav</t>
+    <t>Kanakanavu_A2-5-259.wav</t>
   </si>
   <si>
     <t>捆（所捆綁的）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-260.wav</t>
+    <t>Kanakanavu_A2-5-260.wav</t>
   </si>
   <si>
     <t>mʉ́rʉpʉ</t>
@@ -3660,7 +3660,7 @@
     <t>濕的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-5-261.wav</t>
+    <t>Kanakanavu_A2-5-261.wav</t>
   </si>
   <si>
     <t>Nakasayana</t>
@@ -3669,13 +3669,13 @@
     <t>平地人；漢人；閩南人；中文</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-1.wav</t>
+    <t>Kanakanavu_A2-6-1.wav</t>
   </si>
   <si>
     <t>Pakísia</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-2.wav</t>
+    <t>Kanakanavu_A2-6-2.wav</t>
   </si>
   <si>
     <t>namasʉ</t>
@@ -3684,7 +3684,7 @@
     <t>一半；一對物品的某一半</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-3.wav</t>
+    <t>Kanakanavu_A2-6-3.wav</t>
   </si>
   <si>
     <t>nanakʉ</t>
@@ -3693,7 +3693,7 @@
     <t>女性；女人；妻子；太太；雌性</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-4.wav</t>
+    <t>Kanakanavu_A2-6-4.wav</t>
   </si>
   <si>
     <t>nanmarua</t>
@@ -3702,7 +3702,7 @@
     <t>青年</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-5.wav</t>
+    <t>Kanakanavu_A2-6-5.wav</t>
   </si>
   <si>
     <t>nanmarua nanakʉ</t>
@@ -3711,7 +3711,7 @@
     <t>少女；小姐</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-6.wav</t>
+    <t>Kanakanavu_A2-6-6.wav</t>
   </si>
   <si>
     <t>nánnakʉ</t>
@@ -3720,7 +3720,7 @@
     <t>女性；女人（複數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-7.wav</t>
+    <t>Kanakanavu_A2-6-7.wav</t>
   </si>
   <si>
     <t>nannare</t>
@@ -3729,7 +3729,7 @@
     <t>蟬</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-8.wav</t>
+    <t>Kanakanavu_A2-6-8.wav</t>
   </si>
   <si>
     <t>nanu</t>
@@ -3738,7 +3738,7 @@
     <t>哪裡</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-9.wav</t>
+    <t>Kanakanavu_A2-6-9.wav</t>
   </si>
   <si>
     <t>nanʉmʉ</t>
@@ -3747,7 +3747,7 @@
     <t>六（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-10.wav</t>
+    <t>Kanakanavu_A2-6-10.wav</t>
   </si>
   <si>
     <t>narávarʉ</t>
@@ -3756,7 +3756,7 @@
     <t>懶惰</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-11.wav</t>
+    <t>Kanakanavu_A2-6-11.wav</t>
   </si>
   <si>
     <t>natʉngʉ</t>
@@ -3765,7 +3765,7 @@
     <t>青菜</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-12.wav</t>
+    <t>Kanakanavu_A2-6-12.wav</t>
   </si>
   <si>
     <t>navungu</t>
@@ -3774,13 +3774,13 @@
     <t>頭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-13.wav</t>
+    <t>Kanakanavu_A2-6-13.wav</t>
   </si>
   <si>
     <t>navuung</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-14.wav</t>
+    <t>Kanakanavu_A2-6-14.wav</t>
   </si>
   <si>
     <t>neni</t>
@@ -3789,22 +3789,22 @@
     <t>什麼</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-15.wav</t>
+    <t>Kanakanavu_A2-6-15.wav</t>
   </si>
   <si>
     <t>neen</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-16.wav</t>
+    <t>Kanakanavu_A2-6-16.wav</t>
   </si>
   <si>
     <t>誰</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-17.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-6-18.wav</t>
+    <t>Kanakanavu_A2-6-17.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-6-18.wav</t>
   </si>
   <si>
     <t>nesi</t>
@@ -3813,7 +3813,7 @@
     <t>這裡</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-19.wav</t>
+    <t>Kanakanavu_A2-6-19.wav</t>
   </si>
   <si>
     <t>ni</t>
@@ -3822,7 +3822,7 @@
     <t>他們</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-20.wav</t>
+    <t>Kanakanavu_A2-6-20.wav</t>
   </si>
   <si>
     <t>niaracakana</t>
@@ -3831,7 +3831,7 @@
     <t>獵物</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-21.wav</t>
+    <t>Kanakanavu_A2-6-21.wav</t>
   </si>
   <si>
     <t>niaratumurua canumu</t>
@@ -3840,7 +3840,7 @@
     <t>深潭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-22.wav</t>
+    <t>Kanakanavu_A2-6-22.wav</t>
   </si>
   <si>
     <t>niatumuru canumu</t>
@@ -3849,7 +3849,7 @@
     <t>水深處；湖泊</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-23.wav</t>
+    <t>Kanakanavu_A2-6-23.wav</t>
   </si>
   <si>
     <t>nimúru'u</t>
@@ -3858,7 +3858,7 @@
     <t>血；血液</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-24.wav</t>
+    <t>Kanakanavu_A2-6-24.wav</t>
   </si>
   <si>
     <t>nivanga</t>
@@ -3867,7 +3867,7 @@
     <t>香蕉（熟成的）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-25.wav</t>
+    <t>Kanakanavu_A2-6-25.wav</t>
   </si>
   <si>
     <t>noo</t>
@@ -3876,13 +3876,13 @@
     <t>如果</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-26.wav</t>
+    <t>Kanakanavu_A2-6-26.wav</t>
   </si>
   <si>
     <t>ucaniava</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-27.wav</t>
+    <t>Kanakanavu_A2-6-27.wav</t>
   </si>
   <si>
     <t>nuaceni</t>
@@ -3891,13 +3891,13 @@
     <t>明年</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-28.wav</t>
+    <t>Kanakanavu_A2-6-28.wav</t>
   </si>
   <si>
     <t>nuaceen</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-29.wav</t>
+    <t>Kanakanavu_A2-6-29.wav</t>
   </si>
   <si>
     <t>nuirina</t>
@@ -3906,7 +3906,7 @@
     <t>習俗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-30.wav</t>
+    <t>Kanakanavu_A2-6-30.wav</t>
   </si>
   <si>
     <t>nukai</t>
@@ -3915,13 +3915,13 @@
     <t>或</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-31.wav</t>
+    <t>Kanakanavu_A2-6-31.wav</t>
   </si>
   <si>
     <t>nokai</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-32.wav</t>
+    <t>Kanakanavu_A2-6-32.wav</t>
   </si>
   <si>
     <t>nukanmana</t>
@@ -3930,19 +3930,19 @@
     <t>何時</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-33.wav</t>
+    <t>Kanakanavu_A2-6-33.wav</t>
   </si>
   <si>
     <t>nukunmana</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-34.wav</t>
+    <t>Kanakanavu_A2-6-34.wav</t>
   </si>
   <si>
     <t>minmana（已發生）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-35.wav</t>
+    <t>Kanakanavu_A2-6-35.wav</t>
   </si>
   <si>
     <t>numanʉ</t>
@@ -3951,22 +3951,22 @@
     <t>刀；獵刀</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-36.wav</t>
+    <t>Kanakanavu_A2-6-36.wav</t>
   </si>
   <si>
     <t>numaan</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-37.wav</t>
+    <t>Kanakanavu_A2-6-37.wav</t>
   </si>
   <si>
     <t>鐵器</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-38.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-6-39.wav</t>
+    <t>Kanakanavu_A2-6-38.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-6-39.wav</t>
   </si>
   <si>
     <t>nungnung</t>
@@ -3975,7 +3975,7 @@
     <t>小溪；溪谷</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-40.wav</t>
+    <t>Kanakanavu_A2-6-40.wav</t>
   </si>
   <si>
     <t>nura</t>
@@ -3984,19 +3984,19 @@
     <t>明天</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-41.wav</t>
+    <t>Kanakanavu_A2-6-41.wav</t>
   </si>
   <si>
     <t>nutancani</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-42.wav</t>
+    <t>Kanakanavu_A2-6-42.wav</t>
   </si>
   <si>
     <t>nʉmʉ</t>
   </si>
   <si>
-    <t>Kanakanavu_2-6-43.wav</t>
+    <t>Kanakanavu_A2-6-43.wav</t>
   </si>
   <si>
     <t>ngaca'ʉ</t>
@@ -4005,7 +4005,7 @@
     <t>根部；根源</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-1.wav</t>
+    <t>Kanakanavu_A2-7-1.wav</t>
   </si>
   <si>
     <t>nganai</t>
@@ -4014,7 +4014,7 @@
     <t>名字</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-2.wav</t>
+    <t>Kanakanavu_A2-7-2.wav</t>
   </si>
   <si>
     <t>ngai</t>
@@ -4023,13 +4023,13 @@
     <t>口水</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-3.wav</t>
+    <t>Kanakanavu_A2-7-3.wav</t>
   </si>
   <si>
     <t>痰</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-4.wav</t>
+    <t>Kanakanavu_A2-7-4.wav</t>
   </si>
   <si>
     <t>Ngaingai</t>
@@ -4038,7 +4038,7 @@
     <t>客家人</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-5.wav</t>
+    <t>Kanakanavu_A2-7-5.wav</t>
   </si>
   <si>
     <t>ngiau</t>
@@ -4047,7 +4047,7 @@
     <t>貓</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-6.wav</t>
+    <t>Kanakanavu_A2-7-6.wav</t>
   </si>
   <si>
     <t>ngisaa</t>
@@ -4056,7 +4056,7 @@
     <t>氣息；呼吸；有生命的狀態</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-7.wav</t>
+    <t>Kanakanavu_A2-7-7.wav</t>
   </si>
   <si>
     <t>nguai</t>
@@ -4065,19 +4065,19 @@
     <t>就是；尤其</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-8.wav</t>
+    <t>Kanakanavu_A2-7-8.wav</t>
   </si>
   <si>
     <t>nguain</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-9.wav</t>
+    <t>Kanakanavu_A2-7-9.wav</t>
   </si>
   <si>
     <t>nguani</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-10.wav</t>
+    <t>Kanakanavu_A2-7-10.wav</t>
   </si>
   <si>
     <t>ngʉkau</t>
@@ -4086,7 +4086,7 @@
     <t>猴子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-7-11.wav</t>
+    <t>Kanakanavu_A2-7-11.wav</t>
   </si>
   <si>
     <t>pa</t>
@@ -4095,7 +4095,7 @@
     <t>還；尚；一下（客氣）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-1.wav</t>
+    <t>Kanakanavu_A2-8-1.wav</t>
   </si>
   <si>
     <t>pacʉpʉngʉ</t>
@@ -4104,25 +4104,25 @@
     <t>想；想念</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-2.wav</t>
+    <t>Kanakanavu_A2-8-2.wav</t>
   </si>
   <si>
     <t>pacʉpʉʉng</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-3.wav</t>
+    <t>Kanakanavu_A2-8-3.wav</t>
   </si>
   <si>
     <t>pacʉpʉcʉpʉngʉ</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-4.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-8-5.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-8-6.wav</t>
+    <t>Kanakanavu_A2-8-4.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-8-5.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-8-6.wav</t>
   </si>
   <si>
     <t>pakíturu</t>
@@ -4131,7 +4131,7 @@
     <t>答應；願意</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-7.wav</t>
+    <t>Kanakanavu_A2-8-7.wav</t>
   </si>
   <si>
     <t>pangarʉ</t>
@@ -4140,7 +4140,7 @@
     <t>矛</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-8.wav</t>
+    <t>Kanakanavu_A2-8-8.wav</t>
   </si>
   <si>
     <t>pangi</t>
@@ -4149,7 +4149,7 @@
     <t>杵</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-9.wav</t>
+    <t>Kanakanavu_A2-8-9.wav</t>
   </si>
   <si>
     <t>pangka（日語）</t>
@@ -4158,7 +4158,7 @@
     <t>桌子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-10.wav</t>
+    <t>Kanakanavu_A2-8-10.wav</t>
   </si>
   <si>
     <t>pangka siarisinatʉ</t>
@@ -4167,7 +4167,7 @@
     <t>書桌；書寫處</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-11.wav</t>
+    <t>Kanakanavu_A2-8-11.wav</t>
   </si>
   <si>
     <t>pangtan</t>
@@ -4176,7 +4176,7 @@
     <t>鳳梨</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-12.wav</t>
+    <t>Kanakanavu_A2-8-12.wav</t>
   </si>
   <si>
     <t>papeni</t>
@@ -4185,13 +4185,13 @@
     <t>多少（人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-13.wav</t>
+    <t>Kanakanavu_A2-8-13.wav</t>
   </si>
   <si>
     <t>papeen</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-14.wav</t>
+    <t>Kanakanavu_A2-8-14.wav</t>
   </si>
   <si>
     <t>papitu</t>
@@ -4200,7 +4200,7 @@
     <t>七（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-15.wav</t>
+    <t>Kanakanavu_A2-8-15.wav</t>
   </si>
   <si>
     <t>paracani</t>
@@ -4209,7 +4209,7 @@
     <t>唱歌</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-16.wav</t>
+    <t>Kanakanavu_A2-8-16.wav</t>
   </si>
   <si>
     <t>paratʉ</t>
@@ -4218,7 +4218,7 @@
     <t>閃電</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-17.wav</t>
+    <t>Kanakanavu_A2-8-17.wav</t>
   </si>
   <si>
     <t>parai</t>
@@ -4227,7 +4227,7 @@
     <t>糯米</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-18.wav</t>
+    <t>Kanakanavu_A2-8-18.wav</t>
   </si>
   <si>
     <t>parékava</t>
@@ -4236,7 +4236,7 @@
     <t>犁</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-19.wav</t>
+    <t>Kanakanavu_A2-8-19.wav</t>
   </si>
   <si>
     <t>páriku</t>
@@ -4245,7 +4245,7 @@
     <t>追</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-20.wav</t>
+    <t>Kanakanavu_A2-8-20.wav</t>
   </si>
   <si>
     <t>pariapara</t>
@@ -4254,7 +4254,7 @@
     <t>風</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-21.wav</t>
+    <t>Kanakanavu_A2-8-21.wav</t>
   </si>
   <si>
     <t>pasa'ʉcai</t>
@@ -4263,7 +4263,7 @@
     <t>清理；整理</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-22.wav</t>
+    <t>Kanakanavu_A2-8-22.wav</t>
   </si>
   <si>
     <t>pasiin</t>
@@ -4272,7 +4272,7 @@
     <t>說（某人對某人說）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-23.wav</t>
+    <t>Kanakanavu_A2-8-23.wav</t>
   </si>
   <si>
     <t>patanamʉ</t>
@@ -4281,13 +4281,13 @@
     <t>模仿；仿效</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-24.wav</t>
+    <t>Kanakanavu_A2-8-24.wav</t>
   </si>
   <si>
     <t>練習</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-25.wav</t>
+    <t>Kanakanavu_A2-8-25.wav</t>
   </si>
   <si>
     <t>pa'ici</t>
@@ -4296,7 +4296,7 @@
     <t>酒</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-26.wav</t>
+    <t>Kanakanavu_A2-8-26.wav</t>
   </si>
   <si>
     <t>paira</t>
@@ -4305,7 +4305,7 @@
     <t>經常；常常</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-27.wav</t>
+    <t>Kanakanavu_A2-8-27.wav</t>
   </si>
   <si>
     <t>paisi</t>
@@ -4314,13 +4314,13 @@
     <t>大腿</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-28.wav</t>
+    <t>Kanakanavu_A2-8-28.wav</t>
   </si>
   <si>
     <t>pesi</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-29.wav</t>
+    <t>Kanakanavu_A2-8-29.wav</t>
   </si>
   <si>
     <t>pepe</t>
@@ -4329,7 +4329,7 @@
     <t>麻糬（純糯米無配料）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-30.wav</t>
+    <t>Kanakanavu_A2-8-30.wav</t>
   </si>
   <si>
     <t>pinárupu</t>
@@ -4338,7 +4338,7 @@
     <t>釣魚</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-31.wav</t>
+    <t>Kanakanavu_A2-8-31.wav</t>
   </si>
   <si>
     <t>pini</t>
@@ -4347,7 +4347,7 @@
     <t>咬人貓</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-32.wav</t>
+    <t>Kanakanavu_A2-8-32.wav</t>
   </si>
   <si>
     <t>pipiningi</t>
@@ -4356,7 +4356,7 @@
     <t>外面；外頭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-33.wav</t>
+    <t>Kanakanavu_A2-8-33.wav</t>
   </si>
   <si>
     <t>pitu</t>
@@ -4365,7 +4365,7 @@
     <t>七（數數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-34.wav</t>
+    <t>Kanakanavu_A2-8-34.wav</t>
   </si>
   <si>
     <t>pi'inʉvʉ</t>
@@ -4374,7 +4374,7 @@
     <t>關上</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-35.wav</t>
+    <t>Kanakanavu_A2-8-35.wav</t>
   </si>
   <si>
     <t>pókari</t>
@@ -4383,7 +4383,7 @@
     <t>呼喊；邀請</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-36.wav</t>
+    <t>Kanakanavu_A2-8-36.wav</t>
   </si>
   <si>
     <t>pokaríkari</t>
@@ -4392,7 +4392,7 @@
     <t>說話</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-37.wav</t>
+    <t>Kanakanavu_A2-8-37.wav</t>
   </si>
   <si>
     <t>potucucuru</t>
@@ -4401,7 +4401,7 @@
     <t>相信</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-38.wav</t>
+    <t>Kanakanavu_A2-8-38.wav</t>
   </si>
   <si>
     <t>po’ucipi</t>
@@ -4410,7 +4410,7 @@
     <t>煮（飯、菜、肉、地瓜）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-39.wav</t>
+    <t>Kanakanavu_A2-8-39.wav</t>
   </si>
   <si>
     <t>puka</t>
@@ -4419,7 +4419,7 @@
     <t>貓頭鷹</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-40.wav</t>
+    <t>Kanakanavu_A2-8-40.wav</t>
   </si>
   <si>
     <t>pupunga</t>
@@ -4428,7 +4428,7 @@
     <t>竹筒</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-41.wav</t>
+    <t>Kanakanavu_A2-8-41.wav</t>
   </si>
   <si>
     <t>puri'i</t>
@@ -4437,7 +4437,7 @@
     <t>吐出來</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-42.wav</t>
+    <t>Kanakanavu_A2-8-42.wav</t>
   </si>
   <si>
     <t>puruvuku</t>
@@ -4446,7 +4446,7 @@
     <t>繫或插上（皮帶）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-43.wav</t>
+    <t>Kanakanavu_A2-8-43.wav</t>
   </si>
   <si>
     <t>pusiam</t>
@@ -4455,7 +4455,7 @@
     <t>稻穀（未去殼）；稻子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-44.wav</t>
+    <t>Kanakanavu_A2-8-44.wav</t>
   </si>
   <si>
     <t>pusu'anʉ</t>
@@ -4464,13 +4464,13 @@
     <t>扛；提；抬；搬運</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-45.wav</t>
+    <t>Kanakanavu_A2-8-45.wav</t>
   </si>
   <si>
     <t>pusu’aan</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-46.wav</t>
+    <t>Kanakanavu_A2-8-46.wav</t>
   </si>
   <si>
     <t>putairi</t>
@@ -4479,13 +4479,13 @@
     <t>踢</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-47.wav</t>
+    <t>Kanakanavu_A2-8-47.wav</t>
   </si>
   <si>
     <t>puteri</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-48.wav</t>
+    <t>Kanakanavu_A2-8-48.wav</t>
   </si>
   <si>
     <t>putukikio</t>
@@ -4494,7 +4494,7 @@
     <t>工作</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-49.wav</t>
+    <t>Kanakanavu_A2-8-49.wav</t>
   </si>
   <si>
     <t>putuvʉrʉkʉ</t>
@@ -4503,7 +4503,7 @@
     <t>打開蓋子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-50.wav</t>
+    <t>Kanakanavu_A2-8-50.wav</t>
   </si>
   <si>
     <t>putu'ʉnʉvʉ</t>
@@ -4512,7 +4512,7 @@
     <t>打開門</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-51.wav</t>
+    <t>Kanakanavu_A2-8-51.wav</t>
   </si>
   <si>
     <t>pu'a</t>
@@ -4521,16 +4521,16 @@
     <t>買（入）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-52.wav</t>
+    <t>Kanakanavu_A2-8-52.wav</t>
   </si>
   <si>
     <t>pu'ʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-53.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-8-54.wav</t>
+    <t>Kanakanavu_A2-8-53.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-8-54.wav</t>
   </si>
   <si>
     <t>puarʉ</t>
@@ -4539,7 +4539,7 @@
     <t>跛腳</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-55.wav</t>
+    <t>Kanakanavu_A2-8-55.wav</t>
   </si>
   <si>
     <t>puiri</t>
@@ -4548,7 +4548,7 @@
     <t>換；替換</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-56.wav</t>
+    <t>Kanakanavu_A2-8-56.wav</t>
   </si>
   <si>
     <t>puisia</t>
@@ -4557,7 +4557,7 @@
     <t>禁忌</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-57.wav</t>
+    <t>Kanakanavu_A2-8-57.wav</t>
   </si>
   <si>
     <t>pui’i</t>
@@ -4566,7 +4566,7 @@
     <t>回（來、去）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-58.wav</t>
+    <t>Kanakanavu_A2-8-58.wav</t>
   </si>
   <si>
     <t>pʉnʉ</t>
@@ -4575,7 +4575,7 @@
     <t>餌（魚、獵餌）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-59.wav</t>
+    <t>Kanakanavu_A2-8-59.wav</t>
   </si>
   <si>
     <t>pʉrʉkʉ</t>
@@ -4584,7 +4584,7 @@
     <t>肚臍；壁虎；田螺</t>
   </si>
   <si>
-    <t>Kanakanavu_2-8-60.wav</t>
+    <t>Kanakanavu_A2-8-60.wav</t>
   </si>
   <si>
     <t>ramisi</t>
@@ -4593,7 +4593,7 @@
     <t>根（植物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-1.wav</t>
+    <t>Kanakanavu_A2-9-1.wav</t>
   </si>
   <si>
     <t>ramucu</t>
@@ -4602,7 +4602,7 @@
     <t>手</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-2.wav</t>
+    <t>Kanakanavu_A2-9-2.wav</t>
   </si>
   <si>
     <t>rapatʉ</t>
@@ -4611,7 +4611,7 @@
     <t>皮（樹或瓜果）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-3.wav</t>
+    <t>Kanakanavu_A2-9-3.wav</t>
   </si>
   <si>
     <t>rapúnarʉ</t>
@@ -4620,7 +4620,7 @@
     <t>沖毀</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-4.wav</t>
+    <t>Kanakanavu_A2-9-4.wav</t>
   </si>
   <si>
     <t>rapʉ</t>
@@ -4629,7 +4629,7 @@
     <t>種子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-5.wav</t>
+    <t>Kanakanavu_A2-9-5.wav</t>
   </si>
   <si>
     <t>rararu</t>
@@ -4638,7 +4638,7 @@
     <t>八（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-6.wav</t>
+    <t>Kanakanavu_A2-9-6.wav</t>
   </si>
   <si>
     <t>rarima</t>
@@ -4647,7 +4647,7 @@
     <t>五（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-7.wav</t>
+    <t>Kanakanavu_A2-9-7.wav</t>
   </si>
   <si>
     <t>rarʉ</t>
@@ -4656,7 +4656,7 @@
     <t>飛鼠</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-8.wav</t>
+    <t>Kanakanavu_A2-9-8.wav</t>
   </si>
   <si>
     <t>rarʉngʉ</t>
@@ -4665,13 +4665,13 @@
     <t>葉子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-9.wav</t>
+    <t>Kanakanavu_A2-9-9.wav</t>
   </si>
   <si>
     <t>rarʉʉng</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-10.wav</t>
+    <t>Kanakanavu_A2-9-10.wav</t>
   </si>
   <si>
     <t>ravuku</t>
@@ -4680,7 +4680,7 @@
     <t>沙子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-11.wav</t>
+    <t>Kanakanavu_A2-9-11.wav</t>
   </si>
   <si>
     <t>rima</t>
@@ -4689,7 +4689,7 @@
     <t>五（數數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-12.wav</t>
+    <t>Kanakanavu_A2-9-12.wav</t>
   </si>
   <si>
     <t>ringai</t>
@@ -4698,7 +4698,7 @@
     <t>陷阱</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-13.wav</t>
+    <t>Kanakanavu_A2-9-13.wav</t>
   </si>
   <si>
     <t>rocu</t>
@@ -4707,7 +4707,7 @@
     <t>下方（某之下）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-14.wav</t>
+    <t>Kanakanavu_A2-9-14.wav</t>
   </si>
   <si>
     <t>roimi</t>
@@ -4716,7 +4716,7 @@
     <t>忘記</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-15.wav</t>
+    <t>Kanakanavu_A2-9-15.wav</t>
   </si>
   <si>
     <t>rovana</t>
@@ -4725,7 +4725,7 @@
     <t>晚上；夜晚</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-16.wav</t>
+    <t>Kanakanavu_A2-9-16.wav</t>
   </si>
   <si>
     <t>rumarapʉ</t>
@@ -4734,7 +4734,7 @@
     <t>播種</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-17.wav</t>
+    <t>Kanakanavu_A2-9-17.wav</t>
   </si>
   <si>
     <t>rumara'isi</t>
@@ -4743,7 +4743,7 @@
     <t>咬</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-18.wav</t>
+    <t>Kanakanavu_A2-9-18.wav</t>
   </si>
   <si>
     <t>rumarʉ</t>
@@ -4752,7 +4752,7 @@
     <t>燒墾；火燒山</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-19.wav</t>
+    <t>Kanakanavu_A2-9-19.wav</t>
   </si>
   <si>
     <t>rumarʉ'ʉ</t>
@@ -4761,7 +4761,7 @@
     <t>吞下</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-20.wav</t>
+    <t>Kanakanavu_A2-9-20.wav</t>
   </si>
   <si>
     <t>rupacʉ</t>
@@ -4770,7 +4770,7 @@
     <t>弓</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-21.wav</t>
+    <t>Kanakanavu_A2-9-21.wav</t>
   </si>
   <si>
     <t>rʉmʉra</t>
@@ -4779,7 +4779,7 @@
     <t>叢林；深山</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-22.wav</t>
+    <t>Kanakanavu_A2-9-22.wav</t>
   </si>
   <si>
     <t>rʉ'ʉvʉ</t>
@@ -4788,13 +4788,13 @@
     <t>同伴；伴侶</t>
   </si>
   <si>
-    <t>Kanakanavu_2-9-23.wav</t>
+    <t>Kanakanavu_A2-9-23.wav</t>
   </si>
   <si>
     <t>saa</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-1.wav</t>
+    <t>Kanakanavu_A2-10-1.wav</t>
   </si>
   <si>
     <t>saisi</t>
@@ -4803,7 +4803,7 @@
     <t>下巴</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-2.wav</t>
+    <t>Kanakanavu_A2-10-2.wav</t>
   </si>
   <si>
     <t>sana</t>
@@ -4812,7 +4812,7 @@
     <t>那裡（說者與聽者都看不見）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-3.wav</t>
+    <t>Kanakanavu_A2-10-3.wav</t>
   </si>
   <si>
     <t>sapániri</t>
@@ -4821,7 +4821,7 @@
     <t>鞋子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-4.wav</t>
+    <t>Kanakanavu_A2-10-4.wav</t>
   </si>
   <si>
     <t>sapuarʉ</t>
@@ -4830,7 +4830,7 @@
     <t>網子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-5.wav</t>
+    <t>Kanakanavu_A2-10-5.wav</t>
   </si>
   <si>
     <t>sarunai</t>
@@ -4839,13 +4839,13 @@
     <t>男性；男人；丈夫；先生；雄性</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-6.wav</t>
+    <t>Kanakanavu_A2-10-6.wav</t>
   </si>
   <si>
     <t>saronai</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-7.wav</t>
+    <t>Kanakanavu_A2-10-7.wav</t>
   </si>
   <si>
     <t>sasia</t>
@@ -4854,7 +4854,7 @@
     <t>九（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-8.wav</t>
+    <t>Kanakanavu_A2-10-8.wav</t>
   </si>
   <si>
     <t>sasʉ́patʉ</t>
@@ -4863,7 +4863,7 @@
     <t>四（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-9.wav</t>
+    <t>Kanakanavu_A2-10-9.wav</t>
   </si>
   <si>
     <t>saviki</t>
@@ -4872,13 +4872,13 @@
     <t>檳榔</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-10.wav</t>
+    <t>Kanakanavu_A2-10-10.wav</t>
   </si>
   <si>
     <t>’aviki（日語）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-11.wav</t>
+    <t>Kanakanavu_A2-10-11.wav</t>
   </si>
   <si>
     <t>savuana</t>
@@ -4887,7 +4887,7 @@
     <t>藥</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-12.wav</t>
+    <t>Kanakanavu_A2-10-12.wav</t>
   </si>
   <si>
     <t>seto（日語）</t>
@@ -4896,7 +4896,7 @@
     <t>學生</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-13.wav</t>
+    <t>Kanakanavu_A2-10-13.wav</t>
   </si>
   <si>
     <t>sia</t>
@@ -4905,7 +4905,7 @@
     <t>九（數數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-14.wav</t>
+    <t>Kanakanavu_A2-10-14.wav</t>
   </si>
   <si>
     <t>sian</t>
@@ -4914,7 +4914,7 @@
     <t>（我）這裡</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-15.wav</t>
+    <t>Kanakanavu_A2-10-15.wav</t>
   </si>
   <si>
     <t>siarapici</t>
@@ -4923,13 +4923,13 @@
     <t>剪刀</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-16.wav</t>
+    <t>Kanakanavu_A2-10-16.wav</t>
   </si>
   <si>
     <t>hasami（日語）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-17.wav</t>
+    <t>Kanakanavu_A2-10-17.wav</t>
   </si>
   <si>
     <t>siaritungu</t>
@@ -4938,19 +4938,19 @@
     <t>木瓜</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-18.wav</t>
+    <t>Kanakanavu_A2-10-18.wav</t>
   </si>
   <si>
     <t>siarituung</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-19.wav</t>
+    <t>Kanakanavu_A2-10-19.wav</t>
   </si>
   <si>
     <t>serituung</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-20.wav</t>
+    <t>Kanakanavu_A2-10-20.wav</t>
   </si>
   <si>
     <t>siarupaca</t>
@@ -4959,7 +4959,7 @@
     <t>使用</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-21.wav</t>
+    <t>Kanakanavu_A2-10-21.wav</t>
   </si>
   <si>
     <t>sii</t>
@@ -4968,7 +4968,7 @@
     <t>因為</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-22.wav</t>
+    <t>Kanakanavu_A2-10-22.wav</t>
   </si>
   <si>
     <t>siking （日語）</t>
@@ -4977,7 +4977,7 @@
     <t>肥皂</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-23.wav</t>
+    <t>Kanakanavu_A2-10-23.wav</t>
   </si>
   <si>
     <t>sikúrapʉ</t>
@@ -4986,7 +4986,7 @@
     <t>蚊子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-24.wav</t>
+    <t>Kanakanavu_A2-10-24.wav</t>
   </si>
   <si>
     <t>sinangʉ</t>
@@ -4995,13 +4995,13 @@
     <t>光線；光源；照明</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-25.wav</t>
+    <t>Kanakanavu_A2-10-25.wav</t>
   </si>
   <si>
     <t>sinaang</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-26.wav</t>
+    <t>Kanakanavu_A2-10-26.wav</t>
   </si>
   <si>
     <t>sinatʉ</t>
@@ -5010,13 +5010,13 @@
     <t>紙張；信件</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-27.wav</t>
+    <t>Kanakanavu_A2-10-27.wav</t>
   </si>
   <si>
     <t>書；文字</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-28.wav</t>
+    <t>Kanakanavu_A2-10-28.wav</t>
   </si>
   <si>
     <t>sisini</t>
@@ -5025,7 +5025,7 @@
     <t>綉眼畫眉鳥；靈鳥</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-29.wav</t>
+    <t>Kanakanavu_A2-10-29.wav</t>
   </si>
   <si>
     <t>si'icʉpʉ</t>
@@ -5034,7 +5034,7 @@
     <t>睡覺</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-30.wav</t>
+    <t>Kanakanavu_A2-10-30.wav</t>
   </si>
   <si>
     <t>si'inʉva</t>
@@ -5043,7 +5043,7 @@
     <t>門</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-31.wav</t>
+    <t>Kanakanavu_A2-10-31.wav</t>
   </si>
   <si>
     <t>sóravu</t>
@@ -5052,7 +5052,7 @@
     <t>颱風</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-32.wav</t>
+    <t>Kanakanavu_A2-10-32.wav</t>
   </si>
   <si>
     <t>sovungu</t>
@@ -5061,7 +5061,7 @@
     <t>分配、分送（東西）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-33.wav</t>
+    <t>Kanakanavu_A2-10-33.wav</t>
   </si>
   <si>
     <t>suan</t>
@@ -5070,7 +5070,7 @@
     <t>（你）那裡</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-34.wav</t>
+    <t>Kanakanavu_A2-10-34.wav</t>
   </si>
   <si>
     <t>sumasima'ʉ</t>
@@ -5079,7 +5079,7 @@
     <t>玩；玩耍</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-35.wav</t>
+    <t>Kanakanavu_A2-10-35.wav</t>
   </si>
   <si>
     <t>sumasingsing</t>
@@ -5088,7 +5088,7 @@
     <t>刷洗（物品）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-36.wav</t>
+    <t>Kanakanavu_A2-10-36.wav</t>
   </si>
   <si>
     <t>sumasʉngʉrʉ</t>
@@ -5097,7 +5097,7 @@
     <t>浸泡（某物例如糯米）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-37.wav</t>
+    <t>Kanakanavu_A2-10-37.wav</t>
   </si>
   <si>
     <t>sumasʉpʉrʉ</t>
@@ -5106,7 +5106,7 @@
     <t>數；算；唸書（唸出聲音）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-38.wav</t>
+    <t>Kanakanavu_A2-10-38.wav</t>
   </si>
   <si>
     <t>sumasuruvai</t>
@@ -5115,13 +5115,13 @@
     <t>借（借入、借出）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-39.wav</t>
+    <t>Kanakanavu_A2-10-39.wav</t>
   </si>
   <si>
     <t>sumasuruve</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-40.wav</t>
+    <t>Kanakanavu_A2-10-40.wav</t>
   </si>
   <si>
     <t>sumipʉkʉrʉ</t>
@@ -5130,7 +5130,7 @@
     <t>閉（眼睛）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-41.wav</t>
+    <t>Kanakanavu_A2-10-41.wav</t>
   </si>
   <si>
     <t>suruvuo</t>
@@ -5139,7 +5139,7 @@
     <t>借去</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-42.wav</t>
+    <t>Kanakanavu_A2-10-42.wav</t>
   </si>
   <si>
     <t>sʉ́patʉ</t>
@@ -5148,7 +5148,7 @@
     <t>四（數數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-10-43.wav</t>
+    <t>Kanakanavu_A2-10-43.wav</t>
   </si>
   <si>
     <t>taa</t>
@@ -5157,7 +5157,7 @@
     <t>走（催促）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-1.wav</t>
+    <t>Kanakanavu_A2-11-1.wav</t>
   </si>
   <si>
     <t>tacau</t>
@@ -5166,7 +5166,7 @@
     <t>狗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-2.wav</t>
+    <t>Kanakanavu_A2-11-2.wav</t>
   </si>
   <si>
     <t>tacini</t>
@@ -5175,13 +5175,13 @@
     <t>一（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-3.wav</t>
+    <t>Kanakanavu_A2-11-3.wav</t>
   </si>
   <si>
     <t>taciin</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-4.wav</t>
+    <t>Kanakanavu_A2-11-4.wav</t>
   </si>
   <si>
     <t>tacuru</t>
@@ -5190,7 +5190,7 @@
     <t>尖端；尖的地方</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-5.wav</t>
+    <t>Kanakanavu_A2-11-5.wav</t>
   </si>
   <si>
     <t>takacicin</t>
@@ -5199,13 +5199,13 @@
     <t>自己做；自行做；獨自做；主動做</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-6.wav</t>
+    <t>Kanakanavu_A2-11-6.wav</t>
   </si>
   <si>
     <t>takacicini</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-7.wav</t>
+    <t>Kanakanavu_A2-11-7.wav</t>
   </si>
   <si>
     <t>takarura</t>
@@ -5214,7 +5214,7 @@
     <t>青蛙</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-8.wav</t>
+    <t>Kanakanavu_A2-11-8.wav</t>
   </si>
   <si>
     <t>takituturua</t>
@@ -5223,7 +5223,7 @@
     <t>老師</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-9.wav</t>
+    <t>Kanakanavu_A2-11-9.wav</t>
   </si>
   <si>
     <t>takupin</t>
@@ -5232,7 +5232,7 @@
     <t>碗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-10.wav</t>
+    <t>Kanakanavu_A2-11-10.wav</t>
   </si>
   <si>
     <t>takupirípiri</t>
@@ -5241,7 +5241,7 @@
     <t>閃亮的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-11.wav</t>
+    <t>Kanakanavu_A2-11-11.wav</t>
   </si>
   <si>
     <t>takuisi</t>
@@ -5250,7 +5250,7 @@
     <t>羊</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-12.wav</t>
+    <t>Kanakanavu_A2-11-12.wav</t>
   </si>
   <si>
     <t>takʉkʉa</t>
@@ -5259,13 +5259,13 @@
     <t>老鷹</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-13.wav</t>
+    <t>Kanakanavu_A2-11-13.wav</t>
   </si>
   <si>
     <t>rʉkʉpʉ</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-14.wav</t>
+    <t>Kanakanavu_A2-11-14.wav</t>
   </si>
   <si>
     <t>takʉrʉma</t>
@@ -5274,7 +5274,7 @@
     <t>螞蟻</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-15.wav</t>
+    <t>Kanakanavu_A2-11-15.wav</t>
   </si>
   <si>
     <t>tamcurunga</t>
@@ -5283,7 +5283,7 @@
     <t>蜻蜓</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-16.wav</t>
+    <t>Kanakanavu_A2-11-16.wav</t>
   </si>
   <si>
     <t>tammi</t>
@@ -5292,7 +5292,7 @@
     <t>地瓜；甘藷</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-17.wav</t>
+    <t>Kanakanavu_A2-11-17.wav</t>
   </si>
   <si>
     <t>tamtasai</t>
@@ -5301,7 +5301,7 @@
     <t>星星</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-18.wav</t>
+    <t>Kanakanavu_A2-11-18.wav</t>
   </si>
   <si>
     <t>tamtitu</t>
@@ -5310,7 +5310,7 @@
     <t>小狗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-19.wav</t>
+    <t>Kanakanavu_A2-11-19.wav</t>
   </si>
   <si>
     <t>tamia’aa</t>
@@ -5319,7 +5319,7 @@
     <t>商店；販賣的地方</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-20.wav</t>
+    <t>Kanakanavu_A2-11-20.wav</t>
   </si>
   <si>
     <t>tamu</t>
@@ -5328,7 +5328,7 @@
     <t>祖父、母</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-21.wav</t>
+    <t>Kanakanavu_A2-11-21.wav</t>
   </si>
   <si>
     <t>tamu nanakʉ</t>
@@ -5337,7 +5337,7 @@
     <t>祖母；外婆；女性長者</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-22.wav</t>
+    <t>Kanakanavu_A2-11-22.wav</t>
   </si>
   <si>
     <t>tamu sarunai</t>
@@ -5346,7 +5346,7 @@
     <t>祖父；外公；男性長者</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-23.wav</t>
+    <t>Kanakanavu_A2-11-23.wav</t>
   </si>
   <si>
     <t>tamu'iarʉ</t>
@@ -5355,7 +5355,7 @@
     <t>勤勞</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-24.wav</t>
+    <t>Kanakanavu_A2-11-24.wav</t>
   </si>
   <si>
     <t>tanasa</t>
@@ -5364,13 +5364,13 @@
     <t>家屋；房子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-25.wav</t>
+    <t>Kanakanavu_A2-11-25.wav</t>
   </si>
   <si>
     <t>tanaha</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-26.wav</t>
+    <t>Kanakanavu_A2-11-26.wav</t>
   </si>
   <si>
     <t>tanasa mucaca</t>
@@ -5379,7 +5379,7 @@
     <t>車子（字面涵義為走路的家）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-27.wav</t>
+    <t>Kanakanavu_A2-11-27.wav</t>
   </si>
   <si>
     <t>tanasʉn</t>
@@ -5388,13 +5388,13 @@
     <t>部落</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-28.wav</t>
+    <t>Kanakanavu_A2-11-28.wav</t>
   </si>
   <si>
     <t>puraku（日語）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-29.wav</t>
+    <t>Kanakanavu_A2-11-29.wav</t>
   </si>
   <si>
     <t>taniara</t>
@@ -5403,7 +5403,7 @@
     <t>日子；日</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-30.wav</t>
+    <t>Kanakanavu_A2-11-30.wav</t>
   </si>
   <si>
     <t>taniara kakangca</t>
@@ -5412,7 +5412,7 @@
     <t>天候</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-31.wav</t>
+    <t>Kanakanavu_A2-11-31.wav</t>
   </si>
   <si>
     <t>taniarʉ</t>
@@ -5421,7 +5421,7 @@
     <t>太陽</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-32.wav</t>
+    <t>Kanakanavu_A2-11-32.wav</t>
   </si>
   <si>
     <t>taníngari</t>
@@ -5430,7 +5430,7 @@
     <t>歪；斜</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-33.wav</t>
+    <t>Kanakanavu_A2-11-33.wav</t>
   </si>
   <si>
     <t>tanuku</t>
@@ -5439,7 +5439,7 @@
     <t>杯子；杓子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-34.wav</t>
+    <t>Kanakanavu_A2-11-34.wav</t>
   </si>
   <si>
     <t>tanʉkʉ</t>
@@ -5448,7 +5448,7 @@
     <t>芋頭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-35.wav</t>
+    <t>Kanakanavu_A2-11-35.wav</t>
   </si>
   <si>
     <t>tantanau</t>
@@ -5457,7 +5457,7 @@
     <t>森林；樹多之處</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-36.wav</t>
+    <t>Kanakanavu_A2-11-36.wav</t>
   </si>
   <si>
     <t>tantanniara</t>
@@ -5466,7 +5466,7 @@
     <t>天天</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-37.wav</t>
+    <t>Kanakanavu_A2-11-37.wav</t>
   </si>
   <si>
     <t>tangria（借詞）</t>
@@ -5475,7 +5475,7 @@
     <t>朋友</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-38.wav</t>
+    <t>Kanakanavu_A2-11-38.wav</t>
   </si>
   <si>
     <t>tangtang</t>
@@ -5484,7 +5484,7 @@
     <t>南瓜</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-39.wav</t>
+    <t>Kanakanavu_A2-11-39.wav</t>
   </si>
   <si>
     <t>tangʉca</t>
@@ -5493,7 +5493,7 @@
     <t>鼻子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-40.wav</t>
+    <t>Kanakanavu_A2-11-40.wav</t>
   </si>
   <si>
     <t>tangʉrʉ́ngʉrʉ</t>
@@ -5502,7 +5502,7 @@
     <t>木耳</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-41.wav</t>
+    <t>Kanakanavu_A2-11-41.wav</t>
   </si>
   <si>
     <t>taparu</t>
@@ -5511,7 +5511,7 @@
     <t>豆類</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-42.wav</t>
+    <t>Kanakanavu_A2-11-42.wav</t>
   </si>
   <si>
     <t>tapasavuana</t>
@@ -5520,7 +5520,7 @@
     <t>醫院</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-43.wav</t>
+    <t>Kanakanavu_A2-11-43.wav</t>
   </si>
   <si>
     <t>tapasʉ</t>
@@ -5529,7 +5529,7 @@
     <t>顏色；圖紋；圖畫</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-44.wav</t>
+    <t>Kanakanavu_A2-11-44.wav</t>
   </si>
   <si>
     <t>tapau</t>
@@ -5538,7 +5538,7 @@
     <t>縫隙；間隙</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-45.wav</t>
+    <t>Kanakanavu_A2-11-45.wav</t>
   </si>
   <si>
     <t>tapi</t>
@@ -5547,7 +5547,7 @@
     <t>揹簍</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-46.wav</t>
+    <t>Kanakanavu_A2-11-46.wav</t>
   </si>
   <si>
     <t>tapinange</t>
@@ -5556,7 +5556,7 @@
     <t>鳥</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-47.wav</t>
+    <t>Kanakanavu_A2-11-47.wav</t>
   </si>
   <si>
     <t>tapininga</t>
@@ -5565,7 +5565,7 @@
     <t>庭院；院子；平坦的小區域</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-48.wav</t>
+    <t>Kanakanavu_A2-11-48.wav</t>
   </si>
   <si>
     <t>tapúnia</t>
@@ -5574,7 +5574,7 @@
     <t>白色</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-49.wav</t>
+    <t>Kanakanavu_A2-11-49.wav</t>
   </si>
   <si>
     <t>tarako</t>
@@ -5583,7 +5583,7 @@
     <t>洞；孔；洞穴</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-50.wav</t>
+    <t>Kanakanavu_A2-11-50.wav</t>
   </si>
   <si>
     <t>tarako parʉna</t>
@@ -5592,7 +5592,7 @@
     <t>岩洞</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-51.wav</t>
+    <t>Kanakanavu_A2-11-51.wav</t>
   </si>
   <si>
     <t>tarasangai</t>
@@ -5601,7 +5601,7 @@
     <t>停止；休息</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-52.wav</t>
+    <t>Kanakanavu_A2-11-52.wav</t>
   </si>
   <si>
     <t>tarikʉra</t>
@@ -5610,7 +5610,7 @@
     <t>臼</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-53.wav</t>
+    <t>Kanakanavu_A2-11-53.wav</t>
   </si>
   <si>
     <t>tarimu</t>
@@ -5619,7 +5619,7 @@
     <t>大鋤頭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-54.wav</t>
+    <t>Kanakanavu_A2-11-54.wav</t>
   </si>
   <si>
     <t>tariri</t>
@@ -5628,7 +5628,7 @@
     <t>過貓</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-55.wav</t>
+    <t>Kanakanavu_A2-11-55.wav</t>
   </si>
   <si>
     <t>tarisi</t>
@@ -5637,7 +5637,7 @@
     <t>繩索</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-56.wav</t>
+    <t>Kanakanavu_A2-11-56.wav</t>
   </si>
   <si>
     <t>tarisinata</t>
@@ -5646,7 +5646,7 @@
     <t>學校</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-57.wav</t>
+    <t>Kanakanavu_A2-11-57.wav</t>
   </si>
   <si>
     <t>tarukuka</t>
@@ -5655,7 +5655,7 @@
     <t>雞</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-58.wav</t>
+    <t>Kanakanavu_A2-11-58.wav</t>
   </si>
   <si>
     <t>tarucung</t>
@@ -5664,7 +5664,7 @@
     <t>傘</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-59.wav</t>
+    <t>Kanakanavu_A2-11-59.wav</t>
   </si>
   <si>
     <t>taru'an</t>
@@ -5673,7 +5673,7 @@
     <t>工寮；寮屋</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-60.wav</t>
+    <t>Kanakanavu_A2-11-60.wav</t>
   </si>
   <si>
     <t>tarʉkʉpa</t>
@@ -5682,7 +5682,7 @@
     <t>圍籬</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-61.wav</t>
+    <t>Kanakanavu_A2-11-61.wav</t>
   </si>
   <si>
     <t>tasini</t>
@@ -5691,7 +5691,7 @@
     <t>辣</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-62.wav</t>
+    <t>Kanakanavu_A2-11-62.wav</t>
   </si>
   <si>
     <t>tasinʉva</t>
@@ -5700,7 +5700,7 @@
     <t>窗戶</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-63.wav</t>
+    <t>Kanakanavu_A2-11-63.wav</t>
   </si>
   <si>
     <t>tassa</t>
@@ -5709,7 +5709,7 @@
     <t>二（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-64.wav</t>
+    <t>Kanakanavu_A2-11-64.wav</t>
   </si>
   <si>
     <t>tatarʉ</t>
@@ -5718,7 +5718,7 @@
     <t>床舖</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-65.wav</t>
+    <t>Kanakanavu_A2-11-65.wav</t>
   </si>
   <si>
     <t>tatia</t>
@@ -5727,7 +5727,7 @@
     <t>大</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-66.wav</t>
+    <t>Kanakanavu_A2-11-66.wav</t>
   </si>
   <si>
     <t>taturu</t>
@@ -5736,7 +5736,7 @@
     <t>三（數人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-67.wav</t>
+    <t>Kanakanavu_A2-11-67.wav</t>
   </si>
   <si>
     <t>taucʉng</t>
@@ -5745,7 +5745,7 @@
     <t>乖巧</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-68.wav</t>
+    <t>Kanakanavu_A2-11-68.wav</t>
   </si>
   <si>
     <t>Tauruu</t>
@@ -5754,7 +5754,7 @@
     <t>大陸人；外省人</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-69.wav</t>
+    <t>Kanakanavu_A2-11-69.wav</t>
   </si>
   <si>
     <t>tavara'ʉ</t>
@@ -5763,13 +5763,13 @@
     <t>知道；會；懂；可以</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-70.wav</t>
+    <t>Kanakanavu_A2-11-70.wav</t>
   </si>
   <si>
     <t>tavarʉ'ʉ</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-71.wav</t>
+    <t>Kanakanavu_A2-11-71.wav</t>
   </si>
   <si>
     <t>tavárunga</t>
@@ -5778,7 +5778,7 @@
     <t>胸部</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-72.wav</t>
+    <t>Kanakanavu_A2-11-72.wav</t>
   </si>
   <si>
     <t>tavini ramucu</t>
@@ -5787,7 +5787,7 @@
     <t>手指</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-73.wav</t>
+    <t>Kanakanavu_A2-11-73.wav</t>
   </si>
   <si>
     <t>tavukua</t>
@@ -5796,7 +5796,7 @@
     <t>腰部；掛腰帶或皮帶的地方</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-74.wav</t>
+    <t>Kanakanavu_A2-11-74.wav</t>
   </si>
   <si>
     <t>tavununga</t>
@@ -5805,7 +5805,7 @@
     <t>香菇</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-75.wav</t>
+    <t>Kanakanavu_A2-11-75.wav</t>
   </si>
   <si>
     <t>tavʉnʉvʉnʉ</t>
@@ -5814,7 +5814,7 @@
     <t>香蕉（尚未熟成的）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-76.wav</t>
+    <t>Kanakanavu_A2-11-76.wav</t>
   </si>
   <si>
     <t>ta'ainsu</t>
@@ -5823,13 +5823,13 @@
     <t>湯匙</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-77.wav</t>
+    <t>Kanakanavu_A2-11-77.wav</t>
   </si>
   <si>
     <t>ta'ensu</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-78.wav</t>
+    <t>Kanakanavu_A2-11-78.wav</t>
   </si>
   <si>
     <t>ta'anna</t>
@@ -5838,7 +5838,7 @@
     <t>蝴蝶</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-79.wav</t>
+    <t>Kanakanavu_A2-11-79.wav</t>
   </si>
   <si>
     <t>ta'i</t>
@@ -5847,7 +5847,7 @@
     <t>大便；糞便；屎</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-80.wav</t>
+    <t>Kanakanavu_A2-11-80.wav</t>
   </si>
   <si>
     <t>ta'ica</t>
@@ -5856,7 +5856,7 @@
     <t>臀部</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-81.wav</t>
+    <t>Kanakanavu_A2-11-81.wav</t>
   </si>
   <si>
     <t>ta'uici</t>
@@ -5865,13 +5865,13 @@
     <t>瘦（身材）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-82.wav</t>
+    <t>Kanakanavu_A2-11-82.wav</t>
   </si>
   <si>
     <t>細</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-83.wav</t>
+    <t>Kanakanavu_A2-11-83.wav</t>
   </si>
   <si>
     <t>ta'ʉnʉ</t>
@@ -5880,13 +5880,13 @@
     <t>椅子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-84.wav</t>
+    <t>Kanakanavu_A2-11-84.wav</t>
   </si>
   <si>
     <t>ta'ʉʉn</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-85.wav</t>
+    <t>Kanakanavu_A2-11-85.wav</t>
   </si>
   <si>
     <t>ta'ʉrʉm</t>
@@ -5895,13 +5895,13 @@
     <t>黑色</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-86.wav</t>
+    <t>Kanakanavu_A2-11-86.wav</t>
   </si>
   <si>
     <t>tee</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-87.wav</t>
+    <t>Kanakanavu_A2-11-87.wav</t>
   </si>
   <si>
     <t>tímcara</t>
@@ -5910,7 +5910,7 @@
     <t>高遠的上方</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-88.wav</t>
+    <t>Kanakanavu_A2-11-88.wav</t>
   </si>
   <si>
     <t>tikirimi</t>
@@ -5919,7 +5919,7 @@
     <t>尋找</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-89.wav</t>
+    <t>Kanakanavu_A2-11-89.wav</t>
   </si>
   <si>
     <t>tikuru</t>
@@ -5928,7 +5928,7 @@
     <t>衣服</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-90.wav</t>
+    <t>Kanakanavu_A2-11-90.wav</t>
   </si>
   <si>
     <t>tina'an</t>
@@ -5937,7 +5937,7 @@
     <t>身體；瘦肉</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-91.wav</t>
+    <t>Kanakanavu_A2-11-91.wav</t>
   </si>
   <si>
     <t>tingami（日語）</t>
@@ -5946,7 +5946,7 @@
     <t>信件</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-92.wav</t>
+    <t>Kanakanavu_A2-11-92.wav</t>
   </si>
   <si>
     <t>tingasʉ</t>
@@ -5955,7 +5955,7 @@
     <t>吃剩的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-93.wav</t>
+    <t>Kanakanavu_A2-11-93.wav</t>
   </si>
   <si>
     <t>tisikara</t>
@@ -5964,7 +5964,7 @@
     <t>裡面；內部</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-94.wav</t>
+    <t>Kanakanavu_A2-11-94.wav</t>
   </si>
   <si>
     <t>ti'ingai</t>
@@ -5973,40 +5973,40 @@
     <t>小的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-95.wav</t>
+    <t>Kanakanavu_A2-11-95.wav</t>
   </si>
   <si>
     <t>ti'inge</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-96.wav</t>
+    <t>Kanakanavu_A2-11-96.wav</t>
   </si>
   <si>
     <t>ti'ingi</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-97.wav</t>
+    <t>Kanakanavu_A2-11-97.wav</t>
   </si>
   <si>
     <t>ti'iing</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-98.wav</t>
+    <t>Kanakanavu_A2-11-98.wav</t>
   </si>
   <si>
     <t>一點；一些；少許；小</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-99.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-11-100.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-11-101.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-11-102.wav</t>
+    <t>Kanakanavu_A2-11-99.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-11-100.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-11-101.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-11-102.wav</t>
   </si>
   <si>
     <t>tomi（日語）</t>
@@ -6015,7 +6015,7 @@
     <t>麵條</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-103.wav</t>
+    <t>Kanakanavu_A2-11-103.wav</t>
   </si>
   <si>
     <t>tómarʉ</t>
@@ -6024,7 +6024,7 @@
     <t>篩；篩子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-104.wav</t>
+    <t>Kanakanavu_A2-11-104.wav</t>
   </si>
   <si>
     <t>tongingi</t>
@@ -6033,7 +6033,7 @@
     <t>老鼠</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-105.wav</t>
+    <t>Kanakanavu_A2-11-105.wav</t>
   </si>
   <si>
     <t>torʉrʉ</t>
@@ -6042,7 +6042,7 @@
     <t>咳</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-106.wav</t>
+    <t>Kanakanavu_A2-11-106.wav</t>
   </si>
   <si>
     <t>totasiarʉ</t>
@@ -6051,7 +6051,7 @@
     <t>早上</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-107.wav</t>
+    <t>Kanakanavu_A2-11-107.wav</t>
   </si>
   <si>
     <t>tota'ia</t>
@@ -6060,7 +6060,7 @@
     <t>廁所</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-108.wav</t>
+    <t>Kanakanavu_A2-11-108.wav</t>
   </si>
   <si>
     <t>to'umangʉ</t>
@@ -6069,13 +6069,13 @@
     <t>竹子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-109.wav</t>
+    <t>Kanakanavu_A2-11-109.wav</t>
   </si>
   <si>
     <t>to'umaang</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-110.wav</t>
+    <t>Kanakanavu_A2-11-110.wav</t>
   </si>
   <si>
     <t>to'urua</t>
@@ -6084,7 +6084,7 @@
     <t>前面；前方</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-111.wav</t>
+    <t>Kanakanavu_A2-11-111.wav</t>
   </si>
   <si>
     <t>tucu'u</t>
@@ -6093,7 +6093,7 @@
     <t>水滴</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-112.wav</t>
+    <t>Kanakanavu_A2-11-112.wav</t>
   </si>
   <si>
     <t>tuísua</t>
@@ -6102,7 +6102,7 @@
     <t>成為；擔任</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-113.wav</t>
+    <t>Kanakanavu_A2-11-113.wav</t>
   </si>
   <si>
     <t>tuku</t>
@@ -6111,7 +6111,7 @@
     <t>小鋤頭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-114.wav</t>
+    <t>Kanakanavu_A2-11-114.wav</t>
   </si>
   <si>
     <t>tukunu</t>
@@ -6120,7 +6120,7 @@
     <t>心臟</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-115.wav</t>
+    <t>Kanakanavu_A2-11-115.wav</t>
   </si>
   <si>
     <t>tumatacucu</t>
@@ -6129,7 +6129,7 @@
     <t>送（運送）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-116.wav</t>
+    <t>Kanakanavu_A2-11-116.wav</t>
   </si>
   <si>
     <t>tumataini</t>
@@ -6138,13 +6138,13 @@
     <t>丟棄</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-117.wav</t>
+    <t>Kanakanavu_A2-11-117.wav</t>
   </si>
   <si>
     <t>tumateni</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-118.wav</t>
+    <t>Kanakanavu_A2-11-118.wav</t>
   </si>
   <si>
     <t>tumatakʉ́takʉ</t>
@@ -6153,7 +6153,7 @@
     <t>砍除；砍草；鋤草</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-119.wav</t>
+    <t>Kanakanavu_A2-11-119.wav</t>
   </si>
   <si>
     <t>tumatang</t>
@@ -6162,7 +6162,7 @@
     <t>哭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-120.wav</t>
+    <t>Kanakanavu_A2-11-120.wav</t>
   </si>
   <si>
     <t>tumatapini</t>
@@ -6171,7 +6171,7 @@
     <t>縫補</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-121.wav</t>
+    <t>Kanakanavu_A2-11-121.wav</t>
   </si>
   <si>
     <t>tumata’isi</t>
@@ -6180,7 +6180,7 @@
     <t>編織</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-122.wav</t>
+    <t>Kanakanavu_A2-11-122.wav</t>
   </si>
   <si>
     <t>tumatimana</t>
@@ -6189,7 +6189,7 @@
     <t>聽</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-123.wav</t>
+    <t>Kanakanavu_A2-11-123.wav</t>
   </si>
   <si>
     <t>tumatini</t>
@@ -6198,7 +6198,7 @@
     <t>掛</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-124.wav</t>
+    <t>Kanakanavu_A2-11-124.wav</t>
   </si>
   <si>
     <t>tumatúturu</t>
@@ -6207,7 +6207,7 @@
     <t>教；教導；告訴</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-125.wav</t>
+    <t>Kanakanavu_A2-11-125.wav</t>
   </si>
   <si>
     <t>tungtung</t>
@@ -6216,7 +6216,7 @@
     <t>鐵鎚</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-126.wav</t>
+    <t>Kanakanavu_A2-11-126.wav</t>
   </si>
   <si>
     <t>tupuru</t>
@@ -6225,7 +6225,7 @@
     <t>坐下</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-127.wav</t>
+    <t>Kanakanavu_A2-11-127.wav</t>
   </si>
   <si>
     <t>turu</t>
@@ -6234,7 +6234,7 @@
     <t>三（數數）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-128.wav</t>
+    <t>Kanakanavu_A2-11-128.wav</t>
   </si>
   <si>
     <t>turupangʉ</t>
@@ -6243,7 +6243,7 @@
     <t>完成；結束</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-129.wav</t>
+    <t>Kanakanavu_A2-11-129.wav</t>
   </si>
   <si>
     <t>tutui</t>
@@ -6252,7 +6252,7 @@
     <t>豬</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-130.wav</t>
+    <t>Kanakanavu_A2-11-130.wav</t>
   </si>
   <si>
     <t>tʉkʉ</t>
@@ -6261,7 +6261,7 @@
     <t>耳朵</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-131.wav</t>
+    <t>Kanakanavu_A2-11-131.wav</t>
   </si>
   <si>
     <t>tʉnʉkai</t>
@@ -6270,7 +6270,7 @@
     <t>頂端（樹頂）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-132.wav</t>
+    <t>Kanakanavu_A2-11-132.wav</t>
   </si>
   <si>
     <t>tʉvʉsʉ</t>
@@ -6279,7 +6279,7 @@
     <t>甘蔗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-11-133.wav</t>
+    <t>Kanakanavu_A2-11-133.wav</t>
   </si>
   <si>
     <t>uaru</t>
@@ -6288,7 +6288,7 @@
     <t>八（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-1.wav</t>
+    <t>Kanakanavu_A2-12-1.wav</t>
   </si>
   <si>
     <t>ucani</t>
@@ -6297,13 +6297,13 @@
     <t>一（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-2.wav</t>
+    <t>Kanakanavu_A2-12-2.wav</t>
   </si>
   <si>
     <t>如果；萬一</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-3.wav</t>
+    <t>Kanakanavu_A2-12-3.wav</t>
   </si>
   <si>
     <t>umaan</t>
@@ -6312,25 +6312,25 @@
     <t>十（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-4.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-12-5.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-12-6.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-12-7.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-12-8.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-12-9.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-12-10.wav</t>
+    <t>Kanakanavu_A2-12-4.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-12-5.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-12-6.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-12-7.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-12-8.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-12-9.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-12-10.wav</t>
   </si>
   <si>
     <t>umucucu</t>
@@ -6339,7 +6339,7 @@
     <t>吸取；抽取</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-11.wav</t>
+    <t>Kanakanavu_A2-12-11.wav</t>
   </si>
   <si>
     <t>umunini</t>
@@ -6348,7 +6348,7 @@
     <t>地震</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-12.wav</t>
+    <t>Kanakanavu_A2-12-12.wav</t>
   </si>
   <si>
     <t>umu'ututu</t>
@@ -6357,7 +6357,7 @@
     <t>放屁</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-13.wav</t>
+    <t>Kanakanavu_A2-12-13.wav</t>
   </si>
   <si>
     <t>unʉmʉ</t>
@@ -6366,7 +6366,7 @@
     <t>六（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-14.wav</t>
+    <t>Kanakanavu_A2-12-14.wav</t>
   </si>
   <si>
     <t>upeni</t>
@@ -6375,13 +6375,13 @@
     <t>多少（物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-15.wav</t>
+    <t>Kanakanavu_A2-12-15.wav</t>
   </si>
   <si>
     <t>upeen</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-16.wav</t>
+    <t>Kanakanavu_A2-12-16.wav</t>
   </si>
   <si>
     <t>upitu</t>
@@ -6390,7 +6390,7 @@
     <t>七（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-17.wav</t>
+    <t>Kanakanavu_A2-12-17.wav</t>
   </si>
   <si>
     <t>urima</t>
@@ -6399,7 +6399,7 @@
     <t>五（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-18.wav</t>
+    <t>Kanakanavu_A2-12-18.wav</t>
   </si>
   <si>
     <t>urucin</t>
@@ -6408,7 +6408,7 @@
     <t>二（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-19.wav</t>
+    <t>Kanakanavu_A2-12-19.wav</t>
   </si>
   <si>
     <t>usia</t>
@@ -6417,7 +6417,7 @@
     <t>九（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-20.wav</t>
+    <t>Kanakanavu_A2-12-20.wav</t>
   </si>
   <si>
     <t>usʉ́patʉ</t>
@@ -6426,7 +6426,7 @@
     <t>四（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-21.wav</t>
+    <t>Kanakanavu_A2-12-21.wav</t>
   </si>
   <si>
     <t>uturu</t>
@@ -6435,7 +6435,7 @@
     <t>三（數物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-22.wav</t>
+    <t>Kanakanavu_A2-12-22.wav</t>
   </si>
   <si>
     <t>u'ungu</t>
@@ -6444,13 +6444,13 @@
     <t>角（動物的）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-23.wav</t>
+    <t>Kanakanavu_A2-12-23.wav</t>
   </si>
   <si>
     <t>vu'ungu</t>
   </si>
   <si>
-    <t>Kanakanavu_2-12-24.wav</t>
+    <t>Kanakanavu_A2-12-24.wav</t>
   </si>
   <si>
     <t>ʉcʉ</t>
@@ -6459,7 +6459,7 @@
     <t>雲</t>
   </si>
   <si>
-    <t>Kanakanavu_2-13-1.wav</t>
+    <t>Kanakanavu_A2-13-1.wav</t>
   </si>
   <si>
     <t>ʉrangʉ</t>
@@ -6468,7 +6468,7 @@
     <t>苧麻</t>
   </si>
   <si>
-    <t>Kanakanavu_2-13-2.wav</t>
+    <t>Kanakanavu_A2-13-2.wav</t>
   </si>
   <si>
     <t>ʉrʉna</t>
@@ -6477,7 +6477,7 @@
     <t>雪；冰</t>
   </si>
   <si>
-    <t>Kanakanavu_2-13-3.wav</t>
+    <t>Kanakanavu_A2-13-3.wav</t>
   </si>
   <si>
     <t>ʉʉ'ʉ</t>
@@ -6486,7 +6486,7 @@
     <t>好的；是的（應答別人的話）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-13-4.wav</t>
+    <t>Kanakanavu_A2-13-4.wav</t>
   </si>
   <si>
     <t>ʉ'ʉrʉ</t>
@@ -6495,7 +6495,7 @@
     <t>脖子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-13-5.wav</t>
+    <t>Kanakanavu_A2-13-5.wav</t>
   </si>
   <si>
     <t>vai</t>
@@ -6504,7 +6504,7 @@
     <t>手足</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-1.wav</t>
+    <t>Kanakanavu_A2-14-1.wav</t>
   </si>
   <si>
     <t>vakure</t>
@@ -6513,7 +6513,7 @@
     <t>山藥</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-2.wav</t>
+    <t>Kanakanavu_A2-14-2.wav</t>
   </si>
   <si>
     <t>vakʉrʉ</t>
@@ -6522,16 +6522,16 @@
     <t>傷口</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-3.wav</t>
+    <t>Kanakanavu_A2-14-3.wav</t>
   </si>
   <si>
     <t>vanai sii</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-4.wav</t>
-  </si>
-  <si>
-    <t>Kanakanavu_2-14-5.wav</t>
+    <t>Kanakanavu_A2-14-4.wav</t>
+  </si>
+  <si>
+    <t>Kanakanavu_A2-14-5.wav</t>
   </si>
   <si>
     <t>vara'ʉ</t>
@@ -6540,13 +6540,13 @@
     <t>肝臟</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-6.wav</t>
+    <t>Kanakanavu_A2-14-6.wav</t>
   </si>
   <si>
     <t>肺</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-7.wav</t>
+    <t>Kanakanavu_A2-14-7.wav</t>
   </si>
   <si>
     <t>vatu</t>
@@ -6555,7 +6555,7 @@
     <t>石頭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-8.wav</t>
+    <t>Kanakanavu_A2-14-8.wav</t>
   </si>
   <si>
     <t>vavuru</t>
@@ -6564,7 +6564,7 @@
     <t>山豬</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-9.wav</t>
+    <t>Kanakanavu_A2-14-9.wav</t>
   </si>
   <si>
     <t>vankavuka</t>
@@ -6573,7 +6573,7 @@
     <t>褲子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-10.wav</t>
+    <t>Kanakanavu_A2-14-10.wav</t>
   </si>
   <si>
     <t>vántuku</t>
@@ -6582,7 +6582,7 @@
     <t>錢；貨幣</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-11.wav</t>
+    <t>Kanakanavu_A2-14-11.wav</t>
   </si>
   <si>
     <t>viaru</t>
@@ -6591,7 +6591,7 @@
     <t>玉米</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-12.wav</t>
+    <t>Kanakanavu_A2-14-12.wav</t>
   </si>
   <si>
     <t>vina'ʉ</t>
@@ -6600,7 +6600,7 @@
     <t>小米</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-13.wav</t>
+    <t>Kanakanavu_A2-14-13.wav</t>
   </si>
   <si>
     <t>virávira</t>
@@ -6609,7 +6609,7 @@
     <t>雞冠</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-14.wav</t>
+    <t>Kanakanavu_A2-14-14.wav</t>
   </si>
   <si>
     <t>vo'in</t>
@@ -6618,7 +6618,7 @@
     <t>眼睛</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-15.wav</t>
+    <t>Kanakanavu_A2-14-15.wav</t>
   </si>
   <si>
     <t>vo'órua</t>
@@ -6627,7 +6627,7 @@
     <t>新的</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-16.wav</t>
+    <t>Kanakanavu_A2-14-16.wav</t>
   </si>
   <si>
     <t>vuanʉ</t>
@@ -6636,13 +6636,13 @@
     <t>月亮</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-17.wav</t>
+    <t>Kanakanavu_A2-14-17.wav</t>
   </si>
   <si>
     <t>vuan</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-18.wav</t>
+    <t>Kanakanavu_A2-14-18.wav</t>
   </si>
   <si>
     <t>vuku</t>
@@ -6651,7 +6651,7 @@
     <t>腰帶；皮帶</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-19.wav</t>
+    <t>Kanakanavu_A2-14-19.wav</t>
   </si>
   <si>
     <t>vunai</t>
@@ -6660,7 +6660,7 @@
     <t>蛇</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-20.wav</t>
+    <t>Kanakanavu_A2-14-20.wav</t>
   </si>
   <si>
     <t>vungavung</t>
@@ -6669,7 +6669,7 @@
     <t>花朵</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-21.wav</t>
+    <t>Kanakanavu_A2-14-21.wav</t>
   </si>
   <si>
     <t>vuru</t>
@@ -6678,7 +6678,7 @@
     <t>箭矢</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-22.wav</t>
+    <t>Kanakanavu_A2-14-22.wav</t>
   </si>
   <si>
     <t>vutúkuru</t>
@@ -6687,7 +6687,7 @@
     <t>魚</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-23.wav</t>
+    <t>Kanakanavu_A2-14-23.wav</t>
   </si>
   <si>
     <t>vʉcʉkai</t>
@@ -6696,13 +6696,13 @@
     <t>中間；之間</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-24.wav</t>
+    <t>Kanakanavu_A2-14-24.wav</t>
   </si>
   <si>
     <t>vʉcʉke</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-25.wav</t>
+    <t>Kanakanavu_A2-14-25.wav</t>
   </si>
   <si>
     <t>vʉcʉkʉ</t>
@@ -6711,7 +6711,7 @@
     <t>肚子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-26.wav</t>
+    <t>Kanakanavu_A2-14-26.wav</t>
   </si>
   <si>
     <t>vʉkʉsʉ</t>
@@ -6720,7 +6720,7 @@
     <t>頭髮</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-27.wav</t>
+    <t>Kanakanavu_A2-14-27.wav</t>
   </si>
   <si>
     <t>vʉra</t>
@@ -6729,13 +6729,13 @@
     <t>果肉；肉（質）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-28.wav</t>
+    <t>Kanakanavu_A2-14-28.wav</t>
   </si>
   <si>
     <t>米粒；穀粒</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-29.wav</t>
+    <t>Kanakanavu_A2-14-29.wav</t>
   </si>
   <si>
     <t>vʉra kʉkʉ</t>
@@ -6744,7 +6744,7 @@
     <t>小腿肚</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-30.wav</t>
+    <t>Kanakanavu_A2-14-30.wav</t>
   </si>
   <si>
     <t>vʉrʉka</t>
@@ -6753,7 +6753,7 @@
     <t>蓋子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-31.wav</t>
+    <t>Kanakanavu_A2-14-31.wav</t>
   </si>
   <si>
     <t>vʉrʉ́ngana</t>
@@ -6762,7 +6762,7 @@
     <t>深夜</t>
   </si>
   <si>
-    <t>Kanakanavu_2-14-32.wav</t>
+    <t>Kanakanavu_A2-14-32.wav</t>
   </si>
   <si>
     <t>acecu</t>
@@ -6771,7 +6771,7 @@
     <t>去了；走了</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-1.wav</t>
+    <t>Kanakanavu_A2-15-1.wav</t>
   </si>
   <si>
     <t>acipi</t>
@@ -6780,7 +6780,7 @@
     <t>腳</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-2.wav</t>
+    <t>Kanakanavu_A2-15-2.wav</t>
   </si>
   <si>
     <t>acuu</t>
@@ -6789,7 +6789,7 @@
     <t>去了；已經</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-3.wav</t>
+    <t>Kanakanavu_A2-15-3.wav</t>
   </si>
   <si>
     <t>akia (na)</t>
@@ -6798,7 +6798,7 @@
     <t>不（在）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-4.wav</t>
+    <t>Kanakanavu_A2-15-4.wav</t>
   </si>
   <si>
     <t>akia</t>
@@ -6807,7 +6807,7 @@
     <t>沒有（某物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-5.wav</t>
+    <t>Kanakanavu_A2-15-5.wav</t>
   </si>
   <si>
     <t>akuni</t>
@@ -6816,7 +6816,7 @@
     <t>不要；別</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-6.wav</t>
+    <t>Kanakanavu_A2-15-6.wav</t>
   </si>
   <si>
     <t>amácara</t>
@@ -6825,7 +6825,7 @@
     <t>上面；上方</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-7.wav</t>
+    <t>Kanakanavu_A2-15-7.wav</t>
   </si>
   <si>
     <t>amurocu</t>
@@ -6834,7 +6834,7 @@
     <t>下面；下方</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-8.wav</t>
+    <t>Kanakanavu_A2-15-8.wav</t>
   </si>
   <si>
     <t>aniacanga</t>
@@ -6843,7 +6843,7 @@
     <t>肩膀</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-9.wav</t>
+    <t>Kanakanavu_A2-15-9.wav</t>
   </si>
   <si>
     <t>aniura</t>
@@ -6852,7 +6852,7 @@
     <t>蒼蠅</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-10.wav</t>
+    <t>Kanakanavu_A2-15-10.wav</t>
   </si>
   <si>
     <t>anuka</t>
@@ -6861,7 +6861,7 @@
     <t>指甲；獸印</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-11.wav</t>
+    <t>Kanakanavu_A2-15-11.wav</t>
   </si>
   <si>
     <t>angírisi</t>
@@ -6870,7 +6870,7 @@
     <t>豬肉</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-12.wav</t>
+    <t>Kanakanavu_A2-15-12.wav</t>
   </si>
   <si>
     <t>apacʉvʉrʉ</t>
@@ -6879,7 +6879,7 @@
     <t>養育；養殖；飼養</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-13.wav</t>
+    <t>Kanakanavu_A2-15-13.wav</t>
   </si>
   <si>
     <t>apaica</t>
@@ -6888,7 +6888,7 @@
     <t>透過</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-14.wav</t>
+    <t>Kanakanavu_A2-15-14.wav</t>
   </si>
   <si>
     <t>apakʉnʉ</t>
@@ -6897,7 +6897,7 @@
     <t>餵食</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-15.wav</t>
+    <t>Kanakanavu_A2-15-15.wav</t>
   </si>
   <si>
     <t>apasavuana</t>
@@ -6906,7 +6906,7 @@
     <t>上藥；治療</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-16.wav</t>
+    <t>Kanakanavu_A2-15-16.wav</t>
   </si>
   <si>
     <t>apasuruvai</t>
@@ -6915,7 +6915,7 @@
     <t>使借去；借給</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-17.wav</t>
+    <t>Kanakanavu_A2-15-17.wav</t>
   </si>
   <si>
     <t>apasʉ</t>
@@ -6924,7 +6924,7 @@
     <t>螃蟹</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-18.wav</t>
+    <t>Kanakanavu_A2-15-18.wav</t>
   </si>
   <si>
     <t>apunanangʉ</t>
@@ -6933,7 +6933,7 @@
     <t>鬼（罵人）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-19.wav</t>
+    <t>Kanakanavu_A2-15-19.wav</t>
   </si>
   <si>
     <t>apuru</t>
@@ -6942,7 +6942,7 @@
     <t>火</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-20.wav</t>
+    <t>Kanakanavu_A2-15-20.wav</t>
   </si>
   <si>
     <t>apu'a</t>
@@ -6951,7 +6951,7 @@
     <t>使買</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-21.wav</t>
+    <t>Kanakanavu_A2-15-21.wav</t>
   </si>
   <si>
     <t>arai</t>
@@ -6960,13 +6960,13 @@
     <t>苧麻線；生麻紗；麻絲</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-22.wav</t>
+    <t>Kanakanavu_A2-15-22.wav</t>
   </si>
   <si>
     <t>素麻線</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-23.wav</t>
+    <t>Kanakanavu_A2-15-23.wav</t>
   </si>
   <si>
     <t>aramʉ</t>
@@ -6975,7 +6975,7 @@
     <t>肉</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-24.wav</t>
+    <t>Kanakanavu_A2-15-24.wav</t>
   </si>
   <si>
     <t>arasakai</t>
@@ -6984,7 +6984,7 @@
     <t>蝦</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-25.wav</t>
+    <t>Kanakanavu_A2-15-25.wav</t>
   </si>
   <si>
     <t>arating</t>
@@ -6993,7 +6993,7 @@
     <t>夾子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-26.wav</t>
+    <t>Kanakanavu_A2-15-26.wav</t>
   </si>
   <si>
     <t>aravang si'inʉva</t>
@@ -7002,7 +7002,7 @@
     <t>門口；入口</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-27.wav</t>
+    <t>Kanakanavu_A2-15-27.wav</t>
   </si>
   <si>
     <t>aricang</t>
@@ -7011,7 +7011,7 @@
     <t>樹豆</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-28.wav</t>
+    <t>Kanakanavu_A2-15-28.wav</t>
   </si>
   <si>
     <t>arupacʉ'ʉra pa</t>
@@ -7020,13 +7020,13 @@
     <t>再見</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-29.wav</t>
+    <t>Kanakanavu_A2-15-29.wav</t>
   </si>
   <si>
     <t>結婚（互相拿）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-30.wav</t>
+    <t>Kanakanavu_A2-15-30.wav</t>
   </si>
   <si>
     <t>aruvu</t>
@@ -7035,7 +7035,7 @@
     <t>屋頂</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-31.wav</t>
+    <t>Kanakanavu_A2-15-31.wav</t>
   </si>
   <si>
     <t>atatavangʉ</t>
@@ -7044,7 +7044,7 @@
     <t>蟑螂</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-32.wav</t>
+    <t>Kanakanavu_A2-15-32.wav</t>
   </si>
   <si>
     <t>au</t>
@@ -7053,7 +7053,7 @@
     <t>湯</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-33.wav</t>
+    <t>Kanakanavu_A2-15-33.wav</t>
   </si>
   <si>
     <t>avangʉ</t>
@@ -7062,7 +7062,7 @@
     <t>豬槽；船</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-34.wav</t>
+    <t>Kanakanavu_A2-15-34.wav</t>
   </si>
   <si>
     <t>avasʉ</t>
@@ -7071,7 +7071,7 @@
     <t>舌頭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-35.wav</t>
+    <t>Kanakanavu_A2-15-35.wav</t>
   </si>
   <si>
     <t>esi</t>
@@ -7080,7 +7080,7 @@
     <t>正在；在（某處）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-36.wav</t>
+    <t>Kanakanavu_A2-15-36.wav</t>
   </si>
   <si>
     <t>iciuru</t>
@@ -7089,7 +7089,7 @@
     <t>蛋；卵</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-37.wav</t>
+    <t>Kanakanavu_A2-15-37.wav</t>
   </si>
   <si>
     <t>‘inanuin</t>
@@ -7098,7 +7098,7 @@
     <t>哪一個</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-38.wav</t>
+    <t>Kanakanavu_A2-15-38.wav</t>
   </si>
   <si>
     <t>’inia</t>
@@ -7107,13 +7107,13 @@
     <t>他；他們；那裡</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-39.wav</t>
+    <t>Kanakanavu_A2-15-39.wav</t>
   </si>
   <si>
     <t>‘inmámia</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-40.wav</t>
+    <t>Kanakanavu_A2-15-40.wav</t>
   </si>
   <si>
     <t>íntasʉ</t>
@@ -7122,7 +7122,7 @@
     <t>力量</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-41.wav</t>
+    <t>Kanakanavu_A2-15-41.wav</t>
   </si>
   <si>
     <t>‘iseeng</t>
@@ -7131,7 +7131,7 @@
     <t>醫生</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-42.wav</t>
+    <t>Kanakanavu_A2-15-42.wav</t>
   </si>
   <si>
     <t>itúmuru</t>
@@ -7140,7 +7140,7 @@
     <t>多（物）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-43.wav</t>
+    <t>Kanakanavu_A2-15-43.wav</t>
   </si>
   <si>
     <t>‘uai</t>
@@ -7149,13 +7149,13 @@
     <t>黃藤</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-44.wav</t>
+    <t>Kanakanavu_A2-15-44.wav</t>
   </si>
   <si>
     <t>’ue</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-45.wav</t>
+    <t>Kanakanavu_A2-15-45.wav</t>
   </si>
   <si>
     <t>‘ucangʉ</t>
@@ -7164,7 +7164,7 @@
     <t>配偶</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-46.wav</t>
+    <t>Kanakanavu_A2-15-46.wav</t>
   </si>
   <si>
     <t>ucu</t>
@@ -7173,19 +7173,19 @@
     <t>垃圾</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-47.wav</t>
+    <t>Kanakanavu_A2-15-47.wav</t>
   </si>
   <si>
     <t>柱子（建築）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-48.wav</t>
+    <t>Kanakanavu_A2-15-48.wav</t>
   </si>
   <si>
     <t>鬼（不好的）</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-49.wav</t>
+    <t>Kanakanavu_A2-15-49.wav</t>
   </si>
   <si>
     <t>uia</t>
@@ -7194,7 +7194,7 @@
     <t>湯鍋</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-50.wav</t>
+    <t>Kanakanavu_A2-15-50.wav</t>
   </si>
   <si>
     <t>uici</t>
@@ -7203,7 +7203,7 @@
     <t>藤類</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-51.wav</t>
+    <t>Kanakanavu_A2-15-51.wav</t>
   </si>
   <si>
     <t>uma'atipi</t>
@@ -7212,7 +7212,7 @@
     <t>按；壓</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-52.wav</t>
+    <t>Kanakanavu_A2-15-52.wav</t>
   </si>
   <si>
     <t>uma'atʉpʉ</t>
@@ -7221,7 +7221,7 @@
     <t>擁抱</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-53.wav</t>
+    <t>Kanakanavu_A2-15-53.wav</t>
   </si>
   <si>
     <t>uma'a'a</t>
@@ -7230,7 +7230,7 @@
     <t>磨利</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-54.wav</t>
+    <t>Kanakanavu_A2-15-54.wav</t>
   </si>
   <si>
     <t>uma'urú'uru</t>
@@ -7239,7 +7239,7 @@
     <t>切（肉、瓜果）；剁</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-55.wav</t>
+    <t>Kanakanavu_A2-15-55.wav</t>
   </si>
   <si>
     <t>ume</t>
@@ -7248,7 +7248,7 @@
     <t>梅子</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-56.wav</t>
+    <t>Kanakanavu_A2-15-56.wav</t>
   </si>
   <si>
     <t>‘umó’uma</t>
@@ -7257,7 +7257,7 @@
     <t>田；耕作地</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-57.wav</t>
+    <t>Kanakanavu_A2-15-57.wav</t>
   </si>
   <si>
     <t>’umu’anupu</t>
@@ -7266,7 +7266,7 @@
     <t>狗獵</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-58.wav</t>
+    <t>Kanakanavu_A2-15-58.wav</t>
   </si>
   <si>
     <t>’umu’ʉcanʉ</t>
@@ -7275,7 +7275,7 @@
     <t>下雨</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-59.wav</t>
+    <t>Kanakanavu_A2-15-59.wav</t>
   </si>
   <si>
     <t>una</t>
@@ -7284,7 +7284,7 @@
     <t>有；存在動詞</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-60.wav</t>
+    <t>Kanakanavu_A2-15-60.wav</t>
   </si>
   <si>
     <t>’uru</t>
@@ -7293,7 +7293,7 @@
     <t>飯</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-61.wav</t>
+    <t>Kanakanavu_A2-15-61.wav</t>
   </si>
   <si>
     <t>’utori （日語）</t>
@@ -7302,7 +7302,7 @@
     <t>跳舞</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-62.wav</t>
+    <t>Kanakanavu_A2-15-62.wav</t>
   </si>
   <si>
     <t>’ʉcanʉ</t>
@@ -7311,7 +7311,7 @@
     <t>雨</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-63.wav</t>
+    <t>Kanakanavu_A2-15-63.wav</t>
   </si>
   <si>
     <t>ʉcʉpʉ</t>
@@ -7320,7 +7320,7 @@
     <t>夢</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-64.wav</t>
+    <t>Kanakanavu_A2-15-64.wav</t>
   </si>
   <si>
     <t>ʉmʉca</t>
@@ -7329,13 +7329,13 @@
     <t>咽喉</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-65.wav</t>
+    <t>Kanakanavu_A2-15-65.wav</t>
   </si>
   <si>
     <t>喉嚨</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-66.wav</t>
+    <t>Kanakanavu_A2-15-66.wav</t>
   </si>
   <si>
     <t>ʉna</t>
@@ -7344,7 +7344,7 @@
     <t>故事</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-67.wav</t>
+    <t>Kanakanavu_A2-15-67.wav</t>
   </si>
   <si>
     <t>’ʉnai</t>
@@ -7353,7 +7353,7 @@
     <t>土地；泥土</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-68.wav</t>
+    <t>Kanakanavu_A2-15-68.wav</t>
   </si>
   <si>
     <t>’ʉnʉ</t>
@@ -7362,7 +7362,7 @@
     <t>枕頭</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-69.wav</t>
+    <t>Kanakanavu_A2-15-69.wav</t>
   </si>
   <si>
     <t>’ʉngaa（借詞）</t>
@@ -7371,7 +7371,7 @@
     <t>種苗；秧苗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-70.wav</t>
+    <t>Kanakanavu_A2-15-70.wav</t>
   </si>
   <si>
     <t>’ʉngaa karu</t>
@@ -7380,7 +7380,7 @@
     <t>樹苗</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-71.wav</t>
+    <t>Kanakanavu_A2-15-71.wav</t>
   </si>
   <si>
     <t>’ʉrʉcan</t>
@@ -7389,7 +7389,7 @@
     <t>雷</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-72.wav</t>
+    <t>Kanakanavu_A2-15-72.wav</t>
   </si>
   <si>
     <t>’ʉrʉcʉ</t>
@@ -7398,7 +7398,7 @@
     <t>脊椎</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-73.wav</t>
+    <t>Kanakanavu_A2-15-73.wav</t>
   </si>
   <si>
     <t>’ʉvʉ</t>
@@ -7407,7 +7407,7 @@
     <t>膝蓋；煙</t>
   </si>
   <si>
-    <t>Kanakanavu_2-15-74.wav</t>
+    <t>Kanakanavu_A2-15-74.wav</t>
   </si>
   <si>
     <t>a’am</t>
